--- a/AfDD_2023_Annex_Table_Tab21.xlsx
+++ b/AfDD_2023_Annex_Table_Tab21.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab21" sheetId="1" r:id="rId1"/>
@@ -1448,10 +1448,10 @@
         <v>6.1721131261418201</v>
       </c>
       <c r="O3" s="13">
-        <v>0.175943982</v>
+        <v>175.94398200000001</v>
       </c>
       <c r="P3" s="13">
-        <v>3.1666077760000002</v>
+        <v>3166.6077759999998</v>
       </c>
       <c r="Q3" s="13">
         <v>5.2637623809085099</v>
@@ -1504,10 +1504,10 @@
         <v>0.70862002057267004</v>
       </c>
       <c r="O4" s="16">
-        <v>1.909170429</v>
+        <v>1909.170429</v>
       </c>
       <c r="P4" s="16">
-        <v>1.4804274669999999</v>
+        <v>1480.427467</v>
       </c>
       <c r="Q4" s="16">
         <v>56.324392673625901</v>
@@ -1560,10 +1560,10 @@
         <v>1.9906786054102299</v>
       </c>
       <c r="O5" s="20">
-        <v>0.62951598799999997</v>
+        <v>629.51598799999999</v>
       </c>
       <c r="P5" s="20">
-        <v>0.20414128500000001</v>
+        <v>204.14128500000001</v>
       </c>
       <c r="Q5" s="20">
         <v>75.512564741937993</v>
@@ -1616,10 +1616,10 @@
         <v>0.25975543655168998</v>
       </c>
       <c r="O6" s="20">
-        <v>0.481248395</v>
+        <v>481.24839500000002</v>
       </c>
       <c r="P6" s="20">
-        <v>0.228604691</v>
+        <v>228.604691</v>
       </c>
       <c r="Q6" s="20">
         <v>67.7954924041846</v>
@@ -1672,10 +1672,10 @@
         <v>1.0564908351282301</v>
       </c>
       <c r="O7" s="20">
-        <v>0.62635143800000004</v>
+        <v>626.35143799999901</v>
       </c>
       <c r="P7" s="20">
-        <v>0.79511373200000002</v>
+        <v>795.11373200000003</v>
       </c>
       <c r="Q7" s="20">
         <v>44.063790743462199</v>
@@ -1728,10 +1728,10 @@
         <v>1.53218768374938</v>
       </c>
       <c r="O8" s="20">
-        <v>3.3144142759999999</v>
+        <v>3314.414276</v>
       </c>
       <c r="P8" s="20">
-        <v>3.1371780669999998</v>
+        <v>3137.1780669999998</v>
       </c>
       <c r="Q8" s="20">
         <v>51.373584997138799</v>
@@ -1784,10 +1784,10 @@
         <v>2.0090083859838699</v>
       </c>
       <c r="O9" s="20">
-        <v>2.9589332320000001</v>
+        <v>2958.9332319999999</v>
       </c>
       <c r="P9" s="20">
-        <v>1.055843506</v>
+        <v>1055.8435059999999</v>
       </c>
       <c r="Q9" s="20">
         <v>73.701065466320799</v>
@@ -1840,10 +1840,10 @@
         <v>5.8970533692184999</v>
       </c>
       <c r="O10" s="20">
-        <v>7.93334830800001</v>
+        <v>7933.3483079999996</v>
       </c>
       <c r="P10" s="20">
-        <v>31.220782187000001</v>
+        <v>31220.782187000001</v>
       </c>
       <c r="Q10" s="20">
         <v>20.2618426401094</v>
@@ -1896,10 +1896,10 @@
         <v>1.8871565475627801</v>
       </c>
       <c r="O11" s="16">
-        <v>1.8022490739999999</v>
+        <v>1802.2490740000001</v>
       </c>
       <c r="P11" s="16">
-        <v>1.63793492</v>
+        <v>1637.9349199999999</v>
       </c>
       <c r="Q11" s="16">
         <v>52.388159387500501</v>
@@ -1952,10 +1952,10 @@
         <v>1.15696649004421</v>
       </c>
       <c r="O12" s="23">
-        <v>1.8869027199999999</v>
+        <v>1886.90272</v>
       </c>
       <c r="P12" s="23">
-        <v>0.81871480600000002</v>
+        <v>818.71480599999904</v>
       </c>
       <c r="Q12" s="23">
         <v>69.740186921009794</v>
@@ -2008,10 +2008,10 @@
         <v>4.4013832417468697</v>
       </c>
       <c r="O13" s="27">
-        <v>21.718077842</v>
+        <v>21718.077841999999</v>
       </c>
       <c r="P13" s="27">
-        <v>43.745348436999997</v>
+        <v>43745.348437000001</v>
       </c>
       <c r="Q13" s="27">
         <v>33.1758954220319</v>
@@ -2064,10 +2064,10 @@
         <v>1.3064348665504799</v>
       </c>
       <c r="O14" s="20">
-        <v>0.184632147</v>
+        <v>184.632147</v>
       </c>
       <c r="P14" s="20">
-        <v>0.255531552</v>
+        <v>255.531552</v>
       </c>
       <c r="Q14" s="20">
         <v>41.946245776165199</v>
@@ -2120,10 +2120,10 @@
         <v>2.8190681463912601</v>
       </c>
       <c r="O15" s="20">
-        <v>1.0502828660000001</v>
+        <v>1050.282866</v>
       </c>
       <c r="P15" s="20">
-        <v>2.5340657050000002</v>
+        <v>2534.065705</v>
       </c>
       <c r="Q15" s="20">
         <v>29.3019176342825</v>
@@ -2176,10 +2176,10 @@
         <v>7.13677025447305</v>
       </c>
       <c r="O16" s="20">
-        <v>1.2595149999999999E-2</v>
+        <v>12.59515</v>
       </c>
       <c r="P16" s="20">
-        <v>7.6850010999999996E-2</v>
+        <v>76.850011000000094</v>
       </c>
       <c r="Q16" s="20">
         <v>14.0814213526878</v>
@@ -2232,10 +2232,10 @@
         <v>4.3395059220186898</v>
       </c>
       <c r="O17" s="13">
-        <v>4.0335226000000002E-2</v>
+        <v>40.335225999999999</v>
       </c>
       <c r="P17" s="13">
-        <v>0.32888945200000003</v>
+        <v>328.88945200000001</v>
       </c>
       <c r="Q17" s="13">
         <v>10.9243039274856</v>
@@ -2288,10 +2288,10 @@
         <v>5.2838035942187602</v>
       </c>
       <c r="O18" s="13">
-        <v>0.13834977300000001</v>
+        <v>138.349773</v>
       </c>
       <c r="P18" s="13">
-        <v>1.006354513</v>
+        <v>1006.354513</v>
       </c>
       <c r="Q18" s="13">
         <v>12.0860710221889</v>
@@ -2344,10 +2344,10 @@
         <v>15.658190122718199</v>
       </c>
       <c r="O19" s="16">
-        <v>1.6029716389999999</v>
+        <v>1602.9716390000001</v>
       </c>
       <c r="P19" s="16">
-        <v>3.6356570609999999</v>
+        <v>3635.6570609999999</v>
       </c>
       <c r="Q19" s="16">
         <v>30.599069542760301</v>
@@ -2400,10 +2400,10 @@
         <v>7.8898466695302103</v>
       </c>
       <c r="O20" s="13">
-        <v>0.26995356700000001</v>
+        <v>269.95356700000002</v>
       </c>
       <c r="P20" s="13">
-        <v>0.36993280699999997</v>
+        <v>369.93280700000003</v>
       </c>
       <c r="Q20" s="13">
         <v>42.187734880568001</v>
@@ -2456,10 +2456,10 @@
         <v>4.0533306259149899</v>
       </c>
       <c r="O21" s="13">
-        <v>6.0810204E-2</v>
+        <v>60.810203999999999</v>
       </c>
       <c r="P21" s="13">
-        <v>0.72900693999999999</v>
+        <v>729.00693999999999</v>
       </c>
       <c r="Q21" s="13">
         <v>7.6992762770416698</v>
@@ -2512,10 +2512,10 @@
         <v>0.65044051290752003</v>
       </c>
       <c r="O22" s="20">
-        <v>2.21179E-4</v>
+        <v>0.22117899999999999</v>
       </c>
       <c r="P22" s="20">
-        <v>3.8620278000000001E-2</v>
+        <v>38.620277999999999</v>
       </c>
       <c r="Q22" s="20">
         <v>0.56944053360305003</v>
@@ -2568,10 +2568,10 @@
         <v>8.2127910354620006</v>
       </c>
       <c r="O23" s="27">
-        <v>3.3601517510000001</v>
+        <v>3360.1517509999999</v>
       </c>
       <c r="P23" s="27">
-        <v>8.9749083190000007</v>
+        <v>8974.9083190000001</v>
       </c>
       <c r="Q23" s="27">
         <v>27.2406598097743</v>
@@ -2624,10 +2624,10 @@
         <v>0.68883636652839997</v>
       </c>
       <c r="O24" s="20">
-        <v>1.3226241999999999E-2</v>
+        <v>13.226241999999999</v>
       </c>
       <c r="P24" s="20">
-        <v>0.10583248200000001</v>
+        <v>105.832482</v>
       </c>
       <c r="Q24" s="20">
         <v>11.109007014051301</v>
@@ -2680,10 +2680,10 @@
         <v>3.1174675984614701</v>
       </c>
       <c r="O25" s="20">
-        <v>0.33542328799999999</v>
+        <v>335.42328800000001</v>
       </c>
       <c r="P25" s="20">
-        <v>2.1411927710000001</v>
+        <v>2141.192771</v>
       </c>
       <c r="Q25" s="20">
         <v>13.543612736462499</v>
@@ -2736,10 +2736,10 @@
         <v>4.9806089469882204</v>
       </c>
       <c r="O26" s="20">
-        <v>6.2706827000000007E-2</v>
+        <v>62.706826999999997</v>
       </c>
       <c r="P26" s="20">
-        <v>0.116962344</v>
+        <v>116.962344</v>
       </c>
       <c r="Q26" s="20">
         <v>34.901272517142097</v>
@@ -2792,10 +2792,10 @@
         <v>5.0090275564606301</v>
       </c>
       <c r="O27" s="20">
-        <v>0.52555041499999999</v>
+        <v>525.55041500000004</v>
       </c>
       <c r="P27" s="20">
-        <v>4.8874141089999998</v>
+        <v>4887.4141090000003</v>
       </c>
       <c r="Q27" s="20">
         <v>9.7091051062650706</v>
@@ -2848,10 +2848,10 @@
         <v>2.22947610620492</v>
       </c>
       <c r="O28" s="20">
-        <v>1.3788717610000001</v>
+        <v>1378.8717610000001</v>
       </c>
       <c r="P28" s="20">
-        <v>7.8449728380000101</v>
+        <v>7844.9728380000097</v>
       </c>
       <c r="Q28" s="20">
         <v>14.948991672620901</v>
@@ -2904,10 +2904,10 @@
         <v>1.80817744730625</v>
       </c>
       <c r="O29" s="20">
-        <v>0.24421860500000001</v>
+        <v>244.218605</v>
       </c>
       <c r="P29" s="20">
-        <v>1.5556679950000001</v>
+        <v>1555.667995</v>
       </c>
       <c r="Q29" s="20">
         <v>13.5685550967489</v>
@@ -2960,10 +2960,10 @@
         <v>1.6776900197629101</v>
       </c>
       <c r="O30" s="20">
-        <v>0.200094939</v>
+        <v>200.09493900000001</v>
       </c>
       <c r="P30" s="20">
-        <v>1.4658018269999999</v>
+        <v>1465.801827</v>
       </c>
       <c r="Q30" s="20">
         <v>12.0112448192363</v>
@@ -3016,10 +3016,10 @@
         <v>1.8191256168290999</v>
       </c>
       <c r="O31" s="20">
-        <v>0.265454093</v>
+        <v>265.454093</v>
       </c>
       <c r="P31" s="20">
-        <v>0.360957531</v>
+        <v>360.95753100000002</v>
       </c>
       <c r="Q31" s="20">
         <v>42.3769423857307</v>
@@ -3072,10 +3072,10 @@
         <v>1.2608926341151701</v>
       </c>
       <c r="O32" s="20">
-        <v>4.3839666999999999E-2</v>
+        <v>43.839666999999999</v>
       </c>
       <c r="P32" s="20">
-        <v>0.23230936799999999</v>
+        <v>232.30936800000001</v>
       </c>
       <c r="Q32" s="20">
         <v>15.8753649093867</v>
@@ -3128,10 +3128,10 @@
         <v>1.34389306556201</v>
       </c>
       <c r="O33" s="20">
-        <v>6.9867376999999994E-2</v>
+        <v>69.867377000000005</v>
       </c>
       <c r="P33" s="20">
-        <v>1.1656125959999999</v>
+        <v>1165.6125959999999</v>
       </c>
       <c r="Q33" s="20">
         <v>5.6550796878032399</v>
@@ -3184,10 +3184,10 @@
         <v>3.5505627188709199</v>
       </c>
       <c r="O34" s="16">
-        <v>0.28432502399999998</v>
+        <v>284.32502399999998</v>
       </c>
       <c r="P34" s="16">
-        <v>0.176201845</v>
+        <v>176.20184499999999</v>
       </c>
       <c r="Q34" s="16">
         <v>61.739073904067901</v>
@@ -3240,10 +3240,10 @@
         <v>0.77978113201407995</v>
       </c>
       <c r="O35" s="20">
-        <v>0.42820265299999999</v>
+        <v>428.202653</v>
       </c>
       <c r="P35" s="20">
-        <v>3.3543016529999998</v>
+        <v>3354.301653</v>
       </c>
       <c r="Q35" s="20">
         <v>11.3206124397734</v>
@@ -3296,10 +3296,10 @@
         <v>1.6452317149270901</v>
       </c>
       <c r="O36" s="20">
-        <v>2.2085504280000001</v>
+        <v>2208.550428</v>
       </c>
       <c r="P36" s="20">
-        <v>4.6873524199999999</v>
+        <v>4687.3524200000002</v>
       </c>
       <c r="Q36" s="20">
         <v>32.026994531115498</v>
@@ -3352,10 +3352,10 @@
         <v>1.5085203813655701</v>
       </c>
       <c r="O37" s="20">
-        <v>2.619666085</v>
+        <v>2619.6660849999998</v>
       </c>
       <c r="P37" s="20">
-        <v>2.0897735339999999</v>
+        <v>2089.7735339999999</v>
       </c>
       <c r="Q37" s="20">
         <v>55.625855662977202</v>
@@ -3408,10 +3408,10 @@
         <v>2.2587516710730302</v>
       </c>
       <c r="O38" s="27">
-        <v>8.6799974039999999</v>
+        <v>8679.9974039999997</v>
       </c>
       <c r="P38" s="27">
-        <v>30.184353312999999</v>
+        <v>30184.353313</v>
       </c>
       <c r="Q38" s="27">
         <v>22.334085720884602</v>
@@ -3464,10 +3464,10 @@
         <v>2.2530999773261602</v>
       </c>
       <c r="O39" s="13">
-        <v>0.45766396799999998</v>
+        <v>457.66396800000001</v>
       </c>
       <c r="P39" s="13">
-        <v>18.489167042999998</v>
+        <v>18489.167043000001</v>
       </c>
       <c r="Q39" s="13">
         <v>2.41551723206004</v>
@@ -3520,10 +3520,10 @@
         <v>6.2754569097439399</v>
       </c>
       <c r="O40" s="20">
-        <v>0.77943134400000003</v>
+        <v>779.43134399999997</v>
       </c>
       <c r="P40" s="20">
-        <v>47.041975551999997</v>
+        <v>47041.975552000004</v>
       </c>
       <c r="Q40" s="20">
         <v>1.62987957609669</v>
@@ -3576,10 +3576,10 @@
         <v>2.4737809465992902</v>
       </c>
       <c r="O41" s="13">
-        <v>0.34221015500000002</v>
+        <v>342.21015499999999</v>
       </c>
       <c r="P41" s="13">
-        <v>3.4450904100000002</v>
+        <v>3445.0904099999998</v>
       </c>
       <c r="Q41" s="13">
         <v>9.0357274033781394</v>
@@ -3632,10 +3632,10 @@
         <v>3.9506190882448902</v>
       </c>
       <c r="O42" s="13">
-        <v>0.15327452499999999</v>
+        <v>153.27452500000001</v>
       </c>
       <c r="P42" s="13">
-        <v>1.3937731019999999</v>
+        <v>1393.7731020000001</v>
       </c>
       <c r="Q42" s="13">
         <v>9.9075505062004208</v>
@@ -3688,10 +3688,10 @@
         <v>5.0964215254201797</v>
       </c>
       <c r="O43" s="20">
-        <v>0.96053635900000001</v>
+        <v>960.53635899999995</v>
       </c>
       <c r="P43" s="20">
-        <v>26.170446698999999</v>
+        <v>26170.446699</v>
       </c>
       <c r="Q43" s="20">
         <v>3.54036695591379</v>
@@ -3744,10 +3744,10 @@
         <v>2.5043154567666401</v>
       </c>
       <c r="O44" s="20">
-        <v>0.15865757</v>
+        <v>158.65756999999999</v>
       </c>
       <c r="P44" s="20">
-        <v>10.710747422000001</v>
+        <v>10710.747422</v>
       </c>
       <c r="Q44" s="20">
         <v>1.4596711606272299</v>
@@ -3800,10 +3800,10 @@
         <v>4.67234018100896</v>
       </c>
       <c r="O45" s="27">
-        <v>2.8517739209999999</v>
+        <v>2851.773921</v>
       </c>
       <c r="P45" s="27">
-        <v>107.251200228</v>
+        <v>107251.200228</v>
       </c>
       <c r="Q45" s="27">
         <v>2.5900970823374401</v>
@@ -3856,10 +3856,10 @@
         <v>5.0285241498261604</v>
       </c>
       <c r="O46" s="20">
-        <v>0.35566524799999999</v>
+        <v>355.66524800000002</v>
       </c>
       <c r="P46" s="20">
-        <v>1.3843357329999999</v>
+        <v>1384.3357329999999</v>
       </c>
       <c r="Q46" s="20">
         <v>20.440519970028699</v>
@@ -3912,10 +3912,10 @@
         <v>5.5921378270359003</v>
       </c>
       <c r="O47" s="20">
-        <v>0.62007531000000005</v>
+        <v>620.07530999999994</v>
       </c>
       <c r="P47" s="20">
-        <v>1.1112936010000001</v>
+        <v>1111.2936010000001</v>
       </c>
       <c r="Q47" s="20">
         <v>35.814164506503602</v>
@@ -3968,10 +3968,10 @@
         <v>3.13042817730439</v>
       </c>
       <c r="O48" s="20">
-        <v>3.262821E-3</v>
+        <v>3.2628210000000002</v>
       </c>
       <c r="P48" s="20">
-        <v>0.268060505</v>
+        <v>268.06050499999998</v>
       </c>
       <c r="Q48" s="20">
         <v>1.20255823489352</v>
@@ -4024,10 +4024,10 @@
         <v>2.0300472052330698</v>
       </c>
       <c r="O49" s="20">
-        <v>1.2500823750000001</v>
+        <v>1250.082375</v>
       </c>
       <c r="P49" s="20">
-        <v>3.8100785020000001</v>
+        <v>3810.0785019999998</v>
       </c>
       <c r="Q49" s="20">
         <v>24.704399828116401</v>
@@ -4080,10 +4080,10 @@
         <v>2.5061536622001901</v>
       </c>
       <c r="O50" s="20">
-        <v>9.2320880999999994E-2</v>
+        <v>92.320881</v>
       </c>
       <c r="P50" s="20">
-        <v>0.74302622799999996</v>
+        <v>743.02622799999995</v>
       </c>
       <c r="Q50" s="20">
         <v>11.0517987080267</v>
@@ -4136,10 +4136,10 @@
         <v>4.8982141323035</v>
       </c>
       <c r="O51" s="16">
-        <v>0.51213167599999998</v>
+        <v>512.13167599999997</v>
       </c>
       <c r="P51" s="16">
-        <v>6.9044483489999999</v>
+        <v>6904.4483490000002</v>
       </c>
       <c r="Q51" s="16">
         <v>6.9052268602737898</v>
@@ -4192,10 +4192,10 @@
         <v>2.5718694257322299</v>
       </c>
       <c r="O52" s="20">
-        <v>0.17787831800000001</v>
+        <v>177.87831800000001</v>
       </c>
       <c r="P52" s="20">
-        <v>1.7085122150000001</v>
+        <v>1708.512215</v>
       </c>
       <c r="Q52" s="20">
         <v>9.4295595152883394</v>
@@ -4248,10 +4248,10 @@
         <v>0.54726324601403997</v>
       </c>
       <c r="O53" s="20">
-        <v>1.488037E-2</v>
+        <v>14.880369999999999</v>
       </c>
       <c r="P53" s="20">
-        <v>9.1249841999999998E-2</v>
+        <v>91.2498420000001</v>
       </c>
       <c r="Q53" s="20">
         <v>14.020861467797699</v>
@@ -4304,10 +4304,10 @@
         <v>0.92587019388825997</v>
       </c>
       <c r="O54" s="20">
-        <v>6.9256819999999998E-3</v>
+        <v>6.9256820000000001</v>
       </c>
       <c r="P54" s="20">
-        <v>1.029302283</v>
+        <v>1029.302283</v>
       </c>
       <c r="Q54" s="20">
         <v>0.66835505640884996</v>
@@ -4360,10 +4360,10 @@
         <v>2.43812572573693</v>
       </c>
       <c r="O55" s="20">
-        <v>0.43614869899999997</v>
+        <v>436.14869900000002</v>
       </c>
       <c r="P55" s="20">
-        <v>1.138666344</v>
+        <v>1138.666344</v>
       </c>
       <c r="Q55" s="20">
         <v>27.695233223651702</v>
@@ -4416,10 +4416,10 @@
         <v>9.68720636850502</v>
       </c>
       <c r="O56" s="20">
-        <v>0.32840032400000002</v>
+        <v>328.40032400000001</v>
       </c>
       <c r="P56" s="20">
-        <v>0.842748308</v>
+        <v>842.74830799999995</v>
       </c>
       <c r="Q56" s="20">
         <v>28.040875003131099</v>
@@ -4472,10 +4472,10 @@
         <v>8.6413274589333007</v>
       </c>
       <c r="O57" s="13">
-        <v>0.92189384600000002</v>
+        <v>921.89384600000005</v>
       </c>
       <c r="P57" s="13">
-        <v>22.176416295999999</v>
+        <v>22176.416295999999</v>
       </c>
       <c r="Q57" s="13">
         <v>3.9911744206936901</v>
@@ -4528,10 +4528,10 @@
         <v>2.80247532328772</v>
       </c>
       <c r="O58" s="20">
-        <v>0.89213699599999996</v>
+        <v>892.13699599999995</v>
       </c>
       <c r="P58" s="20">
-        <v>4.2301851660000098</v>
+        <v>4230.1851660000102</v>
       </c>
       <c r="Q58" s="20">
         <v>17.4166514284932</v>
@@ -4584,10 +4584,10 @@
         <v>5.9589887177428604</v>
       </c>
       <c r="O59" s="20">
-        <v>2.3322424000000001E-2</v>
+        <v>23.322424000000002</v>
       </c>
       <c r="P59" s="20">
-        <v>0.40025524800000001</v>
+        <v>400.25524799999999</v>
       </c>
       <c r="Q59" s="20">
         <v>5.5060560415941797</v>
@@ -4640,10 +4640,10 @@
         <v>3.3056503266361901</v>
       </c>
       <c r="O60" s="16">
-        <v>0.86410489800000001</v>
+        <v>864.10489800000005</v>
       </c>
       <c r="P60" s="16">
-        <v>2.204307434</v>
+        <v>2204.3074339999998</v>
       </c>
       <c r="Q60" s="16">
         <v>28.1613031269749</v>
@@ -4696,10 +4696,10 @@
         <v>5.4940071398932</v>
       </c>
       <c r="O61" s="27">
-        <v>6.4992298679999996</v>
+        <v>6499.2298680000004</v>
       </c>
       <c r="P61" s="27">
-        <v>48.042886054</v>
+        <v>48042.886054000002</v>
       </c>
       <c r="Q61" s="27">
         <v>11.915984112707401</v>
@@ -4752,10 +4752,10 @@
         <v>4.6121630478984104</v>
       </c>
       <c r="O62" s="33">
-        <v>43.109230785999998</v>
+        <v>43109.230786</v>
       </c>
       <c r="P62" s="33">
-        <v>238.198696351</v>
+        <v>238198.69635099999</v>
       </c>
       <c r="Q62" s="33">
         <v>15.324570204879199</v>
@@ -4808,10 +4808,10 @@
         <v>8.28282866806531</v>
       </c>
       <c r="O63" s="33">
-        <v>4997.7275583869996</v>
+        <v>4997727.5583870001</v>
       </c>
       <c r="P63" s="33">
-        <v>3507.8633168649999</v>
+        <v>3507863.3168649999</v>
       </c>
       <c r="Q63" s="33">
         <v>58.758146631863902</v>
@@ -4864,10 +4864,10 @@
         <v>35.099892126932801</v>
       </c>
       <c r="O64" s="37">
-        <v>215.02154107999999</v>
+        <v>215021.54108</v>
       </c>
       <c r="P64" s="37">
-        <v>303.55142772599999</v>
+        <v>303551.42772600002</v>
       </c>
       <c r="Q64" s="37">
         <v>41.464085869165402</v>
@@ -4920,10 +4920,10 @@
         <v>6.5298597464380297</v>
       </c>
       <c r="O65" s="40">
-        <v>1361.8638940149999</v>
+        <v>1361863.894015</v>
       </c>
       <c r="P65" s="40">
-        <v>899.70431381900005</v>
+        <v>899704.31381900003</v>
       </c>
       <c r="Q65" s="40">
         <v>60.217679453467198</v>
@@ -4976,10 +4976,10 @@
         <v>8.1587867675672001</v>
       </c>
       <c r="O66" s="43">
-        <v>5040.8367891730004</v>
+        <v>5040836.7891729996</v>
       </c>
       <c r="P66" s="43">
-        <v>3746.0620132159902</v>
+        <v>3746062.0132159898</v>
       </c>
       <c r="Q66" s="43">
         <v>57.367643608260202</v>
@@ -5032,10 +5032,10 @@
         <v>4.4169476431521604</v>
       </c>
       <c r="O67" s="40">
-        <v>14.200044027000001</v>
+        <v>14200.044027</v>
       </c>
       <c r="P67" s="40">
-        <v>93.865705788</v>
+        <v>93865.705788000007</v>
       </c>
       <c r="Q67" s="40">
         <v>13.1401892378569</v>
@@ -5088,10 +5088,10 @@
         <v>5.2378803199064601</v>
       </c>
       <c r="O68" s="40">
-        <v>9.8455080810000002</v>
+        <v>9845.5080809999999</v>
       </c>
       <c r="P68" s="40">
-        <v>142.79719775999999</v>
+        <v>142797.19776000001</v>
       </c>
       <c r="Q68" s="40">
         <v>6.4500350847131598</v>
@@ -5144,10 +5144,10 @@
         <v>1.9237679730035799</v>
       </c>
       <c r="O69" s="40">
-        <v>6.9414995380000004</v>
+        <v>6941.499538</v>
       </c>
       <c r="P69" s="40">
-        <v>15.41478972</v>
+        <v>15414.789720000001</v>
       </c>
       <c r="Q69" s="40">
         <v>31.0494262169024</v>
@@ -5200,10 +5200,10 @@
         <v>7.4897867978073398</v>
       </c>
       <c r="O70" s="40">
-        <v>3.801549826</v>
+        <v>3801.5498259999999</v>
       </c>
       <c r="P70" s="40">
-        <v>12.502473626</v>
+        <v>12502.473626000001</v>
       </c>
       <c r="Q70" s="40">
         <v>23.3166361493038</v>
@@ -5256,10 +5256,10 @@
         <v>5.4940071398932</v>
       </c>
       <c r="O71" s="40">
-        <v>6.4992298679999996</v>
+        <v>6499.2298680000004</v>
       </c>
       <c r="P71" s="40">
-        <v>48.042886054</v>
+        <v>48042.886054000002</v>
       </c>
       <c r="Q71" s="40">
         <v>11.915984112707401</v>
@@ -5312,10 +5312,10 @@
         <v>2.5098437321506801</v>
       </c>
       <c r="O72" s="40">
-        <v>5.7046134300000002</v>
+        <v>5704.6134300000003</v>
       </c>
       <c r="P72" s="40">
-        <v>21.776431689999999</v>
+        <v>21776.431690000001</v>
       </c>
       <c r="Q72" s="40">
         <v>20.758356915066301</v>
@@ -5368,10 +5368,10 @@
         <v>4.6557241228146102</v>
       </c>
       <c r="O73" s="40">
-        <v>26.030979362</v>
+        <v>26030.979361999998</v>
       </c>
       <c r="P73" s="40">
-        <v>55.427969589999996</v>
+        <v>55427.969590000001</v>
       </c>
       <c r="Q73" s="40">
         <v>31.955947992084798</v>
@@ -5424,10 +5424,10 @@
         <v>3.5270604916799</v>
       </c>
       <c r="O74" s="40">
-        <v>2.0723425770000001</v>
+        <v>2072.3425769999999</v>
       </c>
       <c r="P74" s="40">
-        <v>60.209224675999998</v>
+        <v>60209.224675999998</v>
       </c>
       <c r="Q74" s="40">
         <v>3.3273770529597302</v>
@@ -5480,10 +5480,10 @@
         <v>3.5805262092386201</v>
       </c>
       <c r="O75" s="43">
-        <v>3.7786761950000001</v>
+        <v>3778.676195</v>
       </c>
       <c r="P75" s="43">
-        <v>7.0716492750000004</v>
+        <v>7071.6492749999998</v>
       </c>
       <c r="Q75" s="43">
         <v>34.825464042047798</v>
@@ -5536,10 +5536,10 @@
         <v>5.8949613017966396</v>
       </c>
       <c r="O76" s="40">
-        <v>643.14336690000005</v>
+        <v>643143.36690000002</v>
       </c>
       <c r="P76" s="40">
-        <v>191.20163106999999</v>
+        <v>191201.63107</v>
       </c>
       <c r="Q76" s="40">
         <v>77.0836246953955</v>
@@ -5592,10 +5592,10 @@
         <v>18.4546380194469</v>
       </c>
       <c r="O77" s="40">
-        <v>41.586898677000001</v>
+        <v>41586.898676999997</v>
       </c>
       <c r="P77" s="40">
-        <v>172.38537576100001</v>
+        <v>172385.375761</v>
       </c>
       <c r="Q77" s="40">
         <v>19.435648280240201</v>
@@ -5648,10 +5648,10 @@
         <v>4.5746624302206698</v>
       </c>
       <c r="O78" s="40">
-        <v>1875.645399857</v>
+        <v>1875645.399857</v>
       </c>
       <c r="P78" s="40">
-        <v>649.59606862500004</v>
+        <v>649596.06862499996</v>
       </c>
       <c r="Q78" s="40">
         <v>74.275883049889401</v>
@@ -5704,13 +5704,13 @@
         <v>8.7394703919694301</v>
       </c>
       <c r="O79" s="43">
-        <v>3128.2252881149998</v>
+        <v>3128225.2881149999</v>
       </c>
       <c r="P79" s="43">
-        <v>2196.8437538920002</v>
+        <v>2196843.7538919998</v>
       </c>
       <c r="Q79" s="43">
-        <v>58.745253130764802</v>
+        <v>58.745253130764702</v>
       </c>
       <c r="R79" s="44">
         <v>27.636831682715599</v>
@@ -5760,10 +5760,10 @@
         <v>5.70584195954011</v>
       </c>
       <c r="O80" s="40">
-        <v>2.5604352459999999</v>
+        <v>2560.435246</v>
       </c>
       <c r="P80" s="40">
-        <v>51.105238339000003</v>
+        <v>51105.238339000003</v>
       </c>
       <c r="Q80" s="40">
         <v>4.7710856399567501</v>
@@ -5816,10 +5816,10 @@
         <v>5.4986135027427903</v>
       </c>
       <c r="O81" s="40">
-        <v>196.450465522</v>
+        <v>196450.46552200001</v>
       </c>
       <c r="P81" s="40">
-        <v>197.44577514400001</v>
+        <v>197445.77514400001</v>
       </c>
       <c r="Q81" s="40">
         <v>49.8736584004563</v>
@@ -5872,10 +5872,10 @@
         <v>4.3207769132954601</v>
       </c>
       <c r="O82" s="40">
-        <v>40.54879554</v>
+        <v>40548.795539999999</v>
       </c>
       <c r="P82" s="40">
-        <v>187.09345801200001</v>
+        <v>187093.45801199999</v>
       </c>
       <c r="Q82" s="40">
         <v>17.812508401801399</v>
@@ -5928,10 +5928,10 @@
         <v>8.4475458613936603</v>
       </c>
       <c r="O83" s="43">
-        <v>4801.2770928649998</v>
+        <v>4801277.0928649995</v>
       </c>
       <c r="P83" s="43">
-        <v>3310.4175417209999</v>
+        <v>3310417.5417209999</v>
       </c>
       <c r="Q83" s="43">
         <v>59.189569000707898</v>
@@ -5984,10 +5984,10 @@
         <v>3.7995058840706601</v>
       </c>
       <c r="O84" s="40">
-        <v>12.845347861</v>
+        <v>12845.347861</v>
       </c>
       <c r="P84" s="40">
-        <v>31.205472985</v>
+        <v>31205.472985</v>
       </c>
       <c r="Q84" s="40">
         <v>29.160291713761399</v>
@@ -6040,10 +6040,10 @@
         <v>4.0814907183634199</v>
       </c>
       <c r="O85" s="40">
-        <v>6.4173836450000001</v>
+        <v>6417.3836449999999</v>
       </c>
       <c r="P85" s="40">
-        <v>4.5126496019999998</v>
+        <v>4512.6496020000004</v>
       </c>
       <c r="Q85" s="40">
         <v>58.713303976100903</v>
@@ -6096,10 +6096,10 @@
         <v>4.8290781019646598</v>
       </c>
       <c r="O86" s="40">
-        <v>16.545522424000001</v>
+        <v>16545.522423999999</v>
       </c>
       <c r="P86" s="40">
-        <v>166.99402885399999</v>
+        <v>166994.028854</v>
       </c>
       <c r="Q86" s="40">
         <v>9.0146904625146203</v>
@@ -6152,10 +6152,10 @@
         <v>5.6838053761248597</v>
       </c>
       <c r="O87" s="40">
-        <v>592.28288664399997</v>
+        <v>592282.88664399995</v>
       </c>
       <c r="P87" s="40">
-        <v>246.48290108899999</v>
+        <v>246482.90108899999</v>
       </c>
       <c r="Q87" s="40">
         <v>70.6136200720359</v>
@@ -6208,10 +6208,10 @@
         <v>4.7549924672736301</v>
       </c>
       <c r="O88" s="40">
-        <v>13.674520834000001</v>
+        <v>13674.520834000001</v>
       </c>
       <c r="P88" s="40">
-        <v>39.766885144</v>
+        <v>39766.885144</v>
       </c>
       <c r="Q88" s="40">
         <v>25.5878762613943</v>
@@ -6264,10 +6264,10 @@
         <v>12.936290830431499</v>
       </c>
       <c r="O89" s="40">
-        <v>1249.8930858020001</v>
+        <v>1249893.085802</v>
       </c>
       <c r="P89" s="40">
-        <v>1070.216208561</v>
+        <v>1070216.2085609999</v>
       </c>
       <c r="Q89" s="40">
         <v>53.8721640760103</v>
@@ -6320,10 +6320,10 @@
         <v>7.0379688328277004</v>
       </c>
       <c r="O90" s="43">
-        <v>3148.6461731949998</v>
+        <v>3148646.1731949998</v>
       </c>
       <c r="P90" s="43">
-        <v>2185.1273654769998</v>
+        <v>2185127.3654769999</v>
       </c>
       <c r="Q90" s="43">
         <v>59.032243314532401</v>
@@ -6376,10 +6376,10 @@
         <v>3.5660624909000198</v>
       </c>
       <c r="O91" s="40">
-        <v>19.263287217999999</v>
+        <v>19263.287218000001</v>
       </c>
       <c r="P91" s="40">
-        <v>50.219912323999999</v>
+        <v>50219.912323999997</v>
       </c>
       <c r="Q91" s="40">
         <v>27.7236617556105</v>
@@ -6432,10 +6432,10 @@
         <v>3.3238563142768198</v>
       </c>
       <c r="O92" s="40">
-        <v>67.489435309000001</v>
+        <v>67489.435308999993</v>
       </c>
       <c r="P92" s="40">
-        <v>15.834234252</v>
+        <v>15834.234252</v>
       </c>
       <c r="Q92" s="40">
         <v>80.996715176582597</v>
@@ -6488,10 +6488,10 @@
         <v>1.69814760895449</v>
       </c>
       <c r="O93" s="40">
-        <v>0.27552521800000002</v>
+        <v>275.525218</v>
       </c>
       <c r="P93" s="40">
-        <v>2.2018743019999998</v>
+        <v>2201.8743020000002</v>
       </c>
       <c r="Q93" s="40">
         <v>11.121549664302799</v>
@@ -6544,13 +6544,13 @@
         <v>11.7227335975511</v>
       </c>
       <c r="O94" s="40">
-        <v>147.29835934299999</v>
+        <v>147298.35934299999</v>
       </c>
       <c r="P94" s="40">
-        <v>69.956566806999902</v>
+        <v>69956.566807000097</v>
       </c>
       <c r="Q94" s="40">
-        <v>67.799778791345105</v>
+        <v>67.799778791345005</v>
       </c>
       <c r="R94" s="41">
         <v>112.586596239001</v>
@@ -6600,10 +6600,10 @@
         <v>2.9278872696908902</v>
       </c>
       <c r="O95" s="40">
-        <v>12.652620517000001</v>
+        <v>12652.620516999999</v>
       </c>
       <c r="P95" s="40">
-        <v>16.433263188000002</v>
+        <v>16433.263188000001</v>
       </c>
       <c r="Q95" s="40">
         <v>43.5008977046311</v>
@@ -6656,10 +6656,10 @@
         <v>2.8532165885684702</v>
       </c>
       <c r="O96" s="43">
-        <v>44.691442842999997</v>
+        <v>44691.442842999997</v>
       </c>
       <c r="P96" s="43">
-        <v>24.645681942</v>
+        <v>24645.681941999999</v>
       </c>
       <c r="Q96" s="43">
         <v>64.4552870941489</v>
@@ -6712,10 +6712,10 @@
         <v>4.4426642775802296</v>
       </c>
       <c r="O97" s="40">
-        <v>24.991521315</v>
+        <v>24991.521315000002</v>
       </c>
       <c r="P97" s="40">
-        <v>85.620467046000002</v>
+        <v>85620.467046000005</v>
       </c>
       <c r="Q97" s="40">
         <v>22.593863183650701</v>
@@ -6768,10 +6768,10 @@
         <v>6.8139165092121798</v>
       </c>
       <c r="O98" s="40">
-        <v>117.42490314</v>
+        <v>117424.90313999999</v>
       </c>
       <c r="P98" s="40">
-        <v>51.467600703999999</v>
+        <v>51467.600703999997</v>
       </c>
       <c r="Q98" s="40">
         <v>69.526415008010801</v>
@@ -6824,10 +6824,10 @@
         <v>4.3862824685502897</v>
       </c>
       <c r="O99" s="43">
-        <v>18.440119512999999</v>
+        <v>18440.119513000001</v>
       </c>
       <c r="P99" s="43">
-        <v>22.7021838</v>
+        <v>22702.183799999999</v>
       </c>
       <c r="Q99" s="43">
         <v>44.820338260384602</v>

--- a/AfDD_2023_Annex_Table_Tab21.xlsx
+++ b/AfDD_2023_Annex_Table_Tab21.xlsx
@@ -1,29 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC105CE4-96DC-4117-9EA5-3586D7C9B347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41535114-2576-4473-880A-951640DE5FCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab21" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab21'!$A$2:$R$99</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab21'!$A$1:$R$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab21'!$A$2:$R$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab21'!$A$1:$R$98</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="181">
   <si>
     <t>Table 21: Global and regional trade</t>
   </si>
@@ -349,7 +361,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
+    <t>Cabo Verde*</t>
   </si>
   <si>
     <t>CIV</t>
@@ -538,7 +550,7 @@
     <t>ROW, Fragile States</t>
   </si>
   <si>
-    <t>Extremely Fragile States</t>
+    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
   </si>
   <si>
     <t>Note: *Resource-rich countries; ".." indicates data not available or not applicable.</t>
@@ -548,9 +560,6 @@
   </si>
   <si>
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
-  </si>
-  <si>
-    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
   </si>
   <si>
     <t>Source: Author's calculations based on BACI International Trade Database at the Product-Level from CEPII (updated April 21, 2022).</t>
@@ -574,7 +583,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
@@ -885,23 +894,22 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -925,6 +933,9 @@
     <xf numFmtId="165" fontId="10" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="37" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -934,10 +945,10 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -946,7 +957,10 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -955,10 +969,13 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -967,7 +984,10 @@
     <xf numFmtId="165" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -976,7 +996,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -985,10 +1005,13 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -997,7 +1020,10 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1006,7 +1032,10 @@
     <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1015,19 +1044,18 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
@@ -1066,7 +1094,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1078,7 +1106,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1125,6 +1153,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1160,6 +1205,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1311,23 +1373,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE18668-FC0E-4CC3-9FF2-519C90D9EA6C}">
+  <sheetPr codeName="Sheet12">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R114"/>
+  <dimension ref="A1:R113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="13.26953125" style="50" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="13.26953125" style="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1349,119 +1410,119 @@
       <c r="R1" s="4"/>
     </row>
     <row r="2" spans="1:18" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>0.51215017004456997</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>0.31720789688501999</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>0.61390135622387998</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>60.5243565714986</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <v>10.6066153836762</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <v>2.0607690227897102</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="12">
         <v>6.2644212253868297</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="12">
         <v>5.3048841613625397</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="12">
         <v>6.7981258205112898</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="12">
         <v>23.789616995173901</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="12">
         <v>29.1567219241035</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="13">
         <v>6.1721131261418201</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="14">
         <v>175.94398200000001</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="14">
         <v>3166.6077759999998</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="12">
         <v>5.2637623809085099</v>
       </c>
-      <c r="R3" s="14">
-        <v>36.0568931630187</v>
+      <c r="R3" s="13">
+        <v>36.136607578279097</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -1503,21 +1564,21 @@
       <c r="N4" s="17">
         <v>0.70862002057267004</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="18">
         <v>1909.170429</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="18">
         <v>1480.427467</v>
       </c>
       <c r="Q4" s="16">
         <v>56.324392673625901</v>
       </c>
       <c r="R4" s="17">
-        <v>31.355843828163401</v>
+        <v>32.213976875306997</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="19" t="s">
@@ -1559,21 +1620,21 @@
       <c r="N5" s="21">
         <v>1.9906786054102299</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="22">
         <v>629.51598799999999</v>
       </c>
-      <c r="P5" s="20">
+      <c r="P5" s="22">
         <v>204.14128500000001</v>
       </c>
       <c r="Q5" s="20">
         <v>75.512564741937993</v>
       </c>
       <c r="R5" s="21">
-        <v>45.022187525339199</v>
+        <v>44.914815304233898</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -1615,21 +1676,21 @@
       <c r="N6" s="21">
         <v>0.25975543655168998</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="22">
         <v>481.24839500000002</v>
       </c>
-      <c r="P6" s="20">
+      <c r="P6" s="22">
         <v>228.604691</v>
       </c>
       <c r="Q6" s="20">
         <v>67.7954924041846</v>
       </c>
       <c r="R6" s="21">
-        <v>40.6819537823215</v>
+        <v>40.836271755952097</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="19" t="s">
@@ -1671,21 +1732,21 @@
       <c r="N7" s="21">
         <v>1.0564908351282301</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7" s="22">
         <v>626.35143799999901</v>
       </c>
-      <c r="P7" s="20">
+      <c r="P7" s="22">
         <v>795.11373200000003</v>
       </c>
       <c r="Q7" s="20">
         <v>44.063790743462199</v>
       </c>
       <c r="R7" s="21">
-        <v>8.3852565753479702</v>
+        <v>8.1544356528926194</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="19" t="s">
@@ -1727,21 +1788,21 @@
       <c r="N8" s="21">
         <v>1.53218768374938</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="22">
         <v>3314.414276</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="22">
         <v>3137.1780669999998</v>
       </c>
       <c r="Q8" s="20">
         <v>51.373584997138799</v>
       </c>
       <c r="R8" s="21">
-        <v>31.149051739795802</v>
+        <v>30.867274241489199</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="19" t="s">
@@ -1783,21 +1844,21 @@
       <c r="N9" s="21">
         <v>2.0090083859838699</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9" s="22">
         <v>2958.9332319999999</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9" s="22">
         <v>1055.8435059999999</v>
       </c>
       <c r="Q9" s="20">
         <v>73.701065466320799</v>
       </c>
       <c r="R9" s="21">
-        <v>33.453141205440602</v>
+        <v>33.694253391861402</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -1839,21 +1900,21 @@
       <c r="N10" s="21">
         <v>5.8970533692184999</v>
       </c>
-      <c r="O10" s="20">
+      <c r="O10" s="22">
         <v>7933.3483079999996</v>
       </c>
-      <c r="P10" s="20">
+      <c r="P10" s="22">
         <v>31220.782187000001</v>
       </c>
       <c r="Q10" s="20">
         <v>20.2618426401094</v>
       </c>
       <c r="R10" s="21">
-        <v>27.778032357828899</v>
+        <v>27.600309236274299</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="19" t="s">
@@ -1895,10 +1956,10 @@
       <c r="N11" s="17">
         <v>1.8871565475627801</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O11" s="18">
         <v>1802.2490740000001</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="18">
         <v>1637.9349199999999</v>
       </c>
       <c r="Q11" s="16">
@@ -1909,119 +1970,119 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="24">
         <v>36.354441896880601</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="24">
         <v>25.332804262432099</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="24">
         <v>36.425404565772503</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="24">
         <v>4.4941894054787603</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="24">
         <v>8.4547259076653098</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="25">
         <v>0.86189451705888998</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="24">
         <v>56.689418630392197</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="24">
         <v>52.538130156968101</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="24">
         <v>56.747793122787797</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="24">
         <v>10.8540120297705</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="24">
         <v>4.9096457398734596</v>
       </c>
-      <c r="N12" s="24">
+      <c r="N12" s="25">
         <v>1.15696649004421</v>
       </c>
-      <c r="O12" s="23">
+      <c r="O12" s="26">
         <v>1886.90272</v>
       </c>
-      <c r="P12" s="23">
+      <c r="P12" s="26">
         <v>818.71480599999904</v>
       </c>
-      <c r="Q12" s="23">
+      <c r="Q12" s="24">
         <v>69.740186921009794</v>
       </c>
-      <c r="R12" s="24">
-        <v>22.739579708657999</v>
+      <c r="R12" s="25">
+        <v>22.704957336398699</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="29">
         <v>18.260800071717799</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="29">
         <v>15.705824668213101</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="29">
         <v>20.298181474680099</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="29">
         <v>18.0967806759853</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="29">
         <v>16.384912564542098</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="30">
         <v>7.2530643531703198</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="29">
         <v>23.980502071135</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="29">
         <v>20.962563753239401</v>
       </c>
-      <c r="K13" s="27">
+      <c r="K13" s="29">
         <v>26.843819636822001</v>
       </c>
-      <c r="L13" s="27">
+      <c r="L13" s="29">
         <v>17.438094015512501</v>
       </c>
-      <c r="M13" s="27">
+      <c r="M13" s="29">
         <v>20.3560827157762</v>
       </c>
-      <c r="N13" s="28">
+      <c r="N13" s="30">
         <v>4.4013832417468697</v>
       </c>
-      <c r="O13" s="27">
+      <c r="O13" s="31">
         <v>21718.077841999999</v>
       </c>
-      <c r="P13" s="27">
+      <c r="P13" s="31">
         <v>43745.348437000001</v>
       </c>
-      <c r="Q13" s="27">
+      <c r="Q13" s="29">
         <v>33.1758954220319</v>
       </c>
-      <c r="R13" s="28">
-        <v>30.0875666786316</v>
+      <c r="R13" s="30">
+        <v>30.0025938328953</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -2031,7 +2092,7 @@
         <v>38.783204551661498</v>
       </c>
       <c r="D14" s="20">
-        <v>11.031737519997099</v>
+        <v>11.031737519997</v>
       </c>
       <c r="E14" s="20">
         <v>38.974515524587297</v>
@@ -2063,10 +2124,10 @@
       <c r="N14" s="21">
         <v>1.3064348665504799</v>
       </c>
-      <c r="O14" s="20">
+      <c r="O14" s="22">
         <v>184.632147</v>
       </c>
-      <c r="P14" s="20">
+      <c r="P14" s="22">
         <v>255.531552</v>
       </c>
       <c r="Q14" s="20">
@@ -2077,7 +2138,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -2119,10 +2180,10 @@
       <c r="N15" s="21">
         <v>2.8190681463912601</v>
       </c>
-      <c r="O15" s="20">
+      <c r="O15" s="22">
         <v>1050.282866</v>
       </c>
-      <c r="P15" s="20">
+      <c r="P15" s="22">
         <v>2534.065705</v>
       </c>
       <c r="Q15" s="20">
@@ -2133,7 +2194,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -2175,133 +2236,133 @@
       <c r="N16" s="21">
         <v>7.13677025447305</v>
       </c>
-      <c r="O16" s="20">
+      <c r="O16" s="22">
         <v>12.59515</v>
       </c>
-      <c r="P16" s="20">
+      <c r="P16" s="22">
         <v>76.850011000000094</v>
       </c>
       <c r="Q16" s="20">
         <v>14.0814213526878</v>
       </c>
       <c r="R16" s="21">
-        <v>13.958642229302701</v>
+        <v>13.9559799822591</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>0.32313826532313</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <v>7.0844398642199999E-3</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <v>0.36172067560427001</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <v>24.4750132685386</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="12">
         <v>35.774680966752499</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="13">
         <v>0.22476482236681999</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="12">
         <v>6.8738057578311897</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="12">
         <v>2.3766003966989999E-2</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="12">
         <v>7.3449304934474204</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="12">
         <v>29.436457605352899</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="12">
         <v>22.512600577539299</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="13">
         <v>4.3395059220186898</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="14">
         <v>40.335225999999999</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="14">
         <v>328.88945200000001</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="Q17" s="12">
         <v>10.9243039274856</v>
       </c>
-      <c r="R17" s="14">
+      <c r="R17" s="13">
         <v>27.322427893802899</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>4.4627158334260697</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <v>3.6128945086967899</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>7.05451053216016</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <v>38.604977387159998</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="12">
         <v>15.7643106746689</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="13">
         <v>1.6872932864714301</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="12">
         <v>3.2534235058307899</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="12">
         <v>2.1998024919604902</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="12">
         <v>14.311916412694501</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="12">
         <v>21.621792823779</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="12">
         <v>27.5282289035468</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N18" s="13">
         <v>5.2838035942187602</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="14">
         <v>138.349773</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="14">
         <v>1006.354513</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="Q18" s="12">
         <v>12.0860710221889</v>
       </c>
-      <c r="R18" s="14">
-        <v>54.927443023845498</v>
+      <c r="R18" s="13">
+        <v>54.935531708969997</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B19" s="19" t="s">
@@ -2343,10 +2404,10 @@
       <c r="N19" s="17">
         <v>15.658190122718199</v>
       </c>
-      <c r="O19" s="16">
+      <c r="O19" s="18">
         <v>1602.9716390000001</v>
       </c>
-      <c r="P19" s="16">
+      <c r="P19" s="18">
         <v>3635.6570609999999</v>
       </c>
       <c r="Q19" s="16">
@@ -2357,119 +2418,119 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>5.2875616512760001E-2</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <v>5.2875616512760001E-2</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <v>0.40309286520427001</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <v>38.190723659789597</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="12">
         <v>29.556784981842601</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="13">
         <v>4.3143375588180799</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="12">
         <v>0.94668762666603001</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="12">
         <v>0.94668762666603001</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="12">
         <v>33.905363097132302</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="12">
         <v>10.1481677080947</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="12">
         <v>28.96881229772</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="13">
         <v>7.8898466695302103</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="14">
         <v>269.95356700000002</v>
       </c>
-      <c r="P20" s="13">
+      <c r="P20" s="14">
         <v>369.93280700000003</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="Q20" s="12">
         <v>42.187734880568001</v>
       </c>
-      <c r="R20" s="14">
-        <v>36.0270954016895</v>
+      <c r="R20" s="13">
+        <v>35.751335689849597</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>0.41214972367329</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <v>0.41214972367329</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="12">
         <v>0.99476572205517</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="12">
         <v>64.842872878785201</v>
       </c>
-      <c r="G21" s="13">
-        <v>7.9846016022614403</v>
-      </c>
-      <c r="H21" s="14">
+      <c r="G21" s="12">
+        <v>7.9846016022614297</v>
+      </c>
+      <c r="H21" s="13">
         <v>1.65319017979803</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="12">
         <v>10.2829493212716</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="12">
         <v>10.2829493212716</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="12">
         <v>15.297486428452</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="12">
         <v>18.804213882693599</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="12">
         <v>34.065937026713101</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N21" s="13">
         <v>4.0533306259149899</v>
       </c>
-      <c r="O21" s="13">
+      <c r="O21" s="14">
         <v>60.810203999999999</v>
       </c>
-      <c r="P21" s="13">
+      <c r="P21" s="14">
         <v>729.00693999999999</v>
       </c>
-      <c r="Q21" s="13">
+      <c r="Q21" s="12">
         <v>7.6992762770416698</v>
       </c>
-      <c r="R21" s="14">
-        <v>34.603495429430403</v>
+      <c r="R21" s="13">
+        <v>36.9710196974371</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="10" t="s">
         <v>57</v>
       </c>
       <c r="B22" s="19" t="s">
@@ -2511,77 +2572,77 @@
       <c r="N22" s="21">
         <v>0.65044051290752003</v>
       </c>
-      <c r="O22" s="20">
+      <c r="O22" s="22">
         <v>0.22117899999999999</v>
       </c>
-      <c r="P22" s="20">
+      <c r="P22" s="22">
         <v>38.620277999999999</v>
       </c>
       <c r="Q22" s="20">
         <v>0.56944053360305003</v>
       </c>
       <c r="R22" s="21">
-        <v>10.335632446845301</v>
+        <v>10.8389991392566</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="29">
         <v>12.339223860354</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="29">
         <v>1.05696595923751</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="29">
         <v>13.304948396453</v>
       </c>
-      <c r="F23" s="27">
+      <c r="F23" s="29">
         <v>41.973723649563603</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="29">
         <v>13.7875020149016</v>
       </c>
-      <c r="H23" s="28">
+      <c r="H23" s="30">
         <v>1.93329385753429</v>
       </c>
-      <c r="I23" s="27">
+      <c r="I23" s="29">
         <v>13.3605730640642</v>
       </c>
-      <c r="J23" s="27">
+      <c r="J23" s="29">
         <v>1.7325765492245799</v>
       </c>
-      <c r="K23" s="27">
+      <c r="K23" s="29">
         <v>23.145818540236</v>
       </c>
-      <c r="L23" s="27">
+      <c r="L23" s="29">
         <v>24.061849780817699</v>
       </c>
-      <c r="M23" s="27">
+      <c r="M23" s="29">
         <v>20.9240323022848</v>
       </c>
-      <c r="N23" s="28">
+      <c r="N23" s="30">
         <v>8.2127910354620006</v>
       </c>
-      <c r="O23" s="27">
+      <c r="O23" s="31">
         <v>3360.1517509999999</v>
       </c>
-      <c r="P23" s="27">
+      <c r="P23" s="31">
         <v>8974.9083190000001</v>
       </c>
-      <c r="Q23" s="27">
+      <c r="Q23" s="29">
         <v>27.2406598097743</v>
       </c>
-      <c r="R23" s="28">
-        <v>26.166827740494899</v>
+      <c r="R23" s="30">
+        <v>26.401632601759498</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="10" t="s">
         <v>61</v>
       </c>
       <c r="B24" s="19" t="s">
@@ -2623,21 +2684,21 @@
       <c r="N24" s="21">
         <v>0.68883636652839997</v>
       </c>
-      <c r="O24" s="20">
+      <c r="O24" s="22">
         <v>13.226241999999999</v>
       </c>
-      <c r="P24" s="20">
+      <c r="P24" s="22">
         <v>105.832482</v>
       </c>
       <c r="Q24" s="20">
         <v>11.109007014051301</v>
       </c>
       <c r="R24" s="21">
-        <v>7.4003682272070499</v>
+        <v>7.2029247334603603</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="10" t="s">
         <v>63</v>
       </c>
       <c r="B25" s="19" t="s">
@@ -2679,21 +2740,21 @@
       <c r="N25" s="21">
         <v>3.1174675984614701</v>
       </c>
-      <c r="O25" s="20">
+      <c r="O25" s="22">
         <v>335.42328800000001</v>
       </c>
-      <c r="P25" s="20">
+      <c r="P25" s="22">
         <v>2141.192771</v>
       </c>
       <c r="Q25" s="20">
         <v>13.543612736462499</v>
       </c>
       <c r="R25" s="21">
-        <v>108.347128599491</v>
+        <v>115.950813361302</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="10" t="s">
         <v>65</v>
       </c>
       <c r="B26" s="19" t="s">
@@ -2735,21 +2796,21 @@
       <c r="N26" s="21">
         <v>4.9806089469882204</v>
       </c>
-      <c r="O26" s="20">
+      <c r="O26" s="22">
         <v>62.706826999999997</v>
       </c>
-      <c r="P26" s="20">
+      <c r="P26" s="22">
         <v>116.962344</v>
       </c>
       <c r="Q26" s="20">
         <v>34.901272517142097</v>
       </c>
       <c r="R26" s="21">
-        <v>28.3725767707963</v>
+        <v>29.541122933193002</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B27" s="19" t="s">
@@ -2762,7 +2823,7 @@
         <v>13.5372576764735</v>
       </c>
       <c r="E27" s="20">
-        <v>16.207900916645901</v>
+        <v>16.207900916645801</v>
       </c>
       <c r="F27" s="20">
         <v>3.5116898604976501</v>
@@ -2791,10 +2852,10 @@
       <c r="N27" s="21">
         <v>5.0090275564606301</v>
       </c>
-      <c r="O27" s="20">
+      <c r="O27" s="22">
         <v>525.55041500000004</v>
       </c>
-      <c r="P27" s="20">
+      <c r="P27" s="22">
         <v>4887.4141090000003</v>
       </c>
       <c r="Q27" s="20">
@@ -2805,7 +2866,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B28" s="19" t="s">
@@ -2847,21 +2908,21 @@
       <c r="N28" s="21">
         <v>2.22947610620492</v>
       </c>
-      <c r="O28" s="20">
+      <c r="O28" s="22">
         <v>1378.8717610000001</v>
       </c>
-      <c r="P28" s="20">
+      <c r="P28" s="22">
         <v>7844.9728380000097</v>
       </c>
       <c r="Q28" s="20">
         <v>14.948991672620901</v>
       </c>
       <c r="R28" s="21">
-        <v>9.6526740474695494</v>
+        <v>9.6198079260142197</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B29" s="19" t="s">
@@ -2903,10 +2964,10 @@
       <c r="N29" s="21">
         <v>1.80817744730625</v>
       </c>
-      <c r="O29" s="20">
+      <c r="O29" s="22">
         <v>244.218605</v>
       </c>
-      <c r="P29" s="20">
+      <c r="P29" s="22">
         <v>1555.667995</v>
       </c>
       <c r="Q29" s="20">
@@ -2917,7 +2978,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B30" s="19" t="s">
@@ -2959,21 +3020,21 @@
       <c r="N30" s="21">
         <v>1.6776900197629101</v>
       </c>
-      <c r="O30" s="20">
+      <c r="O30" s="22">
         <v>200.09493900000001</v>
       </c>
-      <c r="P30" s="20">
+      <c r="P30" s="22">
         <v>1465.801827</v>
       </c>
       <c r="Q30" s="20">
         <v>12.0112448192363</v>
       </c>
       <c r="R30" s="21">
-        <v>28.281043379663199</v>
+        <v>28.279891966637202</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B31" s="19" t="s">
@@ -3015,21 +3076,21 @@
       <c r="N31" s="21">
         <v>1.8191256168290999</v>
       </c>
-      <c r="O31" s="20">
+      <c r="O31" s="22">
         <v>265.454093</v>
       </c>
-      <c r="P31" s="20">
+      <c r="P31" s="22">
         <v>360.95753100000002</v>
       </c>
       <c r="Q31" s="20">
         <v>42.3769423857307</v>
       </c>
       <c r="R31" s="21">
-        <v>18.673437233136202</v>
+        <v>18.939508672960301</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B32" s="19" t="s">
@@ -3071,21 +3132,21 @@
       <c r="N32" s="21">
         <v>1.2608926341151701</v>
       </c>
-      <c r="O32" s="20">
+      <c r="O32" s="22">
         <v>43.839666999999999</v>
       </c>
-      <c r="P32" s="20">
+      <c r="P32" s="22">
         <v>232.30936800000001</v>
       </c>
       <c r="Q32" s="20">
         <v>15.8753649093867</v>
       </c>
       <c r="R32" s="21">
-        <v>85.216242015990701</v>
+        <v>98.235877177002195</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="10" t="s">
         <v>79</v>
       </c>
       <c r="B33" s="19" t="s">
@@ -3127,21 +3188,21 @@
       <c r="N33" s="21">
         <v>1.34389306556201</v>
       </c>
-      <c r="O33" s="20">
+      <c r="O33" s="22">
         <v>69.867377000000005</v>
       </c>
-      <c r="P33" s="20">
+      <c r="P33" s="22">
         <v>1165.6125959999999</v>
       </c>
       <c r="Q33" s="20">
         <v>5.6550796878032399</v>
       </c>
       <c r="R33" s="21">
-        <v>13.930491176745999</v>
+        <v>14.0965874820401</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>81</v>
       </c>
       <c r="B34" s="15" t="s">
@@ -3183,10 +3244,10 @@
       <c r="N34" s="17">
         <v>3.5505627188709199</v>
       </c>
-      <c r="O34" s="16">
+      <c r="O34" s="18">
         <v>284.32502399999998</v>
       </c>
-      <c r="P34" s="16">
+      <c r="P34" s="18">
         <v>176.20184499999999</v>
       </c>
       <c r="Q34" s="16">
@@ -3197,7 +3258,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="10" t="s">
         <v>83</v>
       </c>
       <c r="B35" s="19" t="s">
@@ -3239,21 +3300,21 @@
       <c r="N35" s="21">
         <v>0.77978113201407995</v>
       </c>
-      <c r="O35" s="20">
+      <c r="O35" s="22">
         <v>428.202653</v>
       </c>
-      <c r="P35" s="20">
+      <c r="P35" s="22">
         <v>3354.301653</v>
       </c>
       <c r="Q35" s="20">
         <v>11.3206124397734</v>
       </c>
       <c r="R35" s="21">
-        <v>14.791953038597899</v>
+        <v>14.792707130916201</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="10" t="s">
         <v>85</v>
       </c>
       <c r="B36" s="19" t="s">
@@ -3295,10 +3356,10 @@
       <c r="N36" s="21">
         <v>1.6452317149270901</v>
       </c>
-      <c r="O36" s="20">
+      <c r="O36" s="22">
         <v>2208.550428</v>
       </c>
-      <c r="P36" s="20">
+      <c r="P36" s="22">
         <v>4687.3524200000002</v>
       </c>
       <c r="Q36" s="20">
@@ -3309,7 +3370,7 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="10" t="s">
         <v>87</v>
       </c>
       <c r="B37" s="19" t="s">
@@ -3351,133 +3412,133 @@
       <c r="N37" s="21">
         <v>1.5085203813655701</v>
       </c>
-      <c r="O37" s="20">
+      <c r="O37" s="22">
         <v>2619.6660849999998</v>
       </c>
-      <c r="P37" s="20">
+      <c r="P37" s="22">
         <v>2089.7735339999999</v>
       </c>
       <c r="Q37" s="20">
         <v>55.625855662977202</v>
       </c>
       <c r="R37" s="21">
-        <v>15.164586371861899</v>
+        <v>14.825390213221</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="29">
         <v>19.944893801777798</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38" s="29">
         <v>14.1675028906596</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="29">
         <v>21.088265574666998</v>
       </c>
-      <c r="F38" s="27">
+      <c r="F38" s="29">
         <v>7.7506278042159202</v>
       </c>
-      <c r="G38" s="27">
+      <c r="G38" s="29">
         <v>14.824306117298001</v>
       </c>
-      <c r="H38" s="28">
+      <c r="H38" s="30">
         <v>5.53073429658052</v>
       </c>
-      <c r="I38" s="27">
+      <c r="I38" s="29">
         <v>12.8792061152641</v>
       </c>
-      <c r="J38" s="27">
+      <c r="J38" s="29">
         <v>6.0608616501997803</v>
       </c>
-      <c r="K38" s="27">
+      <c r="K38" s="29">
         <v>15.3206034028036</v>
       </c>
-      <c r="L38" s="27">
+      <c r="L38" s="29">
         <v>26.309717639662999</v>
       </c>
-      <c r="M38" s="27">
+      <c r="M38" s="29">
         <v>11.817953034304001</v>
       </c>
-      <c r="N38" s="28">
+      <c r="N38" s="30">
         <v>2.2587516710730302</v>
       </c>
-      <c r="O38" s="27">
+      <c r="O38" s="31">
         <v>8679.9974039999997</v>
       </c>
-      <c r="P38" s="27">
+      <c r="P38" s="31">
         <v>30184.353313</v>
       </c>
-      <c r="Q38" s="27">
+      <c r="Q38" s="29">
         <v>22.334085720884602</v>
       </c>
-      <c r="R38" s="28">
-        <v>13.520067373822799</v>
+      <c r="R38" s="30">
+        <v>13.5426468374412</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="12">
         <v>2.2959991132811499</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="12">
         <v>3.12551956273591</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="12">
         <v>3.5264178140756899</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="12">
         <v>4.7560037630659702</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="12">
         <v>59.412972807804202</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="13">
         <v>2.3624748269730098</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="12">
         <v>0.42819984509718001</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J39" s="12">
         <v>1.98989258042313</v>
       </c>
-      <c r="K39" s="13">
+      <c r="K39" s="12">
         <v>2.1810734157924498</v>
       </c>
-      <c r="L39" s="13">
+      <c r="L39" s="12">
         <v>17.8618988174915</v>
       </c>
-      <c r="M39" s="13">
+      <c r="M39" s="12">
         <v>45.710574201261998</v>
       </c>
-      <c r="N39" s="14">
+      <c r="N39" s="13">
         <v>2.2530999773261602</v>
       </c>
-      <c r="O39" s="13">
+      <c r="O39" s="14">
         <v>457.66396800000001</v>
       </c>
-      <c r="P39" s="13">
+      <c r="P39" s="14">
         <v>18489.167043000001</v>
       </c>
-      <c r="Q39" s="13">
+      <c r="Q39" s="12">
         <v>2.41551723206004</v>
       </c>
-      <c r="R39" s="14">
-        <v>16.8805128329839</v>
+      <c r="R39" s="13">
+        <v>17.192434753879699</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="10" t="s">
         <v>92</v>
       </c>
       <c r="B40" s="19" t="s">
@@ -3519,133 +3580,133 @@
       <c r="N40" s="21">
         <v>6.2754569097439399</v>
       </c>
-      <c r="O40" s="20">
+      <c r="O40" s="22">
         <v>779.43134399999997</v>
       </c>
-      <c r="P40" s="20">
+      <c r="P40" s="22">
         <v>47041.975552000004</v>
       </c>
       <c r="Q40" s="20">
         <v>1.62987957609669</v>
       </c>
       <c r="R40" s="21">
-        <v>13.093940149445</v>
+        <v>12.460714006951299</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="12">
         <v>0.55134840505323002</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="12">
         <v>0.54469350287915996</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="12">
         <v>0.55135441532142004</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="12">
         <v>8.50853392331938</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="12">
         <v>47.609708613847197</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="13">
         <v>2.3543842647540898</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I41" s="12">
         <v>5.4580705474554803</v>
       </c>
-      <c r="J41" s="13">
+      <c r="J41" s="12">
         <v>5.4188828816782397</v>
       </c>
-      <c r="K41" s="13">
+      <c r="K41" s="12">
         <v>5.4876807538781502</v>
       </c>
-      <c r="L41" s="13">
+      <c r="L41" s="12">
         <v>15.932265292274201</v>
       </c>
-      <c r="M41" s="13">
+      <c r="M41" s="12">
         <v>36.003730076267999</v>
       </c>
-      <c r="N41" s="14">
+      <c r="N41" s="13">
         <v>2.4737809465992902</v>
       </c>
-      <c r="O41" s="13">
+      <c r="O41" s="14">
         <v>342.21015499999999</v>
       </c>
-      <c r="P41" s="13">
+      <c r="P41" s="14">
         <v>3445.0904099999998</v>
       </c>
-      <c r="Q41" s="13">
+      <c r="Q41" s="12">
         <v>9.0357274033781394</v>
       </c>
-      <c r="R41" s="14" t="s">
+      <c r="R41" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="12">
         <v>6.5818864938179198</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="12">
         <v>0.20741084370398</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="12">
         <v>8.3193645484265595</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="12">
         <v>33.969168395134503</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="12">
         <v>19.3926615927802</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="13">
         <v>0.15374086518859001</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I42" s="12">
         <v>10.6836164755714</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J42" s="12">
         <v>7.6985464501612304</v>
       </c>
-      <c r="K42" s="13">
+      <c r="K42" s="12">
         <v>11.5389357533822</v>
       </c>
-      <c r="L42" s="13">
+      <c r="L42" s="12">
         <v>22.181393032034499</v>
       </c>
-      <c r="M42" s="13">
+      <c r="M42" s="12">
         <v>26.949437795267102</v>
       </c>
-      <c r="N42" s="14">
+      <c r="N42" s="13">
         <v>3.9506190882448902</v>
       </c>
-      <c r="O42" s="13">
+      <c r="O42" s="14">
         <v>153.27452500000001</v>
       </c>
-      <c r="P42" s="13">
+      <c r="P42" s="14">
         <v>1393.7731020000001</v>
       </c>
-      <c r="Q42" s="13">
+      <c r="Q42" s="12">
         <v>9.9075505062004208</v>
       </c>
-      <c r="R42" s="14">
-        <v>35.2921373334867</v>
+      <c r="R42" s="13">
+        <v>33.236724373822902</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="10" t="s">
         <v>98</v>
       </c>
       <c r="B43" s="19" t="s">
@@ -3687,21 +3748,21 @@
       <c r="N43" s="21">
         <v>5.0964215254201797</v>
       </c>
-      <c r="O43" s="20">
+      <c r="O43" s="22">
         <v>960.53635899999995</v>
       </c>
-      <c r="P43" s="20">
+      <c r="P43" s="22">
         <v>26170.446699</v>
       </c>
       <c r="Q43" s="20">
         <v>3.54036695591379</v>
       </c>
       <c r="R43" s="21">
-        <v>32.594277668810498</v>
+        <v>30.837863658964601</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="10" t="s">
         <v>100</v>
       </c>
       <c r="B44" s="19" t="s">
@@ -3743,77 +3804,77 @@
       <c r="N44" s="21">
         <v>2.5043154567666401</v>
       </c>
-      <c r="O44" s="20">
+      <c r="O44" s="22">
         <v>158.65756999999999</v>
       </c>
-      <c r="P44" s="20">
+      <c r="P44" s="22">
         <v>10710.747422</v>
       </c>
       <c r="Q44" s="20">
         <v>1.4596711606272299</v>
       </c>
       <c r="R44" s="21">
-        <v>37.788945084379698</v>
+        <v>37.776325566882697</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="27">
+      <c r="C45" s="29">
         <v>6.2103965149452698</v>
       </c>
-      <c r="D45" s="27">
+      <c r="D45" s="29">
         <v>3.1072015504204402</v>
       </c>
-      <c r="E45" s="27">
+      <c r="E45" s="29">
         <v>7.8277713499374197</v>
       </c>
-      <c r="F45" s="27">
+      <c r="F45" s="29">
         <v>3.82259454018353</v>
       </c>
-      <c r="G45" s="27">
+      <c r="G45" s="29">
         <v>49.707972407755797</v>
       </c>
-      <c r="H45" s="28">
+      <c r="H45" s="30">
         <v>4.2733369361290903</v>
       </c>
-      <c r="I45" s="27">
+      <c r="I45" s="29">
         <v>2.0344215001388202</v>
       </c>
-      <c r="J45" s="27">
+      <c r="J45" s="29">
         <v>1.88501423247489</v>
       </c>
-      <c r="K45" s="27">
+      <c r="K45" s="29">
         <v>2.6062895310008098</v>
       </c>
-      <c r="L45" s="27">
+      <c r="L45" s="29">
         <v>15.2753770356342</v>
       </c>
-      <c r="M45" s="27">
+      <c r="M45" s="29">
         <v>39.552476795434899</v>
       </c>
-      <c r="N45" s="28">
+      <c r="N45" s="30">
         <v>4.67234018100896</v>
       </c>
-      <c r="O45" s="27">
+      <c r="O45" s="31">
         <v>2851.773921</v>
       </c>
-      <c r="P45" s="27">
+      <c r="P45" s="31">
         <v>107251.200228</v>
       </c>
-      <c r="Q45" s="27">
+      <c r="Q45" s="29">
         <v>2.5900970823374401</v>
       </c>
-      <c r="R45" s="28">
-        <v>18.050556097956299</v>
+      <c r="R45" s="30">
+        <v>17.4943675099634</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="10" t="s">
         <v>103</v>
       </c>
       <c r="B46" s="19" t="s">
@@ -3855,10 +3916,10 @@
       <c r="N46" s="21">
         <v>5.0285241498261604</v>
       </c>
-      <c r="O46" s="20">
+      <c r="O46" s="22">
         <v>355.66524800000002</v>
       </c>
-      <c r="P46" s="20">
+      <c r="P46" s="22">
         <v>1384.3357329999999</v>
       </c>
       <c r="Q46" s="20">
@@ -3869,7 +3930,7 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="10" t="s">
         <v>105</v>
       </c>
       <c r="B47" s="19" t="s">
@@ -3911,77 +3972,77 @@
       <c r="N47" s="21">
         <v>5.5921378270359003</v>
       </c>
-      <c r="O47" s="20">
+      <c r="O47" s="22">
         <v>620.07530999999994</v>
       </c>
-      <c r="P47" s="20">
+      <c r="P47" s="22">
         <v>1111.2936010000001</v>
       </c>
       <c r="Q47" s="20">
         <v>35.814164506503602</v>
       </c>
       <c r="R47" s="21">
-        <v>29.450252108031599</v>
+        <v>30.862258638853199</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="12">
         <v>0.67455036474454999</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="12">
         <v>0.67455036474454999</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="12">
         <v>1.2904969090113301</v>
       </c>
-      <c r="F48" s="20">
+      <c r="F48" s="12">
         <v>1.3065777779093499</v>
       </c>
-      <c r="G48" s="20">
+      <c r="G48" s="12">
         <v>88.6287633878094</v>
       </c>
-      <c r="H48" s="21">
+      <c r="H48" s="13">
         <v>5.2407162916964003</v>
       </c>
-      <c r="I48" s="20">
+      <c r="I48" s="12">
         <v>0.35347446945571998</v>
       </c>
-      <c r="J48" s="20">
+      <c r="J48" s="12">
         <v>0.35347446945571998</v>
       </c>
-      <c r="K48" s="20">
+      <c r="K48" s="12">
         <v>5.25312163733948</v>
       </c>
-      <c r="L48" s="20">
+      <c r="L48" s="12">
         <v>7.2821538858618098</v>
       </c>
-      <c r="M48" s="20">
+      <c r="M48" s="12">
         <v>76.280258664877195</v>
       </c>
-      <c r="N48" s="21">
+      <c r="N48" s="13">
         <v>3.13042817730439</v>
       </c>
-      <c r="O48" s="20">
+      <c r="O48" s="14">
         <v>3.2628210000000002</v>
       </c>
-      <c r="P48" s="20">
+      <c r="P48" s="14">
         <v>268.06050499999998</v>
       </c>
-      <c r="Q48" s="20">
+      <c r="Q48" s="12">
         <v>1.20255823489352</v>
       </c>
-      <c r="R48" s="21">
-        <v>24.844803680796801</v>
+      <c r="R48" s="13">
+        <v>22.6674704389028</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="10" t="s">
         <v>109</v>
       </c>
       <c r="B49" s="19" t="s">
@@ -3991,7 +4052,7 @@
         <v>7.5367094043293799</v>
       </c>
       <c r="D49" s="20">
-        <v>7.3587488263705998</v>
+        <v>7.35874882637059</v>
       </c>
       <c r="E49" s="20">
         <v>8.4730640313319494</v>
@@ -4023,10 +4084,10 @@
       <c r="N49" s="21">
         <v>2.0300472052330698</v>
       </c>
-      <c r="O49" s="20">
+      <c r="O49" s="22">
         <v>1250.082375</v>
       </c>
-      <c r="P49" s="20">
+      <c r="P49" s="22">
         <v>3810.0785019999998</v>
       </c>
       <c r="Q49" s="20">
@@ -4037,7 +4098,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="10" t="s">
         <v>111</v>
       </c>
       <c r="B50" s="19" t="s">
@@ -4079,21 +4140,21 @@
       <c r="N50" s="21">
         <v>2.5061536622001901</v>
       </c>
-      <c r="O50" s="20">
+      <c r="O50" s="22">
         <v>92.320881</v>
       </c>
-      <c r="P50" s="20">
+      <c r="P50" s="22">
         <v>743.02622799999995</v>
       </c>
       <c r="Q50" s="20">
         <v>11.0517987080267</v>
       </c>
       <c r="R50" s="21">
-        <v>8.3246703396823705</v>
+        <v>8.3864231627900701</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="10" t="s">
         <v>113</v>
       </c>
       <c r="B51" s="15" t="s">
@@ -4115,7 +4176,7 @@
         <v>14.084039668326101</v>
       </c>
       <c r="H51" s="17">
-        <v>5.1407255110969201</v>
+        <v>5.1407255110969299</v>
       </c>
       <c r="I51" s="16">
         <v>4.8022415304213801</v>
@@ -4135,21 +4196,21 @@
       <c r="N51" s="17">
         <v>4.8982141323035</v>
       </c>
-      <c r="O51" s="16">
+      <c r="O51" s="18">
         <v>512.13167599999997</v>
       </c>
-      <c r="P51" s="16">
+      <c r="P51" s="18">
         <v>6904.4483490000002</v>
       </c>
       <c r="Q51" s="16">
         <v>6.9052268602737898</v>
       </c>
       <c r="R51" s="17">
-        <v>32.245966290252397</v>
+        <v>31.534212098342699</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="10" t="s">
         <v>115</v>
       </c>
       <c r="B52" s="19" t="s">
@@ -4191,21 +4252,21 @@
       <c r="N52" s="21">
         <v>2.5718694257322299</v>
       </c>
-      <c r="O52" s="20">
+      <c r="O52" s="22">
         <v>177.87831800000001</v>
       </c>
-      <c r="P52" s="20">
+      <c r="P52" s="22">
         <v>1708.512215</v>
       </c>
       <c r="Q52" s="20">
         <v>9.4295595152883394</v>
       </c>
       <c r="R52" s="21">
-        <v>58.821909574594102</v>
+        <v>63.451723592037297</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B53" s="19" t="s">
@@ -4247,21 +4308,21 @@
       <c r="N53" s="21">
         <v>0.54726324601403997</v>
       </c>
-      <c r="O53" s="20">
+      <c r="O53" s="22">
         <v>14.880369999999999</v>
       </c>
-      <c r="P53" s="20">
+      <c r="P53" s="22">
         <v>91.2498420000001</v>
       </c>
       <c r="Q53" s="20">
         <v>14.020861467797699</v>
       </c>
       <c r="R53" s="21">
-        <v>15.781576802186301</v>
+        <v>15.2838547683995</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="10" t="s">
         <v>119</v>
       </c>
       <c r="B54" s="19" t="s">
@@ -4303,21 +4364,21 @@
       <c r="N54" s="21">
         <v>0.92587019388825997</v>
       </c>
-      <c r="O54" s="20">
+      <c r="O54" s="22">
         <v>6.9256820000000001</v>
       </c>
-      <c r="P54" s="20">
+      <c r="P54" s="22">
         <v>1029.302283</v>
       </c>
       <c r="Q54" s="20">
         <v>0.66835505640884996</v>
       </c>
       <c r="R54" s="21">
-        <v>26.642329589375201</v>
+        <v>26.643330338648902</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B55" s="19" t="s">
@@ -4359,21 +4420,21 @@
       <c r="N55" s="21">
         <v>2.43812572573693</v>
       </c>
-      <c r="O55" s="20">
+      <c r="O55" s="22">
         <v>436.14869900000002</v>
       </c>
-      <c r="P55" s="20">
+      <c r="P55" s="22">
         <v>1138.666344</v>
       </c>
       <c r="Q55" s="20">
         <v>27.695233223651702</v>
       </c>
       <c r="R55" s="21">
-        <v>29.617510448254599</v>
+        <v>29.703924693395098</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="10" t="s">
         <v>123</v>
       </c>
       <c r="B56" s="19" t="s">
@@ -4415,77 +4476,77 @@
       <c r="N56" s="21">
         <v>9.68720636850502</v>
       </c>
-      <c r="O56" s="20">
+      <c r="O56" s="22">
         <v>328.40032400000001</v>
       </c>
-      <c r="P56" s="20">
+      <c r="P56" s="22">
         <v>842.74830799999995</v>
       </c>
       <c r="Q56" s="20">
         <v>28.040875003131099</v>
       </c>
       <c r="R56" s="21">
-        <v>16.558684797394498</v>
+        <v>16.569737971931598</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="12">
         <v>6.3569345383406803</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="12">
         <v>6.2311401221689602</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="12">
         <v>15.3570294197004</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F57" s="12">
         <v>5.9171220839462704</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G57" s="12">
         <v>35.161421860844101</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H57" s="13">
         <v>3.9741369059882699</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I57" s="12">
         <v>1.54227910069091</v>
       </c>
-      <c r="J57" s="13">
+      <c r="J57" s="12">
         <v>0.62597891175733</v>
       </c>
-      <c r="K57" s="13">
+      <c r="K57" s="12">
         <v>3.1351316250232601</v>
       </c>
-      <c r="L57" s="13">
+      <c r="L57" s="12">
         <v>33.3106345044107</v>
       </c>
-      <c r="M57" s="13">
+      <c r="M57" s="12">
         <v>25.090858715830301</v>
       </c>
-      <c r="N57" s="14">
+      <c r="N57" s="13">
         <v>8.6413274589333007</v>
       </c>
-      <c r="O57" s="13">
+      <c r="O57" s="14">
         <v>921.89384600000005</v>
       </c>
-      <c r="P57" s="13">
+      <c r="P57" s="14">
         <v>22176.416295999999</v>
       </c>
-      <c r="Q57" s="13">
+      <c r="Q57" s="12">
         <v>3.9911744206936901</v>
       </c>
-      <c r="R57" s="14">
+      <c r="R57" s="13">
         <v>9.3002005332566693</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="10" t="s">
         <v>127</v>
       </c>
       <c r="B58" s="19" t="s">
@@ -4527,21 +4588,21 @@
       <c r="N58" s="21">
         <v>2.80247532328772</v>
       </c>
-      <c r="O58" s="20">
+      <c r="O58" s="22">
         <v>892.13699599999995</v>
       </c>
-      <c r="P58" s="20">
+      <c r="P58" s="22">
         <v>4230.1851660000102</v>
       </c>
       <c r="Q58" s="20">
         <v>17.4166514284932</v>
       </c>
       <c r="R58" s="21">
-        <v>20.662918406188599</v>
+        <v>20.663181218244802</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="10" t="s">
         <v>129</v>
       </c>
       <c r="B59" s="19" t="s">
@@ -4583,10 +4644,10 @@
       <c r="N59" s="21">
         <v>5.9589887177428604</v>
       </c>
-      <c r="O59" s="20">
+      <c r="O59" s="22">
         <v>23.322424000000002</v>
       </c>
-      <c r="P59" s="20">
+      <c r="P59" s="22">
         <v>400.25524799999999</v>
       </c>
       <c r="Q59" s="20">
@@ -4597,7 +4658,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="10" t="s">
         <v>131</v>
       </c>
       <c r="B60" s="15" t="s">
@@ -4610,7 +4671,7 @@
         <v>49.685947462080797</v>
       </c>
       <c r="E60" s="16">
-        <v>56.482879555997997</v>
+        <v>56.482879555998103</v>
       </c>
       <c r="F60" s="16">
         <v>4.1060824275018701</v>
@@ -4639,2255 +4700,2204 @@
       <c r="N60" s="17">
         <v>3.3056503266361901</v>
       </c>
-      <c r="O60" s="16">
+      <c r="O60" s="18">
         <v>864.10489800000005</v>
       </c>
-      <c r="P60" s="16">
+      <c r="P60" s="18">
         <v>2204.3074339999998</v>
       </c>
       <c r="Q60" s="16">
         <v>28.1613031269749</v>
       </c>
       <c r="R60" s="17">
-        <v>21.8295363249734</v>
+        <v>22.727957306118299</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="C61" s="27">
+      <c r="C61" s="29">
         <v>7.3582904713741701</v>
       </c>
-      <c r="D61" s="27">
+      <c r="D61" s="29">
         <v>7.0827059850012297</v>
       </c>
-      <c r="E61" s="27">
+      <c r="E61" s="29">
         <v>12.318077352049899</v>
       </c>
-      <c r="F61" s="27">
+      <c r="F61" s="29">
         <v>7.5928882772537198</v>
       </c>
-      <c r="G61" s="27">
+      <c r="G61" s="29">
         <v>22.641054136223602</v>
       </c>
-      <c r="H61" s="28">
+      <c r="H61" s="30">
         <v>3.42632257107699</v>
       </c>
-      <c r="I61" s="27">
+      <c r="I61" s="29">
         <v>7.0561824543262501</v>
       </c>
-      <c r="J61" s="27">
+      <c r="J61" s="29">
         <v>5.4950017315495101</v>
       </c>
-      <c r="K61" s="27">
+      <c r="K61" s="29">
         <v>8.6564477335044501</v>
       </c>
-      <c r="L61" s="27">
+      <c r="L61" s="29">
         <v>30.019078846427199</v>
       </c>
-      <c r="M61" s="27">
+      <c r="M61" s="29">
         <v>23.810570170456</v>
       </c>
-      <c r="N61" s="28">
+      <c r="N61" s="30">
         <v>5.4940071398932</v>
       </c>
-      <c r="O61" s="27">
+      <c r="O61" s="31">
         <v>6499.2298680000004</v>
       </c>
-      <c r="P61" s="27">
+      <c r="P61" s="31">
         <v>48042.886054000002</v>
       </c>
-      <c r="Q61" s="27">
+      <c r="Q61" s="29">
         <v>11.915984112707401</v>
       </c>
-      <c r="R61" s="28">
-        <v>16.087452377332799</v>
+      <c r="R61" s="30">
+        <v>16.147236992985398</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="33">
+      <c r="C62" s="36">
         <v>12.368246834103999</v>
       </c>
-      <c r="D62" s="33">
+      <c r="D62" s="36">
         <v>9.1818442862717493</v>
       </c>
-      <c r="E62" s="33">
+      <c r="E62" s="36">
         <v>14.810631690318299</v>
       </c>
-      <c r="F62" s="33">
+      <c r="F62" s="36">
         <v>13.451715388605599</v>
       </c>
-      <c r="G62" s="33">
+      <c r="G62" s="36">
         <v>25.739419760106099</v>
       </c>
-      <c r="H62" s="34">
-        <v>5.0297121080319798</v>
-      </c>
-      <c r="I62" s="33">
+      <c r="H62" s="37">
+        <v>5.02971210803197</v>
+      </c>
+      <c r="I62" s="36">
         <v>10.249788121132299</v>
       </c>
-      <c r="J62" s="33">
+      <c r="J62" s="36">
         <v>7.6091591442055897</v>
       </c>
-      <c r="K62" s="33">
+      <c r="K62" s="36">
         <v>12.2725963895865</v>
       </c>
-      <c r="L62" s="33">
+      <c r="L62" s="36">
         <v>21.4213248294617</v>
       </c>
-      <c r="M62" s="33">
+      <c r="M62" s="36">
         <v>26.4586425982016</v>
       </c>
-      <c r="N62" s="34">
+      <c r="N62" s="37">
         <v>4.6121630478984104</v>
       </c>
-      <c r="O62" s="33">
+      <c r="O62" s="38">
         <v>43109.230786</v>
       </c>
-      <c r="P62" s="33">
+      <c r="P62" s="38">
         <v>238198.69635099999</v>
       </c>
-      <c r="Q62" s="33">
+      <c r="Q62" s="36">
         <v>15.324570204879199</v>
       </c>
-      <c r="R62" s="34">
-        <v>19.430288676576701</v>
+      <c r="R62" s="37">
+        <v>19.243261150619698</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B63" s="32" t="s">
+      <c r="B63" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="33">
+      <c r="C63" s="36">
         <v>20.9620049933771</v>
       </c>
-      <c r="D63" s="33" t="s">
+      <c r="D63" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="E63" s="33">
+      <c r="E63" s="36">
         <v>57.994841788161601</v>
       </c>
-      <c r="F63" s="33">
+      <c r="F63" s="36">
         <v>8.6106983503690806</v>
       </c>
-      <c r="G63" s="33">
+      <c r="G63" s="36">
         <v>29.962396380069698</v>
       </c>
-      <c r="H63" s="34">
+      <c r="H63" s="37">
         <v>13.664317556159901</v>
       </c>
-      <c r="I63" s="33">
+      <c r="I63" s="36">
         <v>21.5677663588075</v>
       </c>
-      <c r="J63" s="33" t="s">
+      <c r="J63" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="K63" s="33">
+      <c r="K63" s="36">
         <v>57.4757629049587</v>
       </c>
-      <c r="L63" s="33">
+      <c r="L63" s="36">
         <v>14.3682544987446</v>
       </c>
-      <c r="M63" s="33">
+      <c r="M63" s="36">
         <v>31.759373207612999</v>
       </c>
-      <c r="N63" s="34">
+      <c r="N63" s="37">
         <v>8.28282866806531</v>
       </c>
-      <c r="O63" s="33">
+      <c r="O63" s="38">
         <v>4997727.5583870001</v>
       </c>
-      <c r="P63" s="33">
+      <c r="P63" s="38">
         <v>3507863.3168649999</v>
       </c>
-      <c r="Q63" s="33">
+      <c r="Q63" s="36">
         <v>58.758146631863902</v>
       </c>
-      <c r="R63" s="34">
-        <v>26.271120620362002</v>
+      <c r="R63" s="37">
+        <v>26.2285062115328</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A64" s="35" t="s">
+      <c r="A64" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B64" s="36" t="s">
+      <c r="B64" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="C64" s="37">
+      <c r="C64" s="41">
         <v>7.1980457229618597</v>
       </c>
-      <c r="D64" s="37" t="s">
+      <c r="D64" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="E64" s="37">
+      <c r="E64" s="41">
         <v>47.6532972516165</v>
       </c>
-      <c r="F64" s="37">
+      <c r="F64" s="41">
         <v>14.0457119511938</v>
       </c>
-      <c r="G64" s="37">
+      <c r="G64" s="41">
         <v>9.45918271071546</v>
       </c>
-      <c r="H64" s="38">
+      <c r="H64" s="42">
         <v>42.103770789223603</v>
       </c>
-      <c r="I64" s="37">
+      <c r="I64" s="41">
         <v>7.7673353381481096</v>
       </c>
-      <c r="J64" s="37" t="s">
+      <c r="J64" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="K64" s="37">
+      <c r="K64" s="41">
         <v>38.3432890320966</v>
       </c>
-      <c r="L64" s="37">
+      <c r="L64" s="41">
         <v>19.382134648019399</v>
       </c>
-      <c r="M64" s="37">
+      <c r="M64" s="41">
         <v>12.2781451686844</v>
       </c>
-      <c r="N64" s="38">
+      <c r="N64" s="42">
         <v>35.099892126932801</v>
       </c>
-      <c r="O64" s="37">
+      <c r="O64" s="43">
         <v>215021.54108</v>
       </c>
-      <c r="P64" s="37">
+      <c r="P64" s="43">
         <v>303551.42772600002</v>
       </c>
-      <c r="Q64" s="37">
+      <c r="Q64" s="41">
         <v>41.464085869165402</v>
       </c>
-      <c r="R64" s="38">
-        <v>24.5636618115437</v>
+      <c r="R64" s="42">
+        <v>24.570702325014501</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A65" s="35" t="s">
+      <c r="A65" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B65" s="39" t="s">
+      <c r="B65" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="C65" s="40">
+      <c r="C65" s="45">
         <v>5.11405392218406</v>
       </c>
-      <c r="D65" s="40" t="s">
+      <c r="D65" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E65" s="40">
+      <c r="E65" s="45">
         <v>48.4765299470698</v>
       </c>
-      <c r="F65" s="40">
+      <c r="F65" s="45">
         <v>5.4432365814408401</v>
       </c>
-      <c r="G65" s="40">
+      <c r="G65" s="45">
         <v>14.7703143857799</v>
       </c>
-      <c r="H65" s="41">
+      <c r="H65" s="46">
         <v>16.255726371375001</v>
       </c>
-      <c r="I65" s="40">
+      <c r="I65" s="45">
         <v>6.5473227962042397</v>
       </c>
-      <c r="J65" s="40" t="s">
+      <c r="J65" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="K65" s="40">
+      <c r="K65" s="45">
         <v>61.011082114330698</v>
       </c>
-      <c r="L65" s="40">
+      <c r="L65" s="45">
         <v>13.887247826299401</v>
       </c>
-      <c r="M65" s="40">
+      <c r="M65" s="45">
         <v>10.939515942782201</v>
       </c>
-      <c r="N65" s="41">
+      <c r="N65" s="46">
         <v>6.5298597464380297</v>
       </c>
-      <c r="O65" s="40">
+      <c r="O65" s="47">
         <v>1361863.894015</v>
       </c>
-      <c r="P65" s="40">
+      <c r="P65" s="47">
         <v>899704.31381900003</v>
       </c>
-      <c r="Q65" s="40">
+      <c r="Q65" s="45">
         <v>60.217679453467198</v>
       </c>
-      <c r="R65" s="41">
-        <v>21.285396690227898</v>
+      <c r="R65" s="46">
+        <v>21.211278566904902</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="35" t="s">
+      <c r="A66" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B66" s="42" t="s">
+      <c r="B66" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="C66" s="43">
+      <c r="C66" s="49">
         <v>20.726551104357402</v>
       </c>
-      <c r="D66" s="43">
+      <c r="D66" s="49">
         <v>0.25156641663731999</v>
       </c>
-      <c r="E66" s="43">
+      <c r="E66" s="49">
         <v>56.811670232326101</v>
       </c>
-      <c r="F66" s="43">
+      <c r="F66" s="49">
         <v>8.7433337198242302</v>
       </c>
-      <c r="G66" s="43">
+      <c r="G66" s="49">
         <v>29.846694233234501</v>
       </c>
-      <c r="H66" s="44">
+      <c r="H66" s="50">
         <v>13.427744523124501</v>
       </c>
-      <c r="I66" s="43">
+      <c r="I66" s="49">
         <v>21.1853007038908</v>
       </c>
-      <c r="J66" s="43">
+      <c r="J66" s="49">
         <v>0.25713444347918002</v>
       </c>
-      <c r="K66" s="43">
+      <c r="K66" s="49">
         <v>55.948223416672597</v>
       </c>
-      <c r="L66" s="43">
+      <c r="L66" s="49">
         <v>14.6065971697202</v>
       </c>
-      <c r="M66" s="43">
+      <c r="M66" s="49">
         <v>31.5802469218496</v>
       </c>
-      <c r="N66" s="44">
+      <c r="N66" s="50">
         <v>8.1587867675672001</v>
       </c>
-      <c r="O66" s="43">
+      <c r="O66" s="51">
         <v>5040836.7891729996</v>
       </c>
-      <c r="P66" s="43">
+      <c r="P66" s="51">
         <v>3746062.0132159898</v>
       </c>
-      <c r="Q66" s="43">
+      <c r="Q66" s="49">
         <v>57.367643608260202</v>
       </c>
-      <c r="R66" s="44">
-        <v>25.923482575636399</v>
+      <c r="R66" s="50">
+        <v>25.869837173055799</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A67" s="35" t="s">
+      <c r="A67" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B67" s="39" t="s">
+      <c r="B67" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="C67" s="40">
+      <c r="C67" s="45">
         <v>17.165244798678199</v>
       </c>
-      <c r="D67" s="40">
+      <c r="D67" s="45">
         <v>8.7354123558080001</v>
       </c>
-      <c r="E67" s="40">
+      <c r="E67" s="45">
         <v>18.349925104898301</v>
       </c>
-      <c r="F67" s="40">
+      <c r="F67" s="45">
         <v>11.274827455889</v>
       </c>
-      <c r="G67" s="40">
+      <c r="G67" s="45">
         <v>24.6153428080022</v>
       </c>
-      <c r="H67" s="41">
+      <c r="H67" s="46">
         <v>4.2383485442222204</v>
       </c>
-      <c r="I67" s="40">
+      <c r="I67" s="45">
         <v>10.107933139906701</v>
       </c>
-      <c r="J67" s="40">
+      <c r="J67" s="45">
         <v>6.2102811956347903</v>
       </c>
-      <c r="K67" s="40">
+      <c r="K67" s="45">
         <v>11.2762557960402</v>
       </c>
-      <c r="L67" s="40">
+      <c r="L67" s="45">
         <v>19.212849336907201</v>
       </c>
-      <c r="M67" s="40">
+      <c r="M67" s="45">
         <v>22.4895504536297</v>
       </c>
-      <c r="N67" s="41">
+      <c r="N67" s="46">
         <v>4.4169476431521604</v>
       </c>
-      <c r="O67" s="40">
+      <c r="O67" s="47">
         <v>14200.044027</v>
       </c>
-      <c r="P67" s="40">
+      <c r="P67" s="47">
         <v>93865.705788000007</v>
       </c>
-      <c r="Q67" s="40">
+      <c r="Q67" s="45">
         <v>13.1401892378569</v>
       </c>
-      <c r="R67" s="41">
-        <v>15.876143816588399</v>
+      <c r="R67" s="46">
+        <v>15.5033331372373</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A68" s="35" t="s">
+      <c r="A68" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B68" s="39" t="s">
+      <c r="B68" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="C68" s="40">
+      <c r="C68" s="45">
         <v>7.1231400282691197</v>
       </c>
-      <c r="D68" s="40">
+      <c r="D68" s="45">
         <v>5.1002388149056701</v>
       </c>
-      <c r="E68" s="40">
+      <c r="E68" s="45">
         <v>10.440033210792199</v>
       </c>
-      <c r="F68" s="40">
+      <c r="F68" s="45">
         <v>6.2745666179371602</v>
       </c>
-      <c r="G68" s="40">
+      <c r="G68" s="45">
         <v>33.663215083750501</v>
       </c>
-      <c r="H68" s="41">
+      <c r="H68" s="46">
         <v>3.9192930863094002</v>
       </c>
-      <c r="I68" s="40">
+      <c r="I68" s="45">
         <v>5.0234756476500904</v>
       </c>
-      <c r="J68" s="40">
+      <c r="J68" s="45">
         <v>3.68178643347649</v>
       </c>
-      <c r="K68" s="40">
+      <c r="K68" s="45">
         <v>5.9197654254777303</v>
       </c>
-      <c r="L68" s="40">
+      <c r="L68" s="45">
         <v>22.083272005673301</v>
       </c>
-      <c r="M68" s="40">
+      <c r="M68" s="45">
         <v>30.4550381122632</v>
       </c>
-      <c r="N68" s="41">
+      <c r="N68" s="46">
         <v>5.2378803199064601</v>
       </c>
-      <c r="O68" s="40">
+      <c r="O68" s="47">
         <v>9845.5080809999999</v>
       </c>
-      <c r="P68" s="40">
+      <c r="P68" s="47">
         <v>142797.19776000001</v>
       </c>
-      <c r="Q68" s="40">
+      <c r="Q68" s="45">
         <v>6.4500350847131598</v>
       </c>
-      <c r="R68" s="41">
-        <v>17.297569133143501</v>
+      <c r="R68" s="46">
+        <v>16.968599783464899</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A69" s="35" t="s">
+      <c r="A69" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B69" s="39" t="s">
+      <c r="B69" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="C69" s="40">
+      <c r="C69" s="45">
         <v>25.646251495028899</v>
       </c>
-      <c r="D69" s="40">
+      <c r="D69" s="45">
         <v>19.6915349373634</v>
       </c>
-      <c r="E69" s="40">
+      <c r="E69" s="45">
         <v>27.009721221795601</v>
       </c>
-      <c r="F69" s="40">
+      <c r="F69" s="45">
         <v>6.4219367642040597</v>
       </c>
-      <c r="G69" s="40">
+      <c r="G69" s="45">
         <v>11.415562550557601</v>
       </c>
-      <c r="H69" s="41">
+      <c r="H69" s="46">
         <v>3.5585476128031601</v>
       </c>
-      <c r="I69" s="40">
+      <c r="I69" s="45">
         <v>18.187622588212498</v>
       </c>
-      <c r="J69" s="40">
+      <c r="J69" s="45">
         <v>8.97704164665865</v>
       </c>
-      <c r="K69" s="40">
+      <c r="K69" s="45">
         <v>21.663728925495001</v>
       </c>
-      <c r="L69" s="40">
+      <c r="L69" s="45">
         <v>25.953329291265302</v>
       </c>
-      <c r="M69" s="40">
+      <c r="M69" s="45">
         <v>10.3016034329513</v>
       </c>
-      <c r="N69" s="41">
+      <c r="N69" s="46">
         <v>1.9237679730035799</v>
       </c>
-      <c r="O69" s="40">
+      <c r="O69" s="47">
         <v>6941.499538</v>
       </c>
-      <c r="P69" s="40">
+      <c r="P69" s="47">
         <v>15414.789720000001</v>
       </c>
-      <c r="Q69" s="40">
+      <c r="Q69" s="45">
         <v>31.0494262169024</v>
       </c>
-      <c r="R69" s="41">
-        <v>13.205910249862001</v>
+      <c r="R69" s="46">
+        <v>13.1380613862373</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A70" s="35" t="s">
+      <c r="A70" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B70" s="39" t="s">
+      <c r="B70" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="C70" s="40">
+      <c r="C70" s="45">
         <v>8.1565744473431803</v>
       </c>
-      <c r="D70" s="40">
+      <c r="D70" s="45">
         <v>0.82406136445713996</v>
       </c>
-      <c r="E70" s="40">
+      <c r="E70" s="45">
         <v>8.8140926120768395</v>
       </c>
-      <c r="F70" s="40">
+      <c r="F70" s="45">
         <v>47.7779536120144</v>
       </c>
-      <c r="G70" s="40">
+      <c r="G70" s="45">
         <v>12.565283293625701</v>
       </c>
-      <c r="H70" s="41">
+      <c r="H70" s="46">
         <v>2.0001491227789101</v>
       </c>
-      <c r="I70" s="40">
+      <c r="I70" s="45">
         <v>12.1470530201203</v>
       </c>
-      <c r="J70" s="40">
+      <c r="J70" s="45">
         <v>3.1984113603434299</v>
       </c>
-      <c r="K70" s="40">
+      <c r="K70" s="45">
         <v>19.7112866195225</v>
       </c>
-      <c r="L70" s="40">
+      <c r="L70" s="45">
         <v>23.8660052055404</v>
       </c>
-      <c r="M70" s="40">
+      <c r="M70" s="45">
         <v>22.6464423512816</v>
       </c>
-      <c r="N70" s="41">
+      <c r="N70" s="46">
         <v>7.4897867978073398</v>
       </c>
-      <c r="O70" s="40">
+      <c r="O70" s="47">
         <v>3801.5498259999999</v>
       </c>
-      <c r="P70" s="40">
+      <c r="P70" s="47">
         <v>12502.473626000001</v>
       </c>
-      <c r="Q70" s="40">
+      <c r="Q70" s="45">
         <v>23.3166361493038</v>
       </c>
-      <c r="R70" s="41">
-        <v>29.484772989378499</v>
+      <c r="R70" s="46">
+        <v>29.673294109767699</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A71" s="35" t="s">
+      <c r="A71" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B71" s="39" t="s">
+      <c r="B71" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="C71" s="40">
+      <c r="C71" s="45">
         <v>7.3582904713741701</v>
       </c>
-      <c r="D71" s="40">
+      <c r="D71" s="45">
         <v>7.0827059850012297</v>
       </c>
-      <c r="E71" s="40">
+      <c r="E71" s="45">
         <v>12.318077352049899</v>
       </c>
-      <c r="F71" s="40">
+      <c r="F71" s="45">
         <v>7.5928882772537296</v>
       </c>
-      <c r="G71" s="40">
+      <c r="G71" s="45">
         <v>22.641054136223602</v>
       </c>
-      <c r="H71" s="41">
+      <c r="H71" s="46">
         <v>3.42632257107699</v>
       </c>
-      <c r="I71" s="40">
+      <c r="I71" s="45">
         <v>7.0561824543262501</v>
       </c>
-      <c r="J71" s="40">
+      <c r="J71" s="45">
         <v>5.4950017315495101</v>
       </c>
-      <c r="K71" s="40">
+      <c r="K71" s="45">
         <v>8.6564477335044501</v>
       </c>
-      <c r="L71" s="40">
+      <c r="L71" s="45">
         <v>30.019078846427199</v>
       </c>
-      <c r="M71" s="40">
+      <c r="M71" s="45">
         <v>23.810570170456</v>
       </c>
-      <c r="N71" s="41">
+      <c r="N71" s="46">
         <v>5.4940071398932</v>
       </c>
-      <c r="O71" s="40">
+      <c r="O71" s="47">
         <v>6499.2298680000004</v>
       </c>
-      <c r="P71" s="40">
+      <c r="P71" s="47">
         <v>48042.886054000002</v>
       </c>
-      <c r="Q71" s="40">
+      <c r="Q71" s="45">
         <v>11.915984112707401</v>
       </c>
-      <c r="R71" s="41">
-        <v>16.087452377332799</v>
+      <c r="R71" s="46">
+        <v>16.147236992985398</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A72" s="35" t="s">
+      <c r="A72" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B72" s="39" t="s">
+      <c r="B72" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="C72" s="40">
+      <c r="C72" s="45">
         <v>20.8675966887327</v>
       </c>
-      <c r="D72" s="40">
+      <c r="D72" s="45">
         <v>16.181883592586502</v>
       </c>
-      <c r="E72" s="40">
+      <c r="E72" s="45">
         <v>22.1201533584257</v>
       </c>
-      <c r="F72" s="40">
+      <c r="F72" s="45">
         <v>9.5035447793682604</v>
       </c>
-      <c r="G72" s="40">
+      <c r="G72" s="45">
         <v>11.6036650901403</v>
       </c>
-      <c r="H72" s="41">
+      <c r="H72" s="46">
         <v>4.8279729200719297</v>
       </c>
-      <c r="I72" s="40">
+      <c r="I72" s="45">
         <v>11.398435268243199</v>
       </c>
-      <c r="J72" s="40">
+      <c r="J72" s="45">
         <v>6.9298338946497404</v>
       </c>
-      <c r="K72" s="40">
+      <c r="K72" s="45">
         <v>14.498671283682</v>
       </c>
-      <c r="L72" s="40">
+      <c r="L72" s="45">
         <v>25.9312753051125</v>
       </c>
-      <c r="M72" s="40">
+      <c r="M72" s="45">
         <v>10.9043243234402</v>
       </c>
-      <c r="N72" s="41">
+      <c r="N72" s="46">
         <v>2.5098437321506801</v>
       </c>
-      <c r="O72" s="40">
+      <c r="O72" s="47">
         <v>5704.6134300000003</v>
       </c>
-      <c r="P72" s="40">
+      <c r="P72" s="47">
         <v>21776.431690000001</v>
       </c>
-      <c r="Q72" s="40">
+      <c r="Q72" s="45">
         <v>20.758356915066301</v>
       </c>
-      <c r="R72" s="41">
-        <v>12.2648168279625</v>
+      <c r="R72" s="46">
+        <v>12.2446382088318</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A73" s="35" t="s">
+      <c r="A73" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B73" s="39" t="s">
+      <c r="B73" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="C73" s="40">
+      <c r="C73" s="45">
         <v>18.814702151391799</v>
       </c>
-      <c r="D73" s="40">
+      <c r="D73" s="45">
         <v>13.8951608137537</v>
       </c>
-      <c r="E73" s="40">
+      <c r="E73" s="45">
         <v>20.640612443461901</v>
       </c>
-      <c r="F73" s="40">
+      <c r="F73" s="45">
         <v>19.9969658460818</v>
       </c>
-      <c r="G73" s="40">
+      <c r="G73" s="45">
         <v>15.5622013994738</v>
       </c>
-      <c r="H73" s="41">
+      <c r="H73" s="46">
         <v>6.5261917390817397</v>
       </c>
-      <c r="I73" s="40">
+      <c r="I73" s="45">
         <v>23.064072370553301</v>
       </c>
-      <c r="J73" s="40">
+      <c r="J73" s="45">
         <v>17.129994184894102</v>
       </c>
-      <c r="K73" s="40">
+      <c r="K73" s="45">
         <v>25.471735408589598</v>
       </c>
-      <c r="L73" s="40">
+      <c r="L73" s="45">
         <v>19.3344851630916</v>
       </c>
-      <c r="M73" s="40">
+      <c r="M73" s="45">
         <v>18.9445497221257</v>
       </c>
-      <c r="N73" s="41">
+      <c r="N73" s="46">
         <v>4.6557241228146102</v>
       </c>
-      <c r="O73" s="40">
+      <c r="O73" s="47">
         <v>26030.979361999998</v>
       </c>
-      <c r="P73" s="40">
+      <c r="P73" s="47">
         <v>55427.969590000001</v>
       </c>
-      <c r="Q73" s="40">
+      <c r="Q73" s="45">
         <v>31.955947992084798</v>
       </c>
-      <c r="R73" s="41">
-        <v>28.041047608218001</v>
+      <c r="R73" s="46">
+        <v>28.0017794091486</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A74" s="35" t="s">
+      <c r="A74" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B74" s="39" t="s">
+      <c r="B74" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="C74" s="40">
+      <c r="C74" s="45">
         <v>4.1937362736247596</v>
       </c>
-      <c r="D74" s="40">
+      <c r="D74" s="45">
         <v>1.937451147482</v>
       </c>
-      <c r="E74" s="40">
+      <c r="E74" s="45">
         <v>5.5661290474333596</v>
       </c>
-      <c r="F74" s="40">
+      <c r="F74" s="45">
         <v>4.5472668901750604</v>
       </c>
-      <c r="G74" s="40">
+      <c r="G74" s="45">
         <v>60.2148692148862</v>
       </c>
-      <c r="H74" s="41">
+      <c r="H74" s="46">
         <v>3.0374539680533501</v>
       </c>
-      <c r="I74" s="40">
+      <c r="I74" s="45">
         <v>2.6231431637412199</v>
       </c>
-      <c r="J74" s="40">
+      <c r="J74" s="45">
         <v>2.9008188066222802</v>
       </c>
-      <c r="K74" s="40">
+      <c r="K74" s="45">
         <v>3.3616214390672399</v>
       </c>
-      <c r="L74" s="40">
+      <c r="L74" s="45">
         <v>13.678019737462799</v>
       </c>
-      <c r="M74" s="40">
+      <c r="M74" s="45">
         <v>49.572582247126803</v>
       </c>
-      <c r="N74" s="41">
+      <c r="N74" s="46">
         <v>3.5270604916799</v>
       </c>
-      <c r="O74" s="40">
+      <c r="O74" s="47">
         <v>2072.3425769999999</v>
       </c>
-      <c r="P74" s="40">
+      <c r="P74" s="47">
         <v>60209.224675999998</v>
       </c>
-      <c r="Q74" s="40">
+      <c r="Q74" s="45">
         <v>3.3273770529597302</v>
       </c>
-      <c r="R74" s="41">
-        <v>24.952605976376798</v>
+      <c r="R74" s="46">
+        <v>24.6839941483735</v>
       </c>
     </row>
     <row r="75" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="35" t="s">
+      <c r="A75" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B75" s="42" t="s">
+      <c r="B75" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="C75" s="43">
+      <c r="C75" s="49">
         <v>4.0820555583802802</v>
       </c>
-      <c r="D75" s="43">
+      <c r="D75" s="49">
         <v>3.8611797342237999</v>
       </c>
-      <c r="E75" s="43">
-        <v>4.3497344026793003</v>
-      </c>
-      <c r="F75" s="43">
+      <c r="E75" s="49">
+        <v>4.3497344026793101</v>
+      </c>
+      <c r="F75" s="49">
         <v>48.379420537883398</v>
       </c>
-      <c r="G75" s="43">
+      <c r="G75" s="49">
         <v>15.636482211406101</v>
       </c>
-      <c r="H75" s="44">
+      <c r="H75" s="50">
         <v>2.3099507913248001</v>
       </c>
-      <c r="I75" s="43">
+      <c r="I75" s="49">
         <v>23.0772289477631</v>
       </c>
-      <c r="J75" s="43">
+      <c r="J75" s="49">
         <v>19.246333882401601</v>
       </c>
-      <c r="K75" s="43">
+      <c r="K75" s="49">
         <v>25.828341794282998</v>
       </c>
-      <c r="L75" s="43">
+      <c r="L75" s="49">
         <v>17.173750074505499</v>
       </c>
-      <c r="M75" s="43">
+      <c r="M75" s="49">
         <v>20.653968134130899</v>
       </c>
-      <c r="N75" s="44">
+      <c r="N75" s="50">
         <v>3.5805262092386201</v>
       </c>
-      <c r="O75" s="43">
+      <c r="O75" s="51">
         <v>3778.676195</v>
       </c>
-      <c r="P75" s="43">
+      <c r="P75" s="51">
         <v>7071.6492749999998</v>
       </c>
-      <c r="Q75" s="43">
+      <c r="Q75" s="49">
         <v>34.825464042047798</v>
       </c>
-      <c r="R75" s="44">
-        <v>34.8208617812762</v>
+      <c r="R75" s="50">
+        <v>34.772588685534899</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A76" s="35" t="s">
+      <c r="A76" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B76" s="39" t="s">
+      <c r="B76" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="C76" s="40">
+      <c r="C76" s="45">
         <v>20.277807646693599</v>
       </c>
-      <c r="D76" s="40" t="s">
+      <c r="D76" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E76" s="40">
+      <c r="E76" s="45">
         <v>62.4531816476321</v>
       </c>
-      <c r="F76" s="40">
+      <c r="F76" s="45">
         <v>15.381082422862701</v>
       </c>
-      <c r="G76" s="40">
+      <c r="G76" s="45">
         <v>9.9293255181448803</v>
       </c>
-      <c r="H76" s="41">
+      <c r="H76" s="46">
         <v>15.1060167000488</v>
       </c>
-      <c r="I76" s="40">
+      <c r="I76" s="45">
         <v>22.520287844291801</v>
       </c>
-      <c r="J76" s="40" t="s">
+      <c r="J76" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="K76" s="40">
+      <c r="K76" s="45">
         <v>77.911804831583297</v>
       </c>
-      <c r="L76" s="40">
+      <c r="L76" s="45">
         <v>28.204113193331299</v>
       </c>
-      <c r="M76" s="40">
+      <c r="M76" s="45">
         <v>6.55926014309542</v>
       </c>
-      <c r="N76" s="41">
+      <c r="N76" s="46">
         <v>5.8949613017966396</v>
       </c>
-      <c r="O76" s="40">
+      <c r="O76" s="47">
         <v>643143.36690000002</v>
       </c>
-      <c r="P76" s="40">
+      <c r="P76" s="47">
         <v>191201.63107</v>
       </c>
-      <c r="Q76" s="40">
+      <c r="Q76" s="45">
         <v>77.0836246953955</v>
       </c>
-      <c r="R76" s="41">
-        <v>47.746674537101903</v>
+      <c r="R76" s="46">
+        <v>47.7872263600674</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A77" s="35" t="s">
+      <c r="A77" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="39" t="s">
+      <c r="B77" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="C77" s="40">
+      <c r="C77" s="45">
         <v>14.798409422973499</v>
       </c>
-      <c r="D77" s="40" t="s">
+      <c r="D77" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E77" s="40">
+      <c r="E77" s="45">
         <v>14.798412309350701</v>
       </c>
-      <c r="F77" s="40">
+      <c r="F77" s="45">
         <v>25.929817326555</v>
       </c>
-      <c r="G77" s="40">
+      <c r="G77" s="45">
         <v>12.6297281512746</v>
       </c>
-      <c r="H77" s="41">
+      <c r="H77" s="46">
         <v>12.344571552331001</v>
       </c>
-      <c r="I77" s="40">
+      <c r="I77" s="45">
         <v>17.9072977935169</v>
       </c>
-      <c r="J77" s="40" t="s">
+      <c r="J77" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="K77" s="40">
+      <c r="K77" s="45">
         <v>17.9073035013277</v>
       </c>
-      <c r="L77" s="40">
+      <c r="L77" s="45">
         <v>23.611913504737899</v>
       </c>
-      <c r="M77" s="40">
+      <c r="M77" s="45">
         <v>15.8537059980025</v>
       </c>
-      <c r="N77" s="41">
+      <c r="N77" s="46">
         <v>18.4546380194469</v>
       </c>
-      <c r="O77" s="40">
+      <c r="O77" s="47">
         <v>41586.898676999997</v>
       </c>
-      <c r="P77" s="40">
+      <c r="P77" s="47">
         <v>172385.375761</v>
       </c>
-      <c r="Q77" s="40">
+      <c r="Q77" s="45">
         <v>19.435648280240201</v>
       </c>
-      <c r="R77" s="41">
-        <v>18.478312145378599</v>
+      <c r="R77" s="46">
+        <v>18.525169953938299</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A78" s="35" t="s">
+      <c r="A78" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="39" t="s">
+      <c r="B78" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="C78" s="40">
+      <c r="C78" s="45">
         <v>58.164489291895102</v>
       </c>
-      <c r="D78" s="40" t="s">
+      <c r="D78" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E78" s="40">
+      <c r="E78" s="45">
         <v>72.936311273426099</v>
       </c>
-      <c r="F78" s="40">
+      <c r="F78" s="45">
         <v>4.4303489857286902</v>
       </c>
-      <c r="G78" s="40">
+      <c r="G78" s="45">
         <v>58.164489291895102</v>
       </c>
-      <c r="H78" s="41">
+      <c r="H78" s="46">
         <v>7.7278314215694897</v>
       </c>
-      <c r="I78" s="40">
+      <c r="I78" s="45">
         <v>60.447368856900702</v>
       </c>
-      <c r="J78" s="40" t="s">
+      <c r="J78" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="K78" s="40">
+      <c r="K78" s="45">
         <v>73.1348761830847</v>
       </c>
-      <c r="L78" s="40">
+      <c r="L78" s="45">
         <v>8.7608546495464896</v>
       </c>
-      <c r="M78" s="40">
+      <c r="M78" s="45">
         <v>60.447368856900702</v>
       </c>
-      <c r="N78" s="41">
+      <c r="N78" s="46">
         <v>4.5746624302206698</v>
       </c>
-      <c r="O78" s="40">
+      <c r="O78" s="47">
         <v>1875645.399857</v>
       </c>
-      <c r="P78" s="40">
+      <c r="P78" s="47">
         <v>649596.06862499996</v>
       </c>
-      <c r="Q78" s="40">
+      <c r="Q78" s="45">
         <v>74.275883049889401</v>
       </c>
-      <c r="R78" s="41">
-        <v>46.710722289173603</v>
+      <c r="R78" s="46">
+        <v>46.5460853149931</v>
       </c>
     </row>
     <row r="79" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="35" t="s">
+      <c r="A79" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B79" s="42" t="s">
+      <c r="B79" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="C79" s="43">
+      <c r="C79" s="49">
         <v>29.818832693601301</v>
       </c>
-      <c r="D79" s="43" t="s">
+      <c r="D79" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="E79" s="43">
+      <c r="E79" s="49">
         <v>61.777856247087698</v>
       </c>
-      <c r="F79" s="43">
+      <c r="F79" s="49">
         <v>8.6433222484002208</v>
       </c>
-      <c r="G79" s="43">
+      <c r="G79" s="49">
         <v>38.4941870249597</v>
       </c>
-      <c r="H79" s="44">
+      <c r="H79" s="50">
         <v>13.927026137554</v>
       </c>
-      <c r="I79" s="43">
+      <c r="I79" s="49">
         <v>27.5131097180046</v>
       </c>
-      <c r="J79" s="43" t="s">
+      <c r="J79" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="K79" s="43">
+      <c r="K79" s="49">
         <v>56.697989734553403</v>
       </c>
-      <c r="L79" s="43">
+      <c r="L79" s="49">
         <v>13.919956694998801</v>
       </c>
-      <c r="M79" s="43">
+      <c r="M79" s="49">
         <v>39.274841267548403</v>
       </c>
-      <c r="N79" s="44">
+      <c r="N79" s="50">
         <v>8.7394703919694301</v>
       </c>
-      <c r="O79" s="43">
+      <c r="O79" s="51">
         <v>3128225.2881149999</v>
       </c>
-      <c r="P79" s="43">
+      <c r="P79" s="51">
         <v>2196843.7538919998</v>
       </c>
-      <c r="Q79" s="43">
+      <c r="Q79" s="49">
         <v>58.745253130764702</v>
       </c>
-      <c r="R79" s="44">
-        <v>27.636831682715599</v>
+      <c r="R79" s="50">
+        <v>27.602956539886499</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A80" s="35" t="s">
+      <c r="A80" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B80" s="39" t="s">
+      <c r="B80" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="C80" s="40">
-        <v>3.5214712682147402</v>
-      </c>
-      <c r="D80" s="40">
-        <v>3.3002331419148998</v>
-      </c>
-      <c r="E80" s="40">
-        <v>7.4715088245494004</v>
-      </c>
-      <c r="F80" s="40">
-        <v>22.873425382668501</v>
-      </c>
-      <c r="G80" s="40">
-        <v>32.480218772993801</v>
-      </c>
-      <c r="H80" s="41">
-        <v>2.7906915713226801</v>
-      </c>
-      <c r="I80" s="40">
-        <v>2.4796868911284098</v>
-      </c>
-      <c r="J80" s="40">
-        <v>2.24768313370451</v>
-      </c>
-      <c r="K80" s="40">
-        <v>4.4849240829494699</v>
-      </c>
-      <c r="L80" s="40">
-        <v>25.407602847860399</v>
-      </c>
-      <c r="M80" s="40">
-        <v>32.519677176325601</v>
-      </c>
-      <c r="N80" s="41">
-        <v>5.70584195954011</v>
-      </c>
-      <c r="O80" s="40">
-        <v>2560.435246</v>
-      </c>
-      <c r="P80" s="40">
-        <v>51105.238339000003</v>
-      </c>
-      <c r="Q80" s="40">
-        <v>4.7710856399567501</v>
-      </c>
-      <c r="R80" s="41">
-        <v>16.102160988592999</v>
+      <c r="C80" s="45">
+        <v>3.51914366040879</v>
+      </c>
+      <c r="D80" s="45">
+        <v>3.2980864157025098</v>
+      </c>
+      <c r="E80" s="45">
+        <v>7.4664553045988704</v>
+      </c>
+      <c r="F80" s="45">
+        <v>22.855792591124001</v>
+      </c>
+      <c r="G80" s="45">
+        <v>32.526125138210702</v>
+      </c>
+      <c r="H80" s="46">
+        <v>2.7926946816504001</v>
+      </c>
+      <c r="I80" s="45">
+        <v>2.4587232269251902</v>
+      </c>
+      <c r="J80" s="45">
+        <v>2.2290069403179098</v>
+      </c>
+      <c r="K80" s="45">
+        <v>4.4924982253107002</v>
+      </c>
+      <c r="L80" s="45">
+        <v>25.228892657994699</v>
+      </c>
+      <c r="M80" s="45">
+        <v>32.9511402447908</v>
+      </c>
+      <c r="N80" s="46">
+        <v>5.6804493368817104</v>
+      </c>
+      <c r="O80" s="47">
+        <v>2563.6980669999998</v>
+      </c>
+      <c r="P80" s="47">
+        <v>51373.298843999997</v>
+      </c>
+      <c r="Q80" s="45">
+        <v>4.7531346085698596</v>
+      </c>
+      <c r="R80" s="46">
+        <v>16.2321589236386</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A81" s="35" t="s">
+      <c r="A81" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B81" s="39" t="s">
+      <c r="B81" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="C81" s="40">
-        <v>0.49827065581196001</v>
-      </c>
-      <c r="D81" s="40" t="s">
+      <c r="C81" s="45">
+        <v>0.48914401517224998</v>
+      </c>
+      <c r="D81" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E81" s="40">
-        <v>66.501911307850605</v>
-      </c>
-      <c r="F81" s="40">
-        <v>17.724540497931699</v>
-      </c>
-      <c r="G81" s="40">
-        <v>17.254395540609099</v>
-      </c>
-      <c r="H81" s="41">
-        <v>3.6426061182135498</v>
-      </c>
-      <c r="I81" s="40">
-        <v>0.82364496772314</v>
-      </c>
-      <c r="J81" s="40" t="s">
+      <c r="E81" s="45">
+        <v>66.224376237126606</v>
+      </c>
+      <c r="F81" s="45">
+        <v>17.609996035226501</v>
+      </c>
+      <c r="G81" s="45">
+        <v>17.0783908090607</v>
+      </c>
+      <c r="H81" s="46">
+        <v>3.6403431909752402</v>
+      </c>
+      <c r="I81" s="45">
+        <v>0.80884480122053004</v>
+      </c>
+      <c r="J81" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="K81" s="40">
-        <v>54.247548580320498</v>
-      </c>
-      <c r="L81" s="40">
-        <v>21.112630729224499</v>
-      </c>
-      <c r="M81" s="40">
-        <v>21.9051193144516</v>
-      </c>
-      <c r="N81" s="41">
-        <v>5.4986135027427903</v>
-      </c>
-      <c r="O81" s="40">
-        <v>196450.46552200001</v>
-      </c>
-      <c r="P81" s="40">
-        <v>197445.77514400001</v>
-      </c>
-      <c r="Q81" s="40">
-        <v>49.8736584004563</v>
-      </c>
-      <c r="R81" s="41">
-        <v>29.505691309920699</v>
+      <c r="K81" s="45">
+        <v>54.334079339369801</v>
+      </c>
+      <c r="L81" s="45">
+        <v>20.966206685119499</v>
+      </c>
+      <c r="M81" s="45">
+        <v>21.683854580854199</v>
+      </c>
+      <c r="N81" s="46">
+        <v>5.47879150677851</v>
+      </c>
+      <c r="O81" s="47">
+        <v>200174.22192400001</v>
+      </c>
+      <c r="P81" s="47">
+        <v>200556.120004</v>
+      </c>
+      <c r="Q81" s="45">
+        <v>49.952349742452398</v>
+      </c>
+      <c r="R81" s="46">
+        <v>29.922585663263799</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A82" s="35" t="s">
+      <c r="A82" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B82" s="39" t="s">
+      <c r="B82" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="C82" s="40">
-        <v>15.2938751629653</v>
-      </c>
-      <c r="D82" s="40">
-        <v>11.1268928585023</v>
-      </c>
-      <c r="E82" s="40">
-        <v>17.2376793310289</v>
-      </c>
-      <c r="F82" s="40">
-        <v>10.3359562671437</v>
-      </c>
-      <c r="G82" s="40">
-        <v>23.510237793819599</v>
-      </c>
-      <c r="H82" s="41">
-        <v>5.7701561107436596</v>
-      </c>
-      <c r="I82" s="40">
-        <v>12.319956740810399</v>
-      </c>
-      <c r="J82" s="40">
-        <v>9.0376037762057297</v>
-      </c>
-      <c r="K82" s="40">
-        <v>14.3474464272261</v>
-      </c>
-      <c r="L82" s="40">
-        <v>20.359270755939999</v>
-      </c>
-      <c r="M82" s="40">
-        <v>24.843816328246898</v>
-      </c>
-      <c r="N82" s="41">
-        <v>4.3207769132954601</v>
-      </c>
-      <c r="O82" s="40">
-        <v>40548.795539999999</v>
-      </c>
-      <c r="P82" s="40">
-        <v>187093.45801199999</v>
-      </c>
-      <c r="Q82" s="40">
-        <v>17.812508401801399</v>
-      </c>
-      <c r="R82" s="41">
-        <v>20.7741079048362</v>
+      <c r="C82" s="45">
+        <v>15.297832186338599</v>
+      </c>
+      <c r="D82" s="45">
+        <v>11.1297220017168</v>
+      </c>
+      <c r="E82" s="45">
+        <v>17.2419957665998</v>
+      </c>
+      <c r="F82" s="45">
+        <v>10.338400255646601</v>
+      </c>
+      <c r="G82" s="45">
+        <v>23.492612114702201</v>
+      </c>
+      <c r="H82" s="46">
+        <v>5.7702994146080799</v>
+      </c>
+      <c r="I82" s="45">
+        <v>12.351788676589299</v>
+      </c>
+      <c r="J82" s="45">
+        <v>9.0607043533109692</v>
+      </c>
+      <c r="K82" s="45">
+        <v>14.371638161780901</v>
+      </c>
+      <c r="L82" s="45">
+        <v>20.394057081189299</v>
+      </c>
+      <c r="M82" s="45">
+        <v>24.706990693776799</v>
+      </c>
+      <c r="N82" s="46">
+        <v>4.3239433496515502</v>
+      </c>
+      <c r="O82" s="47">
+        <v>40545.532719000003</v>
+      </c>
+      <c r="P82" s="47">
+        <v>186825.39750699999</v>
+      </c>
+      <c r="Q82" s="45">
+        <v>17.832329171851001</v>
+      </c>
+      <c r="R82" s="46">
+        <v>20.441427354558101</v>
       </c>
     </row>
     <row r="83" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="35" t="s">
+      <c r="A83" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B83" s="42" t="s">
+      <c r="B83" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="C83" s="43">
-        <v>22.402355036322199</v>
-      </c>
-      <c r="D83" s="43" t="s">
+      <c r="C83" s="49">
+        <v>22.431814291890198</v>
+      </c>
+      <c r="D83" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="E83" s="43">
-        <v>57.396067500639198</v>
-      </c>
-      <c r="F83" s="43">
-        <v>7.9692160719103002</v>
-      </c>
-      <c r="G83" s="43">
-        <v>30.8568552922567</v>
-      </c>
-      <c r="H83" s="44">
-        <v>14.3697006627775</v>
-      </c>
-      <c r="I83" s="43">
-        <v>22.795011112072199</v>
-      </c>
-      <c r="J83" s="43" t="s">
+      <c r="E83" s="49">
+        <v>57.4040183429967</v>
+      </c>
+      <c r="F83" s="49">
+        <v>7.9646112484553404</v>
+      </c>
+      <c r="G83" s="49">
+        <v>30.8873785411132</v>
+      </c>
+      <c r="H83" s="50">
+        <v>14.383969330559699</v>
+      </c>
+      <c r="I83" s="49">
+        <v>22.819714000610499</v>
+      </c>
+      <c r="J83" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="K83" s="43">
-        <v>57.666747570813399</v>
-      </c>
-      <c r="L83" s="43">
-        <v>13.9692498753693</v>
-      </c>
-      <c r="M83" s="43">
-        <v>32.342361571387102</v>
-      </c>
-      <c r="N83" s="44">
-        <v>8.4475458613936603</v>
-      </c>
-      <c r="O83" s="43">
-        <v>4801277.0928649995</v>
-      </c>
-      <c r="P83" s="43">
-        <v>3310417.5417209999</v>
-      </c>
-      <c r="Q83" s="43">
-        <v>59.189569000707898</v>
-      </c>
-      <c r="R83" s="44">
-        <v>25.978873230176099</v>
+      <c r="K83" s="49">
+        <v>57.665234372458499</v>
+      </c>
+      <c r="L83" s="49">
+        <v>13.97033928636</v>
+      </c>
+      <c r="M83" s="49">
+        <v>32.367016612869797</v>
+      </c>
+      <c r="N83" s="50">
+        <v>8.4519370536749499</v>
+      </c>
+      <c r="O83" s="51">
+        <v>4797553.3364629997</v>
+      </c>
+      <c r="P83" s="51">
+        <v>3307307.1968609998</v>
+      </c>
+      <c r="Q83" s="49">
+        <v>59.193533519020498</v>
+      </c>
+      <c r="R83" s="50">
+        <v>25.890016460995</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A84" s="35" t="s">
+      <c r="A84" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B84" s="39" t="s">
+      <c r="B84" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="C84" s="40">
+      <c r="C84" s="45">
         <v>12.7259646447999</v>
       </c>
-      <c r="D84" s="40">
+      <c r="D84" s="45">
         <v>5.9093606261545997</v>
       </c>
-      <c r="E84" s="40">
+      <c r="E84" s="45">
         <v>13.818493110960899</v>
       </c>
-      <c r="F84" s="40">
+      <c r="F84" s="45">
         <v>18.789644043630801</v>
       </c>
-      <c r="G84" s="40">
+      <c r="G84" s="45">
         <v>10.0044328118867</v>
       </c>
-      <c r="H84" s="41">
+      <c r="H84" s="46">
         <v>1.86501848276453</v>
       </c>
-      <c r="I84" s="40">
+      <c r="I84" s="45">
         <v>17.747908405531199</v>
       </c>
-      <c r="J84" s="40">
+      <c r="J84" s="45">
         <v>11.781639016897801</v>
       </c>
-      <c r="K84" s="40">
+      <c r="K84" s="45">
         <v>19.692909721947899</v>
       </c>
-      <c r="L84" s="40">
+      <c r="L84" s="45">
         <v>23.300404940979799</v>
       </c>
-      <c r="M84" s="40">
+      <c r="M84" s="45">
         <v>14.9277943147433</v>
       </c>
-      <c r="N84" s="41">
+      <c r="N84" s="46">
         <v>3.7995058840706601</v>
       </c>
-      <c r="O84" s="40">
+      <c r="O84" s="47">
         <v>12845.347861</v>
       </c>
-      <c r="P84" s="40">
+      <c r="P84" s="47">
         <v>31205.472985</v>
       </c>
-      <c r="Q84" s="40">
+      <c r="Q84" s="45">
         <v>29.160291713761399</v>
       </c>
-      <c r="R84" s="41">
-        <v>18.6945543790595</v>
+      <c r="R84" s="46">
+        <v>18.872523863795301</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A85" s="35" t="s">
+      <c r="A85" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B85" s="39" t="s">
+      <c r="B85" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="C85" s="40" t="s">
+      <c r="C85" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="D85" s="40" t="s">
+      <c r="D85" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E85" s="40">
+      <c r="E85" s="45">
         <v>82.777388842497601</v>
       </c>
-      <c r="F85" s="40">
+      <c r="F85" s="45">
         <v>17.319805200592398</v>
       </c>
-      <c r="G85" s="40">
+      <c r="G85" s="45">
         <v>4.4960996137229898</v>
       </c>
-      <c r="H85" s="41">
+      <c r="H85" s="46">
         <v>0.70406628009420003</v>
       </c>
-      <c r="I85" s="40" t="s">
+      <c r="I85" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="J85" s="40" t="s">
+      <c r="J85" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="K85" s="40">
+      <c r="K85" s="45">
         <v>64.304001665828096</v>
       </c>
-      <c r="L85" s="40">
+      <c r="L85" s="45">
         <v>21.020268509672398</v>
       </c>
-      <c r="M85" s="40">
+      <c r="M85" s="45">
         <v>6.1601939728154296</v>
       </c>
-      <c r="N85" s="41">
+      <c r="N85" s="46">
         <v>4.0814907183634199</v>
       </c>
-      <c r="O85" s="40">
+      <c r="O85" s="47">
         <v>6417.3836449999999</v>
       </c>
-      <c r="P85" s="40">
+      <c r="P85" s="47">
         <v>4512.6496020000004</v>
       </c>
-      <c r="Q85" s="40">
+      <c r="Q85" s="45">
         <v>58.713303976100903</v>
       </c>
-      <c r="R85" s="41">
-        <v>6.8771293523331103</v>
+      <c r="R85" s="46">
+        <v>6.8976024491522301</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A86" s="35" t="s">
+      <c r="A86" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B86" s="39" t="s">
+      <c r="B86" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="C86" s="40">
+      <c r="C86" s="45">
         <v>9.9462584563047596</v>
       </c>
-      <c r="D86" s="40">
+      <c r="D86" s="45">
         <v>7.1402168927297502</v>
       </c>
-      <c r="E86" s="40">
+      <c r="E86" s="45">
         <v>12.899897351940499</v>
       </c>
-      <c r="F86" s="40">
+      <c r="F86" s="45">
         <v>11.4438734603666</v>
       </c>
-      <c r="G86" s="40">
+      <c r="G86" s="45">
         <v>33.778216324729598</v>
       </c>
-      <c r="H86" s="41">
+      <c r="H86" s="46">
         <v>4.1727171934985599</v>
       </c>
-      <c r="I86" s="40">
+      <c r="I86" s="45">
         <v>6.3614914527407</v>
       </c>
-      <c r="J86" s="40">
+      <c r="J86" s="45">
         <v>4.5499856403794903</v>
       </c>
-      <c r="K86" s="40">
+      <c r="K86" s="45">
         <v>7.9100082845664001</v>
       </c>
-      <c r="L86" s="40">
+      <c r="L86" s="45">
         <v>22.059266882512599</v>
       </c>
-      <c r="M86" s="40">
+      <c r="M86" s="45">
         <v>30.195650264016201</v>
       </c>
-      <c r="N86" s="41">
+      <c r="N86" s="46">
         <v>4.8290781019646598</v>
       </c>
-      <c r="O86" s="40">
+      <c r="O86" s="47">
         <v>16545.522423999999</v>
       </c>
-      <c r="P86" s="40">
+      <c r="P86" s="47">
         <v>166994.028854</v>
       </c>
-      <c r="Q86" s="40">
+      <c r="Q86" s="45">
         <v>9.0146904625146203</v>
       </c>
-      <c r="R86" s="41">
-        <v>17.705529697404799</v>
+      <c r="R86" s="46">
+        <v>17.418892343797999</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A87" s="35" t="s">
+      <c r="A87" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B87" s="39" t="s">
+      <c r="B87" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="C87" s="40">
+      <c r="C87" s="45">
         <v>8.7209544155501106</v>
       </c>
-      <c r="D87" s="40" t="s">
+      <c r="D87" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E87" s="40">
-        <v>51.017503103724302</v>
-      </c>
-      <c r="F87" s="40">
+      <c r="E87" s="45">
+        <v>51.017503103724401</v>
+      </c>
+      <c r="F87" s="45">
         <v>13.505775448243</v>
       </c>
-      <c r="G87" s="40">
+      <c r="G87" s="45">
         <v>15.2371221884968</v>
       </c>
-      <c r="H87" s="41">
+      <c r="H87" s="46">
         <v>17.2829360339734</v>
       </c>
-      <c r="I87" s="40">
+      <c r="I87" s="45">
         <v>10.0960334883213</v>
       </c>
-      <c r="J87" s="40" t="s">
+      <c r="J87" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="K87" s="40">
+      <c r="K87" s="45">
         <v>72.184162300199603</v>
       </c>
-      <c r="L87" s="40">
+      <c r="L87" s="45">
         <v>27.0098742618387</v>
       </c>
-      <c r="M87" s="40">
+      <c r="M87" s="45">
         <v>8.9175669036779901</v>
       </c>
-      <c r="N87" s="41">
+      <c r="N87" s="46">
         <v>5.6838053761248597</v>
       </c>
-      <c r="O87" s="40">
+      <c r="O87" s="47">
         <v>592282.88664399995</v>
       </c>
-      <c r="P87" s="40">
+      <c r="P87" s="47">
         <v>246482.90108899999</v>
       </c>
-      <c r="Q87" s="40">
+      <c r="Q87" s="45">
         <v>70.6136200720359</v>
       </c>
-      <c r="R87" s="41">
-        <v>21.430627390630899</v>
+      <c r="R87" s="46">
+        <v>21.223134129567299</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A88" s="35" t="s">
+      <c r="A88" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B88" s="39" t="s">
+      <c r="B88" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="C88" s="40">
+      <c r="C88" s="45">
         <v>16.551072858168801</v>
       </c>
-      <c r="D88" s="40">
+      <c r="D88" s="45">
         <v>14.8434332711563</v>
       </c>
-      <c r="E88" s="40">
+      <c r="E88" s="45">
         <v>18.873972974559202</v>
       </c>
-      <c r="F88" s="40">
+      <c r="F88" s="45">
         <v>14.0792713153118</v>
       </c>
-      <c r="G88" s="40">
+      <c r="G88" s="45">
         <v>20.409717219766002</v>
       </c>
-      <c r="H88" s="41">
+      <c r="H88" s="46">
         <v>8.4800273334299003</v>
       </c>
-      <c r="I88" s="40">
+      <c r="I88" s="45">
         <v>15.496109518235601</v>
       </c>
-      <c r="J88" s="40">
+      <c r="J88" s="45">
         <v>13.441379928030299</v>
       </c>
-      <c r="K88" s="40">
+      <c r="K88" s="45">
         <v>19.1395228657044</v>
       </c>
-      <c r="L88" s="40">
+      <c r="L88" s="45">
         <v>17.829577638356302</v>
       </c>
-      <c r="M88" s="40">
+      <c r="M88" s="45">
         <v>25.652526407961599</v>
       </c>
-      <c r="N88" s="41">
+      <c r="N88" s="46">
         <v>4.7549924672736301</v>
       </c>
-      <c r="O88" s="40">
+      <c r="O88" s="47">
         <v>13674.520834000001</v>
       </c>
-      <c r="P88" s="40">
+      <c r="P88" s="47">
         <v>39766.885144</v>
       </c>
-      <c r="Q88" s="40">
+      <c r="Q88" s="45">
         <v>25.5878762613943</v>
       </c>
-      <c r="R88" s="41">
-        <v>28.540311444921102</v>
+      <c r="R88" s="46">
+        <v>28.5075574384622</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A89" s="35" t="s">
+      <c r="A89" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B89" s="39" t="s">
+      <c r="B89" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="C89" s="40">
+      <c r="C89" s="45">
         <v>5.2650777588463598</v>
       </c>
-      <c r="D89" s="40" t="s">
+      <c r="D89" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E89" s="40">
+      <c r="E89" s="45">
         <v>51.024781858089199</v>
       </c>
-      <c r="F89" s="40">
+      <c r="F89" s="45">
         <v>5.4358786654921598</v>
       </c>
-      <c r="G89" s="40">
+      <c r="G89" s="45">
         <v>18.067684766592699</v>
       </c>
-      <c r="H89" s="41">
+      <c r="H89" s="46">
         <v>19.077910595351099</v>
       </c>
-      <c r="I89" s="40">
+      <c r="I89" s="45">
         <v>6.3760527662139603</v>
       </c>
-      <c r="J89" s="40" t="s">
+      <c r="J89" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="K89" s="40">
+      <c r="K89" s="45">
         <v>52.9225463997304</v>
       </c>
-      <c r="L89" s="40">
+      <c r="L89" s="45">
         <v>10.53992028179</v>
       </c>
-      <c r="M89" s="40">
+      <c r="M89" s="45">
         <v>18.979856525516901</v>
       </c>
-      <c r="N89" s="41">
+      <c r="N89" s="46">
         <v>12.936290830431499</v>
       </c>
-      <c r="O89" s="40">
+      <c r="O89" s="47">
         <v>1249893.085802</v>
       </c>
-      <c r="P89" s="40">
+      <c r="P89" s="47">
         <v>1070216.2085609999</v>
       </c>
-      <c r="Q89" s="40">
+      <c r="Q89" s="45">
         <v>53.8721640760103</v>
       </c>
-      <c r="R89" s="41">
-        <v>23.751560552975299</v>
+      <c r="R89" s="46">
+        <v>23.758823814723399</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="35" t="s">
+      <c r="A90" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B90" s="42" t="s">
+      <c r="B90" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="C90" s="43">
+      <c r="C90" s="49">
         <v>30.040152643048099</v>
       </c>
-      <c r="D90" s="43">
+      <c r="D90" s="49">
         <v>6.0786866481999996E-4</v>
       </c>
-      <c r="E90" s="43">
+      <c r="E90" s="49">
         <v>62.199780564094603</v>
       </c>
-      <c r="F90" s="43">
+      <c r="F90" s="49">
         <v>9.6136352236612002</v>
       </c>
-      <c r="G90" s="43">
+      <c r="G90" s="49">
         <v>37.454875647934898</v>
       </c>
-      <c r="H90" s="44">
+      <c r="H90" s="50">
         <v>10.6140478932283</v>
       </c>
-      <c r="I90" s="43">
+      <c r="I90" s="49">
         <v>28.005503059891399</v>
       </c>
-      <c r="J90" s="43">
+      <c r="J90" s="49">
         <v>3.3447077128000001E-4</v>
       </c>
-      <c r="K90" s="43">
+      <c r="K90" s="49">
         <v>57.277996695448401</v>
       </c>
-      <c r="L90" s="43">
+      <c r="L90" s="49">
         <v>14.1494344055355</v>
       </c>
-      <c r="M90" s="43">
+      <c r="M90" s="49">
         <v>38.7403469849665</v>
       </c>
-      <c r="N90" s="44">
+      <c r="N90" s="50">
         <v>7.0379688328277004</v>
       </c>
-      <c r="O90" s="43">
+      <c r="O90" s="51">
         <v>3148646.1731949998</v>
       </c>
-      <c r="P90" s="43">
+      <c r="P90" s="51">
         <v>2185127.3654769999</v>
       </c>
-      <c r="Q90" s="43">
+      <c r="Q90" s="49">
         <v>59.032243314532401</v>
       </c>
-      <c r="R90" s="44">
-        <v>29.8247149566456</v>
+      <c r="R90" s="50">
+        <v>29.810528774433902</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A91" s="35" t="s">
+      <c r="A91" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B91" s="39" t="s">
+      <c r="B91" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="C91" s="40">
+      <c r="C91" s="45">
         <v>13.4384713286875</v>
       </c>
-      <c r="D91" s="40">
+      <c r="D91" s="45">
         <v>7.5458354232525604</v>
       </c>
-      <c r="E91" s="40">
+      <c r="E91" s="45">
         <v>14.340363117580299</v>
       </c>
-      <c r="F91" s="40">
+      <c r="F91" s="45">
         <v>24.6022794831391</v>
       </c>
-      <c r="G91" s="40">
+      <c r="G91" s="45">
         <v>10.029116574699099</v>
       </c>
-      <c r="H91" s="41">
+      <c r="H91" s="46">
         <v>1.9799787972240199</v>
       </c>
-      <c r="I91" s="40">
+      <c r="I91" s="45">
         <v>18.0058306725143</v>
       </c>
-      <c r="J91" s="40">
+      <c r="J91" s="45">
         <v>11.5590394087069</v>
       </c>
-      <c r="K91" s="40">
+      <c r="K91" s="45">
         <v>19.5771226781142</v>
       </c>
-      <c r="L91" s="40">
+      <c r="L91" s="45">
         <v>24.248505740691002</v>
       </c>
-      <c r="M91" s="40">
+      <c r="M91" s="45">
         <v>15.790393366578799</v>
       </c>
-      <c r="N91" s="41">
+      <c r="N91" s="46">
         <v>3.5660624909000198</v>
       </c>
-      <c r="O91" s="40">
+      <c r="O91" s="47">
         <v>19263.287218000001</v>
       </c>
-      <c r="P91" s="40">
+      <c r="P91" s="47">
         <v>50219.912323999997</v>
       </c>
-      <c r="Q91" s="40">
+      <c r="Q91" s="45">
         <v>27.7236617556105</v>
       </c>
-      <c r="R91" s="41">
-        <v>22.232226551438401</v>
+      <c r="R91" s="46">
+        <v>22.3511769711643</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A92" s="35" t="s">
+      <c r="A92" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B92" s="39" t="s">
+      <c r="B92" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="C92" s="40">
+      <c r="C92" s="45">
         <v>14.9405810063272</v>
       </c>
-      <c r="D92" s="40" t="s">
+      <c r="D92" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E92" s="40">
+      <c r="E92" s="45">
         <v>40.053329316025199</v>
       </c>
-      <c r="F92" s="40">
+      <c r="F92" s="45">
         <v>10.1792865614908</v>
       </c>
-      <c r="G92" s="40">
+      <c r="G92" s="45">
         <v>30.697185723515101</v>
       </c>
-      <c r="H92" s="41">
+      <c r="H92" s="46">
         <v>15.521700501201799</v>
       </c>
-      <c r="I92" s="40">
+      <c r="I92" s="45">
         <v>18.939485444091599</v>
       </c>
-      <c r="J92" s="40" t="s">
+      <c r="J92" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="K92" s="40">
+      <c r="K92" s="45">
         <v>82.202825815110998</v>
       </c>
-      <c r="L92" s="40">
+      <c r="L92" s="45">
         <v>30.187547275534801</v>
       </c>
-      <c r="M92" s="40">
+      <c r="M92" s="45">
         <v>4.1240213358161801</v>
       </c>
-      <c r="N92" s="41">
+      <c r="N92" s="46">
         <v>3.3238563142768198</v>
       </c>
-      <c r="O92" s="40">
+      <c r="O92" s="47">
         <v>67489.435308999993</v>
       </c>
-      <c r="P92" s="40">
+      <c r="P92" s="47">
         <v>15834.234252</v>
       </c>
-      <c r="Q92" s="40">
+      <c r="Q92" s="45">
         <v>80.996715176582597</v>
       </c>
-      <c r="R92" s="41">
-        <v>16.035765040178202</v>
+      <c r="R92" s="46">
+        <v>14.806260855460399</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A93" s="35" t="s">
+      <c r="A93" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B93" s="39" t="s">
+      <c r="B93" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="C93" s="40">
+      <c r="C93" s="45">
         <v>23.527801998148401</v>
       </c>
-      <c r="D93" s="40">
+      <c r="D93" s="45">
         <v>7.7364701781868996</v>
       </c>
-      <c r="E93" s="40">
+      <c r="E93" s="45">
         <v>24.3631710795541</v>
       </c>
-      <c r="F93" s="40">
+      <c r="F93" s="45">
         <v>0.88346874584390001</v>
       </c>
-      <c r="G93" s="40">
+      <c r="G93" s="45">
         <v>29.312430155216099</v>
       </c>
-      <c r="H93" s="41">
+      <c r="H93" s="46">
         <v>5.8050459899138698</v>
       </c>
-      <c r="I93" s="40">
+      <c r="I93" s="45">
         <v>8.5618352695217208</v>
       </c>
-      <c r="J93" s="40">
+      <c r="J93" s="45">
         <v>2.8074920155799798</v>
       </c>
-      <c r="K93" s="40">
+      <c r="K93" s="45">
         <v>9.5690274311643009</v>
       </c>
-      <c r="L93" s="40">
+      <c r="L93" s="45">
         <v>13.2948879688544</v>
       </c>
-      <c r="M93" s="40">
+      <c r="M93" s="45">
         <v>31.8482428375087</v>
       </c>
-      <c r="N93" s="41">
+      <c r="N93" s="46">
         <v>1.69814760895449</v>
       </c>
-      <c r="O93" s="40">
+      <c r="O93" s="47">
         <v>275.525218</v>
       </c>
-      <c r="P93" s="40">
+      <c r="P93" s="47">
         <v>2201.8743020000002</v>
       </c>
-      <c r="Q93" s="40">
+      <c r="Q93" s="45">
         <v>11.121549664302799</v>
       </c>
-      <c r="R93" s="41">
-        <v>28.7147456900667</v>
+      <c r="R93" s="46">
+        <v>29.3035974990127</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A94" s="35" t="s">
+      <c r="A94" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B94" s="39" t="s">
+      <c r="B94" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="C94" s="40">
+      <c r="C94" s="45">
         <v>19.965868225439401</v>
       </c>
-      <c r="D94" s="40" t="s">
+      <c r="D94" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E94" s="40">
+      <c r="E94" s="45">
         <v>68.384431176004298</v>
       </c>
-      <c r="F94" s="40">
+      <c r="F94" s="45">
         <v>13.8749524712773</v>
       </c>
-      <c r="G94" s="40">
+      <c r="G94" s="45">
         <v>8.7073537438195192</v>
       </c>
-      <c r="H94" s="41">
+      <c r="H94" s="46">
         <v>11.7784589266734</v>
       </c>
-      <c r="I94" s="40">
+      <c r="I94" s="45">
         <v>19.831206571736999</v>
       </c>
-      <c r="J94" s="40" t="s">
+      <c r="J94" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="K94" s="40">
+      <c r="K94" s="45">
         <v>64.293092816155607</v>
       </c>
-      <c r="L94" s="40">
+      <c r="L94" s="45">
         <v>17.5851901303324</v>
       </c>
-      <c r="M94" s="40">
+      <c r="M94" s="45">
         <v>10.1578386251471</v>
       </c>
-      <c r="N94" s="41">
+      <c r="N94" s="46">
         <v>11.7227335975511</v>
       </c>
-      <c r="O94" s="40">
+      <c r="O94" s="47">
         <v>147298.35934299999</v>
       </c>
-      <c r="P94" s="40">
+      <c r="P94" s="47">
         <v>69956.566807000097</v>
       </c>
-      <c r="Q94" s="40">
+      <c r="Q94" s="45">
         <v>67.799778791345005</v>
       </c>
-      <c r="R94" s="41">
-        <v>112.586596239001</v>
+      <c r="R94" s="46">
+        <v>112.835632281504</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A95" s="35" t="s">
+      <c r="A95" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B95" s="39" t="s">
+      <c r="B95" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="C95" s="40">
+      <c r="C95" s="45">
         <v>19.741172456276999</v>
       </c>
-      <c r="D95" s="40">
+      <c r="D95" s="45">
         <v>14.5371631347281</v>
       </c>
-      <c r="E95" s="40">
+      <c r="E95" s="45">
         <v>20.6895487044989</v>
       </c>
-      <c r="F95" s="40">
+      <c r="F95" s="45">
         <v>6.8681096910574704</v>
       </c>
-      <c r="G95" s="40">
+      <c r="G95" s="45">
         <v>8.5593371764033392</v>
       </c>
-      <c r="H95" s="41">
+      <c r="H95" s="46">
         <v>2.21936094310204</v>
       </c>
-      <c r="I95" s="40">
+      <c r="I95" s="45">
         <v>35.090694303746098</v>
       </c>
-      <c r="J95" s="40">
+      <c r="J95" s="45">
         <v>30.651699844250999</v>
       </c>
-      <c r="K95" s="40">
+      <c r="K95" s="45">
         <v>37.704706646816597</v>
       </c>
-      <c r="L95" s="40">
+      <c r="L95" s="45">
         <v>15.050690844029999</v>
       </c>
-      <c r="M95" s="40">
+      <c r="M95" s="45">
         <v>14.17804009544</v>
       </c>
-      <c r="N95" s="41">
+      <c r="N95" s="46">
         <v>2.9278872696908902</v>
       </c>
-      <c r="O95" s="40">
+      <c r="O95" s="47">
         <v>12652.620516999999</v>
       </c>
-      <c r="P95" s="40">
+      <c r="P95" s="47">
         <v>16433.263188000001</v>
       </c>
-      <c r="Q95" s="40">
+      <c r="Q95" s="45">
         <v>43.5008977046311</v>
       </c>
-      <c r="R95" s="41">
-        <v>19.320975557333998</v>
+      <c r="R95" s="46">
+        <v>19.4067825659622</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="35" t="s">
+      <c r="A96" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B96" s="42" t="s">
+      <c r="B96" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="C96" s="43">
+      <c r="C96" s="49">
         <v>9.7101215837299808</v>
       </c>
-      <c r="D96" s="43" t="s">
+      <c r="D96" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="E96" s="43">
+      <c r="E96" s="49">
         <v>63.116766420900099</v>
       </c>
-      <c r="F96" s="43">
+      <c r="F96" s="49">
         <v>18.065856309504898</v>
       </c>
-      <c r="G96" s="43">
+      <c r="G96" s="49">
         <v>26.671695766566501</v>
       </c>
-      <c r="H96" s="44">
+      <c r="H96" s="50">
         <v>1.5285863827138599</v>
       </c>
-      <c r="I96" s="43">
+      <c r="I96" s="49">
         <v>7.2493411171606299</v>
       </c>
-      <c r="J96" s="43" t="s">
+      <c r="J96" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="K96" s="43">
+      <c r="K96" s="49">
         <v>60.439815946338904</v>
       </c>
-      <c r="L96" s="43">
+      <c r="L96" s="49">
         <v>20.731352706633999</v>
       </c>
-      <c r="M96" s="43">
+      <c r="M96" s="49">
         <v>16.160164817289999</v>
       </c>
-      <c r="N96" s="44">
+      <c r="N96" s="50">
         <v>2.8532165885684702</v>
       </c>
-      <c r="O96" s="43">
+      <c r="O96" s="51">
         <v>44691.442842999997</v>
       </c>
-      <c r="P96" s="43">
+      <c r="P96" s="51">
         <v>24645.681941999999</v>
       </c>
-      <c r="Q96" s="43">
+      <c r="Q96" s="49">
         <v>64.4552870941489</v>
       </c>
-      <c r="R96" s="44">
-        <v>27.003055957956001</v>
+      <c r="R96" s="50">
+        <v>26.965525954811199</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A97" s="35" t="s">
+      <c r="A97" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B97" s="39" t="s">
+      <c r="B97" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="C97" s="40">
+      <c r="C97" s="45">
         <v>11.6955537292359</v>
       </c>
-      <c r="D97" s="40">
+      <c r="D97" s="45">
         <v>7.6250292003996698</v>
       </c>
-      <c r="E97" s="40">
+      <c r="E97" s="45">
         <v>14.3484952634051</v>
       </c>
-      <c r="F97" s="40">
+      <c r="F97" s="45">
         <v>18.969703432758401</v>
       </c>
-      <c r="G97" s="40">
+      <c r="G97" s="45">
         <v>19.1484953608878</v>
       </c>
-      <c r="H97" s="41">
+      <c r="H97" s="46">
         <v>3.0199016588141498</v>
       </c>
-      <c r="I97" s="40">
+      <c r="I97" s="45">
         <v>13.7100534745899</v>
       </c>
-      <c r="J97" s="40">
+      <c r="J97" s="45">
         <v>9.1686511827968804</v>
       </c>
-      <c r="K97" s="40">
+      <c r="K97" s="45">
         <v>16.077838339750699</v>
       </c>
-      <c r="L97" s="40">
+      <c r="L97" s="45">
         <v>25.877691113425701</v>
       </c>
-      <c r="M97" s="40">
+      <c r="M97" s="45">
         <v>18.468836558</v>
       </c>
-      <c r="N97" s="41">
+      <c r="N97" s="46">
         <v>4.4426642775802296</v>
       </c>
-      <c r="O97" s="40">
+      <c r="O97" s="47">
         <v>24991.521315000002</v>
       </c>
-      <c r="P97" s="40">
+      <c r="P97" s="47">
         <v>85620.467046000005</v>
       </c>
-      <c r="Q97" s="40">
+      <c r="Q97" s="45">
         <v>22.593863183650701</v>
       </c>
-      <c r="R97" s="41">
-        <v>17.235270642716401</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A98" s="35" t="s">
+      <c r="R97" s="46">
+        <v>17.294511596875299</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B98" s="39" t="s">
+      <c r="B98" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="C98" s="40">
+      <c r="C98" s="49">
         <v>6.4601522422795501</v>
       </c>
-      <c r="D98" s="40" t="s">
+      <c r="D98" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="E98" s="40">
+      <c r="E98" s="49">
         <v>49.771318929123197</v>
       </c>
-      <c r="F98" s="40">
+      <c r="F98" s="49">
         <v>16.0848233090036</v>
       </c>
-      <c r="G98" s="40">
+      <c r="G98" s="49">
         <v>21.485775924328902</v>
       </c>
-      <c r="H98" s="41">
+      <c r="H98" s="50">
         <v>14.291936497456099</v>
       </c>
-      <c r="I98" s="40">
+      <c r="I98" s="49">
         <v>9.0522221364713307</v>
       </c>
-      <c r="J98" s="40" t="s">
+      <c r="J98" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="K98" s="40">
+      <c r="K98" s="49">
         <v>71.075193704524395</v>
       </c>
-      <c r="L98" s="40">
+      <c r="L98" s="49">
         <v>27.5269766219992</v>
       </c>
-      <c r="M98" s="40">
+      <c r="M98" s="49">
         <v>6.89961318474331</v>
       </c>
-      <c r="N98" s="41">
+      <c r="N98" s="50">
         <v>6.8139165092121798</v>
       </c>
-      <c r="O98" s="40">
+      <c r="O98" s="51">
         <v>117424.90313999999</v>
       </c>
-      <c r="P98" s="40">
+      <c r="P98" s="51">
         <v>51467.600703999997</v>
       </c>
-      <c r="Q98" s="40">
+      <c r="Q98" s="49">
         <v>69.526415008010801</v>
       </c>
-      <c r="R98" s="41">
-        <v>13.6878051607566</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B99" s="42" t="s">
+      <c r="R98" s="50">
+        <v>13.329663800036201</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A99" s="52"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="54"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="54"/>
+      <c r="F99" s="54"/>
+      <c r="G99" s="54"/>
+      <c r="H99" s="54"/>
+      <c r="I99" s="54"/>
+      <c r="J99" s="54"/>
+      <c r="K99" s="54"/>
+      <c r="L99" s="54"/>
+      <c r="M99" s="54"/>
+      <c r="N99" s="54"/>
+      <c r="O99" s="54"/>
+      <c r="P99" s="54"/>
+      <c r="Q99" s="54"/>
+      <c r="R99" s="54"/>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C99" s="43">
-        <v>5.2598388681443096</v>
-      </c>
-      <c r="D99" s="43">
-        <v>0.52152993283684002</v>
-      </c>
-      <c r="E99" s="43">
-        <v>50.5303029852208</v>
-      </c>
-      <c r="F99" s="43">
-        <v>32.0800938819688</v>
-      </c>
-      <c r="G99" s="43">
-        <v>10.5292137514749</v>
-      </c>
-      <c r="H99" s="44">
-        <v>4.1222553404411597</v>
-      </c>
-      <c r="I99" s="43">
-        <v>4.6863685547201497</v>
-      </c>
-      <c r="J99" s="43">
-        <v>1.2654695655166199</v>
-      </c>
-      <c r="K99" s="43">
-        <v>50.8635767702756</v>
-      </c>
-      <c r="L99" s="43">
-        <v>22.642464104158101</v>
-      </c>
-      <c r="M99" s="43">
-        <v>8.8412367939944101</v>
-      </c>
-      <c r="N99" s="44">
-        <v>4.3862824685502897</v>
-      </c>
-      <c r="O99" s="43">
-        <v>18440.119513000001</v>
-      </c>
-      <c r="P99" s="43">
-        <v>22702.183799999999</v>
-      </c>
-      <c r="Q99" s="43">
-        <v>44.820338260384602</v>
-      </c>
-      <c r="R99" s="44">
-        <v>23.506077656131499</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A100" s="45"/>
-      <c r="B100" s="46"/>
-      <c r="C100" s="47"/>
-      <c r="D100" s="47"/>
-      <c r="E100" s="47"/>
-      <c r="F100" s="47"/>
-      <c r="G100" s="47"/>
-      <c r="H100" s="47"/>
-      <c r="I100" s="47"/>
-      <c r="J100" s="47"/>
-      <c r="K100" s="47"/>
-      <c r="L100" s="47"/>
-      <c r="M100" s="47"/>
-      <c r="N100" s="47"/>
-      <c r="O100" s="47"/>
-      <c r="P100" s="47"/>
-      <c r="Q100" s="47"/>
-      <c r="R100" s="47"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A101" s="48" t="s">
+      <c r="A101" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A102" s="48" t="s">
+      <c r="A102" s="1" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A103" s="48" t="s">
+      <c r="A103" s="1" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A104" s="48" t="s">
+      <c r="A104" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A105" s="48" t="s">
+    <row r="107" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="56" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="108" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B108" s="51" t="s">
+      <c r="B108" s="56"/>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B109" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="109" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B109" s="51"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
@@ -6895,32 +6905,27 @@
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B112" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B114" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B110" r:id="rId1"/>
-    <hyperlink ref="B111" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
-    <hyperlink ref="B114" r:id="rId3"/>
-    <hyperlink ref="B113" r:id="rId4"/>
-    <hyperlink ref="B108" r:id="rId5" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{6FFE87FA-86BD-4ECA-8810-2E94B5E6C821}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{823F0E6F-66C5-494B-92D5-F782191A02F4}"/>
+    <hyperlink ref="B107" r:id="rId1" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{9C56C7C3-6A9D-4A3C-B44E-B57DC939450D}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{CD531381-D85B-49BE-AB63-2ECF6E8A12FE}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{F3BC3759-6701-46E2-9346-8680F6380FEA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/AfDD_2023_Annex_Table_Tab21.xlsx
+++ b/AfDD_2023_Annex_Table_Tab21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB08B289-1C8A-4995-8903-F49537468B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E081467F-1C73-43D1-9A12-5650EAF6FBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{D123D8F3-DAE3-46F3-9077-91500F9010F8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F9B9EECE-C337-4CCD-AFFA-3FC2ECB86210}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab21" sheetId="1" r:id="rId1"/>
@@ -546,13 +546,13 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>GDP ratios are calculated using investment, capital stock and GPD in constant 2017 international dollars. Figures in US dollars are converted from national currency using the ratio of GDP in US dollars to gdp in national currency.</t>
   </si>
   <si>
-    <t>Source: Author's calculations based on IMF Investment and Capital Stock dataset (updated on June 15, 2022) and IMF World Economic Outlook Database October 2022.</t>
+    <t>Source: Author's calculations based on IMF Investment and Capital Stock dataset (updated on June 15, 2022) and IMF World Economic Outlook Database April 2023.</t>
   </si>
   <si>
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
@@ -1448,7 +1448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25C0B9B-3AD5-4F3D-ADDE-37BEBA96FCAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FD2E3B-1CB7-414E-B691-86E1B6BE9898}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1587,7 +1587,7 @@
         <v>175.232667955008</v>
       </c>
       <c r="I4" s="17">
-        <v>1309.8418937974</v>
+        <v>1309.84189379741</v>
       </c>
       <c r="J4" s="20">
         <v>4474.5265426004798</v>
@@ -1596,7 +1596,7 @@
         <v>19470.117146188899</v>
       </c>
       <c r="L4" s="20">
-        <v>82.254709036107599</v>
+        <v>82.254709036107698</v>
       </c>
       <c r="M4" s="21">
         <v>36807.149439194</v>
@@ -1669,19 +1669,19 @@
         <v>121.14282184839701</v>
       </c>
       <c r="I6" s="23">
-        <v>363.585481920897</v>
+        <v>363.58548192089802</v>
       </c>
       <c r="J6" s="26">
-        <v>364.46673929126302</v>
+        <v>364.46673929126399</v>
       </c>
       <c r="K6" s="26">
-        <v>4175.1097738484204</v>
+        <v>4175.1097738484305</v>
       </c>
       <c r="L6" s="26">
         <v>0</v>
       </c>
       <c r="M6" s="27">
-        <v>4153.7403145343296</v>
+        <v>4153.7403145343496</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -1710,19 +1710,19 @@
         <v>53.131636513126097</v>
       </c>
       <c r="I7" s="23">
-        <v>544.49939898902903</v>
+        <v>544.49939898903301</v>
       </c>
       <c r="J7" s="26">
-        <v>481.717040967027</v>
+        <v>481.71704096703002</v>
       </c>
       <c r="K7" s="26">
-        <v>6790.5319806355901</v>
+        <v>6790.5319806356401</v>
       </c>
       <c r="L7" s="26">
-        <v>3.5413684137690402</v>
+        <v>3.54136841376907</v>
       </c>
       <c r="M7" s="27">
-        <v>8001.1880630478699</v>
+        <v>8001.18806304793</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -1792,19 +1792,19 @@
         <v>135.01265451005301</v>
       </c>
       <c r="I9" s="23">
-        <v>617.98293676100195</v>
+        <v>617.982936761004</v>
       </c>
       <c r="J9" s="26">
         <v>1378.89695037347</v>
       </c>
       <c r="K9" s="26">
-        <v>8949.7320874136694</v>
+        <v>8949.7320874137004</v>
       </c>
       <c r="L9" s="26">
-        <v>31.952539179708801</v>
+        <v>31.9525391797089</v>
       </c>
       <c r="M9" s="27">
-        <v>17611.587184164498</v>
+        <v>17611.5871841646</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -1836,7 +1836,7 @@
         <v>9501.6258378371203</v>
       </c>
       <c r="J10" s="26">
-        <v>53389.5926939415</v>
+        <v>53389.592693941602</v>
       </c>
       <c r="K10" s="26">
         <v>191079.790628118</v>
@@ -1845,7 +1845,7 @@
         <v>16087.724258718299</v>
       </c>
       <c r="M10" s="27">
-        <v>670542.94349956</v>
+        <v>670542.94349956105</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -1877,7 +1877,7 @@
         <v>2026.9046188603099</v>
       </c>
       <c r="J11" s="20">
-        <v>6259.20262421814</v>
+        <v>6259.20262421815</v>
       </c>
       <c r="K11" s="20">
         <v>11842.4965301348</v>
@@ -1886,7 +1886,7 @@
         <v>1896.87671173072</v>
       </c>
       <c r="M11" s="21">
-        <v>53225.255807857196</v>
+        <v>53225.255807857298</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1924,7 +1924,7 @@
         <v>20</v>
       </c>
       <c r="L12" s="26">
-        <v>25.483345616348799</v>
+        <v>25.483345616348899</v>
       </c>
       <c r="M12" s="27" t="s">
         <v>20</v>
@@ -1938,28 +1938,28 @@
         <v>36</v>
       </c>
       <c r="C13" s="30">
-        <v>3.0817262870407598</v>
+        <v>3.0816631281520501</v>
       </c>
       <c r="D13" s="31">
-        <v>0.38124648984412002</v>
+        <v>0.38124751065333001</v>
       </c>
       <c r="E13" s="31">
-        <v>14.115908276419701</v>
+        <v>14.1159375489285</v>
       </c>
       <c r="F13" s="31">
-        <v>63.476502046032799</v>
+        <v>63.476012624725598</v>
       </c>
       <c r="G13" s="31">
-        <v>3.1333746116019201</v>
+        <v>3.1333851511189201</v>
       </c>
       <c r="H13" s="32">
-        <v>169.82577468255599</v>
+        <v>169.82618344317899</v>
       </c>
       <c r="I13" s="30">
         <v>18478.683840179401</v>
       </c>
       <c r="J13" s="33">
-        <v>83932.114971100498</v>
+        <v>83932.1149711006</v>
       </c>
       <c r="K13" s="33">
         <v>365308.26415572601</v>
@@ -1968,7 +1968,7 @@
         <v>19525.010979819799</v>
       </c>
       <c r="M13" s="34">
-        <v>991336.000687227</v>
+        <v>991336.00068722805</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -1997,19 +1997,19 @@
         <v>66.344570878036507</v>
       </c>
       <c r="I14" s="23">
-        <v>144.33164478335499</v>
+        <v>144.33164478335601</v>
       </c>
       <c r="J14" s="26">
-        <v>389.78508950164797</v>
+        <v>389.785089501649</v>
       </c>
       <c r="K14" s="26">
-        <v>2238.7883619620102</v>
+        <v>2238.7883619620202</v>
       </c>
       <c r="L14" s="26" t="s">
         <v>20</v>
       </c>
       <c r="M14" s="27">
-        <v>3448.1380387745799</v>
+        <v>3448.1380387745899</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -2041,16 +2041,16 @@
         <v>2032.63770764884</v>
       </c>
       <c r="J15" s="26">
-        <v>6952.5546836498397</v>
+        <v>6952.5546836498497</v>
       </c>
       <c r="K15" s="26">
         <v>24013.1476559449</v>
       </c>
       <c r="L15" s="26">
-        <v>984.91412259513197</v>
+        <v>984.91412259513299</v>
       </c>
       <c r="M15" s="27">
-        <v>64190.758504448197</v>
+        <v>64190.758504448298</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -2085,7 +2085,7 @@
         <v>306.22277244531602</v>
       </c>
       <c r="K16" s="26">
-        <v>7682.5849077331004</v>
+        <v>7682.5849077331104</v>
       </c>
       <c r="L16" s="26">
         <v>0</v>
@@ -2126,13 +2126,13 @@
         <v>1441.46267257103</v>
       </c>
       <c r="K17" s="39">
-        <v>6988.9512064869796</v>
+        <v>6988.9512064869996</v>
       </c>
       <c r="L17" s="39">
         <v>0</v>
       </c>
       <c r="M17" s="40">
-        <v>15116.4280176995</v>
+        <v>15116.4280176996</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
@@ -2161,7 +2161,7 @@
         <v>309.59492672557201</v>
       </c>
       <c r="I18" s="36">
-        <v>794.35283997598901</v>
+        <v>794.35283997599004</v>
       </c>
       <c r="J18" s="39">
         <v>2524.7941696876001</v>
@@ -2170,10 +2170,10 @@
         <v>19197.817345093201</v>
       </c>
       <c r="L18" s="39">
-        <v>884.647627698061</v>
+        <v>884.64762769806202</v>
       </c>
       <c r="M18" s="40">
-        <v>54498.149120711299</v>
+        <v>54498.149120711401</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
@@ -2205,7 +2205,7 @@
         <v>2052.31372027012</v>
       </c>
       <c r="J19" s="20">
-        <v>9804.5761811469201</v>
+        <v>9804.5761811469292</v>
       </c>
       <c r="K19" s="20">
         <v>21782.621754999702</v>
@@ -2243,13 +2243,13 @@
         <v>121.504169834584</v>
       </c>
       <c r="I20" s="36">
-        <v>803.10552247030603</v>
+        <v>803.10552247030898</v>
       </c>
       <c r="J20" s="39">
-        <v>658.76154960383803</v>
+        <v>658.76154960383997</v>
       </c>
       <c r="K20" s="39">
-        <v>41443.753430565303</v>
+        <v>41443.753430565499</v>
       </c>
       <c r="L20" s="39" t="s">
         <v>20</v>
@@ -2325,19 +2325,19 @@
         <v>123.771816369489</v>
       </c>
       <c r="I22" s="23">
-        <v>20.509258812256</v>
+        <v>20.509258812256199</v>
       </c>
       <c r="J22" s="26">
-        <v>56.031127953248202</v>
+        <v>56.031127953248699</v>
       </c>
       <c r="K22" s="26">
-        <v>1313.1515325365599</v>
+        <v>1313.1515325365699</v>
       </c>
       <c r="L22" s="26">
-        <v>119.673844340431</v>
+        <v>119.673844340432</v>
       </c>
       <c r="M22" s="27">
-        <v>770.29422690643798</v>
+        <v>770.29422690644503</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2348,28 +2348,28 @@
         <v>55</v>
       </c>
       <c r="C23" s="30">
-        <v>3.0047206902620398</v>
+        <v>2.9992968442467398</v>
       </c>
       <c r="D23" s="31">
-        <v>0.28107155190927002</v>
+        <v>0.27789855506307998</v>
       </c>
       <c r="E23" s="31">
-        <v>11.2262909256521</v>
+        <v>11.2255487912585</v>
       </c>
       <c r="F23" s="31">
-        <v>63.039466392931701</v>
+        <v>62.721930188146999</v>
       </c>
       <c r="G23" s="31">
-        <v>1.57840587869687</v>
+        <v>1.5658268293384101</v>
       </c>
       <c r="H23" s="32">
-        <v>131.802945072406</v>
+        <v>131.77464371227001</v>
       </c>
       <c r="I23" s="30">
-        <v>6691.21409235188</v>
+        <v>6691.21409235189</v>
       </c>
       <c r="J23" s="33">
-        <v>25293.972645108999</v>
+        <v>25293.972645109101</v>
       </c>
       <c r="K23" s="33">
         <v>139432.74235693301</v>
@@ -2407,19 +2407,19 @@
         <v>172.210799028948</v>
       </c>
       <c r="I24" s="23">
-        <v>72.721220803737296</v>
+        <v>72.721220803737594</v>
       </c>
       <c r="J24" s="26">
         <v>112.154793638125</v>
       </c>
       <c r="K24" s="26">
-        <v>606.20041428337299</v>
+        <v>606.20041428337595</v>
       </c>
       <c r="L24" s="26">
         <v>0.38682751830031997</v>
       </c>
       <c r="M24" s="27">
-        <v>2659.8536441221599</v>
+        <v>2659.85364412217</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
@@ -2457,10 +2457,10 @@
         <v>2869.41390518047</v>
       </c>
       <c r="L25" s="26">
-        <v>482.709187486438</v>
+        <v>482.70918748643902</v>
       </c>
       <c r="M25" s="27">
-        <v>3563.6246285874299</v>
+        <v>3563.6246285874399</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
@@ -2489,19 +2489,19 @@
         <v>49.752362597399198</v>
       </c>
       <c r="I26" s="23">
-        <v>40.2978838577395</v>
+        <v>40.297883857739698</v>
       </c>
       <c r="J26" s="26">
-        <v>39.637144129865199</v>
+        <v>39.637144129865398</v>
       </c>
       <c r="K26" s="26">
-        <v>4972.7209290461496</v>
+        <v>4972.7209290461797</v>
       </c>
       <c r="L26" s="26" t="s">
         <v>20</v>
       </c>
       <c r="M26" s="27">
-        <v>1004.41244704213</v>
+        <v>1004.41244704214</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
@@ -2536,13 +2536,13 @@
         <v>22272.9699522433</v>
       </c>
       <c r="K27" s="26">
-        <v>77964.021166167397</v>
+        <v>77964.021166167498</v>
       </c>
       <c r="L27" s="26">
-        <v>95.651776974626799</v>
+        <v>95.651776974626898</v>
       </c>
       <c r="M27" s="27">
-        <v>85795.315976540398</v>
+        <v>85795.3159765405</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
@@ -2571,19 +2571,19 @@
         <v>86.553903123853701</v>
       </c>
       <c r="I28" s="23">
-        <v>6725.4926648090895</v>
+        <v>6728.8634746178104</v>
       </c>
       <c r="J28" s="26">
-        <v>9266.5897102133604</v>
+        <v>9271.2341151730197</v>
       </c>
       <c r="K28" s="26">
-        <v>54160.348522998604</v>
+        <v>54187.493632382197</v>
       </c>
       <c r="L28" s="26">
-        <v>2746.7335183027599</v>
+        <v>2748.1101782363698</v>
       </c>
       <c r="M28" s="27">
-        <v>105468.357981434</v>
+        <v>105521.21861087999</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
@@ -2653,19 +2653,19 @@
         <v>120.54741786039099</v>
       </c>
       <c r="I30" s="23">
-        <v>765.35629976258099</v>
+        <v>765.35629976258497</v>
       </c>
       <c r="J30" s="26">
-        <v>2043.5842030359499</v>
+        <v>2043.5842030359599</v>
       </c>
       <c r="K30" s="26">
         <v>11370.106050505499</v>
       </c>
       <c r="L30" s="26">
-        <v>474.04335138143898</v>
+        <v>474.04335138144199</v>
       </c>
       <c r="M30" s="27">
-        <v>23074.093097833502</v>
+        <v>23074.0930978336</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
@@ -2694,19 +2694,19 @@
         <v>49.283287347602801</v>
       </c>
       <c r="I31" s="23">
-        <v>1336.2481799229599</v>
+        <v>1336.2481799229699</v>
       </c>
       <c r="J31" s="26">
-        <v>1447.67122933819</v>
+        <v>1447.6712293382</v>
       </c>
       <c r="K31" s="26">
-        <v>10864.3843030263</v>
+        <v>10864.3843030264</v>
       </c>
       <c r="L31" s="26">
-        <v>403.42280807966102</v>
+        <v>403.422808079665</v>
       </c>
       <c r="M31" s="27">
-        <v>9109.6686403479798</v>
+        <v>9109.6686403480599</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -2735,10 +2735,10 @@
         <v>276.66329376535202</v>
       </c>
       <c r="I32" s="23">
-        <v>78.004857027545498</v>
+        <v>78.004857027545597</v>
       </c>
       <c r="J32" s="26">
-        <v>451.99608613300597</v>
+        <v>451.996086133007</v>
       </c>
       <c r="K32" s="26">
         <v>2224.8204434265099</v>
@@ -2747,7 +2747,7 @@
         <v>27.465643107861801</v>
       </c>
       <c r="M32" s="27">
-        <v>4391.1314088400604</v>
+        <v>4391.1314088400704</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -2817,7 +2817,7 @@
         <v>20</v>
       </c>
       <c r="I34" s="17">
-        <v>708.47980374675501</v>
+        <v>708.47980374675603</v>
       </c>
       <c r="J34" s="20">
         <v>145.54163796866601</v>
@@ -2899,13 +2899,13 @@
         <v>100.53788619617799</v>
       </c>
       <c r="I36" s="23">
-        <v>7849.8843065247302</v>
+        <v>7849.8843065247402</v>
       </c>
       <c r="J36" s="26">
         <v>18580.720333180201</v>
       </c>
       <c r="K36" s="26">
-        <v>58001.881000165398</v>
+        <v>58001.8810001655</v>
       </c>
       <c r="L36" s="26">
         <v>627.96119280522805</v>
@@ -2940,10 +2940,10 @@
         <v>86.209658849703104</v>
       </c>
       <c r="I37" s="23">
-        <v>2918.5251010233801</v>
+        <v>2918.5251010233901</v>
       </c>
       <c r="J37" s="26">
-        <v>5524.6993271053298</v>
+        <v>5524.6993271053398</v>
       </c>
       <c r="K37" s="26">
         <v>19503.264791160102</v>
@@ -2952,7 +2952,7 @@
         <v>1284.8594380617001</v>
       </c>
       <c r="M37" s="27">
-        <v>57452.0165385574</v>
+        <v>57452.016538557597</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2963,37 +2963,37 @@
         <v>84</v>
       </c>
       <c r="C38" s="30">
-        <v>6.4724732762870198</v>
+        <v>6.4696013993813004</v>
       </c>
       <c r="D38" s="31">
-        <v>0.18061129953107999</v>
+        <v>0.18043415546496</v>
       </c>
       <c r="E38" s="31">
-        <v>12.792166221684701</v>
+        <v>12.7898922940639</v>
       </c>
       <c r="F38" s="31">
-        <v>52.884618084821099</v>
+        <v>52.892933754728503</v>
       </c>
       <c r="G38" s="31">
-        <v>1.0492815618501301</v>
+        <v>1.0506581644285999</v>
       </c>
       <c r="H38" s="32">
-        <v>83.723495505233302</v>
+        <v>83.767032553422496</v>
       </c>
       <c r="I38" s="30">
-        <v>31998.088009809398</v>
+        <v>32001.458819618201</v>
       </c>
       <c r="J38" s="33">
-        <v>62637.180353286603</v>
+        <v>62641.824758246301</v>
       </c>
       <c r="K38" s="33">
-        <v>275447.10088531999</v>
+        <v>275474.24599470501</v>
       </c>
       <c r="L38" s="33">
-        <v>6387.1787322145201</v>
+        <v>6388.5553921481396</v>
       </c>
       <c r="M38" s="34">
-        <v>440232.92804732599</v>
+        <v>440285.78867677198</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
@@ -3022,19 +3022,19 @@
         <v>153.59705841233099</v>
       </c>
       <c r="I39" s="36">
-        <v>23835.887323940598</v>
+        <v>23835.8873239407</v>
       </c>
       <c r="J39" s="39">
-        <v>42358.720337760897</v>
+        <v>42358.720337760999</v>
       </c>
       <c r="K39" s="39">
-        <v>325191.24618252902</v>
+        <v>325191.24618253001</v>
       </c>
       <c r="L39" s="39">
-        <v>4409.0146073301603</v>
+        <v>4409.0146073301703</v>
       </c>
       <c r="M39" s="40">
-        <v>398259.40620320803</v>
+        <v>398259.40620320902</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
@@ -3063,19 +3063,19 @@
         <v>39.955018651461998</v>
       </c>
       <c r="I40" s="23">
-        <v>26644.742590440699</v>
+        <v>26644.742590440801</v>
       </c>
       <c r="J40" s="26">
         <v>27754.040663722299</v>
       </c>
       <c r="K40" s="26">
-        <v>311668.01719903899</v>
+        <v>311668.01719903998</v>
       </c>
       <c r="L40" s="26">
-        <v>6101.9334032823899</v>
+        <v>6101.9334032823999</v>
       </c>
       <c r="M40" s="27">
-        <v>255848.87154421501</v>
+        <v>255848.871544216</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
@@ -3148,10 +3148,10 @@
         <v>309.10692170738503</v>
       </c>
       <c r="J42" s="39">
-        <v>2506.11441209134</v>
+        <v>2506.11441209135</v>
       </c>
       <c r="K42" s="39">
-        <v>6667.2387791663996</v>
+        <v>6667.2387791664096</v>
       </c>
       <c r="L42" s="39">
         <v>92.011357282752996</v>
@@ -3186,19 +3186,19 @@
         <v>232.54852249809201</v>
       </c>
       <c r="I43" s="23">
-        <v>5439.5863421192198</v>
+        <v>5439.5863421192398</v>
       </c>
       <c r="J43" s="26">
-        <v>27685.5550065893</v>
+        <v>27685.555006589399</v>
       </c>
       <c r="K43" s="26">
-        <v>66988.812874576601</v>
+        <v>66988.812874576804</v>
       </c>
       <c r="L43" s="26">
         <v>12070.2682681806</v>
       </c>
       <c r="M43" s="27">
-        <v>287321.94618132402</v>
+        <v>287321.94618132501</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3236,10 +3236,10 @@
         <v>35504.0944399117</v>
       </c>
       <c r="L44" s="26">
-        <v>916.01629500458898</v>
+        <v>916.01629500459001</v>
       </c>
       <c r="M44" s="27">
-        <v>76338.066297759593</v>
+        <v>76338.066297759695</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3250,31 +3250,31 @@
         <v>97</v>
       </c>
       <c r="C45" s="30">
-        <v>5.25882544726218</v>
+        <v>5.2420903650867601</v>
       </c>
       <c r="D45" s="31">
-        <v>0.12794463558713001</v>
+        <v>0.12833625535082999</v>
       </c>
       <c r="E45" s="31">
-        <v>9.8189829581376191</v>
+        <v>9.7837351658396496</v>
       </c>
       <c r="F45" s="31">
-        <v>66.707694604128505</v>
+        <v>66.456149063885505</v>
       </c>
       <c r="G45" s="31">
-        <v>2.3508276065196601</v>
+        <v>2.3501280891169101</v>
       </c>
       <c r="H45" s="32">
-        <v>97.833114994987795</v>
+        <v>97.514334887836895</v>
       </c>
       <c r="I45" s="30">
-        <v>58699.293183768998</v>
+        <v>58699.293183769099</v>
       </c>
       <c r="J45" s="33">
         <v>105173.887677322</v>
       </c>
       <c r="K45" s="33">
-        <v>746019.40947522304</v>
+        <v>746019.40947522398</v>
       </c>
       <c r="L45" s="33">
         <v>23589.243931080498</v>
@@ -3309,19 +3309,19 @@
         <v>88.157821734157906</v>
       </c>
       <c r="I46" s="23">
-        <v>564.26262460336602</v>
+        <v>564.26262460336795</v>
       </c>
       <c r="J46" s="26">
-        <v>3060.8921907508702</v>
+        <v>3060.8921907508802</v>
       </c>
       <c r="K46" s="26">
-        <v>11091.6661526894</v>
+        <v>11091.6661526895</v>
       </c>
       <c r="L46" s="26">
-        <v>403.45269915819898</v>
+        <v>403.45269915820001</v>
       </c>
       <c r="M46" s="27">
-        <v>19128.677952929502</v>
+        <v>19128.6779529296</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
@@ -3350,19 +3350,19 @@
         <v>78.294770982923396</v>
       </c>
       <c r="I47" s="23">
-        <v>837.88962394589305</v>
+        <v>837.88984284792105</v>
       </c>
       <c r="J47" s="26">
-        <v>2440.38448102245</v>
+        <v>2440.3851185826902</v>
       </c>
       <c r="K47" s="26">
-        <v>9036.5927289516294</v>
+        <v>9036.59508979776</v>
       </c>
       <c r="L47" s="26">
-        <v>109.674897500169</v>
+        <v>109.674926153176</v>
       </c>
       <c r="M47" s="27">
-        <v>13778.808299271501</v>
+        <v>13778.8118990405</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
@@ -3432,19 +3432,19 @@
         <v>76.206622818130299</v>
       </c>
       <c r="I49" s="23">
-        <v>3212.2374982035899</v>
+        <v>3206.2578355374599</v>
       </c>
       <c r="J49" s="26">
-        <v>9144.5883735472507</v>
+        <v>9127.5654872491596</v>
       </c>
       <c r="K49" s="26">
-        <v>21455.748222670001</v>
+        <v>21415.8077958826</v>
       </c>
       <c r="L49" s="26">
-        <v>1491.8588965797501</v>
+        <v>1489.08176289894</v>
       </c>
       <c r="M49" s="27">
-        <v>55137.409107600899</v>
+        <v>55034.769403366103</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
@@ -3482,7 +3482,7 @@
         <v>1745.8372074828901</v>
       </c>
       <c r="L50" s="26">
-        <v>67.622200735726594</v>
+        <v>67.622200735726693</v>
       </c>
       <c r="M50" s="27">
         <v>2203.58767616878</v>
@@ -3596,7 +3596,7 @@
         <v>17.141102458932099</v>
       </c>
       <c r="I53" s="23">
-        <v>41.094737285929497</v>
+        <v>41.094737285929597</v>
       </c>
       <c r="J53" s="26">
         <v>33.500435713609001</v>
@@ -3608,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="27">
-        <v>435.57165964356199</v>
+        <v>435.57165964356301</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
@@ -3684,10 +3684,10 @@
         <v>2447.9357677575899</v>
       </c>
       <c r="K55" s="26">
-        <v>12117.4043736194</v>
+        <v>12117.4043736195</v>
       </c>
       <c r="L55" s="26">
-        <v>92.454794716360297</v>
+        <v>92.454794716360595</v>
       </c>
       <c r="M55" s="27">
         <v>17977.290387749999</v>
@@ -3719,19 +3719,19 @@
         <v>153.45336224487201</v>
       </c>
       <c r="I56" s="23">
-        <v>1384.88523556119</v>
+        <v>1384.89156929299</v>
       </c>
       <c r="J56" s="26">
-        <v>2518.2864581035501</v>
+        <v>2518.2979754124299</v>
       </c>
       <c r="K56" s="26">
-        <v>11262.289601545201</v>
+        <v>11262.341109294701</v>
       </c>
       <c r="L56" s="26">
-        <v>4.5174207041297398</v>
+        <v>4.5174413644201596</v>
       </c>
       <c r="M56" s="27">
-        <v>25622.569852529999</v>
+        <v>25622.687036597901</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
@@ -3766,10 +3766,10 @@
         <v>100154.435096154</v>
       </c>
       <c r="K57" s="39">
-        <v>654617.25961538404</v>
+        <v>654617.25961538497</v>
       </c>
       <c r="L57" s="39">
-        <v>9696.5700120192196</v>
+        <v>9696.5700120192305</v>
       </c>
       <c r="M57" s="40">
         <v>1130224.1346153801</v>
@@ -3804,7 +3804,7 @@
         <v>1396.7331278269901</v>
       </c>
       <c r="J58" s="26">
-        <v>5078.9275771009197</v>
+        <v>5078.9275771009297</v>
       </c>
       <c r="K58" s="26">
         <v>16906.553223467999</v>
@@ -3889,10 +3889,10 @@
         <v>864.11796405714404</v>
       </c>
       <c r="K60" s="20">
-        <v>8713.3327343320707</v>
+        <v>8713.3327343320798</v>
       </c>
       <c r="L60" s="20">
-        <v>708.20758255264502</v>
+        <v>708.20758255264604</v>
       </c>
       <c r="M60" s="21">
         <v>8239.7854030505696</v>
@@ -3906,37 +3906,37 @@
         <v>128</v>
       </c>
       <c r="C61" s="30">
-        <v>1.94701956562143</v>
+        <v>1.9488258617349301</v>
       </c>
       <c r="D61" s="31">
-        <v>0.14798769442564</v>
+        <v>0.1480529212369</v>
       </c>
       <c r="E61" s="31">
-        <v>9.6353457404151897</v>
+        <v>9.6376104748996507</v>
       </c>
       <c r="F61" s="31">
-        <v>50.167772611009099</v>
+        <v>50.155524602919499</v>
       </c>
       <c r="G61" s="31">
-        <v>1.4608258594253201</v>
+        <v>1.4610981946635799</v>
       </c>
       <c r="H61" s="32">
-        <v>97.386537217671105</v>
+        <v>97.371754203504494</v>
       </c>
       <c r="I61" s="30">
-        <v>25064.733385102802</v>
+        <v>25058.760275070501</v>
       </c>
       <c r="J61" s="33">
-        <v>141122.25434694099</v>
+        <v>141105.243615513</v>
       </c>
       <c r="K61" s="33">
-        <v>797515.44752820395</v>
+        <v>797475.56097001303</v>
       </c>
       <c r="L61" s="33">
-        <v>19445.181710984099</v>
+        <v>19442.404626616601</v>
       </c>
       <c r="M61" s="34">
-        <v>1496826.5629131501</v>
+        <v>1496724.0439927501</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3947,37 +3947,37 @@
         <v>129</v>
       </c>
       <c r="C62" s="44">
-        <v>4.0177453875387803</v>
+        <v>4.0105372896062601</v>
       </c>
       <c r="D62" s="45">
-        <v>0.19767021689673001</v>
+        <v>0.19771625052094999</v>
       </c>
       <c r="E62" s="45">
-        <v>11.098040749668201</v>
+        <v>11.0865630882797</v>
       </c>
       <c r="F62" s="45">
-        <v>59.625285650304797</v>
+        <v>59.5142159612641</v>
       </c>
       <c r="G62" s="45">
-        <v>2.03193179117687</v>
+        <v>2.0307995618776999</v>
       </c>
       <c r="H62" s="46">
-        <v>111.558413473185</v>
+        <v>111.45694774987599</v>
       </c>
       <c r="I62" s="44">
-        <v>140932.012511212</v>
+        <v>140929.41021098901</v>
       </c>
       <c r="J62" s="47">
-        <v>418159.40999375901</v>
+        <v>418147.04366729001</v>
       </c>
       <c r="K62" s="47">
-        <v>2323722.96440141</v>
+        <v>2323710.2229526001</v>
       </c>
       <c r="L62" s="47">
-        <v>71837.173720327701</v>
+        <v>71835.773295893901</v>
       </c>
       <c r="M62" s="48">
-        <v>4278316.7521770699</v>
+        <v>4278267.0938861202</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3988,37 +3988,37 @@
         <v>130</v>
       </c>
       <c r="C63" s="50">
-        <v>6.3121378057216804</v>
+        <v>6.3144562093230201</v>
       </c>
       <c r="D63" s="51">
-        <v>0.22477585523106</v>
+        <v>0.22482847386006999</v>
       </c>
       <c r="E63" s="51">
-        <v>19.850420487042499</v>
+        <v>19.847620343020399</v>
       </c>
       <c r="F63" s="51">
-        <v>83.831717083605398</v>
+        <v>83.851346451543506</v>
       </c>
       <c r="G63" s="51">
-        <v>2.9431208913091602</v>
+        <v>2.9431996697221399</v>
       </c>
       <c r="H63" s="52">
-        <v>185.76497108097399</v>
+        <v>185.72263517037899</v>
       </c>
       <c r="I63" s="50">
-        <v>4818125.9108904898</v>
+        <v>4829806.5531182298</v>
       </c>
       <c r="J63" s="53">
-        <v>16482844.713140599</v>
+        <v>16482906.416301301</v>
       </c>
       <c r="K63" s="53">
-        <v>66196399.742036</v>
+        <v>66186522.377635904</v>
       </c>
       <c r="L63" s="53">
-        <v>1272054.14116664</v>
+        <v>1276599.81147072</v>
       </c>
       <c r="M63" s="54">
-        <v>158326397.18860799</v>
+        <v>157994909.669045</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
@@ -4029,37 +4029,37 @@
         <v>131</v>
       </c>
       <c r="C64" s="44">
-        <v>2.8099140045497402</v>
+        <v>2.8099061586843601</v>
       </c>
       <c r="D64" s="45">
-        <v>0.44062601133389001</v>
+        <v>0.44062337827387998</v>
       </c>
       <c r="E64" s="45">
-        <v>14.4169682012478</v>
+        <v>14.4169151617171</v>
       </c>
       <c r="F64" s="45">
-        <v>87.366268692837295</v>
+        <v>87.367259019654199</v>
       </c>
       <c r="G64" s="45">
-        <v>7.9483909978664604</v>
+        <v>7.9483913103784802</v>
       </c>
       <c r="H64" s="46">
-        <v>191.10408218488999</v>
+        <v>191.104323351505</v>
       </c>
       <c r="I64" s="44">
-        <v>137949.45435260201</v>
+        <v>137956.63071219</v>
       </c>
       <c r="J64" s="47">
-        <v>792057.34721069597</v>
+        <v>792085.01739475701</v>
       </c>
       <c r="K64" s="47">
-        <v>3322420.4093511198</v>
+        <v>3322575.6321278499</v>
       </c>
       <c r="L64" s="47">
-        <v>400749.97252598603</v>
+        <v>400749.97252598801</v>
       </c>
       <c r="M64" s="48">
-        <v>9690260.1394176707</v>
+        <v>9690581.9676536191</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
@@ -4070,37 +4070,37 @@
         <v>132</v>
       </c>
       <c r="C65" s="57">
-        <v>11.039984943844299</v>
+        <v>11.037606931318701</v>
       </c>
       <c r="D65" s="58">
-        <v>0.22183096859252999</v>
+        <v>0.22188090679271999</v>
       </c>
       <c r="E65" s="58">
-        <v>24.2354588824183</v>
+        <v>24.232616499882599</v>
       </c>
       <c r="F65" s="58">
-        <v>113.67448709554</v>
+        <v>113.649379066809</v>
       </c>
       <c r="G65" s="58">
-        <v>2.6898860766479902</v>
+        <v>2.6905265931323501</v>
       </c>
       <c r="H65" s="59">
-        <v>174.82884808079001</v>
+        <v>174.809355074021</v>
       </c>
       <c r="I65" s="57">
-        <v>2617180.9084350001</v>
+        <v>2612410.5521783298</v>
       </c>
       <c r="J65" s="60">
-        <v>5423411.6573032197</v>
+        <v>5359797.1350932401</v>
       </c>
       <c r="K65" s="60">
-        <v>26571850.4654034</v>
+        <v>26271421.903180301</v>
       </c>
       <c r="L65" s="60">
-        <v>507775.94326591602</v>
+        <v>507134.43916511402</v>
       </c>
       <c r="M65" s="61">
-        <v>38247545.783137903</v>
+        <v>37279204.288999401</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4111,37 +4111,37 @@
         <v>133</v>
       </c>
       <c r="C66" s="63">
-        <v>6.1997209854393196</v>
+        <v>6.2016005196530104</v>
       </c>
       <c r="D66" s="64">
-        <v>0.22287020278896999</v>
+        <v>0.22292175692602001</v>
       </c>
       <c r="E66" s="64">
-        <v>19.4215859545615</v>
+        <v>19.418466716883302</v>
       </c>
       <c r="F66" s="64">
-        <v>82.642653579996704</v>
+        <v>82.6561591326398</v>
       </c>
       <c r="G66" s="64">
-        <v>2.8792159659539198</v>
+        <v>2.8791895589183798</v>
       </c>
       <c r="H66" s="65">
-        <v>182.119811338077</v>
+        <v>182.075475211644</v>
       </c>
       <c r="I66" s="63">
-        <v>4959057.9234017003</v>
+        <v>4970735.9633292202</v>
       </c>
       <c r="J66" s="66">
-        <v>16901004.123134401</v>
+        <v>16901053.4599685</v>
       </c>
       <c r="K66" s="66">
-        <v>68520122.706437498</v>
+        <v>68510232.6005885</v>
       </c>
       <c r="L66" s="66">
-        <v>1343891.31488697</v>
+        <v>1348435.5847666101</v>
       </c>
       <c r="M66" s="67">
-        <v>162604713.94078499</v>
+        <v>162273176.76293099</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
@@ -4152,37 +4152,37 @@
         <v>134</v>
       </c>
       <c r="C67" s="69">
-        <v>4.7847954150337504</v>
+        <v>4.7798484308372302</v>
       </c>
       <c r="D67" s="70">
-        <v>0.14590837278519</v>
+        <v>0.14558552742200001</v>
       </c>
       <c r="E67" s="70">
-        <v>7.5990992424339101</v>
+        <v>7.5979852501886498</v>
       </c>
       <c r="F67" s="70">
-        <v>49.000215913302902</v>
+        <v>48.973250126964501</v>
       </c>
       <c r="G67" s="70">
-        <v>1.1266716422510401</v>
+        <v>1.12564926421305</v>
       </c>
       <c r="H67" s="71">
-        <v>63.718700039963601</v>
+        <v>63.763223022888901</v>
       </c>
       <c r="I67" s="69">
-        <v>57513.995976398503</v>
+        <v>57517.366786207203</v>
       </c>
       <c r="J67" s="72">
-        <v>93798.081084029196</v>
+        <v>93802.725488989003</v>
       </c>
       <c r="K67" s="72">
-        <v>596097.37720156403</v>
+        <v>596124.522310948</v>
       </c>
       <c r="L67" s="72">
-        <v>14729.5363321604</v>
+        <v>14730.9129920941</v>
       </c>
       <c r="M67" s="73">
-        <v>818691.58193499898</v>
+        <v>818744.44256444601</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
@@ -4193,37 +4193,37 @@
         <v>135</v>
       </c>
       <c r="C68" s="57">
-        <v>3.0475438589547101</v>
+        <v>3.0495546490614198</v>
       </c>
       <c r="D68" s="58">
-        <v>0.18393660667841999</v>
+        <v>0.1838359269207</v>
       </c>
       <c r="E68" s="58">
-        <v>8.7320411394384205</v>
+        <v>8.7273545942767807</v>
       </c>
       <c r="F68" s="58">
-        <v>50.134158916871698</v>
+        <v>50.126081540933598</v>
       </c>
       <c r="G68" s="58">
-        <v>1.8883304072818501</v>
+        <v>1.8870656247070801</v>
       </c>
       <c r="H68" s="59">
-        <v>88.656703276663805</v>
+        <v>88.589370380912598</v>
       </c>
       <c r="I68" s="57">
-        <v>60442.711494673204</v>
+        <v>60436.738384641001</v>
       </c>
       <c r="J68" s="60">
-        <v>205144.86494719301</v>
+        <v>205127.854215764</v>
       </c>
       <c r="K68" s="60">
-        <v>1234990.31254374</v>
+        <v>1234950.42598555</v>
       </c>
       <c r="L68" s="60">
-        <v>38342.058888173502</v>
+        <v>38339.281803806</v>
       </c>
       <c r="M68" s="61">
-        <v>2157722.72082539</v>
+        <v>2157620.201905</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.35">
@@ -4234,37 +4234,37 @@
         <v>136</v>
       </c>
       <c r="C69" s="57">
-        <v>5.7394025857765998</v>
+        <v>5.7395310420221</v>
       </c>
       <c r="D69" s="58">
-        <v>0.10046040376727</v>
+        <v>0.10045738437431</v>
       </c>
       <c r="E69" s="58">
-        <v>10.273071862093399</v>
+        <v>10.2734738594995</v>
       </c>
       <c r="F69" s="58">
-        <v>44.096622699416002</v>
+        <v>44.097742753436101</v>
       </c>
       <c r="G69" s="58">
-        <v>1.68121615740331</v>
+        <v>1.6811459648295399</v>
       </c>
       <c r="H69" s="59">
-        <v>88.238994284759997</v>
+        <v>88.239710085654906</v>
       </c>
       <c r="I69" s="57">
-        <v>19682.961700810301</v>
+        <v>19686.332510618999</v>
       </c>
       <c r="J69" s="60">
-        <v>35355.007327307401</v>
+        <v>35359.651732267099</v>
       </c>
       <c r="K69" s="60">
-        <v>161620.07753471899</v>
+        <v>161647.22264410299</v>
       </c>
       <c r="L69" s="60">
-        <v>5062.9769572493497</v>
+        <v>5064.3536171829601</v>
       </c>
       <c r="M69" s="61">
-        <v>301430.81149188202</v>
+        <v>301483.67212132801</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
@@ -4275,22 +4275,22 @@
         <v>137</v>
       </c>
       <c r="C70" s="57">
-        <v>3.2550377651029101</v>
+        <v>3.25055435584791</v>
       </c>
       <c r="D70" s="58">
-        <v>0.18622209709476001</v>
+        <v>0.18509519538864</v>
       </c>
       <c r="E70" s="58">
-        <v>12.3347598866482</v>
+        <v>12.3280431805288</v>
       </c>
       <c r="F70" s="58">
-        <v>84.638734755495904</v>
+        <v>84.336799753978596</v>
       </c>
       <c r="G70" s="58">
-        <v>1.0379609685757401</v>
+        <v>1.03448845976796</v>
       </c>
       <c r="H70" s="59">
-        <v>159.48103029632</v>
+        <v>159.30780200019001</v>
       </c>
       <c r="I70" s="57">
         <v>10506.2629272431</v>
@@ -4302,7 +4302,7 @@
         <v>245936.87357445699</v>
       </c>
       <c r="L70" s="60">
-        <v>3444.8749677145502</v>
+        <v>3444.8749677145602</v>
       </c>
       <c r="M70" s="61">
         <v>483427.41255203902</v>
@@ -4316,37 +4316,37 @@
         <v>138</v>
       </c>
       <c r="C71" s="57">
-        <v>1.94701956562143</v>
+        <v>1.9488258617349301</v>
       </c>
       <c r="D71" s="58">
-        <v>0.14798769442564</v>
+        <v>0.1480529212369</v>
       </c>
       <c r="E71" s="58">
-        <v>9.6353457404151897</v>
+        <v>9.6376104748996507</v>
       </c>
       <c r="F71" s="58">
-        <v>50.167772611009099</v>
+        <v>50.1555246029194</v>
       </c>
       <c r="G71" s="58">
-        <v>1.4608258594253201</v>
+        <v>1.4610981946635799</v>
       </c>
       <c r="H71" s="59">
-        <v>97.386537217671005</v>
+        <v>97.371754203504494</v>
       </c>
       <c r="I71" s="57">
-        <v>25064.733385102802</v>
+        <v>25058.760275070501</v>
       </c>
       <c r="J71" s="60">
-        <v>141122.25434694099</v>
+        <v>141105.243615513</v>
       </c>
       <c r="K71" s="60">
-        <v>797515.44752820395</v>
+        <v>797475.56097001303</v>
       </c>
       <c r="L71" s="60">
-        <v>19445.181710984099</v>
+        <v>19442.404626616601</v>
       </c>
       <c r="M71" s="61">
-        <v>1496826.5629131501</v>
+        <v>1496724.0439927501</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.35">
@@ -4357,37 +4357,37 @@
         <v>139</v>
       </c>
       <c r="C72" s="57">
-        <v>6.7214557860522799</v>
+        <v>6.7215651076735599</v>
       </c>
       <c r="D72" s="58">
-        <v>0.21005756826013999</v>
+        <v>0.21006268143366999</v>
       </c>
       <c r="E72" s="58">
-        <v>12.5379336617459</v>
+        <v>12.5381319405952</v>
       </c>
       <c r="F72" s="58">
-        <v>52.075091316688699</v>
+        <v>52.076127088603698</v>
       </c>
       <c r="G72" s="58">
-        <v>1.08039588686284</v>
+        <v>1.0803653162775999</v>
       </c>
       <c r="H72" s="59">
-        <v>78.416871793383805</v>
+        <v>78.416517924838601</v>
       </c>
       <c r="I72" s="57">
-        <v>21076.100935525901</v>
+        <v>21079.471745334598</v>
       </c>
       <c r="J72" s="60">
-        <v>37823.894677288401</v>
+        <v>37828.539082248099</v>
       </c>
       <c r="K72" s="60">
-        <v>176321.17986995901</v>
+        <v>176348.32497934299</v>
       </c>
       <c r="L72" s="60">
-        <v>4692.0761253197297</v>
+        <v>4693.4527852533502</v>
       </c>
       <c r="M72" s="61">
-        <v>264437.855935717</v>
+        <v>264490.716565162</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.35">
@@ -4398,28 +4398,28 @@
         <v>140</v>
       </c>
       <c r="C73" s="57">
-        <v>3.4277594543926302</v>
+        <v>3.42600821890565</v>
       </c>
       <c r="D73" s="58">
-        <v>0.30891443271428998</v>
+        <v>0.30814640763944001</v>
       </c>
       <c r="E73" s="58">
-        <v>13.906072629141001</v>
+        <v>13.8983486441747</v>
       </c>
       <c r="F73" s="58">
-        <v>59.6943036415649</v>
+        <v>59.627758391727397</v>
       </c>
       <c r="G73" s="58">
-        <v>2.6035899474535</v>
+        <v>2.5987911241519801</v>
       </c>
       <c r="H73" s="59">
-        <v>156.15121368242501</v>
+        <v>156.04498110058501</v>
       </c>
       <c r="I73" s="57">
         <v>30116.7364548101</v>
       </c>
       <c r="J73" s="60">
-        <v>117102.305598907</v>
+        <v>117102.305598908</v>
       </c>
       <c r="K73" s="60">
         <v>475352.42262306099</v>
@@ -4439,37 +4439,37 @@
         <v>141</v>
       </c>
       <c r="C74" s="57">
-        <v>6.6806589028338097</v>
+        <v>6.6585072240568399</v>
       </c>
       <c r="D74" s="58">
-        <v>0.15919140496576001</v>
+        <v>0.16045894361438001</v>
       </c>
       <c r="E74" s="58">
-        <v>16.922558753615402</v>
+        <v>16.923612590621399</v>
       </c>
       <c r="F74" s="58">
-        <v>90.066581001110904</v>
+        <v>89.756693505381094</v>
       </c>
       <c r="G74" s="58">
-        <v>4.1613373266016396</v>
+        <v>4.1807440086514198</v>
       </c>
       <c r="H74" s="59">
-        <v>172.79419534509401</v>
+        <v>172.92816099429001</v>
       </c>
       <c r="I74" s="57">
-        <v>32054.550593328298</v>
+        <v>32054.5505933284</v>
       </c>
       <c r="J74" s="60">
-        <v>77419.847013599297</v>
+        <v>77419.847013599501</v>
       </c>
       <c r="K74" s="60">
-        <v>434351.39227618399</v>
+        <v>434351.39227618498</v>
       </c>
       <c r="L74" s="60">
         <v>17487.310527798101</v>
       </c>
       <c r="M74" s="61">
-        <v>791312.98689505504</v>
+        <v>791312.98689505702</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4495,7 +4495,7 @@
         <v>1.01210386730861</v>
       </c>
       <c r="H75" s="65">
-        <v>192.64505885077301</v>
+        <v>192.64505885077401</v>
       </c>
       <c r="I75" s="63">
         <v>4057.1853023729</v>
@@ -4521,37 +4521,37 @@
         <v>143</v>
       </c>
       <c r="C76" s="69">
-        <v>4.4579899309911397</v>
+        <v>4.4586766458002103</v>
       </c>
       <c r="D76" s="70">
-        <v>0.51779410617837995</v>
+        <v>0.51789885621817</v>
       </c>
       <c r="E76" s="70">
-        <v>20.655510598566298</v>
+        <v>20.653548111351402</v>
       </c>
       <c r="F76" s="70">
-        <v>53.007902773600797</v>
+        <v>53.001420398212197</v>
       </c>
       <c r="G76" s="70">
-        <v>5.51471511018753</v>
+        <v>5.5135419901037199</v>
       </c>
       <c r="H76" s="71">
-        <v>181.50795422498601</v>
+        <v>181.47018111291999</v>
       </c>
       <c r="I76" s="69">
-        <v>154295.99392559699</v>
+        <v>154296.00570169601</v>
       </c>
       <c r="J76" s="72">
-        <v>699694.25589773699</v>
+        <v>699694.47291658097</v>
       </c>
       <c r="K76" s="72">
-        <v>1869849.73281581</v>
+        <v>1869850.2882123799</v>
       </c>
       <c r="L76" s="72">
-        <v>177440.19203866299</v>
+        <v>177440.19203866401</v>
       </c>
       <c r="M76" s="73">
-        <v>6221533.8104473297</v>
+        <v>6221535.5058092903</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.35">
@@ -4562,37 +4562,37 @@
         <v>144</v>
       </c>
       <c r="C77" s="57">
-        <v>3.08419702133954</v>
+        <v>3.0842086424156601</v>
       </c>
       <c r="D77" s="58">
-        <v>0.51230089992012995</v>
+        <v>0.51230056535636004</v>
       </c>
       <c r="E77" s="58">
-        <v>13.7493663756107</v>
+        <v>13.7493058631088</v>
       </c>
       <c r="F77" s="58">
-        <v>104.065323789728</v>
+        <v>104.06651067660501</v>
       </c>
       <c r="G77" s="58">
-        <v>10.099852752268299</v>
+        <v>10.099845209431001</v>
       </c>
       <c r="H77" s="59">
-        <v>192.81076876175999</v>
+        <v>192.81111032244101</v>
       </c>
       <c r="I77" s="57">
-        <v>92973.888195452499</v>
+        <v>92981.064555039906</v>
       </c>
       <c r="J77" s="60">
-        <v>483517.18936987198</v>
+        <v>483544.85955393198</v>
       </c>
       <c r="K77" s="60">
-        <v>2248102.5607208102</v>
+        <v>2248257.7834975398</v>
       </c>
       <c r="L77" s="60">
-        <v>325568.24432851298</v>
+        <v>325568.24432851397</v>
       </c>
       <c r="M77" s="61">
-        <v>5986503.8771317899</v>
+        <v>5986825.7053677402</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
@@ -4603,37 +4603,37 @@
         <v>145</v>
       </c>
       <c r="C78" s="57">
-        <v>3.0155593156100502</v>
+        <v>3.0156881787887002</v>
       </c>
       <c r="D78" s="58">
-        <v>4.5298456244169998E-2</v>
+        <v>4.530642978998E-2</v>
       </c>
       <c r="E78" s="58">
-        <v>18.723573198849198</v>
+        <v>18.7244029653232</v>
       </c>
       <c r="F78" s="58">
-        <v>53.8951174339064</v>
+        <v>53.895136227702601</v>
       </c>
       <c r="G78" s="58">
-        <v>1.05586411075473</v>
+        <v>1.0561759196887599</v>
       </c>
       <c r="H78" s="59">
-        <v>203.639178522983</v>
+        <v>203.643992697399</v>
       </c>
       <c r="I78" s="57">
-        <v>466016.96593673201</v>
+        <v>482464.383223638</v>
       </c>
       <c r="J78" s="60">
-        <v>2980295.0698901098</v>
+        <v>3043956.60515717</v>
       </c>
       <c r="K78" s="60">
-        <v>8540366.9297305495</v>
+        <v>8830843.3191344291</v>
       </c>
       <c r="L78" s="60">
-        <v>153138.98196292701</v>
+        <v>158327.21352737001</v>
       </c>
       <c r="M78" s="61">
-        <v>32452825.577690799</v>
+        <v>33089652.5212841</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4644,28 +4644,28 @@
         <v>146</v>
       </c>
       <c r="C79" s="63">
-        <v>3.42708614046018</v>
+        <v>3.4274175720673101</v>
       </c>
       <c r="D79" s="64">
-        <v>0.21746919242328</v>
+        <v>0.21757060998</v>
       </c>
       <c r="E79" s="64">
-        <v>18.277714139894599</v>
+        <v>18.278855197792701</v>
       </c>
       <c r="F79" s="64">
-        <v>60.427898847595998</v>
+        <v>60.4315689783392</v>
       </c>
       <c r="G79" s="64">
-        <v>2.3337142345177999</v>
+        <v>2.3327707135395501</v>
       </c>
       <c r="H79" s="65">
-        <v>196.277165553809</v>
+        <v>196.28366614395799</v>
       </c>
       <c r="I79" s="63">
         <v>1881423.91833911</v>
       </c>
       <c r="J79" s="66">
-        <v>9904399.4086807594</v>
+        <v>9904399.4086807705</v>
       </c>
       <c r="K79" s="66">
         <v>33524080.924405102</v>
@@ -4685,28 +4685,28 @@
         <v>147</v>
       </c>
       <c r="C80" s="69">
-        <v>3.6342179695535299</v>
+        <v>3.61080650469605</v>
       </c>
       <c r="D80" s="70">
-        <v>4.3534044097250001E-2</v>
+        <v>4.3714452135129998E-2</v>
       </c>
       <c r="E80" s="70">
-        <v>11.596529968668399</v>
+        <v>11.5768596613635</v>
       </c>
       <c r="F80" s="70">
-        <v>84.637790193539701</v>
+        <v>84.468679703996202</v>
       </c>
       <c r="G80" s="70">
-        <v>1.0894663595754499</v>
+        <v>1.08742966239437</v>
       </c>
       <c r="H80" s="71">
-        <v>131.11671357042101</v>
+        <v>131.04772946874499</v>
       </c>
       <c r="I80" s="69">
-        <v>42687.107177387697</v>
+        <v>42687.107177387799</v>
       </c>
       <c r="J80" s="72">
-        <v>165074.95569783999</v>
+        <v>165074.95569784101</v>
       </c>
       <c r="K80" s="72">
         <v>1166724.11718309</v>
@@ -4715,7 +4715,7 @@
         <v>16167.787065029401</v>
       </c>
       <c r="M80" s="73">
-        <v>1863915.4809755399</v>
+        <v>1863915.4809755499</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
@@ -4726,37 +4726,37 @@
         <v>148</v>
       </c>
       <c r="C81" s="57">
-        <v>5.12481156661726</v>
+        <v>5.15797609180657</v>
       </c>
       <c r="D81" s="58">
-        <v>7.4708311227450003E-2</v>
+        <v>7.475794516466E-2</v>
       </c>
       <c r="E81" s="58">
-        <v>13.1774354278839</v>
+        <v>13.1847481930191</v>
       </c>
       <c r="F81" s="58">
-        <v>112.015133580262</v>
+        <v>112.05613107411099</v>
       </c>
       <c r="G81" s="58">
-        <v>0.79107567851324001</v>
+        <v>0.79094207872386002</v>
       </c>
       <c r="H81" s="59">
-        <v>174.66556113109701</v>
+        <v>174.28453642588801</v>
       </c>
       <c r="I81" s="57">
-        <v>231057.334055354</v>
+        <v>226286.98957476599</v>
       </c>
       <c r="J81" s="60">
-        <v>689436.45420538599</v>
+        <v>625822.14901422395</v>
       </c>
       <c r="K81" s="60">
-        <v>4250115.8239942202</v>
+        <v>3949687.8171675699</v>
       </c>
       <c r="L81" s="60">
-        <v>30584.480012136901</v>
+        <v>29942.9759113328</v>
       </c>
       <c r="M81" s="61">
-        <v>8450168.1936620306</v>
+        <v>7481828.3948852802</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.35">
@@ -4767,37 +4767,37 @@
         <v>149</v>
       </c>
       <c r="C82" s="57">
-        <v>4.1830361023939897</v>
+        <v>4.1817202861787504</v>
       </c>
       <c r="D82" s="58">
-        <v>0.26021901718739998</v>
+        <v>0.25981761702825001</v>
       </c>
       <c r="E82" s="58">
-        <v>10.8832043768503</v>
+        <v>10.8765956808193</v>
       </c>
       <c r="F82" s="58">
-        <v>48.886919184733301</v>
+        <v>48.868520074082603</v>
       </c>
       <c r="G82" s="58">
-        <v>2.4157987431841801</v>
+        <v>2.4126161407584901</v>
       </c>
       <c r="H82" s="59">
-        <v>103.161645627537</v>
+        <v>103.09942476235101</v>
       </c>
       <c r="I82" s="57">
-        <v>98244.905333824703</v>
+        <v>98242.303033601303</v>
       </c>
       <c r="J82" s="60">
-        <v>253084.45429591899</v>
+        <v>253072.08796944999</v>
       </c>
       <c r="K82" s="60">
-        <v>1156998.84721832</v>
+        <v>1156986.1057695099</v>
       </c>
       <c r="L82" s="60">
-        <v>55669.386655298302</v>
+        <v>55667.986230864502</v>
       </c>
       <c r="M82" s="61">
-        <v>2414401.2712015202</v>
+        <v>2414351.6129105701</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4808,37 +4808,37 @@
         <v>150</v>
       </c>
       <c r="C83" s="63">
-        <v>6.4172416142680602</v>
+        <v>6.4175571859768699</v>
       </c>
       <c r="D83" s="64">
-        <v>0.23853820965315001</v>
+        <v>0.23859502590039999</v>
       </c>
       <c r="E83" s="64">
-        <v>20.441122621798399</v>
+        <v>20.4416198554893</v>
       </c>
       <c r="F83" s="64">
-        <v>81.336883634942197</v>
+        <v>81.336873430886101</v>
       </c>
       <c r="G83" s="64">
-        <v>3.14048008144916</v>
+        <v>3.1406346117341299</v>
       </c>
       <c r="H83" s="65">
-        <v>186.747505586919</v>
+        <v>186.742348353284</v>
       </c>
       <c r="I83" s="63">
-        <v>4587068.5768351303</v>
+        <v>4603519.5635434696</v>
       </c>
       <c r="J83" s="66">
-        <v>15793408.258935301</v>
+        <v>15857084.267286999</v>
       </c>
       <c r="K83" s="66">
-        <v>61946283.918041803</v>
+        <v>62236834.560468301</v>
       </c>
       <c r="L83" s="66">
-        <v>1241469.66115451</v>
+        <v>1246656.83555938</v>
       </c>
       <c r="M83" s="67">
-        <v>149876228.994946</v>
+        <v>150513081.27416</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.35">
@@ -4849,37 +4849,37 @@
         <v>151</v>
       </c>
       <c r="C84" s="69">
-        <v>5.46770190963856</v>
+        <v>5.4565863374070096</v>
       </c>
       <c r="D84" s="70">
-        <v>0.19597628004897</v>
+        <v>0.19544803473771</v>
       </c>
       <c r="E84" s="70">
-        <v>12.7086022544285</v>
+        <v>12.7025878011729</v>
       </c>
       <c r="F84" s="70">
-        <v>54.300495785442202</v>
+        <v>54.198786597607203</v>
       </c>
       <c r="G84" s="70">
-        <v>0.87283973331119002</v>
+        <v>0.87034661912497002</v>
       </c>
       <c r="H84" s="71">
-        <v>80.942665366607002</v>
+        <v>81.046100781278895</v>
       </c>
       <c r="I84" s="69">
-        <v>25822.097078440001</v>
+        <v>25822.1036310739</v>
       </c>
       <c r="J84" s="72">
-        <v>60756.969597283402</v>
+        <v>60756.981752152598</v>
       </c>
       <c r="K84" s="72">
-        <v>277470.18497133098</v>
+        <v>277470.23883992701</v>
       </c>
       <c r="L84" s="72">
-        <v>5486.2427317905704</v>
+        <v>5486.2427811038697</v>
       </c>
       <c r="M84" s="73">
-        <v>440759.45284148998</v>
+        <v>440759.57362532802</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
@@ -4890,31 +4890,31 @@
         <v>152</v>
       </c>
       <c r="C85" s="57">
-        <v>5.9783382686325099</v>
+        <v>5.9783174990495001</v>
       </c>
       <c r="D85" s="58">
         <v>1.216163208059E-2</v>
       </c>
       <c r="E85" s="58">
-        <v>20.694290957012299</v>
+        <v>20.6944529395331</v>
       </c>
       <c r="F85" s="58">
-        <v>311.89552730462799</v>
+        <v>311.89567801549998</v>
       </c>
       <c r="G85" s="58">
         <v>4.9975638027048799</v>
       </c>
       <c r="H85" s="59">
-        <v>270.75042948731198</v>
+        <v>270.75230550918201</v>
       </c>
       <c r="I85" s="57">
         <v>1605.44960757639</v>
       </c>
       <c r="J85" s="60">
-        <v>2397.83555257747</v>
+        <v>2397.83555257748</v>
       </c>
       <c r="K85" s="60">
-        <v>67083.658314376007</v>
+        <v>67083.658314376094</v>
       </c>
       <c r="L85" s="60">
         <v>199.97270253267101</v>
@@ -4931,37 +4931,37 @@
         <v>153</v>
       </c>
       <c r="C86" s="57">
-        <v>4.0396014551252204</v>
+        <v>4.0305972742014404</v>
       </c>
       <c r="D86" s="58">
-        <v>0.14069979294493001</v>
+        <v>0.14091097006341999</v>
       </c>
       <c r="E86" s="58">
-        <v>10.3210523039274</v>
+        <v>10.3047525164865</v>
       </c>
       <c r="F86" s="58">
-        <v>61.448416806013498</v>
+        <v>61.315971835661401</v>
       </c>
       <c r="G86" s="58">
-        <v>1.9419790197778499</v>
+        <v>1.9415642408407101</v>
       </c>
       <c r="H86" s="59">
-        <v>106.062168080465</v>
+        <v>105.915974387799</v>
       </c>
       <c r="I86" s="57">
-        <v>101719.55803007301</v>
+        <v>101716.949177216</v>
       </c>
       <c r="J86" s="60">
-        <v>291845.29797223798</v>
+        <v>291832.91949090001</v>
       </c>
       <c r="K86" s="60">
-        <v>1756942.5334822501</v>
+        <v>1756929.73816485</v>
       </c>
       <c r="L86" s="60">
-        <v>48772.635384221903</v>
+        <v>48771.234910474697</v>
       </c>
       <c r="M86" s="61">
-        <v>3026319.0060031898</v>
+        <v>3026269.2269284101</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
@@ -4972,37 +4972,37 @@
         <v>154</v>
       </c>
       <c r="C87" s="57">
-        <v>4.3258442657164196</v>
+        <v>4.3267014865595304</v>
       </c>
       <c r="D87" s="58">
-        <v>0.31990471892841998</v>
+        <v>0.31989781856496002</v>
       </c>
       <c r="E87" s="58">
-        <v>18.269594962345401</v>
+        <v>18.268707166969399</v>
       </c>
       <c r="F87" s="58">
-        <v>51.761214605932601</v>
+        <v>51.762372295075203</v>
       </c>
       <c r="G87" s="58">
-        <v>4.2137793260755103</v>
+        <v>4.2136921166398702</v>
       </c>
       <c r="H87" s="59">
-        <v>159.64437233770801</v>
+        <v>159.61537555903899</v>
       </c>
       <c r="I87" s="57">
-        <v>326564.18602678098</v>
+        <v>321790.22283191798</v>
       </c>
       <c r="J87" s="60">
-        <v>1390445.30102965</v>
+        <v>1326817.58172027</v>
       </c>
       <c r="K87" s="60">
-        <v>4012837.1972068599</v>
+        <v>3712327.6652293499</v>
       </c>
       <c r="L87" s="60">
-        <v>321564.54392243898</v>
+        <v>320921.982662066</v>
       </c>
       <c r="M87" s="61">
-        <v>12361852.71778</v>
+        <v>11393214.731025301</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
@@ -5013,22 +5013,22 @@
         <v>155</v>
       </c>
       <c r="C88" s="57">
-        <v>2.6478405544827499</v>
+        <v>2.64929443477978</v>
       </c>
       <c r="D88" s="58">
-        <v>0.47365772141401002</v>
+        <v>0.47313402795016002</v>
       </c>
       <c r="E88" s="58">
-        <v>13.2531411767068</v>
+        <v>13.2503675359916</v>
       </c>
       <c r="F88" s="58">
-        <v>55.646571007069703</v>
+        <v>55.6506129463802</v>
       </c>
       <c r="G88" s="58">
-        <v>3.7136576710213398</v>
+        <v>3.7122899057088898</v>
       </c>
       <c r="H88" s="59">
-        <v>163.88114780807999</v>
+        <v>163.83450234243</v>
       </c>
       <c r="I88" s="57">
         <v>13312.3525456715</v>
@@ -5043,7 +5043,7 @@
         <v>17550.829961207401</v>
       </c>
       <c r="M88" s="61">
-        <v>806847.16192354402</v>
+        <v>806847.16192354495</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.35">
@@ -5054,37 +5054,37 @@
         <v>156</v>
       </c>
       <c r="C89" s="57">
-        <v>10.63308716579</v>
+        <v>10.632527154980201</v>
       </c>
       <c r="D89" s="58">
-        <v>0.27442897628676999</v>
+        <v>0.27442330660146003</v>
       </c>
       <c r="E89" s="58">
-        <v>23.098674257328199</v>
+        <v>23.0983760044832</v>
       </c>
       <c r="F89" s="58">
-        <v>118.53978429966099</v>
+        <v>118.534690157828</v>
       </c>
       <c r="G89" s="58">
-        <v>3.1836260307042799</v>
+        <v>3.1836007861660001</v>
       </c>
       <c r="H89" s="59">
-        <v>185.711416594014</v>
+        <v>185.71101573056399</v>
       </c>
       <c r="I89" s="57">
-        <v>2524895.94526004</v>
+        <v>2524895.0973752001</v>
       </c>
       <c r="J89" s="60">
-        <v>5381508.8369767098</v>
+        <v>5381503.8436024003</v>
       </c>
       <c r="K89" s="60">
-        <v>28053405.478746701</v>
+        <v>28053393.474587802</v>
       </c>
       <c r="L89" s="60">
-        <v>689842.41077959503</v>
+        <v>689841.96955263999</v>
       </c>
       <c r="M89" s="61">
-        <v>42867517.045188203</v>
+        <v>42867467.752516903</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5095,37 +5095,37 @@
         <v>157</v>
       </c>
       <c r="C90" s="63">
-        <v>3.8567303045346999</v>
+        <v>3.8642390471210599</v>
       </c>
       <c r="D90" s="64">
-        <v>5.2381673662539999E-2</v>
+        <v>5.2359981142140001E-2</v>
       </c>
       <c r="E90" s="64">
-        <v>18.118039570006601</v>
+        <v>18.1147085276917</v>
       </c>
       <c r="F90" s="64">
-        <v>64.916432571923096</v>
+        <v>64.985248581761695</v>
       </c>
       <c r="G90" s="64">
-        <v>1.40717342794269</v>
+        <v>1.4051818381510901</v>
       </c>
       <c r="H90" s="65">
-        <v>192.25763322504</v>
+        <v>192.182670380324</v>
       </c>
       <c r="I90" s="63">
-        <v>1965138.3348531199</v>
+        <v>1981593.78816056</v>
       </c>
       <c r="J90" s="66">
-        <v>9708944.7356678303</v>
+        <v>9772639.1515121404</v>
       </c>
       <c r="K90" s="66">
-        <v>34065298.2282115</v>
+        <v>34355942.3999478</v>
       </c>
       <c r="L90" s="66">
-        <v>260474.67940518499</v>
+        <v>265663.35219658603</v>
       </c>
       <c r="M90" s="67">
-        <v>103066760.733348</v>
+        <v>103703960.493211</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.35">
@@ -5136,37 +5136,37 @@
         <v>158</v>
       </c>
       <c r="C91" s="69">
-        <v>5.1670333177824297</v>
+        <v>5.1610257777514699</v>
       </c>
       <c r="D91" s="70">
-        <v>0.18514359586224999</v>
+        <v>0.1848217742461</v>
       </c>
       <c r="E91" s="70">
-        <v>13.990606368509001</v>
+        <v>13.984299284945299</v>
       </c>
       <c r="F91" s="70">
-        <v>63.2166453538618</v>
+        <v>63.135580686869098</v>
       </c>
       <c r="G91" s="70">
-        <v>1.2094732373910599</v>
+        <v>1.20722049319542</v>
       </c>
       <c r="H91" s="71">
-        <v>111.889674348985</v>
+        <v>111.88558692377499</v>
       </c>
       <c r="I91" s="69">
-        <v>41203.6634922417</v>
+        <v>41203.670044875602</v>
       </c>
       <c r="J91" s="72">
-        <v>108994.15731480499</v>
+        <v>108994.16946967501</v>
       </c>
       <c r="K91" s="72">
-        <v>486583.64319730201</v>
+        <v>486583.69706589798</v>
       </c>
       <c r="L91" s="72">
-        <v>11189.4536593414</v>
+        <v>11189.453708654701</v>
       </c>
       <c r="M91" s="73">
-        <v>878538.17090302904</v>
+        <v>878538.29168686701</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.35">
@@ -5177,37 +5177,37 @@
         <v>159</v>
       </c>
       <c r="C92" s="57">
-        <v>5.9352193449617401</v>
+        <v>5.9352175186867404</v>
       </c>
       <c r="D92" s="58">
-        <v>0.386477836691</v>
+        <v>0.38677275333548</v>
       </c>
       <c r="E92" s="58">
-        <v>18.454393390933198</v>
+        <v>18.4544093960154</v>
       </c>
       <c r="F92" s="58">
-        <v>72.490523207339805</v>
+        <v>72.490700408409793</v>
       </c>
       <c r="G92" s="58">
-        <v>4.2997031290499903</v>
+        <v>4.2997558320065901</v>
       </c>
       <c r="H92" s="59">
-        <v>142.839185233824</v>
+        <v>142.839440338315</v>
       </c>
       <c r="I92" s="57">
-        <v>35851.4540083147</v>
+        <v>35851.454008314802</v>
       </c>
       <c r="J92" s="60">
         <v>107451.950107016</v>
       </c>
       <c r="K92" s="60">
-        <v>346357.88752996299</v>
+        <v>346357.88752996398</v>
       </c>
       <c r="L92" s="60">
-        <v>27798.062679499999</v>
+        <v>27798.338737969199</v>
       </c>
       <c r="M92" s="61">
-        <v>781091.06663701101</v>
+        <v>781091.06663701299</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">
@@ -5218,37 +5218,37 @@
         <v>160</v>
       </c>
       <c r="C93" s="57">
-        <v>3.6993967433471302</v>
+        <v>3.7062655673343001</v>
       </c>
       <c r="D93" s="58">
-        <v>7.3046920693549997E-2</v>
+        <v>7.1374837172610006E-2</v>
       </c>
       <c r="E93" s="58">
-        <v>11.6730289982966</v>
+        <v>11.650137053902499</v>
       </c>
       <c r="F93" s="58">
-        <v>67.100841460545098</v>
+        <v>66.924019059399399</v>
       </c>
       <c r="G93" s="58">
-        <v>2.3206636823913001</v>
+        <v>2.3242306071385102</v>
       </c>
       <c r="H93" s="59">
-        <v>131.59638849366999</v>
+        <v>131.34302404409101</v>
       </c>
       <c r="I93" s="57">
         <v>1050.5341059090799</v>
       </c>
       <c r="J93" s="60">
-        <v>3323.9286942262002</v>
+        <v>3323.9286942262202</v>
       </c>
       <c r="K93" s="60">
-        <v>19080.236190568899</v>
+        <v>19080.236190569001</v>
       </c>
       <c r="L93" s="60">
-        <v>681.36423074927404</v>
+        <v>681.36423074927802</v>
       </c>
       <c r="M93" s="61">
-        <v>37385.008318735803</v>
+        <v>37385.008318735898</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.35">
@@ -5259,22 +5259,22 @@
         <v>161</v>
       </c>
       <c r="C94" s="57">
-        <v>4.0614032828934299</v>
+        <v>4.0617956839485396</v>
       </c>
       <c r="D94" s="58">
-        <v>0.25895239638043999</v>
+        <v>0.26029842133256997</v>
       </c>
       <c r="E94" s="58">
-        <v>20.8304878398352</v>
+        <v>20.829029616671001</v>
       </c>
       <c r="F94" s="58">
-        <v>57.057609824430301</v>
+        <v>57.061083593956099</v>
       </c>
       <c r="G94" s="58">
-        <v>3.3066190993667801</v>
+        <v>3.30806344578719</v>
       </c>
       <c r="H94" s="59">
-        <v>185.32932348660901</v>
+        <v>185.334524203142</v>
       </c>
       <c r="I94" s="57">
         <v>22555.5421887841</v>
@@ -5283,10 +5283,10 @@
         <v>112694.91127702199</v>
       </c>
       <c r="K94" s="60">
-        <v>304364.01816113002</v>
+        <v>304364.01816113101</v>
       </c>
       <c r="L94" s="60">
-        <v>6601.3165976601103</v>
+        <v>6601.5926561292599</v>
       </c>
       <c r="M94" s="61">
         <v>1009785.22344492</v>
@@ -5300,37 +5300,37 @@
         <v>162</v>
       </c>
       <c r="C95" s="57">
-        <v>6.5923201409204104</v>
+        <v>6.5918890214962103</v>
       </c>
       <c r="D95" s="58">
-        <v>0.12632215089063001</v>
+        <v>0.12637325543745001</v>
       </c>
       <c r="E95" s="58">
-        <v>14.656337974201801</v>
+        <v>14.6564601093504</v>
       </c>
       <c r="F95" s="58">
-        <v>57.413730256140703</v>
+        <v>57.412392991810101</v>
       </c>
       <c r="G95" s="58">
-        <v>1.1084776820148201</v>
+        <v>1.1083348617970501</v>
       </c>
       <c r="H95" s="59">
-        <v>94.425048237520997</v>
+        <v>94.4209756451814</v>
       </c>
       <c r="I95" s="57">
-        <v>23855.1271456957</v>
+        <v>23855.1336983295</v>
       </c>
       <c r="J95" s="60">
-        <v>50843.256180311699</v>
+        <v>50843.268335180903</v>
       </c>
       <c r="K95" s="60">
-        <v>222464.96503199899</v>
+        <v>222465.01890059499</v>
       </c>
       <c r="L95" s="60">
-        <v>3998.7372708335902</v>
+        <v>3998.7373201468999</v>
       </c>
       <c r="M95" s="61">
-        <v>353076.71464994602</v>
+        <v>353076.835433784</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5341,37 +5341,37 @@
         <v>163</v>
       </c>
       <c r="C96" s="63">
-        <v>4.1790469944309097</v>
+        <v>4.1800584764510003</v>
       </c>
       <c r="D96" s="64">
-        <v>0.25513043167526001</v>
+        <v>0.25480768094305001</v>
       </c>
       <c r="E96" s="64">
-        <v>11.100614306381299</v>
+        <v>11.1030135420457</v>
       </c>
       <c r="F96" s="64">
-        <v>56.993717053109897</v>
+        <v>56.963343589940401</v>
       </c>
       <c r="G96" s="64">
-        <v>3.5712492222410401</v>
+        <v>3.5667683016887599</v>
       </c>
       <c r="H96" s="65">
-        <v>94.377281445161998</v>
+        <v>94.324722755083698</v>
       </c>
       <c r="I96" s="63">
-        <v>29498.1598246352</v>
+        <v>29498.1890506339</v>
       </c>
       <c r="J96" s="66">
-        <v>86324.690998190606</v>
+        <v>86324.767339076294</v>
       </c>
       <c r="K96" s="66">
-        <v>365367.18523036002</v>
+        <v>365367.38552065898</v>
       </c>
       <c r="L96" s="66">
-        <v>24073.554512414601</v>
+        <v>24073.554836363401</v>
       </c>
       <c r="M96" s="67">
-        <v>738459.86569022504</v>
+        <v>738460.18719811202</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.35">
@@ -5382,37 +5382,37 @@
         <v>164</v>
       </c>
       <c r="C97" s="69">
-        <v>3.67042793927825</v>
+        <v>3.6694091145789498</v>
       </c>
       <c r="D97" s="70">
-        <v>0.13077157687473001</v>
+        <v>0.1306755688838</v>
       </c>
       <c r="E97" s="70">
-        <v>11.3870673353328</v>
+        <v>11.387477402725001</v>
       </c>
       <c r="F97" s="70">
-        <v>59.319503131154399</v>
+        <v>59.277500638164902</v>
       </c>
       <c r="G97" s="70">
-        <v>1.1450291073883401</v>
+        <v>1.1445690100910699</v>
       </c>
       <c r="H97" s="71">
-        <v>105.87113788928799</v>
+        <v>105.885041673412</v>
       </c>
       <c r="I97" s="69">
-        <v>64840.113218727798</v>
+        <v>64837.510918504297</v>
       </c>
       <c r="J97" s="72">
-        <v>227899.02557672799</v>
+        <v>227886.65925025899</v>
       </c>
       <c r="K97" s="72">
-        <v>1260182.44840273</v>
+        <v>1260169.70695393</v>
       </c>
       <c r="L97" s="72">
-        <v>24160.325148337899</v>
+        <v>24158.9247239041</v>
       </c>
       <c r="M97" s="73">
-        <v>2241717.9277494401</v>
+        <v>2241668.26945849</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5423,37 +5423,37 @@
         <v>165</v>
       </c>
       <c r="C98" s="63">
-        <v>3.9815666170970601</v>
+        <v>3.9815738883958902</v>
       </c>
       <c r="D98" s="64">
-        <v>0.28958564337662002</v>
+        <v>0.28958533568990003</v>
       </c>
       <c r="E98" s="64">
-        <v>12.7516335140875</v>
+        <v>12.7516313662932</v>
       </c>
       <c r="F98" s="64">
-        <v>119.559266910836</v>
+        <v>119.560184613415</v>
       </c>
       <c r="G98" s="64">
-        <v>2.6985051577633499</v>
+        <v>2.6985038706470599</v>
       </c>
       <c r="H98" s="65">
-        <v>170.18282291557099</v>
+        <v>170.183341642133</v>
       </c>
       <c r="I98" s="63">
-        <v>69999.952484540205</v>
+        <v>65229.567001854797</v>
       </c>
       <c r="J98" s="66">
-        <v>265731.903457048</v>
+        <v>202117.30490615699</v>
       </c>
       <c r="K98" s="66">
-        <v>1321945.70791769</v>
+        <v>1021516.94540416</v>
       </c>
       <c r="L98" s="66">
-        <v>53171.5513821805</v>
+        <v>52529.770898958501</v>
       </c>
       <c r="M98" s="67">
-        <v>2962096.9008201701</v>
+        <v>1993755.0851735601</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.35">
@@ -5704,11 +5704,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{A0D9FE23-2120-4CFA-BB82-CEA2749B0D82}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{793C80D5-12B7-41C4-8D20-B206A5298C28}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{A931571E-7574-49A6-B839-74F7F704F581}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{C70BC0CB-DE61-452A-8002-96C9063DC2D7}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{3E684813-F0E3-4F79-8BF0-C94010DFA2D0}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{9AC68A3A-468C-40C8-B52B-95CC864EDB98}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{DFCBE902-ACB8-42C3-AA6A-BA574AFC617A}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{4C566BE4-3D59-495A-8AF8-8BDB4EBFB0A5}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{BA0491CA-C5CC-481F-B010-009AA5FAB498}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{CB7BA66A-CAAA-4265-B19F-07AF483DCFBC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab21.xlsx
+++ b/AfDD_2023_Annex_Table_Tab21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E081467F-1C73-43D1-9A12-5650EAF6FBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7FA7E73-68D2-41CD-B822-41C96E8D9C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F9B9EECE-C337-4CCD-AFFA-3FC2ECB86210}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0659251C-6504-4A4B-B1EB-1428BA460445}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab21" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab21'!$A$2:$M$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab21'!$A$1:$G$104</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -270,7 +270,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan</t>
+    <t>South Sudan*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -402,7 +402,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -1448,7 +1448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FD2E3B-1CB7-414E-B691-86E1B6BE9898}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AD30B4-4AB3-4BA0-BD0A-E18D04924A4E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2795,40 +2795,40 @@
       <c r="A34" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F34" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H34" s="19" t="s">
+      <c r="H34" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="36">
         <v>708.47980374675603</v>
       </c>
-      <c r="J34" s="20">
+      <c r="J34" s="39">
         <v>145.54163796866601</v>
       </c>
-      <c r="K34" s="20">
+      <c r="K34" s="39">
         <v>16851.410555406699</v>
       </c>
-      <c r="L34" s="20" t="s">
+      <c r="L34" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="M34" s="21">
+      <c r="M34" s="40">
         <v>11154.128363554701</v>
       </c>
     </row>
@@ -3738,40 +3738,40 @@
       <c r="A57" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="36">
+      <c r="C57" s="23">
         <v>1.1825968785002501</v>
       </c>
-      <c r="D57" s="37">
+      <c r="D57" s="24">
         <v>3.251421900952E-2</v>
       </c>
-      <c r="E57" s="37">
+      <c r="E57" s="24">
         <v>8.6206548413964708</v>
       </c>
-      <c r="F57" s="37">
+      <c r="F57" s="24">
         <v>56.345281332026197</v>
       </c>
-      <c r="G57" s="37">
+      <c r="G57" s="24">
         <v>0.83461883571287998</v>
       </c>
-      <c r="H57" s="38">
+      <c r="H57" s="25">
         <v>97.282467385994707</v>
       </c>
-      <c r="I57" s="36">
+      <c r="I57" s="23">
         <v>13739.3659855769</v>
       </c>
-      <c r="J57" s="39">
+      <c r="J57" s="26">
         <v>100154.435096154</v>
       </c>
-      <c r="K57" s="39">
+      <c r="K57" s="26">
         <v>654617.25961538497</v>
       </c>
-      <c r="L57" s="39">
+      <c r="L57" s="26">
         <v>9696.5700120192305</v>
       </c>
-      <c r="M57" s="40">
+      <c r="M57" s="27">
         <v>1130224.1346153801</v>
       </c>
     </row>
@@ -4202,7 +4202,7 @@
         <v>8.7273545942767807</v>
       </c>
       <c r="F68" s="58">
-        <v>50.126081540933598</v>
+        <v>50.126081540933498</v>
       </c>
       <c r="G68" s="58">
         <v>1.8870656247070801</v>
@@ -4234,37 +4234,37 @@
         <v>136</v>
       </c>
       <c r="C69" s="57">
-        <v>5.7395310420221</v>
+        <v>5.1947789815601402</v>
       </c>
       <c r="D69" s="58">
-        <v>0.10045738437431</v>
+        <v>8.4459007944940004E-2</v>
       </c>
       <c r="E69" s="58">
-        <v>10.2734738594995</v>
+        <v>10.3637693341341</v>
       </c>
       <c r="F69" s="58">
-        <v>44.097742753436101</v>
+        <v>40.957425493809097</v>
       </c>
       <c r="G69" s="58">
-        <v>1.6811459648295399</v>
+        <v>1.4180783528965499</v>
       </c>
       <c r="H69" s="59">
-        <v>88.239710085654906</v>
+        <v>91.935804840643996</v>
       </c>
       <c r="I69" s="57">
-        <v>19686.332510618999</v>
+        <v>21738.646230889099</v>
       </c>
       <c r="J69" s="60">
-        <v>35359.651732267099</v>
+        <v>45164.227913413997</v>
       </c>
       <c r="K69" s="60">
-        <v>161647.22264410299</v>
+        <v>183429.84439910299</v>
       </c>
       <c r="L69" s="60">
-        <v>5064.3536171829601</v>
+        <v>5090.8212858862798</v>
       </c>
       <c r="M69" s="61">
-        <v>301483.67212132801</v>
+        <v>402503.16861996002</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
@@ -4562,22 +4562,22 @@
         <v>144</v>
       </c>
       <c r="C77" s="57">
-        <v>3.0842086424156601</v>
+        <v>2.7235374092959099</v>
       </c>
       <c r="D77" s="58">
-        <v>0.51230056535636004</v>
+        <v>0.53200586253986004</v>
       </c>
       <c r="E77" s="58">
-        <v>13.7493058631088</v>
+        <v>14.1705372621189</v>
       </c>
       <c r="F77" s="58">
-        <v>104.06651067660501</v>
+        <v>65.006096431077793</v>
       </c>
       <c r="G77" s="58">
-        <v>10.099845209431001</v>
+        <v>10.4578552705688</v>
       </c>
       <c r="H77" s="59">
-        <v>192.81111032244101</v>
+        <v>174.09345903115599</v>
       </c>
       <c r="I77" s="57">
         <v>92981.064555039906</v>
@@ -4685,37 +4685,37 @@
         <v>147</v>
       </c>
       <c r="C80" s="69">
-        <v>3.61080650469605</v>
+        <v>6.6138287705504801</v>
       </c>
       <c r="D80" s="70">
-        <v>4.3714452135129998E-2</v>
+        <v>5.7997730243199999E-2</v>
       </c>
       <c r="E80" s="70">
-        <v>11.5768596613635</v>
+        <v>15.232865634247799</v>
       </c>
       <c r="F80" s="70">
-        <v>84.468679703996202</v>
+        <v>119.249528355368</v>
       </c>
       <c r="G80" s="70">
-        <v>1.08742966239437</v>
+        <v>1.40983075045477</v>
       </c>
       <c r="H80" s="71">
-        <v>131.04772946874499</v>
+        <v>172.80599974039501</v>
       </c>
       <c r="I80" s="69">
-        <v>42687.107177387799</v>
+        <v>29656.2209955576</v>
       </c>
       <c r="J80" s="72">
-        <v>165074.95569784101</v>
+        <v>65066.062239655301</v>
       </c>
       <c r="K80" s="72">
-        <v>1166724.11718309</v>
+        <v>528958.26812311006</v>
       </c>
       <c r="L80" s="72">
-        <v>16167.787065029401</v>
+        <v>6471.2170530101803</v>
       </c>
       <c r="M80" s="73">
-        <v>1863915.4809755499</v>
+        <v>744845.47472371696</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
@@ -4767,37 +4767,37 @@
         <v>149</v>
       </c>
       <c r="C82" s="57">
-        <v>4.1817202861787504</v>
+        <v>3.6075330370735701</v>
       </c>
       <c r="D82" s="58">
-        <v>0.25981761702825001</v>
+        <v>0.21791386663178</v>
       </c>
       <c r="E82" s="58">
-        <v>10.8765956808193</v>
+        <v>10.4446919914226</v>
       </c>
       <c r="F82" s="58">
-        <v>48.868520074082603</v>
+        <v>50.295520828628099</v>
       </c>
       <c r="G82" s="58">
-        <v>2.4126161407584901</v>
+        <v>2.1208360197124598</v>
       </c>
       <c r="H82" s="59">
-        <v>103.09942476235101</v>
+        <v>101.989211091104</v>
       </c>
       <c r="I82" s="57">
-        <v>98242.303033601303</v>
+        <v>111273.189215431</v>
       </c>
       <c r="J82" s="60">
-        <v>253072.08796944999</v>
+        <v>353080.98142763501</v>
       </c>
       <c r="K82" s="60">
-        <v>1156986.1057695099</v>
+        <v>1794751.95482949</v>
       </c>
       <c r="L82" s="60">
-        <v>55667.986230864502</v>
+        <v>65364.5562428837</v>
       </c>
       <c r="M82" s="61">
-        <v>2414351.6129105701</v>
+        <v>3533421.6191623998</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4849,37 +4849,37 @@
         <v>151</v>
       </c>
       <c r="C84" s="69">
-        <v>5.4565863374070096</v>
+        <v>5.5710429527824203</v>
       </c>
       <c r="D84" s="70">
-        <v>0.19544803473771</v>
+        <v>0.22180506396086999</v>
       </c>
       <c r="E84" s="70">
-        <v>12.7025878011729</v>
+        <v>13.342557694216</v>
       </c>
       <c r="F84" s="70">
-        <v>54.198786597607203</v>
+        <v>53.341812166664901</v>
       </c>
       <c r="G84" s="70">
-        <v>0.87034661912497002</v>
+        <v>1.2070611725223599</v>
       </c>
       <c r="H84" s="71">
-        <v>81.046100781278895</v>
+        <v>88.217243651254606</v>
       </c>
       <c r="I84" s="69">
-        <v>25822.1036310739</v>
+        <v>27849.008249934199</v>
       </c>
       <c r="J84" s="72">
-        <v>60756.981752152598</v>
+        <v>67016.1843763707</v>
       </c>
       <c r="K84" s="72">
-        <v>277470.23883992701</v>
+        <v>289312.735370062</v>
       </c>
       <c r="L84" s="72">
-        <v>5486.2427811038697</v>
+        <v>7383.1194928346004</v>
       </c>
       <c r="M84" s="73">
-        <v>440759.57362532802</v>
+        <v>493984.82943318499</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
@@ -4931,37 +4931,37 @@
         <v>153</v>
       </c>
       <c r="C86" s="57">
-        <v>4.0305972742014404</v>
+        <v>3.9868727800542798</v>
       </c>
       <c r="D86" s="58">
-        <v>0.14091097006341999</v>
+        <v>0.13364981720395</v>
       </c>
       <c r="E86" s="58">
-        <v>10.3047525164865</v>
+        <v>10.139348893916999</v>
       </c>
       <c r="F86" s="58">
-        <v>61.315971835661401</v>
+        <v>61.596151779878198</v>
       </c>
       <c r="G86" s="58">
-        <v>1.9415642408407101</v>
+        <v>1.87503119150191</v>
       </c>
       <c r="H86" s="59">
-        <v>105.915974387799</v>
+        <v>104.76886048301699</v>
       </c>
       <c r="I86" s="57">
-        <v>101716.949177216</v>
+        <v>99690.044558355905</v>
       </c>
       <c r="J86" s="60">
-        <v>291832.91949090001</v>
+        <v>285573.71686668199</v>
       </c>
       <c r="K86" s="60">
-        <v>1756929.73816485</v>
+        <v>1745087.24163471</v>
       </c>
       <c r="L86" s="60">
-        <v>48771.234910474697</v>
+        <v>46874.358198743997</v>
       </c>
       <c r="M86" s="61">
-        <v>3026269.2269284101</v>
+        <v>2973043.9711205498</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
@@ -4972,37 +4972,37 @@
         <v>154</v>
       </c>
       <c r="C87" s="57">
-        <v>4.3267014865595304</v>
+        <v>4.3149173478961602</v>
       </c>
       <c r="D87" s="58">
-        <v>0.31989781856496002</v>
+        <v>0.3183282105886</v>
       </c>
       <c r="E87" s="58">
-        <v>18.268707166969399</v>
+        <v>18.295695821029099</v>
       </c>
       <c r="F87" s="58">
-        <v>51.762372295075203</v>
+        <v>51.706840670352399</v>
       </c>
       <c r="G87" s="58">
-        <v>4.2136921166398702</v>
+        <v>4.1930064916296397</v>
       </c>
       <c r="H87" s="59">
-        <v>159.61537555903899</v>
+        <v>160.29628649204699</v>
       </c>
       <c r="I87" s="57">
-        <v>321790.22283191798</v>
+        <v>322434.40779123001</v>
       </c>
       <c r="J87" s="60">
-        <v>1326817.58172027</v>
+        <v>1335157.3586647799</v>
       </c>
       <c r="K87" s="60">
-        <v>3712327.6652293499</v>
+        <v>3726009.1521842498</v>
       </c>
       <c r="L87" s="60">
-        <v>320921.982662066</v>
+        <v>320856.66047812201</v>
       </c>
       <c r="M87" s="61">
-        <v>11393214.731025301</v>
+        <v>11498089.377674401</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
@@ -5054,37 +5054,37 @@
         <v>156</v>
       </c>
       <c r="C89" s="57">
-        <v>10.632527154980201</v>
+        <v>10.773128741391799</v>
       </c>
       <c r="D89" s="58">
-        <v>0.27442330660146003</v>
+        <v>0.27874094854842002</v>
       </c>
       <c r="E89" s="58">
-        <v>23.0983760044832</v>
+        <v>23.1287050558693</v>
       </c>
       <c r="F89" s="58">
-        <v>118.534690157828</v>
+        <v>119.934712063435</v>
       </c>
       <c r="G89" s="58">
-        <v>3.1836007861660001</v>
+        <v>3.21037866626108</v>
       </c>
       <c r="H89" s="59">
-        <v>185.71101573056399</v>
+        <v>185.19798693159001</v>
       </c>
       <c r="I89" s="57">
-        <v>2524895.0973752001</v>
+        <v>2511635.1950837299</v>
       </c>
       <c r="J89" s="60">
-        <v>5381503.8436024003</v>
+        <v>5301727.8473586598</v>
       </c>
       <c r="K89" s="60">
-        <v>28053393.474587802</v>
+        <v>27879895.859973501</v>
       </c>
       <c r="L89" s="60">
-        <v>689841.96955263999</v>
+        <v>685444.07156883006</v>
       </c>
       <c r="M89" s="61">
-        <v>42867467.752516903</v>
+        <v>42102380.9775002</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5095,37 +5095,37 @@
         <v>157</v>
       </c>
       <c r="C90" s="63">
-        <v>3.8642390471210599</v>
+        <v>3.8624616982499398</v>
       </c>
       <c r="D90" s="64">
-        <v>5.2359981142140001E-2</v>
+        <v>5.1377810107540001E-2</v>
       </c>
       <c r="E90" s="64">
-        <v>18.1147085276917</v>
+        <v>18.1526112043301</v>
       </c>
       <c r="F90" s="64">
-        <v>64.985248581761695</v>
+        <v>64.786951855625205</v>
       </c>
       <c r="G90" s="64">
-        <v>1.4051818381510901</v>
+        <v>1.41543469354717</v>
       </c>
       <c r="H90" s="65">
-        <v>192.182670380324</v>
+        <v>192.27770462087</v>
       </c>
       <c r="I90" s="63">
-        <v>1981593.78816056</v>
+        <v>1994209.5054927301</v>
       </c>
       <c r="J90" s="66">
-        <v>9772639.1515121404</v>
+        <v>9844075.3708113693</v>
       </c>
       <c r="K90" s="66">
-        <v>34355942.3999478</v>
+        <v>34515758.527607203</v>
       </c>
       <c r="L90" s="66">
-        <v>265663.35219658603</v>
+        <v>270126.572364341</v>
       </c>
       <c r="M90" s="67">
-        <v>103703960.493211</v>
+        <v>104364172.62157799</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.35">
@@ -5166,7 +5166,7 @@
         <v>11189.453708654701</v>
       </c>
       <c r="M91" s="73">
-        <v>878538.29168686701</v>
+        <v>878538.29168686597</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.35">
@@ -5259,37 +5259,37 @@
         <v>161</v>
       </c>
       <c r="C94" s="57">
-        <v>4.0617956839485396</v>
+        <v>4.04586566208725</v>
       </c>
       <c r="D94" s="58">
         <v>0.26029842133256997</v>
       </c>
       <c r="E94" s="58">
-        <v>20.829029616671001</v>
+        <v>20.445980836371501</v>
       </c>
       <c r="F94" s="58">
-        <v>57.061083593956099</v>
+        <v>56.443585723023403</v>
       </c>
       <c r="G94" s="58">
         <v>3.30806344578719</v>
       </c>
       <c r="H94" s="59">
-        <v>185.334524203142</v>
+        <v>185.303878085962</v>
       </c>
       <c r="I94" s="57">
-        <v>22555.5421887841</v>
+        <v>20910.813047558899</v>
       </c>
       <c r="J94" s="60">
-        <v>112694.91127702199</v>
+        <v>102911.447367751</v>
       </c>
       <c r="K94" s="60">
-        <v>304364.01816113101</v>
+        <v>279495.423321913</v>
       </c>
       <c r="L94" s="60">
         <v>6601.5926561292599</v>
       </c>
       <c r="M94" s="61">
-        <v>1009785.22344492</v>
+        <v>937855.41354994802</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.35">
@@ -5306,7 +5306,7 @@
         <v>0.12637325543745001</v>
       </c>
       <c r="E95" s="58">
-        <v>14.6564601093504</v>
+        <v>14.656460109350499</v>
       </c>
       <c r="F95" s="58">
         <v>57.412392991810101</v>
@@ -5382,37 +5382,37 @@
         <v>164</v>
       </c>
       <c r="C97" s="69">
-        <v>3.6694091145789498</v>
+        <v>3.65479836528473</v>
       </c>
       <c r="D97" s="70">
-        <v>0.1306755688838</v>
+        <v>0.12899724020417999</v>
       </c>
       <c r="E97" s="70">
-        <v>11.387477402725001</v>
+        <v>11.4246453945452</v>
       </c>
       <c r="F97" s="70">
-        <v>59.277500638164902</v>
+        <v>59.166622591928501</v>
       </c>
       <c r="G97" s="70">
-        <v>1.1445690100910699</v>
+        <v>1.15380092429305</v>
       </c>
       <c r="H97" s="71">
-        <v>105.885041673412</v>
+        <v>105.644153652347</v>
       </c>
       <c r="I97" s="69">
-        <v>64837.510918504297</v>
+        <v>65401.7735431076</v>
       </c>
       <c r="J97" s="72">
-        <v>227886.65925025899</v>
+        <v>230947.55144101</v>
       </c>
       <c r="K97" s="72">
-        <v>1260169.70695393</v>
+        <v>1271261.37310662</v>
       </c>
       <c r="L97" s="72">
-        <v>24158.9247239041</v>
+        <v>24562.377423062298</v>
       </c>
       <c r="M97" s="73">
-        <v>2241668.26945849</v>
+        <v>2260796.9474114198</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5426,7 +5426,7 @@
         <v>3.9815738883958902</v>
       </c>
       <c r="D98" s="64">
-        <v>0.28958533568990003</v>
+        <v>0.29445985696739002</v>
       </c>
       <c r="E98" s="64">
         <v>12.7516313662932</v>
@@ -5435,7 +5435,7 @@
         <v>119.560184613415</v>
       </c>
       <c r="G98" s="64">
-        <v>2.6985038706470599</v>
+        <v>2.70095303350474</v>
       </c>
       <c r="H98" s="65">
         <v>170.183341642133</v>
@@ -5450,7 +5450,7 @@
         <v>1021516.94540416</v>
       </c>
       <c r="L98" s="66">
-        <v>52529.770898958501</v>
+        <v>52647.484276219802</v>
       </c>
       <c r="M98" s="67">
         <v>1993755.0851735601</v>
@@ -5704,11 +5704,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{9AC68A3A-468C-40C8-B52B-95CC864EDB98}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{DFCBE902-ACB8-42C3-AA6A-BA574AFC617A}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{4C566BE4-3D59-495A-8AF8-8BDB4EBFB0A5}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{BA0491CA-C5CC-481F-B010-009AA5FAB498}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{CB7BA66A-CAAA-4265-B19F-07AF483DCFBC}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{2EEDF959-AF43-41B3-A4EC-36AE2950376A}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{729AC127-1943-4942-BFE0-C28DF24DB6D0}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{3448B48B-8774-4E1A-A4B5-F04CC6236CD7}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{CCC117F4-22AD-440C-B484-798E4042D3D4}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{ED226410-CF9D-4353-AE5E-1D32A46B3FE4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab21.xlsx
+++ b/AfDD_2023_Annex_Table_Tab21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7FA7E73-68D2-41CD-B822-41C96E8D9C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE5AD432-80D0-4558-8970-51F38A0D0A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0659251C-6504-4A4B-B1EB-1428BA460445}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4F7D1815-ECC9-494D-A92E-90F79874A51B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab21" sheetId="1" r:id="rId1"/>
@@ -1448,7 +1448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AD30B4-4AB3-4BA0-BD0A-E18D04924A4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2148412F-ADC5-4882-BD3E-A098F17D7A26}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5704,11 +5704,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{2EEDF959-AF43-41B3-A4EC-36AE2950376A}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{729AC127-1943-4942-BFE0-C28DF24DB6D0}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{3448B48B-8774-4E1A-A4B5-F04CC6236CD7}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{CCC117F4-22AD-440C-B484-798E4042D3D4}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{ED226410-CF9D-4353-AE5E-1D32A46B3FE4}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{13D1FCC8-A703-4B2E-B306-A261DEFA8360}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{F5E1262A-89D6-43CD-BD99-9F7E7128204C}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{17F1DB35-CC24-4207-9C6D-8BB2F0309FC1}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{0A72BD29-FFDD-40DD-8F0F-DD61ABA802A5}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{B6C667A5-71F2-4C0D-82D0-414569F0488A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab21.xlsx
+++ b/AfDD_2023_Annex_Table_Tab21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE5AD432-80D0-4558-8970-51F38A0D0A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D65705C-B59B-49DD-A517-E199990FC333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4F7D1815-ECC9-494D-A92E-90F79874A51B}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{B7894F01-EFC9-485B-B813-E70588A66FE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab21" sheetId="1" r:id="rId1"/>
@@ -546,7 +546,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>GDP ratios are calculated using investment, capital stock and GPD in constant 2017 international dollars. Figures in US dollars are converted from national currency using the ratio of GDP in US dollars to gdp in national currency.</t>
@@ -1448,7 +1448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2148412F-ADC5-4882-BD3E-A098F17D7A26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF3E6B9-763E-42C6-BC8E-E6CAF35750A7}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4202,7 +4202,7 @@
         <v>8.7273545942767807</v>
       </c>
       <c r="F68" s="58">
-        <v>50.126081540933498</v>
+        <v>50.126081540933598</v>
       </c>
       <c r="G68" s="58">
         <v>1.8870656247070801</v>
@@ -4275,7 +4275,7 @@
         <v>137</v>
       </c>
       <c r="C70" s="57">
-        <v>3.25055435584791</v>
+        <v>3.2505543558479202</v>
       </c>
       <c r="D70" s="58">
         <v>0.18509519538864</v>
@@ -5382,37 +5382,37 @@
         <v>164</v>
       </c>
       <c r="C97" s="69">
-        <v>3.65479836528473</v>
+        <v>3.7105815364924402</v>
       </c>
       <c r="D97" s="70">
-        <v>0.12899724020417999</v>
+        <v>9.7212359640300006E-2</v>
       </c>
       <c r="E97" s="70">
-        <v>11.4246453945452</v>
+        <v>11.5621076101411</v>
       </c>
       <c r="F97" s="70">
-        <v>59.166622591928501</v>
+        <v>58.328198835185901</v>
       </c>
       <c r="G97" s="70">
-        <v>1.15380092429305</v>
+        <v>1.2448215515647401</v>
       </c>
       <c r="H97" s="71">
-        <v>105.644153652347</v>
+        <v>104.63437671918901</v>
       </c>
       <c r="I97" s="69">
-        <v>65401.7735431076</v>
+        <v>60329.368784655402</v>
       </c>
       <c r="J97" s="72">
-        <v>230947.55144101</v>
+        <v>215636.77022395501</v>
       </c>
       <c r="K97" s="72">
-        <v>1271261.37310662</v>
+        <v>1150102.7246153201</v>
       </c>
       <c r="L97" s="72">
-        <v>24562.377423062298</v>
+        <v>23569.139922166702</v>
       </c>
       <c r="M97" s="73">
-        <v>2260796.9474114198</v>
+        <v>2046984.07795194</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5423,37 +5423,37 @@
         <v>165</v>
       </c>
       <c r="C98" s="63">
-        <v>3.9815738883958902</v>
+        <v>3.6181528444481499</v>
       </c>
       <c r="D98" s="64">
-        <v>0.29445985696739002</v>
+        <v>0.32774794564791998</v>
       </c>
       <c r="E98" s="64">
-        <v>12.7516313662932</v>
+        <v>13.009637607434</v>
       </c>
       <c r="F98" s="64">
-        <v>119.560184613415</v>
+        <v>113.85409012802199</v>
       </c>
       <c r="G98" s="64">
-        <v>2.70095303350474</v>
+        <v>2.8816169937430098</v>
       </c>
       <c r="H98" s="65">
-        <v>170.183341642133</v>
+        <v>178.37314357998</v>
       </c>
       <c r="I98" s="63">
-        <v>65229.567001854797</v>
+        <v>46354.585486524898</v>
       </c>
       <c r="J98" s="66">
-        <v>202117.30490615699</v>
+        <v>179716.136546372</v>
       </c>
       <c r="K98" s="66">
-        <v>1021516.94540416</v>
+        <v>663537.456072442</v>
       </c>
       <c r="L98" s="66">
-        <v>52647.484276219802</v>
+        <v>50321.909004216002</v>
       </c>
       <c r="M98" s="67">
-        <v>1993755.0851735601</v>
+        <v>1790997.8755076099</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.35">
@@ -5704,11 +5704,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{13D1FCC8-A703-4B2E-B306-A261DEFA8360}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{F5E1262A-89D6-43CD-BD99-9F7E7128204C}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{17F1DB35-CC24-4207-9C6D-8BB2F0309FC1}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{0A72BD29-FFDD-40DD-8F0F-DD61ABA802A5}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{B6C667A5-71F2-4C0D-82D0-414569F0488A}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{703FEADD-230E-4362-8558-FD968CC9561E}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{55F95E23-6295-46C3-B93B-86F73541974F}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{CAA555CD-BFA6-440A-9303-6AF873142E0E}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{5262BCE7-0497-46D0-99BF-E15B70BEFFE1}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{634A46E5-157B-474D-A14E-285B69D1BF54}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab21.xlsx
+++ b/AfDD_2023_Annex_Table_Tab21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D65705C-B59B-49DD-A517-E199990FC333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF40A43E-07EC-49A0-A63D-FBBB7A2DCA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{B7894F01-EFC9-485B-B813-E70588A66FE1}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{3DCB1AF7-CC4C-41B4-B8A9-57DF701C9F64}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab21" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="178">
   <si>
     <t>Table 21: Investment and capital stock</t>
   </si>
@@ -558,16 +558,19 @@
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
-  </si>
-  <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
   </si>
   <si>
     <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
+  </si>
+  <si>
+    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
+  </si>
+  <si>
+    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
+  </si>
+  <si>
+    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -1448,7 +1451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF3E6B9-763E-42C6-BC8E-E6CAF35750A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB74482-9BC1-4E49-9A76-54F4FC80E4E1}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5612,7 +5615,7 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C109" s="76"/>
       <c r="D109" s="76"/>
@@ -5628,7 +5631,7 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C110" s="76"/>
       <c r="D110" s="76"/>
@@ -5643,7 +5646,9 @@
       <c r="M110" s="76"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="C111" s="76"/>
       <c r="D111" s="76"/>
       <c r="E111" s="76"/>
@@ -5658,7 +5663,7 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C112" s="76"/>
       <c r="D112" s="76"/>
@@ -5674,7 +5679,7 @@
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C113" s="76"/>
       <c r="D113" s="76"/>
@@ -5704,13 +5709,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{703FEADD-230E-4362-8558-FD968CC9561E}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{55F95E23-6295-46C3-B93B-86F73541974F}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{CAA555CD-BFA6-440A-9303-6AF873142E0E}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{5262BCE7-0497-46D0-99BF-E15B70BEFFE1}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{634A46E5-157B-474D-A14E-285B69D1BF54}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{A1049E88-E91C-4B8E-8EF9-DCA11EAD6259}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{B2155832-56BC-4751-9741-A6F13BE1CFA0}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{ADC3D262-1D32-4E12-B412-3B1D5D3D9F37}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{77265A50-0719-4C17-8B79-A27B7B95BB19}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{E0085EF1-7A26-4861-8D9E-81D2B8968C9B}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{EBD7CE15-CD1F-4DF0-BE8D-23BA8E49E289}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/AfDD_2023_Annex_Table_Tab21.xlsx
+++ b/AfDD_2023_Annex_Table_Tab21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF40A43E-07EC-49A0-A63D-FBBB7A2DCA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{768AC907-5C91-4655-B1AA-E5CDBE97BF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{3DCB1AF7-CC4C-41B4-B8A9-57DF701C9F64}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{AD3A0BB2-85C7-446F-9369-69BD06BA99A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab21" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab21'!$A$2:$M$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab21'!$A$1:$G$104</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="175">
   <si>
     <t>Table 21: Investment and capital stock</t>
   </si>
@@ -552,16 +552,7 @@
     <t>GDP ratios are calculated using investment, capital stock and GPD in constant 2017 international dollars. Figures in US dollars are converted from national currency using the ratio of GDP in US dollars to gdp in national currency.</t>
   </si>
   <si>
-    <t>Source: Author's calculations based on IMF Investment and Capital Stock dataset (updated on June 15, 2022) and IMF World Economic Outlook Database April 2023.</t>
-  </si>
-  <si>
-    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
-  </si>
-  <si>
-    <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
-  </si>
-  <si>
-    <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
+    <t>Source: Author's calculations based on IMF Investment and Capital Stock dataset (updated on June 15, 2022) and IMF World Economic Outlook Database October 2023.</t>
   </si>
   <si>
     <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
@@ -1451,22 +1442,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB74482-9BC1-4E49-9A76-54F4FC80E4E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDAA351-FFC9-45E5-BEFC-CC5057CF3DA3}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M114"/>
+  <dimension ref="A1:M207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="12.36328125" style="78" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="12.33203125" style="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1482,7 +1473,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="74" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1523,7 +1514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
@@ -1549,22 +1540,22 @@
         <v>214.183457352614</v>
       </c>
       <c r="I3" s="11">
-        <v>2478.80065496824</v>
+        <v>2478.81422002113</v>
       </c>
       <c r="J3" s="14">
-        <v>11644.22101367</v>
+        <v>11644.284735806499</v>
       </c>
       <c r="K3" s="14">
-        <v>95639.746914497999</v>
+        <v>95640.270295925206</v>
       </c>
       <c r="L3" s="14">
-        <v>150.893793406089</v>
+        <v>150.894619161191</v>
       </c>
       <c r="M3" s="15">
-        <v>171558.341821596</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+        <v>171559.28066190801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
@@ -1590,22 +1581,22 @@
         <v>175.232667955008</v>
       </c>
       <c r="I4" s="17">
-        <v>1309.84189379741</v>
+        <v>1309.8415281289599</v>
       </c>
       <c r="J4" s="20">
-        <v>4474.5265426004798</v>
+        <v>4474.5252934473001</v>
       </c>
       <c r="K4" s="20">
-        <v>19470.117146188899</v>
+        <v>19470.111710718</v>
       </c>
       <c r="L4" s="20">
-        <v>82.254709036107698</v>
+        <v>82.254686073067901</v>
       </c>
       <c r="M4" s="21">
-        <v>36807.149439194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+        <v>36807.1391637454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
@@ -1631,22 +1622,22 @@
         <v>107.009830554811</v>
       </c>
       <c r="I5" s="23">
-        <v>191.51009795598699</v>
+        <v>191.494966648765</v>
       </c>
       <c r="J5" s="26">
-        <v>328.38384517772101</v>
+        <v>328.35789940827499</v>
       </c>
       <c r="K5" s="26">
-        <v>5677.0176051323997</v>
+        <v>5676.5690611735999</v>
       </c>
       <c r="L5" s="26" t="s">
         <v>20</v>
       </c>
       <c r="M5" s="27">
-        <v>6530.2679301558101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+        <v>6529.75197046832</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>21</v>
       </c>
@@ -1672,22 +1663,22 @@
         <v>121.14282184839701</v>
       </c>
       <c r="I6" s="23">
-        <v>363.58548192089802</v>
+        <v>363.655162580085</v>
       </c>
       <c r="J6" s="26">
-        <v>364.46673929126399</v>
+        <v>364.53658884221898</v>
       </c>
       <c r="K6" s="26">
-        <v>4175.1097738484305</v>
+        <v>4175.9099279131196</v>
       </c>
       <c r="L6" s="26">
         <v>0</v>
       </c>
       <c r="M6" s="27">
-        <v>4153.7403145343496</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>4154.5363731714597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
@@ -1713,22 +1704,22 @@
         <v>53.131636513126097</v>
       </c>
       <c r="I7" s="23">
-        <v>544.49939898903301</v>
+        <v>544.51508717611796</v>
       </c>
       <c r="J7" s="26">
-        <v>481.71704096703002</v>
+        <v>481.73092026069799</v>
       </c>
       <c r="K7" s="26">
-        <v>6790.5319806356401</v>
+        <v>6790.7276303210501</v>
       </c>
       <c r="L7" s="26">
-        <v>3.54136841376907</v>
+        <v>3.5414704481336798</v>
       </c>
       <c r="M7" s="27">
-        <v>8001.18806304793</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+        <v>8001.4185943129096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
@@ -1754,22 +1745,22 @@
         <v>94.360938310765107</v>
       </c>
       <c r="I8" s="23">
-        <v>1443.93291908945</v>
+        <v>1443.9296940862801</v>
       </c>
       <c r="J8" s="26">
-        <v>5611.10752086095</v>
+        <v>5611.0949885339196</v>
       </c>
       <c r="K8" s="26">
-        <v>21683.721489756299</v>
+        <v>21683.673059479799</v>
       </c>
       <c r="L8" s="26">
-        <v>1246.2842537187901</v>
+        <v>1246.28147016104</v>
       </c>
       <c r="M8" s="27">
-        <v>22905.5266271168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+        <v>22905.475467956199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>27</v>
       </c>
@@ -1795,22 +1786,22 @@
         <v>135.01265451005301</v>
       </c>
       <c r="I9" s="23">
-        <v>617.982936761004</v>
+        <v>617.97408164627996</v>
       </c>
       <c r="J9" s="26">
-        <v>1378.89695037347</v>
+        <v>1378.87719207602</v>
       </c>
       <c r="K9" s="26">
-        <v>8949.7320874137004</v>
+        <v>8949.6038461635508</v>
       </c>
       <c r="L9" s="26">
-        <v>31.9525391797089</v>
+        <v>31.952081329850401</v>
       </c>
       <c r="M9" s="27">
-        <v>17611.5871841646</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+        <v>17611.334826671002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>29</v>
       </c>
@@ -1836,22 +1827,22 @@
         <v>166.47350794721601</v>
       </c>
       <c r="I10" s="23">
-        <v>9501.6258378371203</v>
+        <v>9501.6250854767895</v>
       </c>
       <c r="J10" s="26">
-        <v>53389.592693941602</v>
+        <v>53389.5884664322</v>
       </c>
       <c r="K10" s="26">
-        <v>191079.790628118</v>
+        <v>191079.775497986</v>
       </c>
       <c r="L10" s="26">
-        <v>16087.724258718299</v>
+        <v>16087.7229848557</v>
       </c>
       <c r="M10" s="27">
-        <v>670542.94349956105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+        <v>670542.89040444605</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>31</v>
       </c>
@@ -1877,22 +1868,22 @@
         <v>186.79499186734799</v>
       </c>
       <c r="I11" s="17">
-        <v>2026.9046188603099</v>
+        <v>2026.9316713301901</v>
       </c>
       <c r="J11" s="20">
-        <v>6259.20262421815</v>
+        <v>6259.2861638622198</v>
       </c>
       <c r="K11" s="20">
-        <v>11842.4965301348</v>
+        <v>11842.654588278099</v>
       </c>
       <c r="L11" s="20">
-        <v>1896.87671173072</v>
+        <v>1896.90202875828</v>
       </c>
       <c r="M11" s="21">
-        <v>53225.255807857298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>53225.966188906299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -1927,13 +1918,13 @@
         <v>20</v>
       </c>
       <c r="L12" s="26">
-        <v>25.483345616348899</v>
+        <v>25.483424589251999</v>
       </c>
       <c r="M12" s="27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="28" t="s">
         <v>35</v>
       </c>
@@ -1941,40 +1932,40 @@
         <v>36</v>
       </c>
       <c r="C13" s="30">
-        <v>3.0816631281520501</v>
+        <v>3.0817078209934299</v>
       </c>
       <c r="D13" s="31">
-        <v>0.38124751065333001</v>
+        <v>0.38123574691375001</v>
       </c>
       <c r="E13" s="31">
-        <v>14.1159375489285</v>
+        <v>14.115988996309801</v>
       </c>
       <c r="F13" s="31">
-        <v>63.476012624725598</v>
+        <v>63.477046168704099</v>
       </c>
       <c r="G13" s="31">
-        <v>3.1333851511189201</v>
+        <v>3.1333026954102801</v>
       </c>
       <c r="H13" s="32">
-        <v>169.82618344317899</v>
+        <v>169.82642834564999</v>
       </c>
       <c r="I13" s="30">
-        <v>18478.683840179401</v>
+        <v>18478.781497094598</v>
       </c>
       <c r="J13" s="33">
-        <v>83932.1149711006</v>
+        <v>83932.282248669406</v>
       </c>
       <c r="K13" s="33">
-        <v>365308.26415572601</v>
+        <v>365309.29561795801</v>
       </c>
       <c r="L13" s="33">
-        <v>19525.010979819799</v>
+        <v>19525.032765376502</v>
       </c>
       <c r="M13" s="34">
-        <v>991336.00068722805</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+        <v>991337.793651585</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>37</v>
       </c>
@@ -2000,22 +1991,22 @@
         <v>66.344570878036507</v>
       </c>
       <c r="I14" s="23">
-        <v>144.33164478335601</v>
+        <v>144.30857738925201</v>
       </c>
       <c r="J14" s="26">
-        <v>389.785089501649</v>
+        <v>389.72279320974002</v>
       </c>
       <c r="K14" s="26">
-        <v>2238.7883619620202</v>
+        <v>2238.43055398763</v>
       </c>
       <c r="L14" s="26" t="s">
         <v>20</v>
       </c>
       <c r="M14" s="27">
-        <v>3448.1380387745899</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+        <v>3447.5869499320602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>39</v>
       </c>
@@ -2041,22 +2032,22 @@
         <v>115.618249941659</v>
       </c>
       <c r="I15" s="23">
-        <v>2032.63770764884</v>
+        <v>2032.6551406783699</v>
       </c>
       <c r="J15" s="26">
-        <v>6952.5546836498497</v>
+        <v>6952.61431261895</v>
       </c>
       <c r="K15" s="26">
-        <v>24013.1476559449</v>
+        <v>24013.353606031498</v>
       </c>
       <c r="L15" s="26">
-        <v>984.91412259513299</v>
+        <v>984.92256976548299</v>
       </c>
       <c r="M15" s="27">
-        <v>64190.758504448298</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+        <v>64191.309040032596</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>41</v>
       </c>
@@ -2082,22 +2073,22 @@
         <v>172.74448265140401</v>
       </c>
       <c r="I16" s="23">
-        <v>190.32320185979199</v>
+        <v>190.29919883971499</v>
       </c>
       <c r="J16" s="26">
-        <v>306.22277244531602</v>
+        <v>306.18415250153998</v>
       </c>
       <c r="K16" s="26">
-        <v>7682.5849077331104</v>
+        <v>7681.6160020086099</v>
       </c>
       <c r="L16" s="26">
         <v>0</v>
       </c>
       <c r="M16" s="27">
-        <v>4904.7489801309703</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+        <v>4904.1304071609202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>43</v>
       </c>
@@ -2123,22 +2114,22 @@
         <v>89.259558282429694</v>
       </c>
       <c r="I17" s="36">
-        <v>339.20014148816</v>
+        <v>339.20964686557897</v>
       </c>
       <c r="J17" s="39">
-        <v>1441.46267257103</v>
+        <v>1441.5030665598899</v>
       </c>
       <c r="K17" s="39">
-        <v>6988.9512064869996</v>
+        <v>6989.1470572867202</v>
       </c>
       <c r="L17" s="39">
         <v>0</v>
       </c>
       <c r="M17" s="40">
-        <v>15116.4280176996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+        <v>15116.851624107499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>45</v>
       </c>
@@ -2164,22 +2155,22 @@
         <v>309.59492672557201</v>
       </c>
       <c r="I18" s="36">
-        <v>794.35283997599004</v>
+        <v>794.339721608942</v>
       </c>
       <c r="J18" s="39">
-        <v>2524.7941696876001</v>
+        <v>2524.7524738882398</v>
       </c>
       <c r="K18" s="39">
-        <v>19197.817345093201</v>
+        <v>19197.500302084401</v>
       </c>
       <c r="L18" s="39">
-        <v>884.64762769806202</v>
+        <v>884.63301815466502</v>
       </c>
       <c r="M18" s="40">
-        <v>54498.149120711401</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+        <v>54497.2491091704</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>47</v>
       </c>
@@ -2205,22 +2196,22 @@
         <v>111.774638944969</v>
       </c>
       <c r="I19" s="17">
-        <v>2052.31372027012</v>
+        <v>2052.3118520169901</v>
       </c>
       <c r="J19" s="20">
-        <v>9804.5761811469292</v>
+        <v>9804.5672558885799</v>
       </c>
       <c r="K19" s="20">
-        <v>21782.621754999702</v>
+        <v>21782.601925939998</v>
       </c>
       <c r="L19" s="20">
-        <v>26.467668703314299</v>
+        <v>26.467644609383399</v>
       </c>
       <c r="M19" s="21">
-        <v>101019.496498632</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+        <v>101019.404539011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>49</v>
       </c>
@@ -2246,22 +2237,22 @@
         <v>121.504169834584</v>
       </c>
       <c r="I20" s="36">
-        <v>803.10552247030898</v>
+        <v>803.096084730955</v>
       </c>
       <c r="J20" s="39">
-        <v>658.76154960383997</v>
+        <v>658.75380813073696</v>
       </c>
       <c r="K20" s="39">
-        <v>41443.753430565499</v>
+        <v>41443.266401984802</v>
       </c>
       <c r="L20" s="39" t="s">
         <v>20</v>
       </c>
       <c r="M20" s="40">
-        <v>22667.3679929387</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+        <v>22667.101616099098</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>51</v>
       </c>
@@ -2287,22 +2278,22 @@
         <v>179.750031608352</v>
       </c>
       <c r="I21" s="36">
-        <v>314.44005504306602</v>
+        <v>314.44849735025002</v>
       </c>
       <c r="J21" s="39">
-        <v>3159.7843985496102</v>
+        <v>3159.8692346578</v>
       </c>
       <c r="K21" s="39">
-        <v>14771.926161611</v>
+        <v>14772.3227686474</v>
       </c>
       <c r="L21" s="39">
-        <v>874.85510289186004</v>
+        <v>874.878591615392</v>
       </c>
       <c r="M21" s="40">
-        <v>36144.020709853103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>36144.991129877002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>53</v>
       </c>
@@ -2328,22 +2319,22 @@
         <v>123.771816369489</v>
       </c>
       <c r="I22" s="23">
-        <v>20.509258812256199</v>
+        <v>20.503103196319898</v>
       </c>
       <c r="J22" s="26">
-        <v>56.031127953248699</v>
+        <v>56.0143108606703</v>
       </c>
       <c r="K22" s="26">
-        <v>1313.1515325365699</v>
+        <v>1312.7574053487201</v>
       </c>
       <c r="L22" s="26">
-        <v>119.673844340432</v>
+        <v>119.637925625371</v>
       </c>
       <c r="M22" s="27">
-        <v>770.29422690644503</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>770.06303203674202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="28" t="s">
         <v>35</v>
       </c>
@@ -2351,40 +2342,40 @@
         <v>55</v>
       </c>
       <c r="C23" s="30">
-        <v>2.9992968442467398</v>
+        <v>3.0088060706100799</v>
       </c>
       <c r="D23" s="31">
-        <v>0.27789855506307998</v>
+        <v>0.27601721502429999</v>
       </c>
       <c r="E23" s="31">
-        <v>11.2255487912585</v>
+        <v>11.2459326949303</v>
       </c>
       <c r="F23" s="31">
-        <v>62.721930188146999</v>
+        <v>62.964557310402597</v>
       </c>
       <c r="G23" s="31">
-        <v>1.5658268293384101</v>
+        <v>1.5835934216249199</v>
       </c>
       <c r="H23" s="32">
-        <v>131.77464371227001</v>
+        <v>132.90184502353799</v>
       </c>
       <c r="I23" s="30">
-        <v>6691.21409235189</v>
+        <v>6691.1718226763596</v>
       </c>
       <c r="J23" s="33">
-        <v>25293.972645109101</v>
+        <v>25293.9814083161</v>
       </c>
       <c r="K23" s="33">
-        <v>139432.74235693301</v>
+        <v>139430.99602332001</v>
       </c>
       <c r="L23" s="33">
-        <v>2890.5583662288</v>
+        <v>2890.5397497702902</v>
       </c>
       <c r="M23" s="34">
-        <v>302759.40209009498</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+        <v>302758.687447428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>56</v>
       </c>
@@ -2410,22 +2401,22 @@
         <v>172.210799028948</v>
       </c>
       <c r="I24" s="23">
-        <v>72.721220803737594</v>
+        <v>72.718373829615103</v>
       </c>
       <c r="J24" s="26">
-        <v>112.154793638125</v>
+        <v>112.150402873069</v>
       </c>
       <c r="K24" s="26">
-        <v>606.20041428337595</v>
+        <v>606.17668205125096</v>
       </c>
       <c r="L24" s="26">
-        <v>0.38682751830031997</v>
+        <v>0.38681237433103</v>
       </c>
       <c r="M24" s="27">
-        <v>2659.85364412217</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+        <v>2659.7495131077198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>58</v>
       </c>
@@ -2451,22 +2442,22 @@
         <v>88.558139136391404</v>
       </c>
       <c r="I25" s="23">
-        <v>299.05819777377297</v>
+        <v>299.07245407571702</v>
       </c>
       <c r="J25" s="26">
-        <v>574.45690562791106</v>
+        <v>574.48429036827804</v>
       </c>
       <c r="K25" s="26">
-        <v>2869.41390518047</v>
+        <v>2869.5506920378102</v>
       </c>
       <c r="L25" s="26">
-        <v>482.70918748643902</v>
+        <v>482.73219855244298</v>
       </c>
       <c r="M25" s="27">
-        <v>3563.6246285874399</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+        <v>3563.79450892879</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>60</v>
       </c>
@@ -2492,22 +2483,22 @@
         <v>49.752362597399198</v>
       </c>
       <c r="I26" s="23">
-        <v>40.297883857739698</v>
+        <v>40.301458278419297</v>
       </c>
       <c r="J26" s="26">
-        <v>39.637144129865398</v>
+        <v>39.640659942957697</v>
       </c>
       <c r="K26" s="26">
-        <v>4972.7209290461797</v>
+        <v>4973.1620091928498</v>
       </c>
       <c r="L26" s="26" t="s">
         <v>20</v>
       </c>
       <c r="M26" s="27">
-        <v>1004.41244704214</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1004.50153838585</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>62</v>
       </c>
@@ -2533,22 +2524,22 @@
         <v>73.409894614532504</v>
       </c>
       <c r="I27" s="23">
-        <v>10384.247284315101</v>
+        <v>10384.2627696285</v>
       </c>
       <c r="J27" s="26">
-        <v>22272.9699522433</v>
+        <v>22273.003166390601</v>
       </c>
       <c r="K27" s="26">
-        <v>77964.021166167498</v>
+        <v>77964.137428546906</v>
       </c>
       <c r="L27" s="26">
-        <v>95.651776974626898</v>
+        <v>95.651919613539405</v>
       </c>
       <c r="M27" s="27">
-        <v>85795.3159765405</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+        <v>85795.443917191005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>64</v>
       </c>
@@ -2574,22 +2565,22 @@
         <v>86.553903123853701</v>
       </c>
       <c r="I28" s="23">
-        <v>6728.8634746178104</v>
+        <v>6725.4805408485099</v>
       </c>
       <c r="J28" s="26">
-        <v>9271.2341151730197</v>
+        <v>9266.5730054492706</v>
       </c>
       <c r="K28" s="26">
-        <v>54187.493632382197</v>
+        <v>54160.250888823102</v>
       </c>
       <c r="L28" s="26">
-        <v>2748.1101782363698</v>
+        <v>2746.7285668009799</v>
       </c>
       <c r="M28" s="27">
-        <v>105521.21861087999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+        <v>105468.167854959</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>66</v>
       </c>
@@ -2615,22 +2606,22 @@
         <v>79.461122751305098</v>
       </c>
       <c r="I29" s="23">
-        <v>819.77221024197104</v>
+        <v>819.79169144467005</v>
       </c>
       <c r="J29" s="26">
-        <v>2177.1590306726898</v>
+        <v>2177.2107690408102</v>
       </c>
       <c r="K29" s="26">
-        <v>16058.528803953899</v>
+        <v>16058.9104214945</v>
       </c>
       <c r="L29" s="26">
-        <v>161.82278400229001</v>
+        <v>161.82662958575401</v>
       </c>
       <c r="M29" s="27">
-        <v>21761.823391251899</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+        <v>21762.340542830501</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>68</v>
       </c>
@@ -2656,22 +2647,22 @@
         <v>120.54741786039099</v>
       </c>
       <c r="I30" s="23">
-        <v>765.35629976258497</v>
+        <v>765.33789712434998</v>
       </c>
       <c r="J30" s="26">
-        <v>2043.5842030359599</v>
+        <v>2043.5350659989899</v>
       </c>
       <c r="K30" s="26">
-        <v>11370.106050505499</v>
+        <v>11369.8326615644</v>
       </c>
       <c r="L30" s="26">
-        <v>474.04335138144199</v>
+        <v>474.03195322831198</v>
       </c>
       <c r="M30" s="27">
-        <v>23074.0930978336</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+        <v>23073.538291937301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>70</v>
       </c>
@@ -2697,22 +2688,22 @@
         <v>49.283287347602801</v>
       </c>
       <c r="I31" s="23">
-        <v>1336.2481799229699</v>
+        <v>1336.22283335362</v>
       </c>
       <c r="J31" s="26">
-        <v>1447.6712293382</v>
+        <v>1447.64376924526</v>
       </c>
       <c r="K31" s="26">
-        <v>10864.3843030264</v>
+        <v>10864.178222393901</v>
       </c>
       <c r="L31" s="26">
-        <v>403.422808079665</v>
+        <v>403.41515577050802</v>
       </c>
       <c r="M31" s="27">
-        <v>9109.6686403480599</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+        <v>9109.4958439682996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>72</v>
       </c>
@@ -2738,22 +2729,22 @@
         <v>276.66329376535202</v>
       </c>
       <c r="I32" s="23">
-        <v>78.004857027545597</v>
+        <v>78.020167277107305</v>
       </c>
       <c r="J32" s="26">
-        <v>451.996086133007</v>
+        <v>452.08480077390601</v>
       </c>
       <c r="K32" s="26">
-        <v>2224.8204434265099</v>
+        <v>2225.2571156738099</v>
       </c>
       <c r="L32" s="26">
-        <v>27.465643107861801</v>
+        <v>27.471033872826698</v>
       </c>
       <c r="M32" s="27">
-        <v>4391.1314088400704</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+        <v>4391.9932695021998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>74</v>
       </c>
@@ -2794,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>76</v>
       </c>
@@ -2820,22 +2811,22 @@
         <v>20</v>
       </c>
       <c r="I34" s="36">
-        <v>708.47980374675603</v>
+        <v>708.54982498772699</v>
       </c>
       <c r="J34" s="39">
-        <v>145.54163796866601</v>
+        <v>145.556022296983</v>
       </c>
       <c r="K34" s="39">
-        <v>16851.410555406699</v>
+        <v>16853.076032210702</v>
       </c>
       <c r="L34" s="39" t="s">
         <v>20</v>
       </c>
       <c r="M34" s="40">
-        <v>11154.128363554701</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+        <v>11155.2307604132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>78</v>
       </c>
@@ -2870,13 +2861,13 @@
         <v>20</v>
       </c>
       <c r="L35" s="26">
-        <v>82.122204494212298</v>
+        <v>82.121923925997905</v>
       </c>
       <c r="M35" s="27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>80</v>
       </c>
@@ -2902,22 +2893,22 @@
         <v>100.53788619617799</v>
       </c>
       <c r="I36" s="23">
-        <v>7849.8843065247402</v>
+        <v>7849.8914451229202</v>
       </c>
       <c r="J36" s="26">
-        <v>18580.720333180201</v>
+        <v>18580.7372302822</v>
       </c>
       <c r="K36" s="26">
-        <v>58001.8810001655</v>
+        <v>58001.933746436102</v>
       </c>
       <c r="L36" s="26">
-        <v>627.96119280522805</v>
+        <v>627.961763866208</v>
       </c>
       <c r="M36" s="27">
-        <v>114798.501929213</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>114798.60632570399</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>82</v>
       </c>
@@ -2943,22 +2934,22 @@
         <v>86.209658849703104</v>
       </c>
       <c r="I37" s="23">
-        <v>2918.5251010233901</v>
+        <v>2902.5207164947801</v>
       </c>
       <c r="J37" s="26">
-        <v>5524.6993271053398</v>
+        <v>5494.4034038648797</v>
       </c>
       <c r="K37" s="26">
-        <v>19503.264791160102</v>
+        <v>19396.314280721999</v>
       </c>
       <c r="L37" s="26">
-        <v>1284.8594380617001</v>
+        <v>1277.8136242344599</v>
       </c>
       <c r="M37" s="27">
-        <v>57452.016538557597</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>57136.965568358697</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="28" t="s">
         <v>35</v>
       </c>
@@ -2966,40 +2957,40 @@
         <v>84</v>
       </c>
       <c r="C38" s="30">
-        <v>6.4696013993813004</v>
+        <v>6.4692537946468098</v>
       </c>
       <c r="D38" s="31">
-        <v>0.18043415546496</v>
+        <v>0.22005576049148001</v>
       </c>
       <c r="E38" s="31">
-        <v>12.7898922940639</v>
+        <v>12.796641567310401</v>
       </c>
       <c r="F38" s="31">
-        <v>52.892933754728503</v>
+        <v>52.454063975062198</v>
       </c>
       <c r="G38" s="31">
-        <v>1.0506581644285999</v>
+        <v>1.0507755050852401</v>
       </c>
       <c r="H38" s="32">
-        <v>83.767032553422496</v>
+        <v>83.088164559089805</v>
       </c>
       <c r="I38" s="30">
-        <v>32001.458819618201</v>
+        <v>31982.1701724659</v>
       </c>
       <c r="J38" s="33">
-        <v>62641.824758246301</v>
+        <v>62607.022586527302</v>
       </c>
       <c r="K38" s="33">
-        <v>275474.24599470501</v>
+        <v>275342.78018114698</v>
       </c>
       <c r="L38" s="33">
-        <v>6388.5553921481396</v>
+        <v>6380.1415818253499</v>
       </c>
       <c r="M38" s="34">
-        <v>440285.78867677198</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+        <v>439919.82793528697</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>85</v>
       </c>
@@ -3025,22 +3016,22 @@
         <v>153.59705841233099</v>
       </c>
       <c r="I39" s="36">
-        <v>23835.8873239407</v>
+        <v>23835.952606012099</v>
       </c>
       <c r="J39" s="39">
-        <v>42358.720337760999</v>
+        <v>42358.836350434198</v>
       </c>
       <c r="K39" s="39">
-        <v>325191.24618253001</v>
+        <v>325192.13682099798</v>
       </c>
       <c r="L39" s="39">
-        <v>4409.0146073301703</v>
+        <v>4409.0266828028698</v>
       </c>
       <c r="M39" s="40">
-        <v>398259.40620320902</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+        <v>398260.49696180603</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>87</v>
       </c>
@@ -3066,22 +3057,22 @@
         <v>39.955018651461998</v>
       </c>
       <c r="I40" s="23">
-        <v>26644.742590440801</v>
+        <v>26644.714244294501</v>
       </c>
       <c r="J40" s="26">
-        <v>27754.040663722299</v>
+        <v>27754.011137443598</v>
       </c>
       <c r="K40" s="26">
-        <v>311668.01719903998</v>
+        <v>311667.68562941899</v>
       </c>
       <c r="L40" s="26">
-        <v>6101.9334032823999</v>
+        <v>6101.9269117092099</v>
       </c>
       <c r="M40" s="27">
-        <v>255848.871544216</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+        <v>255848.59935807899</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>89</v>
       </c>
@@ -3122,7 +3113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>91</v>
       </c>
@@ -3148,22 +3139,22 @@
         <v>205.877684305016</v>
       </c>
       <c r="I42" s="36">
-        <v>309.10692170738503</v>
+        <v>309.09676716032197</v>
       </c>
       <c r="J42" s="39">
-        <v>2506.11441209135</v>
+        <v>2506.0320831140398</v>
       </c>
       <c r="K42" s="39">
-        <v>6667.2387791664096</v>
+        <v>6667.0197520751199</v>
       </c>
       <c r="L42" s="39">
-        <v>92.011357282752996</v>
+        <v>92.008334595158004</v>
       </c>
       <c r="M42" s="40">
-        <v>29393.568212763901</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29392.602597467801</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>93</v>
       </c>
@@ -3189,22 +3180,22 @@
         <v>232.54852249809201</v>
       </c>
       <c r="I43" s="23">
-        <v>5439.5863421192398</v>
+        <v>5439.5751576773901</v>
       </c>
       <c r="J43" s="26">
-        <v>27685.555006589399</v>
+        <v>27685.498081768099</v>
       </c>
       <c r="K43" s="26">
-        <v>66988.812874576804</v>
+        <v>66988.675137544094</v>
       </c>
       <c r="L43" s="26">
-        <v>12070.2682681806</v>
+        <v>12070.2434502616</v>
       </c>
       <c r="M43" s="27">
-        <v>287321.94618132501</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>287321.35541294701</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>95</v>
       </c>
@@ -3230,22 +3221,22 @@
         <v>102.703432049866</v>
       </c>
       <c r="I44" s="23">
-        <v>2469.9700055610401</v>
+        <v>2469.9524754004101</v>
       </c>
       <c r="J44" s="26">
-        <v>4869.4572571577601</v>
+        <v>4869.4226970749696</v>
       </c>
       <c r="K44" s="26">
-        <v>35504.0944399117</v>
+        <v>35503.842456091297</v>
       </c>
       <c r="L44" s="26">
-        <v>916.01629500459001</v>
+        <v>916.00979374637495</v>
       </c>
       <c r="M44" s="27">
-        <v>76338.066297759695</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>76337.524502287997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="28" t="s">
         <v>35</v>
       </c>
@@ -3253,40 +3244,40 @@
         <v>97</v>
       </c>
       <c r="C45" s="30">
-        <v>5.2420903650867601</v>
+        <v>5.2420323570169103</v>
       </c>
       <c r="D45" s="31">
-        <v>0.12833625535082999</v>
+        <v>0.12833497010344</v>
       </c>
       <c r="E45" s="31">
-        <v>9.7837351658396496</v>
+        <v>9.78344432177785</v>
       </c>
       <c r="F45" s="31">
-        <v>66.456149063885505</v>
+        <v>66.455193635978205</v>
       </c>
       <c r="G45" s="31">
-        <v>2.3501280891169101</v>
+        <v>2.3500544506442802</v>
       </c>
       <c r="H45" s="32">
-        <v>97.514334887836895</v>
+        <v>97.511263362236605</v>
       </c>
       <c r="I45" s="30">
-        <v>58699.293183769099</v>
+        <v>58699.291250544702</v>
       </c>
       <c r="J45" s="33">
-        <v>105173.887677322</v>
+        <v>105173.800349835</v>
       </c>
       <c r="K45" s="33">
-        <v>746019.40947522398</v>
+        <v>746019.35979612602</v>
       </c>
       <c r="L45" s="33">
-        <v>23589.243931080498</v>
+        <v>23589.215173115201</v>
       </c>
       <c r="M45" s="34">
-        <v>1047161.8584392701</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1047160.57883259</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>98</v>
       </c>
@@ -3312,22 +3303,22 @@
         <v>88.157821734157906</v>
       </c>
       <c r="I46" s="23">
-        <v>564.26262460336795</v>
+        <v>564.25094854575605</v>
       </c>
       <c r="J46" s="26">
-        <v>3060.8921907508802</v>
+        <v>3060.8288529503502</v>
       </c>
       <c r="K46" s="26">
-        <v>11091.6661526895</v>
+        <v>11091.436637340799</v>
       </c>
       <c r="L46" s="26">
-        <v>403.45269915820001</v>
+        <v>403.44435067514701</v>
       </c>
       <c r="M46" s="27">
-        <v>19128.6779529296</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+        <v>19128.282130955798</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>100</v>
       </c>
@@ -3353,22 +3344,22 @@
         <v>78.294770982923396</v>
       </c>
       <c r="I47" s="23">
-        <v>837.88984284792105</v>
+        <v>837.86823941364298</v>
       </c>
       <c r="J47" s="26">
-        <v>2440.3851185826902</v>
+        <v>2440.32219778234</v>
       </c>
       <c r="K47" s="26">
-        <v>9036.59508979776</v>
+        <v>9036.3620979674106</v>
       </c>
       <c r="L47" s="26">
-        <v>109.674926153176</v>
+        <v>109.672098388788</v>
       </c>
       <c r="M47" s="27">
-        <v>13778.8118990405</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+        <v>13778.4566379524</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>102</v>
       </c>
@@ -3394,22 +3385,22 @@
         <v>196.48153819678399</v>
       </c>
       <c r="I48" s="36">
-        <v>72.8477322170299</v>
+        <v>72.210791768329202</v>
       </c>
       <c r="J48" s="39">
-        <v>626.66204775226799</v>
+        <v>621.18285994872804</v>
       </c>
       <c r="K48" s="39">
-        <v>2206.1775477525798</v>
+        <v>2186.8879463550702</v>
       </c>
       <c r="L48" s="39">
-        <v>59.794564401242198</v>
+        <v>59.271753662726297</v>
       </c>
       <c r="M48" s="40">
-        <v>6054.0642813900504</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+        <v>6001.1308776656397</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>104</v>
       </c>
@@ -3435,22 +3426,22 @@
         <v>76.206622818130299</v>
       </c>
       <c r="I49" s="23">
-        <v>3206.2578355374599</v>
+        <v>3212.2117663379699</v>
       </c>
       <c r="J49" s="26">
-        <v>9127.5654872491596</v>
+        <v>9144.5151201470107</v>
       </c>
       <c r="K49" s="26">
-        <v>21415.8077958826</v>
+        <v>21455.576349814899</v>
       </c>
       <c r="L49" s="26">
-        <v>1489.08176289894</v>
+        <v>1491.8469459339201</v>
       </c>
       <c r="M49" s="27">
-        <v>55034.769403366103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+        <v>55136.967425314899</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>106</v>
       </c>
@@ -3476,22 +3467,22 @@
         <v>66.521864429525607</v>
       </c>
       <c r="I50" s="23">
-        <v>177.03255189514999</v>
+        <v>177.02891546863199</v>
       </c>
       <c r="J50" s="26">
-        <v>208.72225451489601</v>
+        <v>208.71796715004101</v>
       </c>
       <c r="K50" s="26">
-        <v>1745.8372074828901</v>
+        <v>1745.8013462322399</v>
       </c>
       <c r="L50" s="26">
-        <v>67.622200735726693</v>
+        <v>67.620811707769207</v>
       </c>
       <c r="M50" s="27">
-        <v>2203.58767616878</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+        <v>2203.5424122635</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>108</v>
       </c>
@@ -3517,22 +3508,22 @@
         <v>124.312670526932</v>
       </c>
       <c r="I51" s="17">
-        <v>1179.36082782272</v>
+        <v>1179.36805414888</v>
       </c>
       <c r="J51" s="20">
-        <v>11942.3290633039</v>
+        <v>11942.402237826</v>
       </c>
       <c r="K51" s="20">
-        <v>27149.3880452433</v>
+        <v>27149.554398346099</v>
       </c>
       <c r="L51" s="20">
-        <v>3682.18979566078</v>
+        <v>3682.2123576314798</v>
       </c>
       <c r="M51" s="21">
-        <v>148668.856174024</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+        <v>148669.767116306</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>110</v>
       </c>
@@ -3558,22 +3549,22 @@
         <v>71.608049028481304</v>
       </c>
       <c r="I52" s="23">
-        <v>438.01835399255299</v>
+        <v>438.01490457332898</v>
       </c>
       <c r="J52" s="26">
-        <v>1641.7133578179801</v>
+        <v>1641.7004292327599</v>
       </c>
       <c r="K52" s="26">
-        <v>11424.590904533999</v>
+        <v>11424.5009352368</v>
       </c>
       <c r="L52" s="26">
-        <v>257.798527394313</v>
+        <v>257.796497216381</v>
       </c>
       <c r="M52" s="27">
-        <v>16496.4788189268</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+        <v>16496.3489082263</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>112</v>
       </c>
@@ -3599,22 +3590,22 @@
         <v>17.141102458932099</v>
       </c>
       <c r="I53" s="23">
-        <v>41.094737285929597</v>
+        <v>41.107463314469001</v>
       </c>
       <c r="J53" s="26">
-        <v>33.500435713609001</v>
+        <v>33.510809973894702</v>
       </c>
       <c r="K53" s="26">
-        <v>1359.7802020644201</v>
+        <v>1360.2012925203201</v>
       </c>
       <c r="L53" s="26">
         <v>0</v>
       </c>
       <c r="M53" s="27">
-        <v>435.57165964356301</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+        <v>435.70654546441699</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>114</v>
       </c>
@@ -3655,7 +3646,7 @@
         <v>9201.2977600097693</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>116</v>
       </c>
@@ -3681,22 +3672,22 @@
         <v>63.747270894705501</v>
       </c>
       <c r="I55" s="23">
-        <v>1174.65543752545</v>
+        <v>1174.6565525968699</v>
       </c>
       <c r="J55" s="26">
-        <v>2447.9357677575899</v>
+        <v>2447.9380915226102</v>
       </c>
       <c r="K55" s="26">
-        <v>12117.4043736195</v>
+        <v>12117.415876372501</v>
       </c>
       <c r="L55" s="26">
-        <v>92.454794716360595</v>
+        <v>92.454882481415893</v>
       </c>
       <c r="M55" s="27">
-        <v>17977.290387749999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+        <v>17977.307453148202</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>118</v>
       </c>
@@ -3722,22 +3713,22 @@
         <v>153.45336224487201</v>
       </c>
       <c r="I56" s="23">
-        <v>1384.89156929299</v>
+        <v>1384.89000269449</v>
       </c>
       <c r="J56" s="26">
-        <v>2518.2979754124299</v>
+        <v>2518.2951266971099</v>
       </c>
       <c r="K56" s="26">
-        <v>11262.341109294701</v>
+        <v>11262.32836926</v>
       </c>
       <c r="L56" s="26">
-        <v>4.5174413644201596</v>
+        <v>4.5174362542606197</v>
       </c>
       <c r="M56" s="27">
-        <v>25622.687036597901</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+        <v>25622.658052044899</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>120</v>
       </c>
@@ -3763,22 +3754,22 @@
         <v>97.282467385994707</v>
       </c>
       <c r="I57" s="23">
-        <v>13739.3659855769</v>
+        <v>13739.352778198499</v>
       </c>
       <c r="J57" s="26">
-        <v>100154.435096154</v>
+        <v>100154.338819693</v>
       </c>
       <c r="K57" s="26">
-        <v>654617.25961538497</v>
+        <v>654616.63034487201</v>
       </c>
       <c r="L57" s="26">
-        <v>9696.5700120192305</v>
+        <v>9696.5606908999107</v>
       </c>
       <c r="M57" s="27">
-        <v>1130224.1346153801</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1130223.04815347</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>122</v>
       </c>
@@ -3804,22 +3795,22 @@
         <v>113.58858313115999</v>
       </c>
       <c r="I58" s="23">
-        <v>1396.7331278269901</v>
+        <v>1396.71941926005</v>
       </c>
       <c r="J58" s="26">
-        <v>5078.9275771009297</v>
+        <v>5078.8777287675002</v>
       </c>
       <c r="K58" s="26">
-        <v>16906.553223467999</v>
+        <v>16906.387290111099</v>
       </c>
       <c r="L58" s="26">
-        <v>1929.2453138226799</v>
+        <v>1929.22637878921</v>
       </c>
       <c r="M58" s="27">
-        <v>38526.859523027699</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+        <v>38526.481392071903</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>124</v>
       </c>
@@ -3845,22 +3836,22 @@
         <v>46.789617775968601</v>
       </c>
       <c r="I59" s="23">
-        <v>172.38268002576501</v>
+        <v>172.39215741872201</v>
       </c>
       <c r="J59" s="26">
-        <v>319.93029937620997</v>
+        <v>319.94788876028002</v>
       </c>
       <c r="K59" s="26">
-        <v>4161.8348763345602</v>
+        <v>4162.0636890235101</v>
       </c>
       <c r="L59" s="26">
-        <v>153.01920408023301</v>
+        <v>153.02761689251</v>
       </c>
       <c r="M59" s="27">
-        <v>5131.1714014434101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5131.45350709169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>126</v>
       </c>
@@ -3886,22 +3877,22 @@
         <v>82.217148358802106</v>
       </c>
       <c r="I60" s="17">
-        <v>319.78630479617101</v>
+        <v>319.78855804229403</v>
       </c>
       <c r="J60" s="20">
-        <v>864.11796405714404</v>
+        <v>864.12405271830005</v>
       </c>
       <c r="K60" s="20">
-        <v>8713.3327343320798</v>
+        <v>8713.3941293415101</v>
       </c>
       <c r="L60" s="20">
-        <v>708.20758255264604</v>
+        <v>708.21257265373902</v>
       </c>
       <c r="M60" s="21">
-        <v>8239.7854030505696</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>8239.84346139839</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="28" t="s">
         <v>35</v>
       </c>
@@ -3909,40 +3900,40 @@
         <v>128</v>
       </c>
       <c r="C61" s="30">
-        <v>1.9488258617349301</v>
+        <v>1.94747836043489</v>
       </c>
       <c r="D61" s="31">
-        <v>0.1480529212369</v>
+        <v>0.14802667856929999</v>
       </c>
       <c r="E61" s="31">
-        <v>9.6376104748996507</v>
+        <v>9.6371120012534295</v>
       </c>
       <c r="F61" s="31">
-        <v>50.155524602919499</v>
+        <v>50.164842925838698</v>
       </c>
       <c r="G61" s="31">
-        <v>1.4610981946635799</v>
+        <v>1.46036029496401</v>
       </c>
       <c r="H61" s="32">
-        <v>97.371754203504494</v>
+        <v>97.392746725257794</v>
       </c>
       <c r="I61" s="30">
-        <v>25058.760275070501</v>
+        <v>25064.041215606001</v>
       </c>
       <c r="J61" s="33">
-        <v>141105.243615513</v>
+        <v>141116.53116313901</v>
       </c>
       <c r="K61" s="33">
-        <v>797475.56097001303</v>
+        <v>797495.53279492701</v>
       </c>
       <c r="L61" s="33">
-        <v>19442.404626616601</v>
+        <v>19444.640194845899</v>
       </c>
       <c r="M61" s="34">
-        <v>1496724.0439927501</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1496772.29183338</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="42" t="s">
         <v>35</v>
       </c>
@@ -3950,40 +3941,40 @@
         <v>129</v>
       </c>
       <c r="C62" s="44">
-        <v>4.0105372896062601</v>
+        <v>4.0106954938155202</v>
       </c>
       <c r="D62" s="45">
-        <v>0.19771625052094999</v>
+        <v>0.20419177683473</v>
       </c>
       <c r="E62" s="45">
-        <v>11.0865630882797</v>
+        <v>11.0885366026512</v>
       </c>
       <c r="F62" s="45">
-        <v>59.5142159612641</v>
+        <v>59.460151531800797</v>
       </c>
       <c r="G62" s="45">
-        <v>2.0307995618776999</v>
+        <v>2.0312690121296102</v>
       </c>
       <c r="H62" s="46">
-        <v>111.45694774987599</v>
+        <v>111.392718011102</v>
       </c>
       <c r="I62" s="44">
-        <v>140929.41021098901</v>
+        <v>140915.45595838799</v>
       </c>
       <c r="J62" s="47">
-        <v>418147.04366729001</v>
+        <v>418123.61775648699</v>
       </c>
       <c r="K62" s="47">
-        <v>2323710.2229526001</v>
+        <v>2323597.9644134799</v>
       </c>
       <c r="L62" s="47">
-        <v>71835.773295893901</v>
+        <v>71829.5694649332</v>
       </c>
       <c r="M62" s="48">
-        <v>4278267.0938861202</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>4277949.1797002703</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="42" t="s">
         <v>35</v>
       </c>
@@ -3991,40 +3982,40 @@
         <v>130</v>
       </c>
       <c r="C63" s="50">
-        <v>6.3144562093230201</v>
+        <v>6.3122297903446798</v>
       </c>
       <c r="D63" s="51">
-        <v>0.22482847386006999</v>
+        <v>0.22491737135611001</v>
       </c>
       <c r="E63" s="51">
-        <v>19.847620343020399</v>
+        <v>19.845615837698599</v>
       </c>
       <c r="F63" s="51">
-        <v>83.851346451543506</v>
+        <v>83.836288402845099</v>
       </c>
       <c r="G63" s="51">
-        <v>2.9431996697221399</v>
+        <v>2.9440261897099802</v>
       </c>
       <c r="H63" s="52">
-        <v>185.72263517037899</v>
+        <v>185.72948878407499</v>
       </c>
       <c r="I63" s="50">
-        <v>4829806.5531182298</v>
+        <v>4829803.1922995197</v>
       </c>
       <c r="J63" s="53">
-        <v>16482906.416301301</v>
+        <v>16482897.343364</v>
       </c>
       <c r="K63" s="53">
-        <v>66186522.377635904</v>
+        <v>66186457.789626002</v>
       </c>
       <c r="L63" s="53">
-        <v>1276599.81147072</v>
+        <v>1276593.20622573</v>
       </c>
       <c r="M63" s="54">
-        <v>157994909.669045</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+        <v>157994860.592715</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="55" t="s">
         <v>35</v>
       </c>
@@ -4032,40 +4023,40 @@
         <v>131</v>
       </c>
       <c r="C64" s="44">
-        <v>2.8099061586843601</v>
+        <v>2.8070596724896602</v>
       </c>
       <c r="D64" s="45">
-        <v>0.44062337827387998</v>
+        <v>0.43974995103613002</v>
       </c>
       <c r="E64" s="45">
-        <v>14.4169151617171</v>
+        <v>14.425100929460299</v>
       </c>
       <c r="F64" s="45">
-        <v>87.367259019654199</v>
+        <v>87.152032127732497</v>
       </c>
       <c r="G64" s="45">
-        <v>7.9483913103784802</v>
+        <v>7.92042992316106</v>
       </c>
       <c r="H64" s="46">
-        <v>191.104323351505</v>
+        <v>191.09745352328</v>
       </c>
       <c r="I64" s="44">
-        <v>137956.63071219</v>
+        <v>137956.71506643499</v>
       </c>
       <c r="J64" s="47">
-        <v>792085.01739475701</v>
+        <v>792084.93192974501</v>
       </c>
       <c r="K64" s="47">
-        <v>3322575.6321278499</v>
+        <v>3322575.8336866</v>
       </c>
       <c r="L64" s="47">
-        <v>400749.97252598801</v>
+        <v>400749.98647825402</v>
       </c>
       <c r="M64" s="48">
-        <v>9690581.9676536191</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+        <v>9690580.5858480297</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="55" t="s">
         <v>35</v>
       </c>
@@ -4073,40 +4064,40 @@
         <v>132</v>
       </c>
       <c r="C65" s="57">
-        <v>11.037606931318701</v>
+        <v>11.0377459886256</v>
       </c>
       <c r="D65" s="58">
-        <v>0.22188090679271999</v>
+        <v>0.22188117646381</v>
       </c>
       <c r="E65" s="58">
-        <v>24.232616499882599</v>
+        <v>24.233564798196301</v>
       </c>
       <c r="F65" s="58">
-        <v>113.649379066809</v>
+        <v>113.65186733103</v>
       </c>
       <c r="G65" s="58">
-        <v>2.6905265931323501</v>
+        <v>2.6905958933032101</v>
       </c>
       <c r="H65" s="59">
-        <v>174.809355074021</v>
+        <v>174.81779829873901</v>
       </c>
       <c r="I65" s="57">
-        <v>2612410.5521783298</v>
+        <v>2612407.0981405699</v>
       </c>
       <c r="J65" s="60">
-        <v>5359797.1350932401</v>
+        <v>5359788.8110299101</v>
       </c>
       <c r="K65" s="60">
-        <v>26271421.903180301</v>
+        <v>26271358.634569801</v>
       </c>
       <c r="L65" s="60">
-        <v>507134.43916511402</v>
+        <v>507127.92124531599</v>
       </c>
       <c r="M65" s="61">
-        <v>37279204.288999401</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>37279164.464398101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="55" t="s">
         <v>35</v>
       </c>
@@ -4114,40 +4105,40 @@
         <v>133</v>
       </c>
       <c r="C66" s="63">
-        <v>6.2016005196530104</v>
+        <v>6.1995280816434999</v>
       </c>
       <c r="D66" s="64">
-        <v>0.22292175692602001</v>
+        <v>0.22345882238715001</v>
       </c>
       <c r="E66" s="64">
-        <v>19.418466716883302</v>
+        <v>19.416798507229199</v>
       </c>
       <c r="F66" s="64">
-        <v>82.6561591326398</v>
+        <v>82.638130694110004</v>
       </c>
       <c r="G66" s="64">
-        <v>2.8791895589183798</v>
+        <v>2.8800216623166102</v>
       </c>
       <c r="H66" s="65">
-        <v>182.075475211644</v>
+        <v>182.07562125718499</v>
       </c>
       <c r="I66" s="63">
-        <v>4970735.9633292202</v>
+        <v>4970718.6482579103</v>
       </c>
       <c r="J66" s="66">
-        <v>16901053.4599685</v>
+        <v>16901020.961120501</v>
       </c>
       <c r="K66" s="66">
-        <v>68510232.6005885</v>
+        <v>68510055.754039496</v>
       </c>
       <c r="L66" s="66">
-        <v>1348435.5847666101</v>
+        <v>1348422.7756906601</v>
       </c>
       <c r="M66" s="67">
-        <v>162273176.76293099</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+        <v>162272809.772416</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="55" t="s">
         <v>35</v>
       </c>
@@ -4155,40 +4146,40 @@
         <v>134</v>
       </c>
       <c r="C67" s="69">
-        <v>4.7798484308372302</v>
+        <v>4.7798456191438001</v>
       </c>
       <c r="D67" s="70">
-        <v>0.14558552742200001</v>
+        <v>0.16248007430358</v>
       </c>
       <c r="E67" s="70">
-        <v>7.5979852501886498</v>
+        <v>7.6008417514922204</v>
       </c>
       <c r="F67" s="70">
-        <v>48.973250126964501</v>
+        <v>48.819292826119103</v>
       </c>
       <c r="G67" s="70">
-        <v>1.12564926421305</v>
+        <v>1.1256803751206601</v>
       </c>
       <c r="H67" s="71">
-        <v>63.763223022888901</v>
+        <v>63.573008934990298</v>
       </c>
       <c r="I67" s="69">
-        <v>57517.366786207203</v>
+        <v>57497.957776611504</v>
       </c>
       <c r="J67" s="72">
-        <v>93802.725488989003</v>
+        <v>93767.828201096097</v>
       </c>
       <c r="K67" s="72">
-        <v>596124.522310948</v>
+        <v>595990.28224771097</v>
       </c>
       <c r="L67" s="72">
-        <v>14730.9129920941</v>
+        <v>14722.511091819801</v>
       </c>
       <c r="M67" s="73">
-        <v>818744.44256444601</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+        <v>818376.24295216799</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="55" t="s">
         <v>35</v>
       </c>
@@ -4196,40 +4187,40 @@
         <v>135</v>
       </c>
       <c r="C68" s="57">
-        <v>3.0495546490614198</v>
+        <v>3.0492412383834799</v>
       </c>
       <c r="D68" s="58">
-        <v>0.1838359269207</v>
+        <v>0.19563326261124001</v>
       </c>
       <c r="E68" s="58">
-        <v>8.7273545942767807</v>
+        <v>8.72623361665738</v>
       </c>
       <c r="F68" s="58">
-        <v>50.126081540933598</v>
+        <v>50.012048315753098</v>
       </c>
       <c r="G68" s="58">
-        <v>1.8870656247070801</v>
+        <v>1.8867930048210599</v>
       </c>
       <c r="H68" s="59">
-        <v>88.589370380912598</v>
+        <v>88.383269938966606</v>
       </c>
       <c r="I68" s="57">
-        <v>60436.738384641001</v>
+        <v>60442.589536435204</v>
       </c>
       <c r="J68" s="60">
-        <v>205127.854215764</v>
+        <v>205144.445894868</v>
       </c>
       <c r="K68" s="60">
-        <v>1234950.42598555</v>
+        <v>1234988.52817415</v>
       </c>
       <c r="L68" s="60">
-        <v>38339.281803806</v>
+        <v>38342.022064689598</v>
       </c>
       <c r="M68" s="61">
-        <v>2157620.201905</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+        <v>2157718.9726581802</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="55" t="s">
         <v>35</v>
       </c>
@@ -4237,40 +4228,40 @@
         <v>136</v>
       </c>
       <c r="C69" s="57">
-        <v>5.1947789815601402</v>
+        <v>5.1948931999961996</v>
       </c>
       <c r="D69" s="58">
-        <v>8.4459007944940004E-2</v>
+        <v>8.4457052576280001E-2</v>
       </c>
       <c r="E69" s="58">
-        <v>10.3637693341341</v>
+        <v>10.3641675239889</v>
       </c>
       <c r="F69" s="58">
-        <v>40.957425493809097</v>
+        <v>40.959234160585503</v>
       </c>
       <c r="G69" s="58">
-        <v>1.4180783528965499</v>
+        <v>1.4179772454394199</v>
       </c>
       <c r="H69" s="59">
-        <v>91.935804840643996</v>
+        <v>91.937404456865806</v>
       </c>
       <c r="I69" s="57">
-        <v>21738.646230889099</v>
+        <v>21719.285790213798</v>
       </c>
       <c r="J69" s="60">
-        <v>45164.227913413997</v>
+        <v>45129.203480237004</v>
       </c>
       <c r="K69" s="60">
-        <v>183429.84439910299</v>
+        <v>183296.78565051299</v>
       </c>
       <c r="L69" s="60">
-        <v>5090.8212858862798</v>
+        <v>5082.38675528153</v>
       </c>
       <c r="M69" s="61">
-        <v>402503.16861996002</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+        <v>402135.45784234698</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="55" t="s">
         <v>35</v>
       </c>
@@ -4278,40 +4269,40 @@
         <v>137</v>
       </c>
       <c r="C70" s="57">
-        <v>3.2505543558479202</v>
+        <v>3.25502257303111</v>
       </c>
       <c r="D70" s="58">
-        <v>0.18509519538864</v>
+        <v>0.18441251973775</v>
       </c>
       <c r="E70" s="58">
-        <v>12.3280431805288</v>
+        <v>12.3359288493779</v>
       </c>
       <c r="F70" s="58">
-        <v>84.336799753978596</v>
+        <v>84.401538143292996</v>
       </c>
       <c r="G70" s="58">
-        <v>1.03448845976796</v>
+        <v>1.04593245444962</v>
       </c>
       <c r="H70" s="59">
-        <v>159.30780200019001</v>
+        <v>159.854492716018</v>
       </c>
       <c r="I70" s="57">
-        <v>10506.2629272431</v>
+        <v>10506.2088760511</v>
       </c>
       <c r="J70" s="60">
-        <v>38385.864888117198</v>
+        <v>38385.909913367897</v>
       </c>
       <c r="K70" s="60">
-        <v>245936.87357445699</v>
+        <v>245935.44454163901</v>
       </c>
       <c r="L70" s="60">
-        <v>3444.8749677145602</v>
+        <v>3444.84952470199</v>
       </c>
       <c r="M70" s="61">
-        <v>483427.41255203902</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+        <v>483427.46395330399</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="55" t="s">
         <v>35</v>
       </c>
@@ -4319,40 +4310,40 @@
         <v>138</v>
       </c>
       <c r="C71" s="57">
-        <v>1.9488258617349301</v>
+        <v>1.94747836043489</v>
       </c>
       <c r="D71" s="58">
-        <v>0.1480529212369</v>
+        <v>0.14802667856929999</v>
       </c>
       <c r="E71" s="58">
-        <v>9.6376104748996507</v>
+        <v>9.6371120012534295</v>
       </c>
       <c r="F71" s="58">
-        <v>50.1555246029194</v>
+        <v>50.164842925838698</v>
       </c>
       <c r="G71" s="58">
-        <v>1.4610981946635799</v>
+        <v>1.46036029496401</v>
       </c>
       <c r="H71" s="59">
-        <v>97.371754203504494</v>
+        <v>97.392746725257794</v>
       </c>
       <c r="I71" s="57">
-        <v>25058.760275070501</v>
+        <v>25064.041215606001</v>
       </c>
       <c r="J71" s="60">
-        <v>141105.243615513</v>
+        <v>141116.53116313901</v>
       </c>
       <c r="K71" s="60">
-        <v>797475.56097001303</v>
+        <v>797495.53279492701</v>
       </c>
       <c r="L71" s="60">
-        <v>19442.404626616601</v>
+        <v>19444.640194845899</v>
       </c>
       <c r="M71" s="61">
-        <v>1496724.0439927501</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1496772.29183338</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="55" t="s">
         <v>35</v>
       </c>
@@ -4360,40 +4351,40 @@
         <v>139</v>
       </c>
       <c r="C72" s="57">
-        <v>6.7215651076735599</v>
+        <v>6.7219916108932498</v>
       </c>
       <c r="D72" s="58">
-        <v>0.21006268143366999</v>
+        <v>0.26237575576036998</v>
       </c>
       <c r="E72" s="58">
-        <v>12.5381319405952</v>
+        <v>12.538902953186501</v>
       </c>
       <c r="F72" s="58">
-        <v>52.076127088603698</v>
+        <v>51.417335831991501</v>
       </c>
       <c r="G72" s="58">
-        <v>1.0803653162775999</v>
+        <v>1.0802451158975099</v>
       </c>
       <c r="H72" s="59">
-        <v>78.416517924838601</v>
+        <v>77.417040641244299</v>
       </c>
       <c r="I72" s="57">
-        <v>21079.471745334598</v>
+        <v>21060.187764313599</v>
       </c>
       <c r="J72" s="60">
-        <v>37828.539082248099</v>
+        <v>37793.660548312997</v>
       </c>
       <c r="K72" s="60">
-        <v>176348.32497934299</v>
+        <v>176216.491331533</v>
       </c>
       <c r="L72" s="60">
-        <v>4693.4527852533502</v>
+        <v>4685.0482331274097</v>
       </c>
       <c r="M72" s="61">
-        <v>264490.716565162</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+        <v>264124.10414823698</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="55" t="s">
         <v>35</v>
       </c>
@@ -4401,40 +4392,40 @@
         <v>140</v>
       </c>
       <c r="C73" s="57">
-        <v>3.42600821890565</v>
+        <v>3.42638224993622</v>
       </c>
       <c r="D73" s="58">
-        <v>0.30814640763944001</v>
+        <v>0.30806860221094001</v>
       </c>
       <c r="E73" s="58">
-        <v>13.8983486441747</v>
+        <v>13.901531475356901</v>
       </c>
       <c r="F73" s="58">
-        <v>59.627758391727397</v>
+        <v>59.645792696879802</v>
       </c>
       <c r="G73" s="58">
-        <v>2.5987911241519801</v>
+        <v>2.59852095493242</v>
       </c>
       <c r="H73" s="59">
-        <v>156.04498110058501</v>
+        <v>156.070570851882</v>
       </c>
       <c r="I73" s="57">
-        <v>30116.7364548101</v>
+        <v>30116.852923910199</v>
       </c>
       <c r="J73" s="60">
-        <v>117102.305598908</v>
+        <v>117102.567773527</v>
       </c>
       <c r="K73" s="60">
-        <v>475352.42262306099</v>
+        <v>475354.00817111903</v>
       </c>
       <c r="L73" s="60">
-        <v>20843.158447338301</v>
+        <v>20843.1786029133</v>
       </c>
       <c r="M73" s="61">
-        <v>1259040.9006571199</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1259043.4261336799</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="55" t="s">
         <v>35</v>
       </c>
@@ -4442,40 +4433,40 @@
         <v>141</v>
       </c>
       <c r="C74" s="57">
-        <v>6.6585072240568399</v>
+        <v>6.6585066707183502</v>
       </c>
       <c r="D74" s="58">
-        <v>0.16045894361438001</v>
+        <v>0.16045900108687</v>
       </c>
       <c r="E74" s="58">
-        <v>16.923612590621399</v>
+        <v>16.923613412729299</v>
       </c>
       <c r="F74" s="58">
-        <v>89.756693505381094</v>
+        <v>89.756681687667594</v>
       </c>
       <c r="G74" s="58">
-        <v>4.1807440086514198</v>
+        <v>4.1807463725638598</v>
       </c>
       <c r="H74" s="59">
-        <v>172.92816099429001</v>
+        <v>172.92817076076099</v>
       </c>
       <c r="I74" s="57">
-        <v>32054.5505933284</v>
+        <v>32054.577006250202</v>
       </c>
       <c r="J74" s="60">
-        <v>77419.847013599501</v>
+        <v>77419.789212391406</v>
       </c>
       <c r="K74" s="60">
-        <v>434351.39227618498</v>
+        <v>434351.67416670802</v>
       </c>
       <c r="L74" s="60">
-        <v>17487.310527798101</v>
+        <v>17487.288261406</v>
       </c>
       <c r="M74" s="61">
-        <v>791312.98689505702</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>791311.97947450797</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="55" t="s">
         <v>35</v>
       </c>
@@ -4483,40 +4474,40 @@
         <v>142</v>
       </c>
       <c r="C75" s="63">
-        <v>3.4842674608117901</v>
+        <v>3.4837195977560298</v>
       </c>
       <c r="D75" s="64">
-        <v>7.6101730670840001E-2</v>
+        <v>7.6180579812779994E-2</v>
       </c>
       <c r="E75" s="64">
-        <v>15.681085996145301</v>
+        <v>15.6864046521014</v>
       </c>
       <c r="F75" s="64">
-        <v>113.392020325386</v>
+        <v>113.32903224823499</v>
       </c>
       <c r="G75" s="64">
-        <v>1.01210386730861</v>
+        <v>1.00519712603296</v>
       </c>
       <c r="H75" s="65">
-        <v>192.64505885077401</v>
+        <v>192.675451327113</v>
       </c>
       <c r="I75" s="63">
-        <v>4057.1853023729</v>
+        <v>4056.5652723865201</v>
       </c>
       <c r="J75" s="66">
-        <v>17971.522145949999</v>
+        <v>17966.0877051237</v>
       </c>
       <c r="K75" s="66">
-        <v>122202.577686608</v>
+        <v>122183.78999962901</v>
       </c>
       <c r="L75" s="66">
-        <v>1576.64645586655</v>
+        <v>1576.08576861033</v>
       </c>
       <c r="M75" s="67">
-        <v>201723.79861665299</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+        <v>201671.65658503101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="55" t="s">
         <v>35</v>
       </c>
@@ -4524,40 +4515,40 @@
         <v>143</v>
       </c>
       <c r="C76" s="69">
-        <v>4.4586766458002103</v>
+        <v>4.4586765663946899</v>
       </c>
       <c r="D76" s="70">
-        <v>0.51789885621817</v>
+        <v>0.51789887495950004</v>
       </c>
       <c r="E76" s="70">
-        <v>20.653548111351402</v>
+        <v>20.653548026977901</v>
       </c>
       <c r="F76" s="70">
-        <v>53.001420398212197</v>
+        <v>53.001422998818398</v>
       </c>
       <c r="G76" s="70">
-        <v>5.5135419901037199</v>
+        <v>5.51354272386991</v>
       </c>
       <c r="H76" s="71">
-        <v>181.47018111291999</v>
+        <v>181.470182486504</v>
       </c>
       <c r="I76" s="69">
-        <v>154296.00570169601</v>
+        <v>154292.50474130499</v>
       </c>
       <c r="J76" s="72">
-        <v>699694.47291658097</v>
+        <v>699685.76336453995</v>
       </c>
       <c r="K76" s="72">
-        <v>1869850.2882123799</v>
+        <v>1869785.36791037</v>
       </c>
       <c r="L76" s="72">
-        <v>177440.19203866401</v>
+        <v>177433.62024127599</v>
       </c>
       <c r="M76" s="73">
-        <v>6221535.5058092903</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+        <v>6221492.4971524896</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="55" t="s">
         <v>35</v>
       </c>
@@ -4565,40 +4556,40 @@
         <v>144</v>
       </c>
       <c r="C77" s="57">
-        <v>2.7235374092959099</v>
+        <v>2.7236252553014801</v>
       </c>
       <c r="D77" s="58">
-        <v>0.53200586253986004</v>
+        <v>0.53201399721519005</v>
       </c>
       <c r="E77" s="58">
-        <v>14.1705372621189</v>
+        <v>14.170207040788901</v>
       </c>
       <c r="F77" s="58">
-        <v>65.006096431077793</v>
+        <v>65.006267140061894</v>
       </c>
       <c r="G77" s="58">
-        <v>10.4578552705688</v>
+        <v>10.457852643140701</v>
       </c>
       <c r="H77" s="59">
-        <v>174.09345903115599</v>
+        <v>174.08751066381899</v>
       </c>
       <c r="I77" s="57">
-        <v>92981.064555039906</v>
+        <v>92981.091035397796</v>
       </c>
       <c r="J77" s="60">
-        <v>483544.85955393198</v>
+        <v>483545.006904618</v>
       </c>
       <c r="K77" s="60">
-        <v>2248257.7834975398</v>
+        <v>2248258.0410757898</v>
       </c>
       <c r="L77" s="60">
-        <v>325568.24432851397</v>
+        <v>325568.24876142899</v>
       </c>
       <c r="M77" s="61">
-        <v>5986825.7053677402</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+        <v>5986826.9514614996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="55" t="s">
         <v>35</v>
       </c>
@@ -4606,40 +4597,40 @@
         <v>145</v>
       </c>
       <c r="C78" s="57">
-        <v>3.0156881787887002</v>
+        <v>3.01569439507547</v>
       </c>
       <c r="D78" s="58">
-        <v>4.530642978998E-2</v>
+        <v>4.5305001639740002E-2</v>
       </c>
       <c r="E78" s="58">
-        <v>18.7244029653232</v>
+        <v>18.724715211235399</v>
       </c>
       <c r="F78" s="58">
-        <v>53.895136227702601</v>
+        <v>53.894180201621701</v>
       </c>
       <c r="G78" s="58">
-        <v>1.0561759196887599</v>
+        <v>1.0561301321340499</v>
       </c>
       <c r="H78" s="59">
-        <v>203.643992697399</v>
+        <v>203.642580161746</v>
       </c>
       <c r="I78" s="57">
-        <v>482464.383223638</v>
+        <v>482464.38000239403</v>
       </c>
       <c r="J78" s="60">
-        <v>3043956.60515717</v>
+        <v>3043956.7826012098</v>
       </c>
       <c r="K78" s="60">
-        <v>8830843.3191344291</v>
+        <v>8830842.5174192693</v>
       </c>
       <c r="L78" s="60">
-        <v>158327.21352737001</v>
+        <v>158327.16344838601</v>
       </c>
       <c r="M78" s="61">
-        <v>33089652.5212841</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>33089652.667115699</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="55" t="s">
         <v>35</v>
       </c>
@@ -4647,40 +4638,40 @@
         <v>146</v>
       </c>
       <c r="C79" s="63">
-        <v>3.4274175720673101</v>
+        <v>3.4261705600110699</v>
       </c>
       <c r="D79" s="64">
-        <v>0.21757060998</v>
+        <v>0.21785179906502</v>
       </c>
       <c r="E79" s="64">
-        <v>18.278855197792701</v>
+        <v>18.275769505442401</v>
       </c>
       <c r="F79" s="64">
-        <v>60.4315689783392</v>
+        <v>60.428177087854998</v>
       </c>
       <c r="G79" s="64">
-        <v>2.3327707135395501</v>
+        <v>2.3364194110750902</v>
       </c>
       <c r="H79" s="65">
-        <v>196.28366614395799</v>
+        <v>196.28125132475699</v>
       </c>
       <c r="I79" s="63">
-        <v>1881423.91833911</v>
+        <v>1881423.9829909201</v>
       </c>
       <c r="J79" s="66">
-        <v>9904399.4086807705</v>
+        <v>9904399.7173850201</v>
       </c>
       <c r="K79" s="66">
-        <v>33524080.924405102</v>
+        <v>33524081.339911401</v>
       </c>
       <c r="L79" s="66">
-        <v>405358.32299708202</v>
+        <v>405358.212127331</v>
       </c>
       <c r="M79" s="67">
-        <v>105934460.55945399</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+        <v>105934461.36332799</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="55" t="s">
         <v>35</v>
       </c>
@@ -4688,40 +4679,40 @@
         <v>147</v>
       </c>
       <c r="C80" s="69">
-        <v>6.6138287705504801</v>
+        <v>6.6081266531778002</v>
       </c>
       <c r="D80" s="70">
-        <v>5.7997730243199999E-2</v>
+        <v>5.7866675511300002E-2</v>
       </c>
       <c r="E80" s="70">
-        <v>15.232865634247799</v>
+        <v>15.2316337937984</v>
       </c>
       <c r="F80" s="70">
-        <v>119.249528355368</v>
+        <v>119.21728645312101</v>
       </c>
       <c r="G80" s="70">
-        <v>1.40983075045477</v>
+        <v>1.41878052485091</v>
       </c>
       <c r="H80" s="71">
-        <v>172.80599974039501</v>
+        <v>173.13594567501599</v>
       </c>
       <c r="I80" s="69">
-        <v>29656.2209955576</v>
+        <v>29655.718160505301</v>
       </c>
       <c r="J80" s="72">
-        <v>65066.062239655301</v>
+        <v>65060.770634837201</v>
       </c>
       <c r="K80" s="72">
-        <v>528958.26812311006</v>
+        <v>528941.627377567</v>
       </c>
       <c r="L80" s="72">
-        <v>6471.2170530101803</v>
+        <v>6470.7129999919998</v>
       </c>
       <c r="M80" s="73">
-        <v>744845.47472371696</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+        <v>744794.93533851404</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="55" t="s">
         <v>35</v>
       </c>
@@ -4729,40 +4720,40 @@
         <v>148</v>
       </c>
       <c r="C81" s="57">
-        <v>5.15797609180657</v>
+        <v>5.1575916761754197</v>
       </c>
       <c r="D81" s="58">
-        <v>7.475794516466E-2</v>
+        <v>7.4763136826679996E-2</v>
       </c>
       <c r="E81" s="58">
-        <v>13.1847481930191</v>
+        <v>13.1871666013128</v>
       </c>
       <c r="F81" s="58">
-        <v>112.05613107411099</v>
+        <v>112.066219282571</v>
       </c>
       <c r="G81" s="58">
-        <v>0.79094207872386002</v>
+        <v>0.79119342457389996</v>
       </c>
       <c r="H81" s="59">
-        <v>174.28453642588801</v>
+        <v>174.32185444067599</v>
       </c>
       <c r="I81" s="57">
-        <v>226286.98957476599</v>
+        <v>226287.071806211</v>
       </c>
       <c r="J81" s="60">
-        <v>625822.14901422395</v>
+        <v>625821.70076148806</v>
       </c>
       <c r="K81" s="60">
-        <v>3949687.8171675699</v>
+        <v>3949687.3970109699</v>
       </c>
       <c r="L81" s="60">
-        <v>29942.9759113328</v>
+        <v>29943.0061953925</v>
       </c>
       <c r="M81" s="61">
-        <v>7481828.3948852802</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+        <v>7481824.3687814996</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="55" t="s">
         <v>35</v>
       </c>
@@ -4770,40 +4761,40 @@
         <v>149</v>
       </c>
       <c r="C82" s="57">
-        <v>3.6075330370735701</v>
+        <v>3.6075097691346101</v>
       </c>
       <c r="D82" s="58">
-        <v>0.21791386663178</v>
+        <v>0.22537312074558999</v>
       </c>
       <c r="E82" s="58">
-        <v>10.4446919914226</v>
+        <v>10.445425181809499</v>
       </c>
       <c r="F82" s="58">
-        <v>50.295520828628099</v>
+        <v>50.226711901997497</v>
       </c>
       <c r="G82" s="58">
-        <v>2.1208360197124598</v>
+        <v>2.1203227479086402</v>
       </c>
       <c r="H82" s="59">
-        <v>101.989211091104</v>
+        <v>101.852395070008</v>
       </c>
       <c r="I82" s="57">
-        <v>111273.189215431</v>
+        <v>111259.737797882</v>
       </c>
       <c r="J82" s="60">
-        <v>353080.98142763501</v>
+        <v>353062.84712165</v>
       </c>
       <c r="K82" s="60">
-        <v>1794751.95482949</v>
+        <v>1794656.33703591</v>
       </c>
       <c r="L82" s="60">
-        <v>65364.5562428837</v>
+        <v>65358.856464941302</v>
       </c>
       <c r="M82" s="61">
-        <v>3533421.6191623998</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>3533154.2443617601</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="55" t="s">
         <v>35</v>
       </c>
@@ -4811,40 +4802,40 @@
         <v>150</v>
       </c>
       <c r="C83" s="63">
-        <v>6.4175571859768699</v>
+        <v>6.4150867443760404</v>
       </c>
       <c r="D83" s="64">
-        <v>0.23859502590039999</v>
+        <v>0.23867752856020999</v>
       </c>
       <c r="E83" s="64">
-        <v>20.4416198554893</v>
+        <v>20.4387608228005</v>
       </c>
       <c r="F83" s="64">
-        <v>81.336873430886101</v>
+        <v>81.321524787686002</v>
       </c>
       <c r="G83" s="64">
-        <v>3.1406346117341299</v>
+        <v>3.1413121162456998</v>
       </c>
       <c r="H83" s="65">
-        <v>186.742348353284</v>
+        <v>186.74569756984999</v>
       </c>
       <c r="I83" s="63">
-        <v>4603519.5635434696</v>
+        <v>4603516.1204933096</v>
       </c>
       <c r="J83" s="66">
-        <v>15857084.267286999</v>
+        <v>15857075.6426026</v>
       </c>
       <c r="K83" s="66">
-        <v>62236834.560468301</v>
+        <v>62236770.392615102</v>
       </c>
       <c r="L83" s="66">
-        <v>1246656.83555938</v>
+        <v>1246650.2000303401</v>
       </c>
       <c r="M83" s="67">
-        <v>150513081.27416</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+        <v>150513036.22393399</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="55" t="s">
         <v>35</v>
       </c>
@@ -4852,40 +4843,40 @@
         <v>151</v>
       </c>
       <c r="C84" s="69">
-        <v>5.5710429527824203</v>
+        <v>5.5715359416531003</v>
       </c>
       <c r="D84" s="70">
-        <v>0.22180506396086999</v>
+        <v>0.26023363790404003</v>
       </c>
       <c r="E84" s="70">
-        <v>13.342557694216</v>
+        <v>13.3439545563421</v>
       </c>
       <c r="F84" s="70">
-        <v>53.341812166664901</v>
+        <v>52.879199661553102</v>
       </c>
       <c r="G84" s="70">
-        <v>1.2070611725223599</v>
+        <v>1.2062208661157501</v>
       </c>
       <c r="H84" s="71">
-        <v>88.217243651254606</v>
+        <v>87.457255603812897</v>
       </c>
       <c r="I84" s="69">
-        <v>27849.008249934199</v>
+        <v>27833.082479238299</v>
       </c>
       <c r="J84" s="72">
-        <v>67016.1843763707</v>
+        <v>66985.932675404503</v>
       </c>
       <c r="K84" s="72">
-        <v>289312.735370062</v>
+        <v>289207.68903994898</v>
       </c>
       <c r="L84" s="72">
-        <v>7383.1194928346004</v>
+        <v>7376.0995843605897</v>
       </c>
       <c r="M84" s="73">
-        <v>493984.82943318499</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+        <v>493671.42668013403</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="55" t="s">
         <v>35</v>
       </c>
@@ -4893,40 +4884,40 @@
         <v>152</v>
       </c>
       <c r="C85" s="57">
-        <v>5.9783174990495001</v>
+        <v>5.9700719169794398</v>
       </c>
       <c r="D85" s="58">
         <v>1.216163208059E-2</v>
       </c>
       <c r="E85" s="58">
-        <v>20.6944529395331</v>
+        <v>20.758760449611099</v>
       </c>
       <c r="F85" s="58">
-        <v>311.89567801549998</v>
+        <v>311.95551064959699</v>
       </c>
       <c r="G85" s="58">
         <v>4.9975638027048799</v>
       </c>
       <c r="H85" s="59">
-        <v>270.75230550918201</v>
+        <v>271.49709139560599</v>
       </c>
       <c r="I85" s="57">
-        <v>1605.44960757639</v>
+        <v>1605.4715201425399</v>
       </c>
       <c r="J85" s="60">
-        <v>2397.83555257748</v>
+        <v>2397.8746586379398</v>
       </c>
       <c r="K85" s="60">
-        <v>67083.658314376094</v>
+        <v>67084.6075916072</v>
       </c>
       <c r="L85" s="60">
-        <v>199.97270253267101</v>
+        <v>199.976223775085</v>
       </c>
       <c r="M85" s="61">
-        <v>34657.823700669302</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+        <v>34658.373556506398</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="55" t="s">
         <v>35</v>
       </c>
@@ -4934,40 +4925,40 @@
         <v>153</v>
       </c>
       <c r="C86" s="57">
-        <v>3.9868727800542798</v>
+        <v>3.9869938775600602</v>
       </c>
       <c r="D86" s="58">
-        <v>0.13364981720395</v>
+        <v>0.13357460501911</v>
       </c>
       <c r="E86" s="58">
-        <v>10.139348893916999</v>
+        <v>10.1409987202578</v>
       </c>
       <c r="F86" s="58">
-        <v>61.596151779878198</v>
+        <v>61.620252484781602</v>
       </c>
       <c r="G86" s="58">
-        <v>1.87503119150191</v>
+        <v>1.87597706845261</v>
       </c>
       <c r="H86" s="59">
-        <v>104.76886048301699</v>
+        <v>104.868567036954</v>
       </c>
       <c r="I86" s="57">
-        <v>99690.044558355905</v>
+        <v>99692.030137414593</v>
       </c>
       <c r="J86" s="60">
-        <v>285573.71686668199</v>
+        <v>285580.45121956599</v>
       </c>
       <c r="K86" s="60">
-        <v>1745087.24163471</v>
+        <v>1745080.10537079</v>
       </c>
       <c r="L86" s="60">
-        <v>46874.358198743997</v>
+        <v>46875.158549597501</v>
       </c>
       <c r="M86" s="61">
-        <v>2973043.9711205498</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+        <v>2973038.7643178599</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="55" t="s">
         <v>35</v>
       </c>
@@ -4975,40 +4966,40 @@
         <v>154</v>
       </c>
       <c r="C87" s="57">
-        <v>4.3149173478961602</v>
+        <v>4.31492005444409</v>
       </c>
       <c r="D87" s="58">
-        <v>0.3183282105886</v>
+        <v>0.31832354450808997</v>
       </c>
       <c r="E87" s="58">
-        <v>18.295695821029099</v>
+        <v>18.295508983995699</v>
       </c>
       <c r="F87" s="58">
-        <v>51.706840670352399</v>
+        <v>51.707121981358803</v>
       </c>
       <c r="G87" s="58">
-        <v>4.1930064916296397</v>
+        <v>4.1930137733733597</v>
       </c>
       <c r="H87" s="59">
-        <v>160.29628649204699</v>
+        <v>160.29623888091601</v>
       </c>
       <c r="I87" s="57">
-        <v>322434.40779123001</v>
+        <v>322434.35130952799</v>
       </c>
       <c r="J87" s="60">
-        <v>1335157.3586647799</v>
+        <v>1335157.2575870999</v>
       </c>
       <c r="K87" s="60">
-        <v>3726009.1521842498</v>
+        <v>3726008.0319723999</v>
       </c>
       <c r="L87" s="60">
-        <v>320856.66047812201</v>
+        <v>320856.47884897701</v>
       </c>
       <c r="M87" s="61">
-        <v>11498089.377674401</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+        <v>11498086.8267994</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="55" t="s">
         <v>35</v>
       </c>
@@ -5016,40 +5007,40 @@
         <v>155</v>
       </c>
       <c r="C88" s="57">
-        <v>2.64929443477978</v>
+        <v>2.64932366082824</v>
       </c>
       <c r="D88" s="58">
-        <v>0.47313402795016002</v>
+        <v>0.47312857010208997</v>
       </c>
       <c r="E88" s="58">
-        <v>13.2503675359916</v>
+        <v>13.250352868082301</v>
       </c>
       <c r="F88" s="58">
-        <v>55.6506129463802</v>
+        <v>55.651048737702098</v>
       </c>
       <c r="G88" s="58">
-        <v>3.7122899057088898</v>
+        <v>3.7122640314028699</v>
       </c>
       <c r="H88" s="59">
-        <v>163.83450234243</v>
+        <v>163.83420630353601</v>
       </c>
       <c r="I88" s="57">
-        <v>13312.3525456715</v>
+        <v>13312.323174457601</v>
       </c>
       <c r="J88" s="60">
-        <v>65105.146338104903</v>
+        <v>65105.149060743097</v>
       </c>
       <c r="K88" s="60">
-        <v>287085.42550440301</v>
+        <v>287084.91288706398</v>
       </c>
       <c r="L88" s="60">
-        <v>17550.829961207401</v>
+        <v>17550.840297102299</v>
       </c>
       <c r="M88" s="61">
-        <v>806847.16192354495</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+        <v>806846.99543277605</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="55" t="s">
         <v>35</v>
       </c>
@@ -5057,40 +5048,40 @@
         <v>156</v>
       </c>
       <c r="C89" s="57">
-        <v>10.773128741391799</v>
+        <v>10.7602307125105</v>
       </c>
       <c r="D89" s="58">
-        <v>0.27874094854842002</v>
+        <v>0.27884218183307002</v>
       </c>
       <c r="E89" s="58">
-        <v>23.1287050558693</v>
+        <v>23.1173362704968</v>
       </c>
       <c r="F89" s="58">
-        <v>119.934712063435</v>
+        <v>119.838438679604</v>
       </c>
       <c r="G89" s="58">
-        <v>3.21037866626108</v>
+        <v>3.2115627837534801</v>
       </c>
       <c r="H89" s="59">
-        <v>185.19798693159001</v>
+        <v>185.21595021920501</v>
       </c>
       <c r="I89" s="57">
-        <v>2511635.1950837299</v>
+        <v>2511631.8155960101</v>
       </c>
       <c r="J89" s="60">
-        <v>5301727.8473586598</v>
+        <v>5301719.4573129499</v>
       </c>
       <c r="K89" s="60">
-        <v>27879895.859973501</v>
+        <v>27879833.054840699</v>
       </c>
       <c r="L89" s="60">
-        <v>685444.07156883006</v>
+        <v>685437.73243122199</v>
       </c>
       <c r="M89" s="61">
-        <v>42102380.9775002</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>42102340.425016902</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="55" t="s">
         <v>35</v>
       </c>
@@ -5098,40 +5089,40 @@
         <v>157</v>
       </c>
       <c r="C90" s="63">
-        <v>3.8624616982499398</v>
+        <v>3.8625738410053501</v>
       </c>
       <c r="D90" s="64">
-        <v>5.1377810107540001E-2</v>
+        <v>5.1379178305340001E-2</v>
       </c>
       <c r="E90" s="64">
-        <v>18.1526112043301</v>
+        <v>18.153184192810599</v>
       </c>
       <c r="F90" s="64">
-        <v>64.786951855625205</v>
+        <v>64.7866002288348</v>
       </c>
       <c r="G90" s="64">
-        <v>1.41543469354717</v>
+        <v>1.4155201214716899</v>
       </c>
       <c r="H90" s="65">
-        <v>192.27770462087</v>
+        <v>192.27736698275299</v>
       </c>
       <c r="I90" s="63">
-        <v>1994209.5054927301</v>
+        <v>1994209.57404112</v>
       </c>
       <c r="J90" s="66">
-        <v>9844075.3708113693</v>
+        <v>9844074.8386061303</v>
       </c>
       <c r="K90" s="66">
-        <v>34515758.527607203</v>
+        <v>34515757.352337003</v>
       </c>
       <c r="L90" s="66">
-        <v>270126.572364341</v>
+        <v>270126.489755627</v>
       </c>
       <c r="M90" s="67">
-        <v>104364172.62157799</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+        <v>104364166.960612</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="55" t="s">
         <v>35</v>
       </c>
@@ -5139,40 +5130,40 @@
         <v>158</v>
       </c>
       <c r="C91" s="69">
-        <v>5.1610257777514699</v>
+        <v>5.1614116234861402</v>
       </c>
       <c r="D91" s="70">
-        <v>0.1848217742461</v>
+        <v>0.21137499460065001</v>
       </c>
       <c r="E91" s="70">
-        <v>13.984299284945299</v>
+        <v>13.9856958274666</v>
       </c>
       <c r="F91" s="70">
-        <v>63.135580686869098</v>
+        <v>62.771270819661801</v>
       </c>
       <c r="G91" s="70">
-        <v>1.20722049319542</v>
+        <v>1.2054176298314501</v>
       </c>
       <c r="H91" s="71">
-        <v>111.88558692377499</v>
+        <v>111.26330698746</v>
       </c>
       <c r="I91" s="69">
-        <v>41203.670044875602</v>
+        <v>41187.804373030202</v>
       </c>
       <c r="J91" s="72">
-        <v>108994.16946967501</v>
+        <v>108963.878899269</v>
       </c>
       <c r="K91" s="72">
-        <v>486583.69706589798</v>
+        <v>486479.13146918901</v>
       </c>
       <c r="L91" s="72">
-        <v>11189.453708654701</v>
+        <v>11182.3919679996</v>
       </c>
       <c r="M91" s="73">
-        <v>878538.29168686597</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+        <v>878224.82321548695</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="55" t="s">
         <v>35</v>
       </c>
@@ -5180,40 +5171,40 @@
         <v>159</v>
       </c>
       <c r="C92" s="57">
-        <v>5.9352175186867404</v>
+        <v>5.9344901944459103</v>
       </c>
       <c r="D92" s="58">
-        <v>0.38677275333548</v>
+        <v>0.38667019360701999</v>
       </c>
       <c r="E92" s="58">
-        <v>18.4544093960154</v>
+        <v>18.460779061749399</v>
       </c>
       <c r="F92" s="58">
-        <v>72.490700408409793</v>
+        <v>72.5612000617527</v>
       </c>
       <c r="G92" s="58">
-        <v>4.2997558320065901</v>
+        <v>4.2999518352272297</v>
       </c>
       <c r="H92" s="59">
-        <v>142.839440338315</v>
+        <v>142.94095169537499</v>
       </c>
       <c r="I92" s="57">
-        <v>35851.454008314802</v>
+        <v>35851.439799102503</v>
       </c>
       <c r="J92" s="60">
-        <v>107451.950107016</v>
+        <v>107451.867127059</v>
       </c>
       <c r="K92" s="60">
-        <v>346357.88752996398</v>
+        <v>346358.42748768098</v>
       </c>
       <c r="L92" s="60">
-        <v>27798.338737969199</v>
+        <v>27798.202395676701</v>
       </c>
       <c r="M92" s="61">
-        <v>781091.06663701299</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+        <v>781090.38997598505</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="55" t="s">
         <v>35</v>
       </c>
@@ -5221,40 +5212,40 @@
         <v>160</v>
       </c>
       <c r="C93" s="57">
-        <v>3.7062655673343001</v>
+        <v>3.7119036785455699</v>
       </c>
       <c r="D93" s="58">
-        <v>7.1374837172610006E-2</v>
+        <v>7.1301337270649995E-2</v>
       </c>
       <c r="E93" s="58">
-        <v>11.650137053902499</v>
+        <v>11.809853176352201</v>
       </c>
       <c r="F93" s="58">
-        <v>66.924019059399399</v>
+        <v>67.144719652562202</v>
       </c>
       <c r="G93" s="58">
-        <v>2.3242306071385102</v>
+        <v>2.27866848933522</v>
       </c>
       <c r="H93" s="59">
-        <v>131.34302404409101</v>
+        <v>132.653948184809</v>
       </c>
       <c r="I93" s="57">
-        <v>1050.5341059090799</v>
+        <v>1049.8977965101899</v>
       </c>
       <c r="J93" s="60">
-        <v>3323.9286942262202</v>
+        <v>3318.4782504292598</v>
       </c>
       <c r="K93" s="60">
-        <v>19080.236190569001</v>
+        <v>19061.113103513599</v>
       </c>
       <c r="L93" s="60">
-        <v>681.36423074927802</v>
+        <v>680.79947876356698</v>
       </c>
       <c r="M93" s="61">
-        <v>37385.008318735898</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+        <v>37332.181529713998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="55" t="s">
         <v>35</v>
       </c>
@@ -5262,40 +5253,40 @@
         <v>161</v>
       </c>
       <c r="C94" s="57">
-        <v>4.04586566208725</v>
+        <v>4.0468598355130103</v>
       </c>
       <c r="D94" s="58">
-        <v>0.26029842133256997</v>
+        <v>0.26029495000396002</v>
       </c>
       <c r="E94" s="58">
-        <v>20.445980836371501</v>
+        <v>20.442351219184101</v>
       </c>
       <c r="F94" s="58">
-        <v>56.443585723023403</v>
+        <v>56.456433684567003</v>
       </c>
       <c r="G94" s="58">
-        <v>3.30806344578719</v>
+        <v>3.3079520048647999</v>
       </c>
       <c r="H94" s="59">
-        <v>185.303878085962</v>
+        <v>185.25539582952001</v>
       </c>
       <c r="I94" s="57">
-        <v>20910.813047558899</v>
+        <v>20910.8809670179</v>
       </c>
       <c r="J94" s="60">
-        <v>102911.447367751</v>
+        <v>102911.21401063701</v>
       </c>
       <c r="K94" s="60">
-        <v>279495.423321913</v>
+        <v>279495.78924705897</v>
       </c>
       <c r="L94" s="60">
-        <v>6601.5926561292599</v>
+        <v>6601.66045253227</v>
       </c>
       <c r="M94" s="61">
-        <v>937855.41354994802</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+        <v>937853.65812681499</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="55" t="s">
         <v>35</v>
       </c>
@@ -5303,40 +5294,40 @@
         <v>162</v>
       </c>
       <c r="C95" s="57">
-        <v>6.5918890214962103</v>
+        <v>6.5922342762230004</v>
       </c>
       <c r="D95" s="58">
-        <v>0.12637325543745001</v>
+        <v>0.12637650556770999</v>
       </c>
       <c r="E95" s="58">
-        <v>14.656460109350499</v>
+        <v>14.6575610907579</v>
       </c>
       <c r="F95" s="58">
-        <v>57.412392991810101</v>
+        <v>57.416904854776099</v>
       </c>
       <c r="G95" s="58">
-        <v>1.1083348617970501</v>
+        <v>1.10818020075737</v>
       </c>
       <c r="H95" s="59">
-        <v>94.4209756451814</v>
+        <v>94.422793926715201</v>
       </c>
       <c r="I95" s="57">
-        <v>23855.1336983295</v>
+        <v>23839.226778128301</v>
       </c>
       <c r="J95" s="60">
-        <v>50843.268335180903</v>
+        <v>50813.008655891703</v>
       </c>
       <c r="K95" s="60">
-        <v>222465.01890059499</v>
+        <v>222358.97883916</v>
       </c>
       <c r="L95" s="60">
-        <v>3998.7373201468999</v>
+        <v>3991.7067266117101</v>
       </c>
       <c r="M95" s="61">
-        <v>353076.835433784</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>352762.93950488098</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="55" t="s">
         <v>35</v>
       </c>
@@ -5344,40 +5335,40 @@
         <v>163</v>
       </c>
       <c r="C96" s="63">
-        <v>4.1800584764510003</v>
+        <v>4.1799682648771403</v>
       </c>
       <c r="D96" s="64">
-        <v>0.25480768094305001</v>
+        <v>0.25481512247834998</v>
       </c>
       <c r="E96" s="64">
-        <v>11.1030135420457</v>
+        <v>11.1031835700483</v>
       </c>
       <c r="F96" s="64">
-        <v>56.963343589940401</v>
+        <v>56.962983065596703</v>
       </c>
       <c r="G96" s="64">
-        <v>3.5667683016887599</v>
+        <v>3.5668678388719099</v>
       </c>
       <c r="H96" s="65">
-        <v>94.324722755083698</v>
+        <v>94.325805637673398</v>
       </c>
       <c r="I96" s="63">
-        <v>29498.1890506339</v>
+        <v>29498.173459620801</v>
       </c>
       <c r="J96" s="66">
-        <v>86324.767339076294</v>
+        <v>86324.617973717206</v>
       </c>
       <c r="K96" s="66">
-        <v>365367.38552065898</v>
+        <v>365367.41934301099</v>
       </c>
       <c r="L96" s="66">
-        <v>24073.554836363401</v>
+        <v>24073.2876595089</v>
       </c>
       <c r="M96" s="67">
-        <v>738460.18719811202</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+        <v>738458.17803412001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="55" t="s">
         <v>35</v>
       </c>
@@ -5385,40 +5376,40 @@
         <v>164</v>
       </c>
       <c r="C97" s="69">
-        <v>3.7105815364924402</v>
+        <v>3.71035011167442</v>
       </c>
       <c r="D97" s="70">
-        <v>9.7212359640300006E-2</v>
+        <v>9.717779023025E-2</v>
       </c>
       <c r="E97" s="70">
-        <v>11.5621076101411</v>
+        <v>11.5620527890076</v>
       </c>
       <c r="F97" s="70">
-        <v>58.328198835185901</v>
+        <v>58.3369890566618</v>
       </c>
       <c r="G97" s="70">
-        <v>1.2448215515647401</v>
+        <v>1.24423370319048</v>
       </c>
       <c r="H97" s="71">
-        <v>104.63437671918901</v>
+        <v>104.645271283536</v>
       </c>
       <c r="I97" s="69">
-        <v>60329.368784655402</v>
+        <v>60316.058564378603</v>
       </c>
       <c r="J97" s="72">
-        <v>215636.77022395501</v>
+        <v>215618.837377052</v>
       </c>
       <c r="K97" s="72">
-        <v>1150102.7246153201</v>
+        <v>1150009.4275911001</v>
       </c>
       <c r="L97" s="72">
-        <v>23569.139922166702</v>
+        <v>23563.523666820602</v>
       </c>
       <c r="M97" s="73">
-        <v>2046984.07795194</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2046718.9029783299</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="55" t="s">
         <v>35</v>
       </c>
@@ -5426,40 +5417,40 @@
         <v>165</v>
       </c>
       <c r="C98" s="63">
-        <v>3.6181528444481499</v>
+        <v>3.6182166712850701</v>
       </c>
       <c r="D98" s="64">
-        <v>0.32774794564791998</v>
+        <v>0.32772130156161</v>
       </c>
       <c r="E98" s="64">
-        <v>13.009637607434</v>
+        <v>13.0091804873057</v>
       </c>
       <c r="F98" s="64">
-        <v>113.85409012802199</v>
+        <v>113.850131393559</v>
       </c>
       <c r="G98" s="64">
-        <v>2.8816169937430098</v>
+        <v>2.8817680464745301</v>
       </c>
       <c r="H98" s="65">
-        <v>178.37314357998</v>
+        <v>178.37133759922199</v>
       </c>
       <c r="I98" s="63">
-        <v>46354.585486524898</v>
+        <v>46354.587535356397</v>
       </c>
       <c r="J98" s="66">
-        <v>179716.136546372</v>
+        <v>179716.041617423</v>
       </c>
       <c r="K98" s="66">
-        <v>663537.456072442</v>
+        <v>663537.38016993494</v>
       </c>
       <c r="L98" s="66">
-        <v>50321.909004216002</v>
+        <v>50321.792993023097</v>
       </c>
       <c r="M98" s="67">
-        <v>1790997.8755076099</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1790996.1184608401</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="74"/>
       <c r="B99" s="75"/>
       <c r="C99" s="47"/>
@@ -5474,7 +5465,7 @@
       <c r="L99" s="47"/>
       <c r="M99" s="47"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>166</v>
       </c>
@@ -5490,7 +5481,7 @@
       <c r="L100" s="76"/>
       <c r="M100" s="76"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>167</v>
       </c>
@@ -5506,7 +5497,7 @@
       <c r="L101" s="76"/>
       <c r="M101" s="76"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>168</v>
       </c>
@@ -5522,7 +5513,7 @@
       <c r="L102" s="76"/>
       <c r="M102" s="76"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>169</v>
       </c>
@@ -5538,7 +5529,7 @@
       <c r="L103" s="76"/>
       <c r="M103" s="76"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>170</v>
       </c>
@@ -5554,7 +5545,7 @@
       <c r="L104" s="76"/>
       <c r="M104" s="76"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>171</v>
       </c>
@@ -5570,7 +5561,7 @@
       <c r="L105" s="76"/>
       <c r="M105" s="76"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C106" s="76"/>
       <c r="D106" s="76"/>
       <c r="E106" s="76"/>
@@ -5583,138 +5574,3898 @@
       <c r="L106" s="76"/>
       <c r="M106" s="76"/>
     </row>
-    <row r="107" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="B107" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="C107" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" s="76">
+        <v>8.2670767448640006E-2</v>
+      </c>
+      <c r="E107" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="F107" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="G107" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107" s="76">
+        <v>354.83403286392399</v>
+      </c>
+      <c r="I107" s="76">
+        <v>369.272813520775</v>
+      </c>
+      <c r="J107" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="K107" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="L107" s="76">
+        <v>35.6409461355057</v>
+      </c>
+      <c r="M107" s="76">
+        <v>345036.576992822</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B108" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="C108" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108" s="76">
+        <v>8.2670767448640006E-2</v>
+      </c>
+      <c r="E108" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="F108" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="G108" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="H108" s="76">
+        <v>354.83403286392399</v>
+      </c>
+      <c r="I108" s="76">
+        <v>369.272813520775</v>
+      </c>
+      <c r="J108" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="K108" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="L108" s="76">
+        <v>799.541328413109</v>
+      </c>
+      <c r="M108" s="76">
+        <v>345036.576992822</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C107" s="76"/>
-      <c r="D107" s="76"/>
-      <c r="E107" s="76"/>
-      <c r="F107" s="76"/>
-      <c r="G107" s="76"/>
-      <c r="H107" s="76"/>
-      <c r="I107" s="76"/>
-      <c r="J107" s="76"/>
-      <c r="K107" s="76"/>
-      <c r="L107" s="76"/>
-      <c r="M107" s="76"/>
-    </row>
-    <row r="108" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B108" s="77"/>
-      <c r="C108" s="76"/>
-      <c r="D108" s="76"/>
-      <c r="E108" s="76"/>
-      <c r="F108" s="76"/>
-      <c r="G108" s="76"/>
-      <c r="H108" s="76"/>
-      <c r="I108" s="76"/>
-      <c r="J108" s="76"/>
-      <c r="K108" s="76"/>
-      <c r="L108" s="76"/>
-      <c r="M108" s="76"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B109" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C109" s="76"/>
-      <c r="D109" s="76"/>
-      <c r="E109" s="76"/>
-      <c r="F109" s="76"/>
-      <c r="G109" s="76"/>
-      <c r="H109" s="76"/>
-      <c r="I109" s="76"/>
-      <c r="J109" s="76"/>
-      <c r="K109" s="76"/>
-      <c r="L109" s="76"/>
-      <c r="M109" s="76"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C109" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="E109" s="76">
+        <v>25.2562829537578</v>
+      </c>
+      <c r="F109" s="76">
+        <v>120.54020765598401</v>
+      </c>
+      <c r="G109" s="76">
+        <v>0.95459466977763996</v>
+      </c>
+      <c r="H109" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="I109" s="76">
+        <v>19481.803070919301</v>
+      </c>
+      <c r="J109" s="76">
+        <v>2157741.92236917</v>
+      </c>
+      <c r="K109" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="L109" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="M109" s="76">
+        <v>191083.61378352201</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="B110" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C110" s="76"/>
-      <c r="D110" s="76"/>
-      <c r="E110" s="76"/>
-      <c r="F110" s="76"/>
-      <c r="G110" s="76"/>
-      <c r="H110" s="76"/>
-      <c r="I110" s="76"/>
-      <c r="J110" s="76"/>
-      <c r="K110" s="76"/>
-      <c r="L110" s="76"/>
-      <c r="M110" s="76"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+      <c r="C110" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="E110" s="76">
+        <v>25.2562829537578</v>
+      </c>
+      <c r="F110" s="76">
+        <v>120.54020765598401</v>
+      </c>
+      <c r="G110" s="76">
+        <v>0.95459466977763996</v>
+      </c>
+      <c r="H110" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="I110" s="76">
+        <v>71360.994160247094</v>
+      </c>
+      <c r="J110" s="76">
+        <v>100497.232099507</v>
+      </c>
+      <c r="K110" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="L110" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="M110" s="76">
+        <v>191083.61378352201</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="B111" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C111" s="76"/>
-      <c r="D111" s="76"/>
-      <c r="E111" s="76"/>
-      <c r="F111" s="76"/>
-      <c r="G111" s="76"/>
-      <c r="H111" s="76"/>
-      <c r="I111" s="76"/>
-      <c r="J111" s="76"/>
-      <c r="K111" s="76"/>
-      <c r="L111" s="76"/>
-      <c r="M111" s="76"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+      <c r="C111" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="E111" s="76">
+        <v>25.2562829537578</v>
+      </c>
+      <c r="F111" s="76">
+        <v>120.54020765598401</v>
+      </c>
+      <c r="G111" s="76">
+        <v>0.95459466977763996</v>
+      </c>
+      <c r="H111" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="I111" s="76">
+        <v>71360.994160247094</v>
+      </c>
+      <c r="J111" s="76">
+        <v>502185.58264396997</v>
+      </c>
+      <c r="K111" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="L111" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="M111" s="76">
+        <v>191083.61378352201</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="B112" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C112" s="76"/>
-      <c r="D112" s="76"/>
-      <c r="E112" s="76"/>
-      <c r="F112" s="76"/>
-      <c r="G112" s="76"/>
-      <c r="H112" s="76"/>
-      <c r="I112" s="76"/>
-      <c r="J112" s="76"/>
-      <c r="K112" s="76"/>
-      <c r="L112" s="76"/>
-      <c r="M112" s="76"/>
-    </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+      <c r="C112" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112" s="76">
+        <v>16.2725673238855</v>
+      </c>
+      <c r="F112" s="76">
+        <v>97.103738034657994</v>
+      </c>
+      <c r="G112" s="76">
+        <v>2.0413775736900801</v>
+      </c>
+      <c r="H112" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="I112" s="76">
+        <v>158597.701953032</v>
+      </c>
+      <c r="J112" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="K112" s="76">
+        <v>531527.91963232798</v>
+      </c>
+      <c r="L112" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="M112" s="76">
+        <v>4025146.1081051198</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="B113" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C113" s="76"/>
-      <c r="D113" s="76"/>
-      <c r="E113" s="76"/>
-      <c r="F113" s="76"/>
-      <c r="G113" s="76"/>
-      <c r="H113" s="76"/>
-      <c r="I113" s="76"/>
-      <c r="J113" s="76"/>
-      <c r="K113" s="76"/>
-      <c r="L113" s="76"/>
-      <c r="M113" s="76"/>
-    </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B114" s="2"/>
-      <c r="C114" s="76"/>
-      <c r="D114" s="76"/>
-      <c r="E114" s="76"/>
-      <c r="F114" s="76"/>
-      <c r="G114" s="76"/>
-      <c r="H114" s="76"/>
-      <c r="I114" s="76"/>
-      <c r="J114" s="76"/>
-      <c r="K114" s="76"/>
-      <c r="L114" s="76"/>
-      <c r="M114" s="76"/>
+        <v>96</v>
+      </c>
+      <c r="C113" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113" s="76">
+        <v>16.2725673238855</v>
+      </c>
+      <c r="F113" s="76">
+        <v>97.103738034657994</v>
+      </c>
+      <c r="G113" s="76">
+        <v>2.0413775736900801</v>
+      </c>
+      <c r="H113" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="I113" s="76">
+        <v>17827.0355673616</v>
+      </c>
+      <c r="J113" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="K113" s="76">
+        <v>531527.91963232798</v>
+      </c>
+      <c r="L113" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="M113" s="76">
+        <v>19235050.761332601</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C114" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="E114" s="76">
+        <v>16.2725673238855</v>
+      </c>
+      <c r="F114" s="76">
+        <v>97.103738034657994</v>
+      </c>
+      <c r="G114" s="76">
+        <v>2.0413775736900801</v>
+      </c>
+      <c r="H114" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="I114" s="76">
+        <v>49632.781823467201</v>
+      </c>
+      <c r="J114" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="K114" s="76">
+        <v>531527.91963232798</v>
+      </c>
+      <c r="L114" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="M114" s="76">
+        <v>19235050.761332601</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B115" t="s">
+        <v>96</v>
+      </c>
+      <c r="C115" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D115" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E115" s="78">
+        <v>16.2725673238855</v>
+      </c>
+      <c r="F115" s="78">
+        <v>97.103738034657994</v>
+      </c>
+      <c r="G115" s="78">
+        <v>2.0413775736900801</v>
+      </c>
+      <c r="H115" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I115" s="78">
+        <v>57.823189017171799</v>
+      </c>
+      <c r="J115" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="K115" s="78">
+        <v>531527.91963232798</v>
+      </c>
+      <c r="L115" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="M115" s="78">
+        <v>19235050.761332601</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B116" t="s">
+        <v>97</v>
+      </c>
+      <c r="C116" s="78">
+        <v>2.2945985227363201</v>
+      </c>
+      <c r="D116" s="78">
+        <v>0.14011655477568999</v>
+      </c>
+      <c r="E116" s="78">
+        <v>21.827497853955801</v>
+      </c>
+      <c r="F116" s="78">
+        <v>131.346945444542</v>
+      </c>
+      <c r="G116" s="78">
+        <v>2.7642568521407198</v>
+      </c>
+      <c r="H116" s="78">
+        <v>153.03784644001701</v>
+      </c>
+      <c r="I116" s="78">
+        <v>317560.86719391501</v>
+      </c>
+      <c r="J116" s="78">
+        <v>3042753.8572247801</v>
+      </c>
+      <c r="K116" s="78">
+        <v>12405270.093537699</v>
+      </c>
+      <c r="L116" s="78">
+        <v>4142948.0803210801</v>
+      </c>
+      <c r="M116" s="78">
+        <v>24039797.4929494</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B117" t="s">
+        <v>99</v>
+      </c>
+      <c r="C117" s="78">
+        <v>4.1614714925880802</v>
+      </c>
+      <c r="D117" s="78">
+        <v>0.14045308697629999</v>
+      </c>
+      <c r="E117" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="F117" s="78">
+        <v>59.489783929595703</v>
+      </c>
+      <c r="G117" s="78">
+        <v>5.0051385607703098</v>
+      </c>
+      <c r="H117" s="78">
+        <v>141.93576401218201</v>
+      </c>
+      <c r="I117" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J117" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="K117" s="78">
+        <v>446.67938028330798</v>
+      </c>
+      <c r="L117" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="M117" s="78">
+        <v>214.19806256794001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B118" t="s">
+        <v>99</v>
+      </c>
+      <c r="C118" s="78">
+        <v>4.1614714925880802</v>
+      </c>
+      <c r="D118" s="78">
+        <v>0.14045308697629999</v>
+      </c>
+      <c r="E118" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="F118" s="78">
+        <v>96.175703369547705</v>
+      </c>
+      <c r="G118" s="78">
+        <v>5.0051385607703098</v>
+      </c>
+      <c r="H118" s="78">
+        <v>141.93576401218201</v>
+      </c>
+      <c r="I118" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J118" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="K118" s="78">
+        <v>1719.59000672412</v>
+      </c>
+      <c r="L118" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="M118" s="78">
+        <v>214.19806256794001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B119" t="s">
+        <v>101</v>
+      </c>
+      <c r="C119" s="78">
+        <v>1.73676601823659</v>
+      </c>
+      <c r="D119" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119" s="78">
+        <v>10.785115651898399</v>
+      </c>
+      <c r="F119" s="78">
+        <v>48.672097050736099</v>
+      </c>
+      <c r="G119" s="78">
+        <v>1.08124839446414</v>
+      </c>
+      <c r="H119" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I119" s="78">
+        <v>0.39162619227999002</v>
+      </c>
+      <c r="J119" s="78">
+        <v>2222.4053292420099</v>
+      </c>
+      <c r="K119" s="78">
+        <v>2581.3467904056902</v>
+      </c>
+      <c r="L119" s="78">
+        <v>4.7434505486882896</v>
+      </c>
+      <c r="M119" s="78">
+        <v>78963.491230530999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B120" t="s">
+        <v>101</v>
+      </c>
+      <c r="C120" s="78">
+        <v>5.7714588081388198</v>
+      </c>
+      <c r="D120" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E120" s="78">
+        <v>10.785115651898399</v>
+      </c>
+      <c r="F120" s="78">
+        <v>48.672097050736099</v>
+      </c>
+      <c r="G120" s="78">
+        <v>0</v>
+      </c>
+      <c r="H120" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I120" s="78">
+        <v>0.39162619227999002</v>
+      </c>
+      <c r="J120" s="78">
+        <v>2222.4053292420099</v>
+      </c>
+      <c r="K120" s="78">
+        <v>634.91323768165796</v>
+      </c>
+      <c r="L120" s="78">
+        <v>3774.5519441814899</v>
+      </c>
+      <c r="M120" s="78">
+        <v>78963.491230530999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B121" t="s">
+        <v>101</v>
+      </c>
+      <c r="C121" s="78">
+        <v>1.5260581205394099</v>
+      </c>
+      <c r="D121" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121" s="78">
+        <v>10.785115651898399</v>
+      </c>
+      <c r="F121" s="78">
+        <v>48.672097050736099</v>
+      </c>
+      <c r="G121" s="78">
+        <v>0</v>
+      </c>
+      <c r="H121" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I121" s="78">
+        <v>0.39162619227999002</v>
+      </c>
+      <c r="J121" s="78">
+        <v>2222.4053292420099</v>
+      </c>
+      <c r="K121" s="78">
+        <v>634.91323768165796</v>
+      </c>
+      <c r="L121" s="78">
+        <v>3774.5519441814899</v>
+      </c>
+      <c r="M121" s="78">
+        <v>78963.491230530999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B122" t="s">
+        <v>101</v>
+      </c>
+      <c r="C122" s="78">
+        <v>3.3683805044398598</v>
+      </c>
+      <c r="D122" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E122" s="78">
+        <v>10.785115651898399</v>
+      </c>
+      <c r="F122" s="78">
+        <v>48.672097050736099</v>
+      </c>
+      <c r="G122" s="78">
+        <v>0</v>
+      </c>
+      <c r="H122" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I122" s="78">
+        <v>0.39162619227999002</v>
+      </c>
+      <c r="J122" s="78">
+        <v>2222.4053292420099</v>
+      </c>
+      <c r="K122" s="78">
+        <v>634.91323768165796</v>
+      </c>
+      <c r="L122" s="78">
+        <v>3774.5519441814899</v>
+      </c>
+      <c r="M122" s="78">
+        <v>78963.491230530999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B123" t="s">
+        <v>103</v>
+      </c>
+      <c r="C123" s="78">
+        <v>7.7408988313615197</v>
+      </c>
+      <c r="D123" s="78">
+        <v>0.50642304724891996</v>
+      </c>
+      <c r="E123" s="78">
+        <v>14.7181514349422</v>
+      </c>
+      <c r="F123" s="78">
+        <v>45.092309696850599</v>
+      </c>
+      <c r="G123" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="H123" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I123" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J123" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="K123" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L123" s="78">
+        <v>122200.434130469</v>
+      </c>
+      <c r="M123" s="78">
+        <v>3984.2693708071201</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B124" t="s">
+        <v>103</v>
+      </c>
+      <c r="C124" s="78">
+        <v>4.0771683665670198</v>
+      </c>
+      <c r="D124" s="78">
+        <v>0.50642304724891996</v>
+      </c>
+      <c r="E124" s="78">
+        <v>12.8165854354505</v>
+      </c>
+      <c r="F124" s="78">
+        <v>45.092309696850599</v>
+      </c>
+      <c r="G124" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="H124" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I124" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J124" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="K124" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L124" s="78">
+        <v>1.7106570725407</v>
+      </c>
+      <c r="M124" s="78">
+        <v>3984.2693708071201</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B125" t="s">
+        <v>103</v>
+      </c>
+      <c r="C125" s="78">
+        <v>1.1408795233034801</v>
+      </c>
+      <c r="D125" s="78">
+        <v>0.50642304724891996</v>
+      </c>
+      <c r="E125" s="78">
+        <v>12.8165854354505</v>
+      </c>
+      <c r="F125" s="78">
+        <v>45.092309696850599</v>
+      </c>
+      <c r="G125" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="H125" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I125" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J125" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="K125" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L125" s="78">
+        <v>16.132375975361199</v>
+      </c>
+      <c r="M125" s="78">
+        <v>3984.2693708071201</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B126" t="s">
+        <v>103</v>
+      </c>
+      <c r="C126" s="78">
+        <v>1.1408795233034801</v>
+      </c>
+      <c r="D126" s="78">
+        <v>0.50642304724891996</v>
+      </c>
+      <c r="E126" s="78">
+        <v>12.8165854354505</v>
+      </c>
+      <c r="F126" s="78">
+        <v>45.092309696850599</v>
+      </c>
+      <c r="G126" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="H126" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I126" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J126" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="K126" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L126" s="78">
+        <v>0.27439581172701</v>
+      </c>
+      <c r="M126" s="78">
+        <v>3984.2693708071201</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B127" t="s">
+        <v>103</v>
+      </c>
+      <c r="C127" s="78">
+        <v>1.1408795233034801</v>
+      </c>
+      <c r="D127" s="78">
+        <v>0.50642304724891996</v>
+      </c>
+      <c r="E127" s="78">
+        <v>12.8165854354505</v>
+      </c>
+      <c r="F127" s="78">
+        <v>45.092309696850599</v>
+      </c>
+      <c r="G127" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="H127" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I127" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J127" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="K127" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L127" s="78">
+        <v>1159.12340734038</v>
+      </c>
+      <c r="M127" s="78">
+        <v>3984.2693708071201</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B128" t="s">
+        <v>105</v>
+      </c>
+      <c r="C128" s="78">
+        <v>4.7897505460933303</v>
+      </c>
+      <c r="D128" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E128" s="78">
+        <v>1.3183465530151299</v>
+      </c>
+      <c r="F128" s="78">
+        <v>36.139936136689698</v>
+      </c>
+      <c r="G128" s="78">
+        <v>0.43244654711108999</v>
+      </c>
+      <c r="H128" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I128" s="78">
+        <v>38.181433137097599</v>
+      </c>
+      <c r="J128" s="78">
+        <v>8.9271427448568392</v>
+      </c>
+      <c r="K128" s="78">
+        <v>36140.314199098197</v>
+      </c>
+      <c r="L128" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="M128" s="78">
+        <v>10.720283169204601</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B129" t="s">
+        <v>105</v>
+      </c>
+      <c r="C129" s="78">
+        <v>4.7897505460933303</v>
+      </c>
+      <c r="D129" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E129" s="78">
+        <v>1.3183465530151299</v>
+      </c>
+      <c r="F129" s="78">
+        <v>48.117905986363702</v>
+      </c>
+      <c r="G129" s="78">
+        <v>0.43244654711108999</v>
+      </c>
+      <c r="H129" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I129" s="78">
+        <v>15.189674663705</v>
+      </c>
+      <c r="J129" s="78">
+        <v>8.9271427448568392</v>
+      </c>
+      <c r="K129" s="78">
+        <v>42292.7997006726</v>
+      </c>
+      <c r="L129" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="M129" s="78">
+        <v>25621.3946261612</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B130" t="s">
+        <v>107</v>
+      </c>
+      <c r="C130" s="78">
+        <v>6.75218724321922</v>
+      </c>
+      <c r="D130" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E130" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="F130" s="78">
+        <v>130.280577831638</v>
+      </c>
+      <c r="G130" s="78">
+        <v>0.83461883571287998</v>
+      </c>
+      <c r="H130" s="78">
+        <v>94.360938310765107</v>
+      </c>
+      <c r="I130" s="78">
+        <v>7.24406971801106</v>
+      </c>
+      <c r="J130" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="K130" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L130" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="M130" s="78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B131" t="s">
+        <v>107</v>
+      </c>
+      <c r="C131" s="78">
+        <v>6.75218724321922</v>
+      </c>
+      <c r="D131" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E131" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="F131" s="78">
+        <v>70.463973238660998</v>
+      </c>
+      <c r="G131" s="78">
+        <v>0.83461883571287998</v>
+      </c>
+      <c r="H131" s="78">
+        <v>94.360938310765107</v>
+      </c>
+      <c r="I131" s="78">
+        <v>1525.0230637048801</v>
+      </c>
+      <c r="J131" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="K131" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L131" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="M131" s="78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B132" t="s">
+        <v>107</v>
+      </c>
+      <c r="C132" s="78">
+        <v>6.75218724321922</v>
+      </c>
+      <c r="D132" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E132" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="F132" s="78">
+        <v>70.463973238660998</v>
+      </c>
+      <c r="G132" s="78">
+        <v>0.83461883571287998</v>
+      </c>
+      <c r="H132" s="78">
+        <v>94.360938310765107</v>
+      </c>
+      <c r="I132" s="78">
+        <v>20129.3288818537</v>
+      </c>
+      <c r="J132" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="K132" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L132" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="M132" s="78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B133" t="s">
+        <v>107</v>
+      </c>
+      <c r="C133" s="78">
+        <v>6.75218724321922</v>
+      </c>
+      <c r="D133" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E133" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="F133" s="78">
+        <v>70.463973238660998</v>
+      </c>
+      <c r="G133" s="78">
+        <v>0.83461883571287998</v>
+      </c>
+      <c r="H133" s="78">
+        <v>94.360938310765107</v>
+      </c>
+      <c r="I133" s="78">
+        <v>649.32117150828105</v>
+      </c>
+      <c r="J133" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="K133" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L133" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="M133" s="78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B134" t="s">
+        <v>109</v>
+      </c>
+      <c r="C134" s="78">
+        <v>3.2722381890062699</v>
+      </c>
+      <c r="D134" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E134" s="78">
+        <v>17.604478954066099</v>
+      </c>
+      <c r="F134" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="G134" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="H134" s="78">
+        <v>132.58987584552</v>
+      </c>
+      <c r="I134" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J134" s="78">
+        <v>909.79105676018696</v>
+      </c>
+      <c r="K134" s="78">
+        <v>42974468435449.297</v>
+      </c>
+      <c r="L134" s="78">
+        <v>30226.193994748999</v>
+      </c>
+      <c r="M134" s="78">
+        <v>405143.87128340697</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B135" t="s">
+        <v>109</v>
+      </c>
+      <c r="C135" s="78">
+        <v>3.2722381890062699</v>
+      </c>
+      <c r="D135" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E135" s="78">
+        <v>17.604478954066099</v>
+      </c>
+      <c r="F135" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="G135" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="H135" s="78">
+        <v>132.58987584552</v>
+      </c>
+      <c r="I135" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J135" s="78">
+        <v>230001818.60058001</v>
+      </c>
+      <c r="K135" s="78">
+        <v>42974468435449.297</v>
+      </c>
+      <c r="L135" s="78">
+        <v>30226.193994748999</v>
+      </c>
+      <c r="M135" s="78">
+        <v>2902.7782130382702</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B136" t="s">
+        <v>109</v>
+      </c>
+      <c r="C136" s="78">
+        <v>3.2722381890062699</v>
+      </c>
+      <c r="D136" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E136" s="78">
+        <v>17.604478954066099</v>
+      </c>
+      <c r="F136" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="G136" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="H136" s="78">
+        <v>132.58987584552</v>
+      </c>
+      <c r="I136" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J136" s="78">
+        <v>230001818.60058001</v>
+      </c>
+      <c r="K136" s="78">
+        <v>42974468435449.297</v>
+      </c>
+      <c r="L136" s="78">
+        <v>30226.193994748999</v>
+      </c>
+      <c r="M136" s="78">
+        <v>13246869.6893827</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B137" t="s">
+        <v>111</v>
+      </c>
+      <c r="C137" s="78">
+        <v>1.75523146754976</v>
+      </c>
+      <c r="D137" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E137" s="78">
+        <v>16.3365245232531</v>
+      </c>
+      <c r="F137" s="78">
+        <v>56.345281332026197</v>
+      </c>
+      <c r="G137" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="H137" s="78">
+        <v>124.98611262452199</v>
+      </c>
+      <c r="I137" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J137" s="78">
+        <v>29.356599112256699</v>
+      </c>
+      <c r="K137" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L137" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="M137" s="78">
+        <v>84.441644716640596</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B138" t="s">
+        <v>111</v>
+      </c>
+      <c r="C138" s="78">
+        <v>1.75523146754976</v>
+      </c>
+      <c r="D138" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E138" s="78">
+        <v>21.414604007171</v>
+      </c>
+      <c r="F138" s="78">
+        <v>56.345281332026197</v>
+      </c>
+      <c r="G138" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="H138" s="78">
+        <v>124.98611262452199</v>
+      </c>
+      <c r="I138" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J138" s="78">
+        <v>109.108018302578</v>
+      </c>
+      <c r="K138" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L138" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="M138" s="78">
+        <v>84.441644716640596</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B139" t="s">
+        <v>111</v>
+      </c>
+      <c r="C139" s="78">
+        <v>1.75523146754976</v>
+      </c>
+      <c r="D139" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E139" s="78">
+        <v>11.697859330290701</v>
+      </c>
+      <c r="F139" s="78">
+        <v>56.345281332026197</v>
+      </c>
+      <c r="G139" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="H139" s="78">
+        <v>124.98611262452199</v>
+      </c>
+      <c r="I139" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J139" s="78">
+        <v>109.108018302578</v>
+      </c>
+      <c r="K139" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L139" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="M139" s="78">
+        <v>84.441644716640596</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B140" t="s">
+        <v>111</v>
+      </c>
+      <c r="C140" s="78">
+        <v>1.75523146754976</v>
+      </c>
+      <c r="D140" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E140" s="78">
+        <v>3.19882727789921</v>
+      </c>
+      <c r="F140" s="78">
+        <v>56.345281332026197</v>
+      </c>
+      <c r="G140" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="H140" s="78">
+        <v>124.98611262452199</v>
+      </c>
+      <c r="I140" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J140" s="78">
+        <v>109.108018302578</v>
+      </c>
+      <c r="K140" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L140" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="M140" s="78">
+        <v>84.441644716640596</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B141" t="s">
+        <v>113</v>
+      </c>
+      <c r="C141" s="78">
+        <v>6.2326266834522599</v>
+      </c>
+      <c r="D141" s="78">
+        <v>0</v>
+      </c>
+      <c r="E141" s="78">
+        <v>17.948987086335599</v>
+      </c>
+      <c r="F141" s="78">
+        <v>107.486678785194</v>
+      </c>
+      <c r="G141" s="78">
+        <v>2.3516352770949999E-2</v>
+      </c>
+      <c r="H141" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I141" s="78">
+        <v>1.03719591401977</v>
+      </c>
+      <c r="J141" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="K141" s="78">
+        <v>29.3254724925627</v>
+      </c>
+      <c r="L141" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="M141" s="78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B142" t="s">
+        <v>113</v>
+      </c>
+      <c r="C142" s="78">
+        <v>4.4026145141885502</v>
+      </c>
+      <c r="D142" s="78">
+        <v>0</v>
+      </c>
+      <c r="E142" s="78">
+        <v>17.948987086335599</v>
+      </c>
+      <c r="F142" s="78">
+        <v>107.486678785194</v>
+      </c>
+      <c r="G142" s="78">
+        <v>2.0051046126833501</v>
+      </c>
+      <c r="H142" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I142" s="78">
+        <v>1.03719591401977</v>
+      </c>
+      <c r="J142" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="K142" s="78">
+        <v>29.3254724925627</v>
+      </c>
+      <c r="L142" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="M142" s="78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B143" t="s">
+        <v>113</v>
+      </c>
+      <c r="C143" s="78">
+        <v>6.8549909828235398</v>
+      </c>
+      <c r="D143" s="78">
+        <v>0</v>
+      </c>
+      <c r="E143" s="78">
+        <v>17.948987086335599</v>
+      </c>
+      <c r="F143" s="78">
+        <v>107.486678785194</v>
+      </c>
+      <c r="G143" s="78">
+        <v>2.0051046126833501</v>
+      </c>
+      <c r="H143" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I143" s="78">
+        <v>1.03719591401977</v>
+      </c>
+      <c r="J143" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="K143" s="78">
+        <v>29.3254724925627</v>
+      </c>
+      <c r="L143" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="M143" s="78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B144" t="s">
+        <v>115</v>
+      </c>
+      <c r="C144" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" s="78">
+        <v>0.17088133649335999</v>
+      </c>
+      <c r="E144" s="78">
+        <v>15.0097112091723</v>
+      </c>
+      <c r="F144" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="G144" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="H144" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I144" s="78">
+        <v>12942.272186279301</v>
+      </c>
+      <c r="J144" s="78">
+        <v>252471.26770019499</v>
+      </c>
+      <c r="K144" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L144" s="78">
+        <v>42847417.96875</v>
+      </c>
+      <c r="M144" s="78">
+        <v>1078586.42578125</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B145" t="s">
+        <v>115</v>
+      </c>
+      <c r="C145" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145" s="78">
+        <v>0.31886575623379998</v>
+      </c>
+      <c r="E145" s="78">
+        <v>15.0097112091723</v>
+      </c>
+      <c r="F145" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="G145" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="H145" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I145" s="78">
+        <v>36164.070129394502</v>
+      </c>
+      <c r="J145" s="78">
+        <v>252471.26770019499</v>
+      </c>
+      <c r="K145" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L145" s="78">
+        <v>1662996.8261718799</v>
+      </c>
+      <c r="M145" s="78">
+        <v>1078586.42578125</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B146" t="s">
+        <v>115</v>
+      </c>
+      <c r="C146" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146" s="78">
+        <v>0</v>
+      </c>
+      <c r="E146" s="78">
+        <v>15.0097112091723</v>
+      </c>
+      <c r="F146" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="G146" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="H146" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I146" s="78">
+        <v>36164.070129394502</v>
+      </c>
+      <c r="J146" s="78">
+        <v>252471.26770019499</v>
+      </c>
+      <c r="K146" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L146" s="78">
+        <v>1662996.8261718799</v>
+      </c>
+      <c r="M146" s="78">
+        <v>1078586.42578125</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B147" t="s">
+        <v>117</v>
+      </c>
+      <c r="C147" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D147" s="78">
+        <v>0.25495713059336</v>
+      </c>
+      <c r="E147" s="78">
+        <v>17.424738534536701</v>
+      </c>
+      <c r="F147" s="78">
+        <v>29.607519870947499</v>
+      </c>
+      <c r="G147" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="H147" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I147" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J147" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="K147" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L147" s="78">
+        <v>668.25450734866297</v>
+      </c>
+      <c r="M147" s="78">
+        <v>284120.68777803902</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B148" t="s">
+        <v>117</v>
+      </c>
+      <c r="C148" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D148" s="78">
+        <v>0.52798975414742999</v>
+      </c>
+      <c r="E148" s="78">
+        <v>6.30090334005485</v>
+      </c>
+      <c r="F148" s="78">
+        <v>67.449750859464501</v>
+      </c>
+      <c r="G148" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="H148" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I148" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J148" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="K148" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L148" s="78">
+        <v>668.25450734866297</v>
+      </c>
+      <c r="M148" s="78">
+        <v>284120.68777803902</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B149" t="s">
+        <v>117</v>
+      </c>
+      <c r="C149" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D149" s="78">
+        <v>0.52798975414742999</v>
+      </c>
+      <c r="E149" s="78">
+        <v>6.30090334005485</v>
+      </c>
+      <c r="F149" s="78">
+        <v>83.003656449047199</v>
+      </c>
+      <c r="G149" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="H149" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I149" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J149" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="K149" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L149" s="78">
+        <v>668.25450734866297</v>
+      </c>
+      <c r="M149" s="78">
+        <v>284120.68777803902</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B150" t="s">
+        <v>117</v>
+      </c>
+      <c r="C150" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D150" s="78">
+        <v>0.52798975414742999</v>
+      </c>
+      <c r="E150" s="78">
+        <v>6.30090334005485</v>
+      </c>
+      <c r="F150" s="78">
+        <v>246.31770212559101</v>
+      </c>
+      <c r="G150" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="H150" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I150" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J150" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="K150" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L150" s="78">
+        <v>668.25450734866297</v>
+      </c>
+      <c r="M150" s="78">
+        <v>284120.68777803902</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B151" t="s">
+        <v>119</v>
+      </c>
+      <c r="C151" s="78">
+        <v>2.3031297133461899</v>
+      </c>
+      <c r="D151" s="78">
+        <v>0.19599276831710999</v>
+      </c>
+      <c r="E151" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="F151" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="G151" s="78">
+        <v>0.24495219264696</v>
+      </c>
+      <c r="H151" s="78">
+        <v>202.423760064845</v>
+      </c>
+      <c r="I151" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J151" s="78">
+        <v>27575.638653473899</v>
+      </c>
+      <c r="K151" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L151" s="78">
+        <v>0.49031473123352998</v>
+      </c>
+      <c r="M151" s="78">
+        <v>258580.42079663801</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B152" t="s">
+        <v>119</v>
+      </c>
+      <c r="C152" s="78">
+        <v>2.3031297133461899</v>
+      </c>
+      <c r="D152" s="78">
+        <v>0.19599276831710999</v>
+      </c>
+      <c r="E152" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="F152" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="G152" s="78">
+        <v>5.0469891417163701</v>
+      </c>
+      <c r="H152" s="78">
+        <v>202.423760064845</v>
+      </c>
+      <c r="I152" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J152" s="78">
+        <v>175.06566418721701</v>
+      </c>
+      <c r="K152" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L152" s="78">
+        <v>0</v>
+      </c>
+      <c r="M152" s="78">
+        <v>258580.42079663801</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B153" t="s">
+        <v>119</v>
+      </c>
+      <c r="C153" s="78">
+        <v>2.3031297133461899</v>
+      </c>
+      <c r="D153" s="78">
+        <v>0.19599276831710999</v>
+      </c>
+      <c r="E153" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="F153" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="G153" s="78">
+        <v>1.40920213397894</v>
+      </c>
+      <c r="H153" s="78">
+        <v>202.423760064845</v>
+      </c>
+      <c r="I153" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J153" s="78">
+        <v>175.06566418721701</v>
+      </c>
+      <c r="K153" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L153" s="78">
+        <v>0</v>
+      </c>
+      <c r="M153" s="78">
+        <v>258580.42079663801</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B154" t="s">
+        <v>121</v>
+      </c>
+      <c r="C154" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D154" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E154" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="F154" s="78">
+        <v>119.40223313746201</v>
+      </c>
+      <c r="G154" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="H154" s="78">
+        <v>49.283287347602801</v>
+      </c>
+      <c r="I154" s="78">
+        <v>275.25418157977401</v>
+      </c>
+      <c r="J154" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="K154" s="78">
+        <v>5782.9846001817205</v>
+      </c>
+      <c r="L154" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="M154" s="78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B155" t="s">
+        <v>121</v>
+      </c>
+      <c r="C155" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D155" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E155" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="F155" s="78">
+        <v>119.40223313746201</v>
+      </c>
+      <c r="G155" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="H155" s="78">
+        <v>157.373252163443</v>
+      </c>
+      <c r="I155" s="78">
+        <v>422.502786464282</v>
+      </c>
+      <c r="J155" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="K155" s="78">
+        <v>178784.21515736601</v>
+      </c>
+      <c r="L155" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="M155" s="78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B156" t="s">
+        <v>123</v>
+      </c>
+      <c r="C156" s="78">
+        <v>4.5676869270924501</v>
+      </c>
+      <c r="D156" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E156" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="F156" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="G156" s="78">
+        <v>0.80911475301297997</v>
+      </c>
+      <c r="H156" s="78">
+        <v>160.869806841794</v>
+      </c>
+      <c r="I156" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J156" s="78">
+        <v>105.97959479013799</v>
+      </c>
+      <c r="K156" s="78">
+        <v>202.49849242901499</v>
+      </c>
+      <c r="L156" s="78">
+        <v>421422.98101500102</v>
+      </c>
+      <c r="M156" s="78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B157" t="s">
+        <v>123</v>
+      </c>
+      <c r="C157" s="78">
+        <v>4.5676869270924501</v>
+      </c>
+      <c r="D157" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E157" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="F157" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="G157" s="78">
+        <v>0.80911475301297997</v>
+      </c>
+      <c r="H157" s="78">
+        <v>160.869806841794</v>
+      </c>
+      <c r="I157" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J157" s="78">
+        <v>105.97959479013799</v>
+      </c>
+      <c r="K157" s="78">
+        <v>726.90078480979105</v>
+      </c>
+      <c r="L157" s="78">
+        <v>421422.98101500102</v>
+      </c>
+      <c r="M157" s="78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B158" t="s">
+        <v>125</v>
+      </c>
+      <c r="C158" s="78">
+        <v>1.5637611657995201</v>
+      </c>
+      <c r="D158" s="78">
+        <v>0.59605279471968997</v>
+      </c>
+      <c r="E158" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="F158" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="G158" s="78">
+        <v>1.92799688704436</v>
+      </c>
+      <c r="H158" s="78">
+        <v>251.83356481416499</v>
+      </c>
+      <c r="I158" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J158" s="78">
+        <v>9.5470022316432601</v>
+      </c>
+      <c r="K158" s="78">
+        <v>43079.591906207199</v>
+      </c>
+      <c r="L158" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="M158" s="78">
+        <v>0.82846237639461995</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B159" t="s">
+        <v>125</v>
+      </c>
+      <c r="C159" s="78">
+        <v>1.5637611657995201</v>
+      </c>
+      <c r="D159" s="78">
+        <v>0.59605279471968997</v>
+      </c>
+      <c r="E159" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="F159" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="G159" s="78">
+        <v>0</v>
+      </c>
+      <c r="H159" s="78">
+        <v>141.10376270809601</v>
+      </c>
+      <c r="I159" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J159" s="78">
+        <v>9.5470022316432601</v>
+      </c>
+      <c r="K159" s="78">
+        <v>43079.591906207199</v>
+      </c>
+      <c r="L159" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="M159" s="78">
+        <v>0.82846237639461995</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B160" t="s">
+        <v>127</v>
+      </c>
+      <c r="C160" s="78">
+        <v>3.2484901866912401</v>
+      </c>
+      <c r="D160" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E160" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="F160" s="78">
+        <v>80.915565973489194</v>
+      </c>
+      <c r="G160" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="H160" s="78">
+        <v>138.92920317292601</v>
+      </c>
+      <c r="I160" s="78">
+        <v>20574.602952684501</v>
+      </c>
+      <c r="J160" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="K160" s="78">
+        <v>17875.0006943314</v>
+      </c>
+      <c r="L160" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="M160" s="78">
+        <v>134397.84445657901</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B161" t="s">
+        <v>127</v>
+      </c>
+      <c r="C161" s="78">
+        <v>3.2484901866912401</v>
+      </c>
+      <c r="D161" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E161" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="F161" s="78">
+        <v>80.915565973489194</v>
+      </c>
+      <c r="G161" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="H161" s="78">
+        <v>309.59492672557201</v>
+      </c>
+      <c r="I161" s="78">
+        <v>20.561359133688299</v>
+      </c>
+      <c r="J161" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="K161" s="78">
+        <v>417.57883220936702</v>
+      </c>
+      <c r="L161" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="M161" s="78">
+        <v>134397.84445657901</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B162" t="s">
+        <v>127</v>
+      </c>
+      <c r="C162" s="78">
+        <v>3.2484901866912401</v>
+      </c>
+      <c r="D162" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E162" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="F162" s="78">
+        <v>80.915565973489194</v>
+      </c>
+      <c r="G162" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="H162" s="78">
+        <v>309.59492672557201</v>
+      </c>
+      <c r="I162" s="78">
+        <v>150.79025301190899</v>
+      </c>
+      <c r="J162" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="K162" s="78">
+        <v>44.421878279962897</v>
+      </c>
+      <c r="L162" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="M162" s="78">
+        <v>134397.84445657901</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B163" t="s">
+        <v>128</v>
+      </c>
+      <c r="C163" s="78">
+        <v>3.6199458486676099</v>
+      </c>
+      <c r="D163" s="78">
+        <v>0.29948497341452002</v>
+      </c>
+      <c r="E163" s="78">
+        <v>11.4213100910086</v>
+      </c>
+      <c r="F163" s="78">
+        <v>99.838123624046602</v>
+      </c>
+      <c r="G163" s="78">
+        <v>1.2978817746901601</v>
+      </c>
+      <c r="H163" s="78">
+        <v>111.347328278559</v>
+      </c>
+      <c r="I163" s="78">
+        <v>92915.770965239906</v>
+      </c>
+      <c r="J163" s="78">
+        <v>230285435.687341</v>
+      </c>
+      <c r="K163" s="78">
+        <v>42974468766207.5</v>
+      </c>
+      <c r="L163" s="78">
+        <v>45089889.685115099</v>
+      </c>
+      <c r="M163" s="78">
+        <v>15519481.0613719</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B164" t="s">
+        <v>129</v>
+      </c>
+      <c r="C164" s="78">
+        <v>3.3616589942478998</v>
+      </c>
+      <c r="D164" s="78">
+        <v>0.1748294759341</v>
+      </c>
+      <c r="E164" s="78">
+        <v>16.585814863612899</v>
+      </c>
+      <c r="F164" s="78">
+        <v>106.953432603555</v>
+      </c>
+      <c r="G164" s="78">
+        <v>2.4051254338495198</v>
+      </c>
+      <c r="H164" s="78">
+        <v>121.424948328586</v>
+      </c>
+      <c r="I164" s="78">
+        <v>175284333216.88901</v>
+      </c>
+      <c r="J164" s="78">
+        <v>237816493.851134</v>
+      </c>
+      <c r="K164" s="78">
+        <v>42974498642186.602</v>
+      </c>
+      <c r="L164" s="78">
+        <v>17973434064.385899</v>
+      </c>
+      <c r="M164" s="78">
+        <v>184732065200.35999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B165" t="s">
+        <v>130</v>
+      </c>
+      <c r="C165" s="78">
+        <v>4.5198578335488602</v>
+      </c>
+      <c r="D165" s="78">
+        <v>0.13030660215911999</v>
+      </c>
+      <c r="E165" s="78">
+        <v>14.8401579623274</v>
+      </c>
+      <c r="F165" s="78">
+        <v>65.732839215541205</v>
+      </c>
+      <c r="G165" s="78">
+        <v>8.7027717903350208</v>
+      </c>
+      <c r="H165" s="78">
+        <v>184.70826037825501</v>
+      </c>
+      <c r="I165" s="78">
+        <v>598560144.65825498</v>
+      </c>
+      <c r="J165" s="78">
+        <v>6680411872.8885098</v>
+      </c>
+      <c r="K165" s="78">
+        <v>23551707074.7272</v>
+      </c>
+      <c r="L165" s="78">
+        <v>449450261.862095</v>
+      </c>
+      <c r="M165" s="78">
+        <v>46483567215.124397</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B166" t="s">
+        <v>131</v>
+      </c>
+      <c r="C166" s="78">
+        <v>3.8972120944085402</v>
+      </c>
+      <c r="D166" s="78">
+        <v>0.28682382280175001</v>
+      </c>
+      <c r="E166" s="78">
+        <v>11.3909462905483</v>
+      </c>
+      <c r="F166" s="78">
+        <v>55.989140939584303</v>
+      </c>
+      <c r="G166" s="78">
+        <v>3.2855420316955399</v>
+      </c>
+      <c r="H166" s="78">
+        <v>115.833691619454</v>
+      </c>
+      <c r="I166" s="78">
+        <v>326002536.66785598</v>
+      </c>
+      <c r="J166" s="78">
+        <v>40524927.895039402</v>
+      </c>
+      <c r="K166" s="78">
+        <v>627976427.15999699</v>
+      </c>
+      <c r="L166" s="78">
+        <v>1347885.8918329901</v>
+      </c>
+      <c r="M166" s="78">
+        <v>591362092.799716</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B167" t="s">
+        <v>132</v>
+      </c>
+      <c r="C167" s="78">
+        <v>4.8444718788063703</v>
+      </c>
+      <c r="D167" s="78">
+        <v>3.16090762209E-2</v>
+      </c>
+      <c r="E167" s="78">
+        <v>17.257813744854801</v>
+      </c>
+      <c r="F167" s="78">
+        <v>59.180559934646901</v>
+      </c>
+      <c r="G167" s="78">
+        <v>4.9880117474520302</v>
+      </c>
+      <c r="H167" s="78">
+        <v>182.61659185262201</v>
+      </c>
+      <c r="I167" s="78">
+        <v>67960.028551601194</v>
+      </c>
+      <c r="J167" s="78">
+        <v>3201775.70351722</v>
+      </c>
+      <c r="K167" s="78">
+        <v>35348387.356459402</v>
+      </c>
+      <c r="L167" s="78">
+        <v>489533.79900129902</v>
+      </c>
+      <c r="M167" s="78">
+        <v>702557381.263237</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B168" t="s">
+        <v>133</v>
+      </c>
+      <c r="C168" s="78">
+        <v>4.3816668901579501</v>
+      </c>
+      <c r="D168" s="78">
+        <v>0.13324471553171</v>
+      </c>
+      <c r="E168" s="78">
+        <v>14.898862130752301</v>
+      </c>
+      <c r="F168" s="78">
+        <v>70.148450719294701</v>
+      </c>
+      <c r="G168" s="78">
+        <v>8.1640382879276299</v>
+      </c>
+      <c r="H168" s="78">
+        <v>179.94121602392599</v>
+      </c>
+      <c r="I168" s="78">
+        <v>175882893361.548</v>
+      </c>
+      <c r="J168" s="78">
+        <v>6918228366.7396402</v>
+      </c>
+      <c r="K168" s="78">
+        <v>42998050349261.398</v>
+      </c>
+      <c r="L168" s="78">
+        <v>18422884326.248001</v>
+      </c>
+      <c r="M168" s="78">
+        <v>231215632415.48401</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B169" t="s">
+        <v>134</v>
+      </c>
+      <c r="C169" s="78">
+        <v>3.1674487130407099</v>
+      </c>
+      <c r="D169" s="78">
+        <v>0.21250209529593</v>
+      </c>
+      <c r="E169" s="78">
+        <v>17.370579975805899</v>
+      </c>
+      <c r="F169" s="78">
+        <v>129.52464818017501</v>
+      </c>
+      <c r="G169" s="78">
+        <v>1.4011047925561899</v>
+      </c>
+      <c r="H169" s="78">
+        <v>139.06038890849399</v>
+      </c>
+      <c r="I169" s="78">
+        <v>175283206763.88101</v>
+      </c>
+      <c r="J169" s="78">
+        <v>978789.59476771695</v>
+      </c>
+      <c r="K169" s="78">
+        <v>15984253.879303601</v>
+      </c>
+      <c r="L169" s="78">
+        <v>17926359282.0602</v>
+      </c>
+      <c r="M169" s="78">
+        <v>179607101946.80099</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B170" t="s">
+        <v>135</v>
+      </c>
+      <c r="C170" s="78">
+        <v>2.9419234732917898</v>
+      </c>
+      <c r="D170" s="78">
+        <v>0.16162316350702999</v>
+      </c>
+      <c r="E170" s="78">
+        <v>16.4284652296401</v>
+      </c>
+      <c r="F170" s="78">
+        <v>131.05930366778</v>
+      </c>
+      <c r="G170" s="78">
+        <v>0.98226561100606002</v>
+      </c>
+      <c r="H170" s="78">
+        <v>116.76405601354701</v>
+      </c>
+      <c r="I170" s="78">
+        <v>400163.76219562202</v>
+      </c>
+      <c r="J170" s="78">
+        <v>233038220.03271201</v>
+      </c>
+      <c r="K170" s="78">
+        <v>42974481321981.797</v>
+      </c>
+      <c r="L170" s="78">
+        <v>4639752.9261976704</v>
+      </c>
+      <c r="M170" s="78">
+        <v>41235964.568358198</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B171" t="s">
+        <v>136</v>
+      </c>
+      <c r="C171" s="78">
+        <v>5.6300348625353198</v>
+      </c>
+      <c r="D171" s="78">
+        <v>0.25598928397905002</v>
+      </c>
+      <c r="E171" s="78">
+        <v>16.112123828405299</v>
+      </c>
+      <c r="F171" s="78">
+        <v>62.230815519961098</v>
+      </c>
+      <c r="G171" s="78">
+        <v>1.4226777363366401</v>
+      </c>
+      <c r="H171" s="78">
+        <v>84.076745949181301</v>
+      </c>
+      <c r="I171" s="78">
+        <v>30818.610223239499</v>
+      </c>
+      <c r="J171" s="78">
+        <v>10853.134893393701</v>
+      </c>
+      <c r="K171" s="78">
+        <v>58622.738975713801</v>
+      </c>
+      <c r="L171" s="78">
+        <v>16025.970346632201</v>
+      </c>
+      <c r="M171" s="78">
+        <v>159193.068917139</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B172" t="s">
+        <v>137</v>
+      </c>
+      <c r="C172" s="78">
+        <v>4.3357715666923697</v>
+      </c>
+      <c r="D172" s="78">
+        <v>7.8452987180350001E-2</v>
+      </c>
+      <c r="E172" s="78">
+        <v>14.175262494416</v>
+      </c>
+      <c r="F172" s="78">
+        <v>63.067884150528798</v>
+      </c>
+      <c r="G172" s="78">
+        <v>3.0281035713172999</v>
+      </c>
+      <c r="H172" s="78">
+        <v>132.09847409525599</v>
+      </c>
+      <c r="I172" s="78">
+        <v>918098.14073485299</v>
+      </c>
+      <c r="J172" s="78">
+        <v>151687.52097767801</v>
+      </c>
+      <c r="K172" s="78">
+        <v>1011482.8462357901</v>
+      </c>
+      <c r="L172" s="78">
+        <v>71245.800950343502</v>
+      </c>
+      <c r="M172" s="78">
+        <v>890176.00619431597</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B173" t="s">
+        <v>138</v>
+      </c>
+      <c r="C173" s="78">
+        <v>3.6199458486676099</v>
+      </c>
+      <c r="D173" s="78">
+        <v>0.29948497341452002</v>
+      </c>
+      <c r="E173" s="78">
+        <v>11.4213100910086</v>
+      </c>
+      <c r="F173" s="78">
+        <v>99.838123624046602</v>
+      </c>
+      <c r="G173" s="78">
+        <v>1.2978817746901601</v>
+      </c>
+      <c r="H173" s="78">
+        <v>111.347328278559</v>
+      </c>
+      <c r="I173" s="78">
+        <v>92915.770965239906</v>
+      </c>
+      <c r="J173" s="78">
+        <v>230285435.687341</v>
+      </c>
+      <c r="K173" s="78">
+        <v>42974468766207.5</v>
+      </c>
+      <c r="L173" s="78">
+        <v>45089889.685115099</v>
+      </c>
+      <c r="M173" s="78">
+        <v>15519481.0613719</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B174" t="s">
+        <v>139</v>
+      </c>
+      <c r="C174" s="78">
+        <v>3.9927442059868699</v>
+      </c>
+      <c r="D174" s="78">
+        <v>0.30237215294014003</v>
+      </c>
+      <c r="E174" s="78">
+        <v>15.021201697396799</v>
+      </c>
+      <c r="F174" s="78">
+        <v>50.000875275965001</v>
+      </c>
+      <c r="G174" s="78">
+        <v>1.49150518864879</v>
+      </c>
+      <c r="H174" s="78">
+        <v>183.947534309812</v>
+      </c>
+      <c r="I174" s="78">
+        <v>130493.523173995</v>
+      </c>
+      <c r="J174" s="78">
+        <v>3060.9171310658398</v>
+      </c>
+      <c r="K174" s="78">
+        <v>689327.11758051603</v>
+      </c>
+      <c r="L174" s="78">
+        <v>56773.274391395702</v>
+      </c>
+      <c r="M174" s="78">
+        <v>2512749.91997782</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B175" t="s">
+        <v>140</v>
+      </c>
+      <c r="C175" s="78">
+        <v>5.5538786396032602</v>
+      </c>
+      <c r="D175" s="78">
+        <v>0.14179308802403001</v>
+      </c>
+      <c r="E175" s="78">
+        <v>18.7223624562398</v>
+      </c>
+      <c r="F175" s="78">
+        <v>73.675556715848401</v>
+      </c>
+      <c r="G175" s="78">
+        <v>4.0162879432933503</v>
+      </c>
+      <c r="H175" s="78">
+        <v>99.597163787541405</v>
+      </c>
+      <c r="I175" s="78">
+        <v>175282874148.58701</v>
+      </c>
+      <c r="J175" s="78">
+        <v>4334537.7375608403</v>
+      </c>
+      <c r="K175" s="78">
+        <v>16552730.9736757</v>
+      </c>
+      <c r="L175" s="78">
+        <v>17924080727.3377</v>
+      </c>
+      <c r="M175" s="78">
+        <v>184689206110.26001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B176" t="s">
+        <v>141</v>
+      </c>
+      <c r="C176" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D176" s="78">
+        <v>0.34571699169676001</v>
+      </c>
+      <c r="E176" s="78">
+        <v>21.827497853955801</v>
+      </c>
+      <c r="F176" s="78">
+        <v>75.642958903641897</v>
+      </c>
+      <c r="G176" s="78">
+        <v>6.0257101585194803</v>
+      </c>
+      <c r="H176" s="78">
+        <v>153.03784644001701</v>
+      </c>
+      <c r="I176" s="78">
+        <v>317560.86719391501</v>
+      </c>
+      <c r="J176" s="78">
+        <v>2801626.0030722101</v>
+      </c>
+      <c r="K176" s="78">
+        <v>6445034.9732369203</v>
+      </c>
+      <c r="L176" s="78">
+        <v>4141856.9691344602</v>
+      </c>
+      <c r="M176" s="78">
+        <v>23796317.060214099</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B177" t="s">
+        <v>142</v>
+      </c>
+      <c r="C177" s="78">
+        <v>4.5175046548532096</v>
+      </c>
+      <c r="D177" s="78">
+        <v>4.8905839752959999E-2</v>
+      </c>
+      <c r="E177" s="78">
+        <v>15.0944432778786</v>
+      </c>
+      <c r="F177" s="78">
+        <v>56.675292077234502</v>
+      </c>
+      <c r="G177" s="78">
+        <v>1.7728451930603</v>
+      </c>
+      <c r="H177" s="78">
+        <v>131.67813350552899</v>
+      </c>
+      <c r="I177" s="78">
+        <v>915890.99299428903</v>
+      </c>
+      <c r="J177" s="78">
+        <v>155354.04461239601</v>
+      </c>
+      <c r="K177" s="78">
+        <v>941304.35945413704</v>
+      </c>
+      <c r="L177" s="78">
+        <v>194217.62661007399</v>
+      </c>
+      <c r="M177" s="78">
+        <v>63372.280209793498</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B178" t="s">
+        <v>143</v>
+      </c>
+      <c r="C178" s="78">
+        <v>3.3079685997871699</v>
+      </c>
+      <c r="D178" s="78">
+        <v>7.4713968671200004E-2</v>
+      </c>
+      <c r="E178" s="78">
+        <v>17.7824371935104</v>
+      </c>
+      <c r="F178" s="78">
+        <v>40.624707502397001</v>
+      </c>
+      <c r="G178" s="78">
+        <v>3.9497615541971798</v>
+      </c>
+      <c r="H178" s="78">
+        <v>178.129061610223</v>
+      </c>
+      <c r="I178" s="78">
+        <v>3183.7371290965898</v>
+      </c>
+      <c r="J178" s="78">
+        <v>80244.723861933395</v>
+      </c>
+      <c r="K178" s="78">
+        <v>58783444.6024739</v>
+      </c>
+      <c r="L178" s="78">
+        <v>293627.0616509</v>
+      </c>
+      <c r="M178" s="78">
+        <v>653929.515406308</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B179" t="s">
+        <v>144</v>
+      </c>
+      <c r="C179" s="78">
+        <v>3.9487933377277802</v>
+      </c>
+      <c r="D179" s="78">
+        <v>0.34235563860439999</v>
+      </c>
+      <c r="E179" s="78">
+        <v>11.086235293998801</v>
+      </c>
+      <c r="F179" s="78">
+        <v>48.293271710212899</v>
+      </c>
+      <c r="G179" s="78">
+        <v>3.3570746213988398</v>
+      </c>
+      <c r="H179" s="78">
+        <v>66.794498470901303</v>
+      </c>
+      <c r="I179" s="78">
+        <v>1309032.9829367001</v>
+      </c>
+      <c r="J179" s="78">
+        <v>912498.17664319801</v>
+      </c>
+      <c r="K179" s="78">
+        <v>13865494.436317399</v>
+      </c>
+      <c r="L179" s="78">
+        <v>43099.419520076299</v>
+      </c>
+      <c r="M179" s="78">
+        <v>370318591.733123</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B180" t="s">
+        <v>145</v>
+      </c>
+      <c r="C180" s="78">
+        <v>4.91626319200906</v>
+      </c>
+      <c r="D180" s="78">
+        <v>0.57689368992865997</v>
+      </c>
+      <c r="E180" s="78">
+        <v>12.5742884436627</v>
+      </c>
+      <c r="F180" s="78">
+        <v>66.872979631665302</v>
+      </c>
+      <c r="G180" s="78">
+        <v>15.613692646793501</v>
+      </c>
+      <c r="H180" s="78">
+        <v>201.55136951502701</v>
+      </c>
+      <c r="I180" s="78">
+        <v>155167471.571197</v>
+      </c>
+      <c r="J180" s="78">
+        <v>111198271.128764</v>
+      </c>
+      <c r="K180" s="78">
+        <v>22744537484.2603</v>
+      </c>
+      <c r="L180" s="78">
+        <v>6089428.63788193</v>
+      </c>
+      <c r="M180" s="78">
+        <v>44922772699.517502</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B181" t="s">
+        <v>146</v>
+      </c>
+      <c r="C181" s="78">
+        <v>4.4740596852027101</v>
+      </c>
+      <c r="D181" s="78">
+        <v>0.37827542066695002</v>
+      </c>
+      <c r="E181" s="78">
+        <v>13.1553765490424</v>
+      </c>
+      <c r="F181" s="78">
+        <v>71.386773233808299</v>
+      </c>
+      <c r="G181" s="78">
+        <v>12.6213225376484</v>
+      </c>
+      <c r="H181" s="78">
+        <v>210.01025884013399</v>
+      </c>
+      <c r="I181" s="78">
+        <v>231904307.78731501</v>
+      </c>
+      <c r="J181" s="78">
+        <v>1261047429.0334201</v>
+      </c>
+      <c r="K181" s="78">
+        <v>22745965290.207401</v>
+      </c>
+      <c r="L181" s="78">
+        <v>137264879.534778</v>
+      </c>
+      <c r="M181" s="78">
+        <v>44932776110.2425</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B182" t="s">
+        <v>147</v>
+      </c>
+      <c r="C182" s="78">
+        <v>4.6567364040266597</v>
+      </c>
+      <c r="D182" s="78">
+        <v>0.26171829703730998</v>
+      </c>
+      <c r="E182" s="78">
+        <v>17.4278480875779</v>
+      </c>
+      <c r="F182" s="78">
+        <v>57.695628956310401</v>
+      </c>
+      <c r="G182" s="78">
+        <v>9.6021385903477796</v>
+      </c>
+      <c r="H182" s="78">
+        <v>146.95039194456399</v>
+      </c>
+      <c r="I182" s="78">
+        <v>1211.8208487023401</v>
+      </c>
+      <c r="J182" s="78">
+        <v>50771.722663376597</v>
+      </c>
+      <c r="K182" s="78">
+        <v>6731440.76571221</v>
+      </c>
+      <c r="L182" s="78">
+        <v>4272538.1211777497</v>
+      </c>
+      <c r="M182" s="78">
+        <v>833795.22414534295</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B183" t="s">
+        <v>148</v>
+      </c>
+      <c r="C183" s="78">
+        <v>4.5636473396129</v>
+      </c>
+      <c r="D183" s="78">
+        <v>4.0400163115360002E-2</v>
+      </c>
+      <c r="E183" s="78">
+        <v>16.854416733027499</v>
+      </c>
+      <c r="F183" s="78">
+        <v>57.339142008658797</v>
+      </c>
+      <c r="G183" s="78">
+        <v>0.73726833877368003</v>
+      </c>
+      <c r="H183" s="78">
+        <v>128.65372045611201</v>
+      </c>
+      <c r="I183" s="78">
+        <v>39846264.194302902</v>
+      </c>
+      <c r="J183" s="78">
+        <v>156135630.399115</v>
+      </c>
+      <c r="K183" s="78">
+        <v>53389906.530103698</v>
+      </c>
+      <c r="L183" s="78">
+        <v>104296.59131952</v>
+      </c>
+      <c r="M183" s="78">
+        <v>418683476.00127</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B184" t="s">
+        <v>149</v>
+      </c>
+      <c r="C184" s="78">
+        <v>3.33425047749847</v>
+      </c>
+      <c r="D184" s="78">
+        <v>0.17175386615241001</v>
+      </c>
+      <c r="E184" s="78">
+        <v>16.4539530093213</v>
+      </c>
+      <c r="F184" s="78">
+        <v>119.680894300953</v>
+      </c>
+      <c r="G184" s="78">
+        <v>1.3826884830160799</v>
+      </c>
+      <c r="H184" s="78">
+        <v>111.012583923156</v>
+      </c>
+      <c r="I184" s="78">
+        <v>175284332005.069</v>
+      </c>
+      <c r="J184" s="78">
+        <v>237765722.12847</v>
+      </c>
+      <c r="K184" s="78">
+        <v>42974491910745.898</v>
+      </c>
+      <c r="L184" s="78">
+        <v>17969161526.264702</v>
+      </c>
+      <c r="M184" s="78">
+        <v>184731231405.13599</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B185" t="s">
+        <v>150</v>
+      </c>
+      <c r="C185" s="78">
+        <v>4.5138313591321904</v>
+      </c>
+      <c r="D185" s="78">
+        <v>0.13998474922477999</v>
+      </c>
+      <c r="E185" s="78">
+        <v>14.643273372640399</v>
+      </c>
+      <c r="F185" s="78">
+        <v>67.3394535956445</v>
+      </c>
+      <c r="G185" s="78">
+        <v>9.6064392257134408</v>
+      </c>
+      <c r="H185" s="78">
+        <v>190.458820614795</v>
+      </c>
+      <c r="I185" s="78">
+        <v>558713880.46395195</v>
+      </c>
+      <c r="J185" s="78">
+        <v>6524276242.4893999</v>
+      </c>
+      <c r="K185" s="78">
+        <v>23498317168.197201</v>
+      </c>
+      <c r="L185" s="78">
+        <v>449345965.27077502</v>
+      </c>
+      <c r="M185" s="78">
+        <v>46064883739.1231</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B186" t="s">
+        <v>151</v>
+      </c>
+      <c r="C186" s="78">
+        <v>3.92959662405584</v>
+      </c>
+      <c r="D186" s="78">
+        <v>0.13202425765726</v>
+      </c>
+      <c r="E186" s="78">
+        <v>14.829293205774601</v>
+      </c>
+      <c r="F186" s="78">
+        <v>66.178181455183605</v>
+      </c>
+      <c r="G186" s="78">
+        <v>2.5195267986543501</v>
+      </c>
+      <c r="H186" s="78">
+        <v>155.504999416315</v>
+      </c>
+      <c r="I186" s="78">
+        <v>194972.64208907899</v>
+      </c>
+      <c r="J186" s="78">
+        <v>340698.01485698298</v>
+      </c>
+      <c r="K186" s="78">
+        <v>685022.36735043605</v>
+      </c>
+      <c r="L186" s="78">
+        <v>44557131.231464803</v>
+      </c>
+      <c r="M186" s="78">
+        <v>179585720364.61499</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B187" t="s">
+        <v>152</v>
+      </c>
+      <c r="C187" s="78">
+        <v>12.4908264891624</v>
+      </c>
+      <c r="D187" s="78">
+        <v>0.39617597098661</v>
+      </c>
+      <c r="E187" s="78">
+        <v>12.522707825784501</v>
+      </c>
+      <c r="F187" s="78">
+        <v>102.460613829567</v>
+      </c>
+      <c r="G187" s="78">
+        <v>0.54995384641551004</v>
+      </c>
+      <c r="H187" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I187" s="78">
+        <v>8065.0386578145699</v>
+      </c>
+      <c r="J187" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="K187" s="78">
+        <v>3296.6195955854801</v>
+      </c>
+      <c r="L187" s="78">
+        <v>10920.1640524302</v>
+      </c>
+      <c r="M187" s="78">
+        <v>461.78178485683702</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B188" t="s">
+        <v>153</v>
+      </c>
+      <c r="C188" s="78">
+        <v>2.8017945187249498</v>
+      </c>
+      <c r="D188" s="78">
+        <v>0.22420794221526999</v>
+      </c>
+      <c r="E188" s="78">
+        <v>17.7832483172248</v>
+      </c>
+      <c r="F188" s="78">
+        <v>115.703313304644</v>
+      </c>
+      <c r="G188" s="78">
+        <v>2.3944709640025001</v>
+      </c>
+      <c r="H188" s="78">
+        <v>121.502009179029</v>
+      </c>
+      <c r="I188" s="78">
+        <v>1263817.0344582801</v>
+      </c>
+      <c r="J188" s="78">
+        <v>233322917.26090199</v>
+      </c>
+      <c r="K188" s="78">
+        <v>42974476317296.297</v>
+      </c>
+      <c r="L188" s="78">
+        <v>17926562213.891899</v>
+      </c>
+      <c r="M188" s="78">
+        <v>4410752023.7869701</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B189" t="s">
+        <v>154</v>
+      </c>
+      <c r="C189" s="78">
+        <v>4.6314574871451697</v>
+      </c>
+      <c r="D189" s="78">
+        <v>0.11561486838849</v>
+      </c>
+      <c r="E189" s="78">
+        <v>17.3464413546223</v>
+      </c>
+      <c r="F189" s="78">
+        <v>59.741965437645298</v>
+      </c>
+      <c r="G189" s="78">
+        <v>4.8507009781427302</v>
+      </c>
+      <c r="H189" s="78">
+        <v>130.653476718094</v>
+      </c>
+      <c r="I189" s="78">
+        <v>318634034.60946202</v>
+      </c>
+      <c r="J189" s="78">
+        <v>6238858.0451940596</v>
+      </c>
+      <c r="K189" s="78">
+        <v>211882681.10150301</v>
+      </c>
+      <c r="L189" s="78">
+        <v>752164.24179837003</v>
+      </c>
+      <c r="M189" s="78">
+        <v>70983508.315483406</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B190" t="s">
+        <v>155</v>
+      </c>
+      <c r="C190" s="78">
+        <v>6.85229875687165</v>
+      </c>
+      <c r="D190" s="78">
+        <v>8.0585228325250002E-2</v>
+      </c>
+      <c r="E190" s="78">
+        <v>18.592415649461302</v>
+      </c>
+      <c r="F190" s="78">
+        <v>63.4988644348227</v>
+      </c>
+      <c r="G190" s="78">
+        <v>1.6351643939738301</v>
+      </c>
+      <c r="H190" s="78">
+        <v>90.539271843446201</v>
+      </c>
+      <c r="I190" s="78">
+        <v>26159.789453387799</v>
+      </c>
+      <c r="J190" s="78">
+        <v>4152878.57537521</v>
+      </c>
+      <c r="K190" s="78">
+        <v>21634529.4905379</v>
+      </c>
+      <c r="L190" s="78">
+        <v>2314719.2625428499</v>
+      </c>
+      <c r="M190" s="78">
+        <v>735592263.53082895</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B191" t="s">
+        <v>156</v>
+      </c>
+      <c r="C191" s="78">
+        <v>4.5782961605306101</v>
+      </c>
+      <c r="D191" s="78">
+        <v>2.2076452940890001E-2</v>
+      </c>
+      <c r="E191" s="78">
+        <v>14.1017119183267</v>
+      </c>
+      <c r="F191" s="78">
+        <v>69.961522237254499</v>
+      </c>
+      <c r="G191" s="78">
+        <v>7.2961546016164203</v>
+      </c>
+      <c r="H191" s="78">
+        <v>182.597547720113</v>
+      </c>
+      <c r="I191" s="78">
+        <v>2720565.6204947499</v>
+      </c>
+      <c r="J191" s="78">
+        <v>5208401274.2053404</v>
+      </c>
+      <c r="K191" s="78">
+        <v>461362634.12514502</v>
+      </c>
+      <c r="L191" s="78">
+        <v>309641894.07530099</v>
+      </c>
+      <c r="M191" s="78">
+        <v>1322138713.0873001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B192" t="s">
+        <v>157</v>
+      </c>
+      <c r="C192" s="78">
+        <v>4.4892371776313604</v>
+      </c>
+      <c r="D192" s="78">
+        <v>0.35008040105505001</v>
+      </c>
+      <c r="E192" s="78">
+        <v>13.7105706137386</v>
+      </c>
+      <c r="F192" s="78">
+        <v>64.111399155378095</v>
+      </c>
+      <c r="G192" s="78">
+        <v>11.2810687550952</v>
+      </c>
+      <c r="H192" s="78">
+        <v>198.36435390180799</v>
+      </c>
+      <c r="I192" s="78">
+        <v>175560045746.81299</v>
+      </c>
+      <c r="J192" s="78">
+        <v>1465771740.63797</v>
+      </c>
+      <c r="K192" s="78">
+        <v>22878463801.3009</v>
+      </c>
+      <c r="L192" s="78">
+        <v>139045283.380943</v>
+      </c>
+      <c r="M192" s="78">
+        <v>45090445080.366402</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B193" t="s">
+        <v>158</v>
+      </c>
+      <c r="C193" s="78">
+        <v>4.1819347019302198</v>
+      </c>
+      <c r="D193" s="78">
+        <v>0.13596153843773001</v>
+      </c>
+      <c r="E193" s="78">
+        <v>14.7195899406171</v>
+      </c>
+      <c r="F193" s="78">
+        <v>63.949188198703801</v>
+      </c>
+      <c r="G193" s="78">
+        <v>2.5458625772671901</v>
+      </c>
+      <c r="H193" s="78">
+        <v>148.87583204575299</v>
+      </c>
+      <c r="I193" s="78">
+        <v>1111231.8707009701</v>
+      </c>
+      <c r="J193" s="78">
+        <v>481190.84999791801</v>
+      </c>
+      <c r="K193" s="78">
+        <v>1779176.3796747499</v>
+      </c>
+      <c r="L193" s="78">
+        <v>46936461.828378402</v>
+      </c>
+      <c r="M193" s="78">
+        <v>183959041225.414</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B194" t="s">
+        <v>159</v>
+      </c>
+      <c r="C194" s="78">
+        <v>5.1665477833719997</v>
+      </c>
+      <c r="D194" s="78">
+        <v>0.32459688607245002</v>
+      </c>
+      <c r="E194" s="78">
+        <v>10.976298606522899</v>
+      </c>
+      <c r="F194" s="78">
+        <v>50.617033419670697</v>
+      </c>
+      <c r="G194" s="78">
+        <v>4.6374547636790897</v>
+      </c>
+      <c r="H194" s="78">
+        <v>164.55598692071001</v>
+      </c>
+      <c r="I194" s="78">
+        <v>16942.331883487401</v>
+      </c>
+      <c r="J194" s="78">
+        <v>1800709.3046031401</v>
+      </c>
+      <c r="K194" s="78">
+        <v>9497531.4774582591</v>
+      </c>
+      <c r="L194" s="78">
+        <v>44567.127838762703</v>
+      </c>
+      <c r="M194" s="78">
+        <v>17032606.744462799</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B195" t="s">
+        <v>160</v>
+      </c>
+      <c r="C195" s="78">
+        <v>8.7931583204334007</v>
+      </c>
+      <c r="D195" s="78">
+        <v>0.41020074159360997</v>
+      </c>
+      <c r="E195" s="78">
+        <v>24.115217713129901</v>
+      </c>
+      <c r="F195" s="78">
+        <v>54.7182510097998</v>
+      </c>
+      <c r="G195" s="78">
+        <v>0.87232543010931995</v>
+      </c>
+      <c r="H195" s="78">
+        <v>86.131635633949799</v>
+      </c>
+      <c r="I195" s="78">
+        <v>175283764158.41599</v>
+      </c>
+      <c r="J195" s="78">
+        <v>704157.52391768096</v>
+      </c>
+      <c r="K195" s="78">
+        <v>2962997.5777413999</v>
+      </c>
+      <c r="L195" s="78">
+        <v>220318.62479276201</v>
+      </c>
+      <c r="M195" s="78">
+        <v>4532.6959437918104</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B196" t="s">
+        <v>161</v>
+      </c>
+      <c r="C196" s="78">
+        <v>4.7008728877582797</v>
+      </c>
+      <c r="D196" s="78">
+        <v>8.3723163539590001E-2</v>
+      </c>
+      <c r="E196" s="78">
+        <v>16.795824084262598</v>
+      </c>
+      <c r="F196" s="78">
+        <v>67.636550421706701</v>
+      </c>
+      <c r="G196" s="78">
+        <v>2.9487370584660701</v>
+      </c>
+      <c r="H196" s="78">
+        <v>182.40394436858099</v>
+      </c>
+      <c r="I196" s="78">
+        <v>3233770.1429491602</v>
+      </c>
+      <c r="J196" s="78">
+        <v>43789212.588636398</v>
+      </c>
+      <c r="K196" s="78">
+        <v>74890508.641573295</v>
+      </c>
+      <c r="L196" s="78">
+        <v>309349335.81661201</v>
+      </c>
+      <c r="M196" s="78">
+        <v>262372462.686461</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B197" t="s">
+        <v>162</v>
+      </c>
+      <c r="C197" s="78">
+        <v>3.6174513756943099</v>
+      </c>
+      <c r="D197" s="78">
+        <v>0.23059693381792001</v>
+      </c>
+      <c r="E197" s="78">
+        <v>13.1200566294273</v>
+      </c>
+      <c r="F197" s="78">
+        <v>74.012300411493996</v>
+      </c>
+      <c r="G197" s="78">
+        <v>2.5634605808415398</v>
+      </c>
+      <c r="H197" s="78">
+        <v>150.008869702487</v>
+      </c>
+      <c r="I197" s="78">
+        <v>69393.287106640593</v>
+      </c>
+      <c r="J197" s="78">
+        <v>202918.745143359</v>
+      </c>
+      <c r="K197" s="78">
+        <v>3408163.69069089</v>
+      </c>
+      <c r="L197" s="78">
+        <v>17924017782.230202</v>
+      </c>
+      <c r="M197" s="78">
+        <v>184689310174.89099</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B198" t="s">
+        <v>163</v>
+      </c>
+      <c r="C198" s="78">
+        <v>6.0019221394821898</v>
+      </c>
+      <c r="D198" s="78">
+        <v>0.31779186106170998</v>
+      </c>
+      <c r="E198" s="78">
+        <v>14.802378514032201</v>
+      </c>
+      <c r="F198" s="78">
+        <v>98.452570242516003</v>
+      </c>
+      <c r="G198" s="78">
+        <v>1.5273222528232699</v>
+      </c>
+      <c r="H198" s="78">
+        <v>175.05557004518801</v>
+      </c>
+      <c r="I198" s="78">
+        <v>557972.71234299405</v>
+      </c>
+      <c r="J198" s="78">
+        <v>1837380.7091276101</v>
+      </c>
+      <c r="K198" s="78">
+        <v>2521174.9933164101</v>
+      </c>
+      <c r="L198" s="78">
+        <v>139821.94473238999</v>
+      </c>
+      <c r="M198" s="78">
+        <v>8603222.7309703603</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B199" t="s">
+        <v>164</v>
+      </c>
+      <c r="C199" s="78">
+        <v>3.96970029847393</v>
+      </c>
+      <c r="D199" s="78">
+        <v>0.26751819552543998</v>
+      </c>
+      <c r="E199" s="78">
+        <v>15.245793704168101</v>
+      </c>
+      <c r="F199" s="78">
+        <v>82.773659513183304</v>
+      </c>
+      <c r="G199" s="78">
+        <v>2.0401456113794501</v>
+      </c>
+      <c r="H199" s="78">
+        <v>124.06112803069</v>
+      </c>
+      <c r="I199" s="78">
+        <v>185960.080260544</v>
+      </c>
+      <c r="J199" s="78">
+        <v>439629.75033562002</v>
+      </c>
+      <c r="K199" s="78">
+        <v>7738308.6395485401</v>
+      </c>
+      <c r="L199" s="78">
+        <v>17972692528.4119</v>
+      </c>
+      <c r="M199" s="78">
+        <v>4429149319.7418003</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B200" t="s">
+        <v>165</v>
+      </c>
+      <c r="C200" s="78">
+        <v>4.6761761114186902</v>
+      </c>
+      <c r="D200" s="78">
+        <v>3.1364005227080001E-2</v>
+      </c>
+      <c r="E200" s="78">
+        <v>12.138550564461299</v>
+      </c>
+      <c r="F200" s="78">
+        <v>79.505103025931405</v>
+      </c>
+      <c r="G200" s="78">
+        <v>1.13649310755889</v>
+      </c>
+      <c r="H200" s="78">
+        <v>123.75185970381</v>
+      </c>
+      <c r="I200" s="78">
+        <v>76499.308486567505</v>
+      </c>
+      <c r="J200" s="78">
+        <v>198148.52477570099</v>
+      </c>
+      <c r="K200" s="78">
+        <v>602832335.05789196</v>
+      </c>
+      <c r="L200" s="78">
+        <v>318588.94245736802</v>
+      </c>
+      <c r="M200" s="78">
+        <v>59950934.2037066</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>171</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{A1049E88-E91C-4B8E-8EF9-DCA11EAD6259}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{B2155832-56BC-4751-9741-A6F13BE1CFA0}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{ADC3D262-1D32-4E12-B412-3B1D5D3D9F37}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{77265A50-0719-4C17-8B79-A27B7B95BB19}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{E0085EF1-7A26-4861-8D9E-81D2B8968C9B}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{EBD7CE15-CD1F-4DF0-BE8D-23BA8E49E289}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{8CC2295C-782D-4047-A47D-04C00C6B45E7}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{CD35B838-1066-4025-97E8-0FFDA5EC533C}"/>
+    <hyperlink ref="B107" r:id="rId3" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{0DB5BD47-4A78-443C-AD02-261B28FAB23E}"/>
+    <hyperlink ref="B113" r:id="rId4" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{7587BBC1-44DE-45FA-A0CF-E93613AF8E85}"/>
+    <hyperlink ref="B112" r:id="rId5" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{F8083329-BAC8-41C9-99E1-E391593DEE07}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{EA198484-9D74-4D76-B251-5A5499C10A3D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId7"/>
